--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="435" windowWidth="24765" windowHeight="14070" activeTab="8"/>
+    <workbookView xWindow="3120" yWindow="435" windowWidth="24765" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="987">
   <si>
     <t>LABEL</t>
   </si>
@@ -2991,6 +2991,9 @@
   </si>
   <si>
     <t>TEMPS DE DISSOLUTION PASTEL</t>
+  </si>
+  <si>
+    <t>$LAB_BOILER</t>
   </si>
 </sst>
 </file>
@@ -3317,7 +3320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3325,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4182,6 +4185,20 @@
       </c>
       <c r="D62" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>986</v>
+      </c>
+      <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -7238,7 +7255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="435" windowWidth="24765" windowHeight="14070"/>
+    <workbookView xWindow="3120" yWindow="435" windowWidth="24765" windowHeight="14070" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -24,8 +29,8 @@
     <sheet name="Menu Data Audit" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -254,15 +259,9 @@
     <t>START&lt;br&gt;RINSING</t>
   </si>
   <si>
-    <t>START&lt;br&gt;RINSING HC</t>
-  </si>
-  <si>
     <t>$LAB_CLEAN_START_RINSING_HC</t>
   </si>
   <si>
-    <t>START RINSING&lt;br&gt;MILK MODULE</t>
-  </si>
-  <si>
     <t>$LAB_CLEAN_START_RINSING_MILKER</t>
   </si>
   <si>
@@ -278,18 +277,6 @@
     <t>$LAB_CLEAN_4</t>
   </si>
   <si>
-    <t>CLEAN 1</t>
-  </si>
-  <si>
-    <t>CLEAN 2</t>
-  </si>
-  <si>
-    <t>CLEAN 3</t>
-  </si>
-  <si>
-    <t>CLEAN 4</t>
-  </si>
-  <si>
     <t>PULIZIA 1</t>
   </si>
   <si>
@@ -2994,13 +2981,31 @@
   </si>
   <si>
     <t>$LAB_BOILER</t>
+  </si>
+  <si>
+    <t>RINSE 1</t>
+  </si>
+  <si>
+    <t>RINSE 2</t>
+  </si>
+  <si>
+    <t>RINSE 3</t>
+  </si>
+  <si>
+    <t>RINSE 4</t>
+  </si>
+  <si>
+    <t>START CLEANING BREWER</t>
+  </si>
+  <si>
+    <t>START CLEANING MILK MODULE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3050,7 +3055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3320,21 +3325,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
@@ -3342,7 +3347,7 @@
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3353,10 +3358,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -3367,10 +3372,10 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -3381,88 +3386,88 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D9" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -3473,38 +3478,38 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3515,116 +3520,116 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B18" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C18" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D18" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B20" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D20" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D21" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3635,271 +3640,271 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B26" t="s">
+        <v>716</v>
+      </c>
+      <c r="C26" t="s">
+        <v>717</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B31" t="s">
+        <v>612</v>
+      </c>
+      <c r="C31" t="s">
+        <v>613</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="3" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B25" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D25" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B26" t="s">
-        <v>722</v>
-      </c>
-      <c r="C26" t="s">
-        <v>723</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B34" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" t="s">
+        <v>532</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B28" t="s">
-        <v>349</v>
-      </c>
-      <c r="C28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>494</v>
-      </c>
-      <c r="B29" t="s">
-        <v>495</v>
-      </c>
-      <c r="C29" t="s">
-        <v>496</v>
-      </c>
-      <c r="D29" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B31" t="s">
-        <v>618</v>
-      </c>
-      <c r="C31" t="s">
-        <v>619</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C41" t="s">
+        <v>572</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B34" t="s">
-        <v>537</v>
-      </c>
-      <c r="C34" t="s">
-        <v>538</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B40" t="s">
-        <v>397</v>
-      </c>
-      <c r="C40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="B41" t="s">
-        <v>577</v>
-      </c>
-      <c r="C41" t="s">
-        <v>578</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -3907,203 +3912,203 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B44" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C44" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B45" t="s">
+        <v>504</v>
+      </c>
+      <c r="C45" t="s">
+        <v>505</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B47" t="s">
+        <v>536</v>
+      </c>
+      <c r="C47" t="s">
+        <v>538</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>713</v>
+      </c>
+      <c r="B49" t="s">
+        <v>477</v>
+      </c>
+      <c r="C49" t="s">
+        <v>714</v>
+      </c>
+      <c r="D49" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>506</v>
+      </c>
+      <c r="B52" t="s">
+        <v>507</v>
+      </c>
+      <c r="C52" t="s">
+        <v>508</v>
+      </c>
+      <c r="D52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B55" t="s">
+        <v>497</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C45" t="s">
-        <v>511</v>
-      </c>
-      <c r="D45" s="3" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" t="s">
+        <v>493</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B47" t="s">
-        <v>542</v>
-      </c>
-      <c r="C47" t="s">
-        <v>544</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>204</v>
-      </c>
-      <c r="B48" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>719</v>
-      </c>
-      <c r="B49" t="s">
-        <v>483</v>
-      </c>
-      <c r="C49" t="s">
-        <v>720</v>
-      </c>
-      <c r="D49" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>512</v>
-      </c>
-      <c r="B52" t="s">
-        <v>513</v>
-      </c>
-      <c r="C52" t="s">
-        <v>514</v>
-      </c>
-      <c r="D52" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="B55" t="s">
-        <v>503</v>
-      </c>
-      <c r="C55" t="s">
-        <v>504</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B56" t="s">
-        <v>497</v>
-      </c>
-      <c r="C56" t="s">
-        <v>499</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4114,52 +4119,52 @@
         <v>58</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C60" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
@@ -4170,12 +4175,12 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -4187,18 +4192,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C63" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D63" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -4211,14 +4216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
@@ -4226,7 +4231,7 @@
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4237,434 +4242,434 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>741</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>742</v>
+      </c>
+      <c r="D15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>740</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>737</v>
+      </c>
+      <c r="B17" t="s">
+        <v>735</v>
+      </c>
+      <c r="C17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>738</v>
+      </c>
+      <c r="B18" t="s">
+        <v>736</v>
+      </c>
+      <c r="C18" t="s">
+        <v>739</v>
+      </c>
+      <c r="D18" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C23" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D23" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>747</v>
-      </c>
-      <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" t="s">
-        <v>748</v>
-      </c>
-      <c r="D15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>746</v>
-      </c>
-      <c r="B16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C16" t="s">
-        <v>487</v>
-      </c>
-      <c r="D16" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>743</v>
-      </c>
-      <c r="B17" t="s">
-        <v>741</v>
-      </c>
-      <c r="C17" t="s">
-        <v>749</v>
-      </c>
-      <c r="D17" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>744</v>
-      </c>
-      <c r="B18" t="s">
-        <v>742</v>
-      </c>
-      <c r="C18" t="s">
-        <v>745</v>
-      </c>
-      <c r="D18" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" t="s">
         <v>833</v>
       </c>
-      <c r="D23" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>263</v>
-      </c>
-      <c r="B25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>269</v>
       </c>
-      <c r="B28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>275</v>
-      </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>627</v>
+      </c>
+      <c r="B31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C31" t="s">
+        <v>636</v>
+      </c>
+      <c r="D31" t="s">
         <v>633</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B32" t="s">
+        <v>630</v>
+      </c>
+      <c r="C32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" t="s">
         <v>634</v>
       </c>
-      <c r="C31" t="s">
-        <v>642</v>
-      </c>
-      <c r="D31" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>631</v>
+      </c>
+      <c r="B33" t="s">
+        <v>632</v>
+      </c>
+      <c r="C33" t="s">
+        <v>616</v>
+      </c>
+      <c r="D33" t="s">
         <v>635</v>
-      </c>
-      <c r="B32" t="s">
-        <v>636</v>
-      </c>
-      <c r="C32" t="s">
-        <v>643</v>
-      </c>
-      <c r="D32" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>637</v>
-      </c>
-      <c r="B33" t="s">
-        <v>638</v>
-      </c>
-      <c r="C33" t="s">
-        <v>622</v>
-      </c>
-      <c r="D33" t="s">
-        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -4674,14 +4679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.5703125" customWidth="1"/>
@@ -4689,7 +4694,7 @@
     <col min="4" max="4" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4700,314 +4705,314 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
         <v>276</v>
       </c>
-      <c r="B2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>278</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
         <v>300</v>
       </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" t="s">
+        <v>733</v>
+      </c>
+      <c r="C17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D17" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" t="s">
+        <v>609</v>
+      </c>
+      <c r="C18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D18" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" t="s">
-        <v>308</v>
-      </c>
-      <c r="D13" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B17" t="s">
-        <v>739</v>
-      </c>
-      <c r="C17" t="s">
-        <v>740</v>
-      </c>
-      <c r="D17" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>614</v>
-      </c>
-      <c r="B18" t="s">
-        <v>615</v>
-      </c>
-      <c r="C18" t="s">
-        <v>616</v>
-      </c>
-      <c r="D18" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B19" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>915</v>
+      </c>
+      <c r="B20" t="s">
+        <v>913</v>
+      </c>
+      <c r="C20" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>916</v>
+      </c>
+      <c r="B21" t="s">
+        <v>914</v>
+      </c>
+      <c r="C21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>919</v>
+      </c>
+      <c r="B22" t="s">
+        <v>917</v>
+      </c>
+      <c r="C22" t="s">
+        <v>918</v>
+      </c>
+      <c r="D22" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>921</v>
       </c>
-      <c r="B20" t="s">
-        <v>919</v>
-      </c>
-      <c r="C20" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>920</v>
+      </c>
+      <c r="C23" t="s">
         <v>922</v>
       </c>
-      <c r="B21" t="s">
-        <v>920</v>
-      </c>
-      <c r="C21" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>925</v>
-      </c>
-      <c r="B22" t="s">
-        <v>923</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>924</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>927</v>
-      </c>
-      <c r="B23" t="s">
-        <v>926</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>928</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>935</v>
-      </c>
-      <c r="B24" t="s">
-        <v>934</v>
-      </c>
-      <c r="C24" t="s">
-        <v>936</v>
-      </c>
       <c r="D24" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -5017,14 +5022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -5032,7 +5037,7 @@
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5043,77 +5048,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>322</v>
       </c>
-      <c r="B2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>325</v>
       </c>
-      <c r="C3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>326</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>327</v>
       </c>
-      <c r="D4" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" t="s">
-        <v>333</v>
-      </c>
       <c r="D5" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D6" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -5122,14 +5127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
@@ -5137,7 +5142,7 @@
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5148,63 +5153,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
         <v>336</v>
       </c>
-      <c r="B2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>341</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>340</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>342</v>
       </c>
-      <c r="D3" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" t="s">
-        <v>348</v>
-      </c>
       <c r="D5" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -5213,14 +5218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -5228,7 +5233,7 @@
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5239,238 +5244,238 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
         <v>353</v>
       </c>
-      <c r="B2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>361</v>
       </c>
-      <c r="B4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" t="s">
         <v>364</v>
       </c>
-      <c r="D4" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>367</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>366</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>368</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>751</v>
+      </c>
+      <c r="B18" t="s">
+        <v>752</v>
+      </c>
+      <c r="C18" t="s">
+        <v>753</v>
+      </c>
+      <c r="D18" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>754</v>
+      </c>
+      <c r="B19" t="s">
+        <v>755</v>
+      </c>
+      <c r="C19" t="s">
+        <v>756</v>
+      </c>
+      <c r="D19" t="s">
         <v>868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>386</v>
-      </c>
-      <c r="B13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B14" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D14" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>395</v>
-      </c>
-      <c r="B15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C15" t="s">
-        <v>394</v>
-      </c>
-      <c r="D15" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>403</v>
-      </c>
-      <c r="B17" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17" t="s">
-        <v>404</v>
-      </c>
-      <c r="D17" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>757</v>
-      </c>
-      <c r="B18" t="s">
-        <v>758</v>
-      </c>
-      <c r="C18" t="s">
-        <v>759</v>
-      </c>
-      <c r="D18" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>760</v>
-      </c>
-      <c r="B19" t="s">
-        <v>761</v>
-      </c>
-      <c r="C19" t="s">
-        <v>762</v>
-      </c>
-      <c r="D19" t="s">
-        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -5479,14 +5484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -5494,7 +5499,7 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5505,88 +5510,88 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
         <v>231</v>
       </c>
-      <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>232</v>
       </c>
-      <c r="D2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
         <v>233</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
         <v>235</v>
       </c>
-      <c r="D3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>239</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>240</v>
       </c>
-      <c r="D5" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>246</v>
-      </c>
       <c r="D7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -5595,14 +5600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="88.7109375" customWidth="1"/>
@@ -5610,7 +5615,7 @@
     <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5621,273 +5626,273 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>552</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>551</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B10" t="s">
         <v>566</v>
       </c>
-      <c r="D2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C11" t="s">
+        <v>573</v>
+      </c>
+      <c r="D11" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D13" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>583</v>
+      </c>
+      <c r="D15" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>565</v>
-      </c>
-      <c r="B7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" t="s">
+        <v>582</v>
+      </c>
+      <c r="D16" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>585</v>
+      </c>
+      <c r="B17" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" t="s">
+        <v>586</v>
+      </c>
+      <c r="D17" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B10" t="s">
-        <v>572</v>
-      </c>
-      <c r="C10" t="s">
-        <v>574</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>589</v>
+      </c>
+      <c r="D18" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>575</v>
-      </c>
-      <c r="B11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C11" t="s">
-        <v>579</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D19" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>582</v>
-      </c>
-      <c r="B13" t="s">
-        <v>581</v>
-      </c>
-      <c r="C13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D20" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B15" t="s">
-        <v>584</v>
-      </c>
-      <c r="C15" t="s">
-        <v>589</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>596</v>
+      </c>
+      <c r="B22" t="s">
+        <v>597</v>
+      </c>
+      <c r="C22" t="s">
+        <v>598</v>
+      </c>
+      <c r="D22" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>587</v>
-      </c>
-      <c r="B16" t="s">
-        <v>586</v>
-      </c>
-      <c r="C16" t="s">
-        <v>588</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>600</v>
+      </c>
+      <c r="B23" t="s">
+        <v>599</v>
+      </c>
+      <c r="C23" t="s">
+        <v>601</v>
+      </c>
+      <c r="D23" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>591</v>
-      </c>
-      <c r="B17" t="s">
-        <v>590</v>
-      </c>
-      <c r="C17" t="s">
-        <v>592</v>
-      </c>
-      <c r="D17" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>594</v>
-      </c>
-      <c r="B18" t="s">
-        <v>593</v>
-      </c>
-      <c r="C18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D18" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>597</v>
-      </c>
-      <c r="B19" t="s">
-        <v>596</v>
-      </c>
-      <c r="C19" t="s">
-        <v>598</v>
-      </c>
-      <c r="D19" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>599</v>
-      </c>
-      <c r="B20" t="s">
-        <v>601</v>
-      </c>
-      <c r="C20" t="s">
-        <v>600</v>
-      </c>
-      <c r="D20" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>602</v>
-      </c>
-      <c r="B22" t="s">
-        <v>603</v>
-      </c>
-      <c r="C22" t="s">
-        <v>604</v>
-      </c>
-      <c r="D22" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>606</v>
-      </c>
-      <c r="B23" t="s">
-        <v>605</v>
-      </c>
-      <c r="C23" t="s">
-        <v>607</v>
-      </c>
-      <c r="D23" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B25" t="s">
+        <v>745</v>
+      </c>
+      <c r="C25" t="s">
+        <v>746</v>
+      </c>
+      <c r="D25" t="s">
         <v>750</v>
-      </c>
-      <c r="B25" t="s">
-        <v>751</v>
-      </c>
-      <c r="C25" t="s">
-        <v>752</v>
-      </c>
-      <c r="D25" t="s">
-        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -5897,14 +5902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
@@ -5912,7 +5917,7 @@
     <col min="4" max="4" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5923,12 +5928,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -5937,12 +5942,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -5951,20 +5956,20 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -5973,40 +5978,40 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D6" t="s">
         <v>726</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D7" t="s">
         <v>727</v>
       </c>
-      <c r="C6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>729</v>
-      </c>
-      <c r="B7" t="s">
-        <v>730</v>
-      </c>
-      <c r="C7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -6015,12 +6020,12 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -6029,12 +6034,12 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -6043,12 +6048,12 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -6057,12 +6062,12 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -6071,12 +6076,12 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -6085,12 +6090,12 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -6102,9 +6107,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -6113,12 +6118,12 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -6127,10 +6132,10 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
@@ -6140,14 +6145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
@@ -6155,7 +6160,7 @@
     <col min="4" max="4" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6166,175 +6171,175 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C4" t="s">
         <v>882</v>
       </c>
-      <c r="B2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>891</v>
+      </c>
+      <c r="B7" t="s">
+        <v>890</v>
+      </c>
+      <c r="C7" t="s">
+        <v>894</v>
+      </c>
+      <c r="D7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>893</v>
+      </c>
+      <c r="B8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C8" t="s">
+        <v>895</v>
+      </c>
+      <c r="D8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>885</v>
-      </c>
-      <c r="B3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
+        <v>903</v>
+      </c>
+      <c r="C10" t="s">
+        <v>906</v>
+      </c>
+      <c r="D10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B11" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>889</v>
-      </c>
-      <c r="B4" t="s">
-        <v>887</v>
-      </c>
-      <c r="C4" t="s">
-        <v>888</v>
-      </c>
-      <c r="D4" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>890</v>
-      </c>
-      <c r="B5" t="s">
-        <v>891</v>
-      </c>
-      <c r="C5" t="s">
-        <v>892</v>
-      </c>
-      <c r="D5" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>895</v>
-      </c>
-      <c r="B6" t="s">
-        <v>893</v>
-      </c>
-      <c r="C6" t="s">
-        <v>894</v>
-      </c>
-      <c r="D6" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>897</v>
-      </c>
-      <c r="B7" t="s">
-        <v>896</v>
-      </c>
-      <c r="C7" t="s">
-        <v>900</v>
-      </c>
-      <c r="D7" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>899</v>
-      </c>
-      <c r="B8" t="s">
-        <v>898</v>
-      </c>
-      <c r="C8" t="s">
-        <v>901</v>
-      </c>
-      <c r="D8" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
         <v>910</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D11" t="s">
         <v>909</v>
       </c>
-      <c r="C10" t="s">
-        <v>912</v>
-      </c>
-      <c r="D10" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>914</v>
-      </c>
-      <c r="B11" t="s">
-        <v>911</v>
-      </c>
-      <c r="C11" t="s">
-        <v>916</v>
-      </c>
-      <c r="D11" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>934</v>
+      </c>
+      <c r="B12" t="s">
+        <v>932</v>
+      </c>
+      <c r="C12" t="s">
+        <v>937</v>
+      </c>
+      <c r="D12" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>935</v>
+      </c>
+      <c r="B13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C13" t="s">
+        <v>938</v>
+      </c>
+      <c r="D13" t="s">
         <v>940</v>
       </c>
-      <c r="B12" t="s">
-        <v>938</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>936</v>
+      </c>
+      <c r="B14" t="s">
         <v>943</v>
       </c>
-      <c r="D12" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
         <v>941</v>
       </c>
-      <c r="B13" t="s">
-        <v>939</v>
-      </c>
-      <c r="C13" t="s">
-        <v>944</v>
-      </c>
-      <c r="D13" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>942</v>
-      </c>
-      <c r="B14" t="s">
-        <v>949</v>
-      </c>
-      <c r="C14" t="s">
-        <v>947</v>
-      </c>
-      <c r="D14" t="s">
-        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -6343,14 +6348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -6358,7 +6363,7 @@
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6369,12 +6374,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -6383,12 +6388,12 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -6397,12 +6402,12 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -6411,12 +6416,12 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -6425,26 +6430,26 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -6453,12 +6458,12 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
@@ -6467,12 +6472,12 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -6481,12 +6486,12 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -6495,12 +6500,12 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -6509,12 +6514,12 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>63</v>
@@ -6523,7 +6528,7 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -6532,14 +6537,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -6547,7 +6552,7 @@
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6558,133 +6563,133 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>517</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>515</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>516</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>718</v>
+      </c>
+      <c r="B10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" t="s">
+        <v>719</v>
+      </c>
+      <c r="D10" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>520</v>
-      </c>
-      <c r="B3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B4" t="s">
-        <v>521</v>
-      </c>
-      <c r="C4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D4" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B6" t="s">
-        <v>527</v>
-      </c>
-      <c r="C6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>533</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>534</v>
-      </c>
-      <c r="D8" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>535</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>724</v>
-      </c>
-      <c r="B10" t="s">
-        <v>763</v>
-      </c>
-      <c r="C10" t="s">
-        <v>725</v>
-      </c>
-      <c r="D10" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
   </sheetData>
@@ -6694,14 +6699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
@@ -6709,7 +6714,7 @@
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6720,356 +6725,356 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
         <v>408</v>
       </c>
-      <c r="B2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>410</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" t="s">
         <v>456</v>
       </c>
-      <c r="D11" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C12" t="s">
-        <v>437</v>
-      </c>
-      <c r="D12" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D20" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" t="s">
-        <v>461</v>
-      </c>
-      <c r="D15" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>449</v>
-      </c>
-      <c r="B16" t="s">
-        <v>447</v>
-      </c>
-      <c r="C16" t="s">
-        <v>448</v>
-      </c>
-      <c r="D16" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B17" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D17" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" t="s">
-        <v>454</v>
-      </c>
-      <c r="D18" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>464</v>
-      </c>
-      <c r="B20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C20" t="s">
-        <v>463</v>
-      </c>
-      <c r="D20" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>944</v>
+      </c>
+      <c r="B21" t="s">
+        <v>945</v>
+      </c>
+      <c r="C21" t="s">
+        <v>970</v>
+      </c>
+      <c r="D21" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>947</v>
+      </c>
+      <c r="B22" t="s">
+        <v>946</v>
+      </c>
+      <c r="C22" t="s">
+        <v>952</v>
+      </c>
+      <c r="D22" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>949</v>
+      </c>
+      <c r="B23" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>951</v>
+      </c>
+      <c r="B24" t="s">
         <v>950</v>
       </c>
-      <c r="B21" t="s">
-        <v>951</v>
-      </c>
-      <c r="C21" t="s">
-        <v>976</v>
-      </c>
-      <c r="D21" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+      <c r="C24" t="s">
         <v>953</v>
       </c>
-      <c r="B22" t="s">
-        <v>952</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D24" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>954</v>
+      </c>
+      <c r="B25" t="s">
+        <v>955</v>
+      </c>
+      <c r="C25" t="s">
+        <v>956</v>
+      </c>
+      <c r="D25" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>958</v>
       </c>
-      <c r="D22" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>955</v>
-      </c>
-      <c r="B23" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>957</v>
-      </c>
-      <c r="B24" t="s">
-        <v>956</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>960</v>
+      </c>
+      <c r="C26" t="s">
+        <v>962</v>
+      </c>
+      <c r="D26" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>964</v>
+      </c>
+      <c r="B27" t="s">
+        <v>963</v>
+      </c>
+      <c r="C27" t="s">
+        <v>965</v>
+      </c>
+      <c r="D27" t="s">
+        <v>966</v>
+      </c>
+      <c r="J27" t="s">
         <v>959</v>
-      </c>
-      <c r="D24" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>960</v>
-      </c>
-      <c r="B25" t="s">
-        <v>961</v>
-      </c>
-      <c r="C25" t="s">
-        <v>962</v>
-      </c>
-      <c r="D25" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>964</v>
-      </c>
-      <c r="B26" t="s">
-        <v>966</v>
-      </c>
-      <c r="C26" t="s">
-        <v>968</v>
-      </c>
-      <c r="D26" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>970</v>
-      </c>
-      <c r="B27" t="s">
-        <v>969</v>
-      </c>
-      <c r="C27" t="s">
-        <v>971</v>
-      </c>
-      <c r="D27" t="s">
-        <v>972</v>
-      </c>
-      <c r="J27" t="s">
-        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -7078,21 +7083,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7103,147 +7108,147 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
         <v>466</v>
       </c>
-      <c r="B2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" t="s">
         <v>467</v>
       </c>
-      <c r="B3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>469</v>
       </c>
-      <c r="D3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>471</v>
       </c>
-      <c r="B4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
         <v>807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D7" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>482</v>
-      </c>
-      <c r="B8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B9" t="s">
-        <v>486</v>
-      </c>
-      <c r="C9" t="s">
-        <v>487</v>
-      </c>
-      <c r="D9" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C10" t="s">
-        <v>492</v>
-      </c>
-      <c r="D10" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C11" t="s">
-        <v>493</v>
-      </c>
-      <c r="D11" t="s">
-        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -7252,14 +7257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
@@ -7267,7 +7272,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7278,10 +7283,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7289,150 +7294,150 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>982</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
       <c r="D10" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>972</v>
+      </c>
+      <c r="C11" t="s">
+        <v>978</v>
+      </c>
+      <c r="D11" t="s">
         <v>979</v>
       </c>
-      <c r="B11" t="s">
-        <v>978</v>
-      </c>
-      <c r="C11" t="s">
-        <v>984</v>
-      </c>
-      <c r="D11" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B12" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C12" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D12" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="435" windowWidth="24765" windowHeight="14070" activeTab="8"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -29,8 +24,8 @@
     <sheet name="Menu Data Audit" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1427">
   <si>
     <t>LABEL</t>
   </si>
@@ -2999,13 +2994,1347 @@
   </si>
   <si>
     <t>START CLEANING MILK MODULE</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ATRAS</t>
+  </si>
+  <si>
+    <t>VOLTA</t>
+  </si>
+  <si>
+    <t>GUARDAR</t>
+  </si>
+  <si>
+    <t>GRAVA</t>
+  </si>
+  <si>
+    <t>INTERRUMPIR</t>
+  </si>
+  <si>
+    <t>ABORTA</t>
+  </si>
+  <si>
+    <t>ACEPTADO</t>
+  </si>
+  <si>
+    <t>ACEITO</t>
+  </si>
+  <si>
+    <t>DESPUES</t>
+  </si>
+  <si>
+    <t>DEPOIS</t>
+  </si>
+  <si>
+    <t>ANTES</t>
+  </si>
+  <si>
+    <t>BOTON</t>
+  </si>
+  <si>
+    <t>BOTAO</t>
+  </si>
+  <si>
+    <t>CIERRA</t>
+  </si>
+  <si>
+    <t>FECHAR</t>
+  </si>
+  <si>
+    <t>CALIBRAR</t>
+  </si>
+  <si>
+    <t>CERRADO</t>
+  </si>
+  <si>
+    <t>CONTINUAR</t>
+  </si>
+  <si>
+    <t>VALOR ACTUAL</t>
+  </si>
+  <si>
+    <t>VALOR ATUAL</t>
+  </si>
+  <si>
+    <t>DECONTADOR</t>
+  </si>
+  <si>
+    <t>DESACTIVADO</t>
+  </si>
+  <si>
+    <t>DESABILITADO</t>
+  </si>
+  <si>
+    <t>DESCUENTO</t>
+  </si>
+  <si>
+    <t>DESCONTO</t>
+  </si>
+  <si>
+    <t>DOSIS</t>
+  </si>
+  <si>
+    <t>DOSAGEM</t>
+  </si>
+  <si>
+    <t>MODIFICA SELECCION</t>
+  </si>
+  <si>
+    <t>ALTERAR SELECAO</t>
+  </si>
+  <si>
+    <t>HABILITADO</t>
+  </si>
+  <si>
+    <t>HABILITAR</t>
+  </si>
+  <si>
+    <t>RAPIDO</t>
+  </si>
+  <si>
+    <t>VIERNES</t>
+  </si>
+  <si>
+    <t>SEXTA-FEIRA</t>
+  </si>
+  <si>
+    <t>OPCIONES GENERALES</t>
+  </si>
+  <si>
+    <t>OPCOES GERAIS</t>
+  </si>
+  <si>
+    <t>AJUSTES GENERALES</t>
+  </si>
+  <si>
+    <t>AJUSTES GERAIS</t>
+  </si>
+  <si>
+    <t>MOLINILLO</t>
+  </si>
+  <si>
+    <t>MOINHO</t>
+  </si>
+  <si>
+    <t>HAZ UN CAFE</t>
+  </si>
+  <si>
+    <t>TOME UM CAFÉ</t>
+  </si>
+  <si>
+    <t>IMPULSOS</t>
+  </si>
+  <si>
+    <t>INHIBIDA</t>
+  </si>
+  <si>
+    <t>INIBIDO</t>
+  </si>
+  <si>
+    <t>ID MAQUINA</t>
+  </si>
+  <si>
+    <t>ID DA MAQUINA</t>
+  </si>
+  <si>
+    <t>LUNES</t>
+  </si>
+  <si>
+    <t>SEGUNDA-FEIRA</t>
+  </si>
+  <si>
+    <t>NUM PAUSAS</t>
+  </si>
+  <si>
+    <t>NUM DE PAUSAS</t>
+  </si>
+  <si>
+    <t>ABIERTO</t>
+  </si>
+  <si>
+    <t>ABERTO</t>
+  </si>
+  <si>
+    <t>POR FAVOR ESPERE</t>
+  </si>
+  <si>
+    <t>Espere...</t>
+  </si>
+  <si>
+    <t>PRESELECCION</t>
+  </si>
+  <si>
+    <t>PRE-SELECAO</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>PRECO</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>PRODUTOS</t>
+  </si>
+  <si>
+    <t>MENU PROGRAMACION</t>
+  </si>
+  <si>
+    <t>MENU DE PROGRAMACAO</t>
+  </si>
+  <si>
+    <t>PROTOCOLO</t>
+  </si>
+  <si>
+    <t>REPITE</t>
+  </si>
+  <si>
+    <t>REPETIR</t>
+  </si>
+  <si>
+    <t>EJECUTA SELECCION</t>
+  </si>
+  <si>
+    <t>ACIONAR SELECAO</t>
+  </si>
+  <si>
+    <t>GUARDADO DATOS,  POR FAVOR ESPERE</t>
+  </si>
+  <si>
+    <t>Gravando dados, favor aguardar</t>
+  </si>
+  <si>
+    <t>SABADO</t>
+  </si>
+  <si>
+    <t>SELECCION</t>
+  </si>
+  <si>
+    <t>SELECAO</t>
+  </si>
+  <si>
+    <t>SALTA CAFE</t>
+  </si>
+  <si>
+    <t>PULAR O CAFÉ</t>
+  </si>
+  <si>
+    <t>VELOCIDAD</t>
+  </si>
+  <si>
+    <t>VELOCIDADE</t>
+  </si>
+  <si>
+    <t>INICIA</t>
+  </si>
+  <si>
+    <t>INICIAR</t>
+  </si>
+  <si>
+    <t>RETRASO INICIAL</t>
+  </si>
+  <si>
+    <t>ATRASO DO INICIO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>DOMINGO</t>
+  </si>
+  <si>
+    <t>TESTAR</t>
+  </si>
+  <si>
+    <t>TEST SELECCION</t>
+  </si>
+  <si>
+    <t>TESTAR SELECAO</t>
+  </si>
+  <si>
+    <t>JUEVES</t>
+  </si>
+  <si>
+    <t>QUINTA-FEIRA</t>
+  </si>
+  <si>
+    <t>MARTES</t>
+  </si>
+  <si>
+    <t>TERCA-FEIRA</t>
+  </si>
+  <si>
+    <t>VOLTAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLTAGEM </t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>AGUAS</t>
+  </si>
+  <si>
+    <t>MIERCOLES</t>
+  </si>
+  <si>
+    <t>QUARTA-FEIRA</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>Por favor espere mientras el motor está en marcha</t>
+  </si>
+  <si>
+    <t>Espere enquanto o motor está girando</t>
+  </si>
+  <si>
+    <t>Al final, introduzca la cantidad en gramos obtenida de la última molida y luego pulse CONTINUAR</t>
+  </si>
+  <si>
+    <t>Quando terminar, digite a quantidade de café que foi moído, em Gramas</t>
+  </si>
+  <si>
+    <t>VALOR INVALIDO</t>
+  </si>
+  <si>
+    <t>Valor inválido</t>
+  </si>
+  <si>
+    <t>GUARDADO EN PROCESO</t>
+  </si>
+  <si>
+    <t>Gravando valor</t>
+  </si>
+  <si>
+    <t>Por favor retire el grupo de café y luego pulse CONTINUAR</t>
+  </si>
+  <si>
+    <t>Remova o Grupo, e pressione CONTINUAR</t>
+  </si>
+  <si>
+    <t>Volver a colocar el grupo en posicion y luego presionar CONTINUAR</t>
+  </si>
+  <si>
+    <t>Coloque o Grupo em posição, e pressione CONTINUAR</t>
+  </si>
+  <si>
+    <t>Cálculo de los impulsos en curso, por favor espere</t>
+  </si>
+  <si>
+    <t>Calculando impulsos, favor esperar...</t>
+  </si>
+  <si>
+    <t>El molinillo está en funcionamiento</t>
+  </si>
+  <si>
+    <t>O Moinho está girando</t>
+  </si>
+  <si>
+    <t>Vuelva a colocar el grupo en posicion y pulse CONTINUAR, o pulse REPETIR para moler nuevamente</t>
+  </si>
+  <si>
+    <t>Coloque o Grupo na posição, e pressione CONTINUAR, ou REPETIR para moer novamente</t>
+  </si>
+  <si>
+    <t>Por favor espere mientras el varigrind está fijando la posición</t>
+  </si>
+  <si>
+    <t>Espere enquanto o Varigrind esta ajustando a posição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DESINSTALACIÓN &lt;br&gt; &lt;br&gt; ¿Está vacía la bandeja de goteo?</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇÃO&lt;br&gt;&lt;br&gt;A bandeja de respingos está vazia?</t>
+  </si>
+  <si>
+    <t>SIM - CONTINUAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DESINSTALACIÓN &lt;br&gt; &lt;br&gt; Retire el café molido y luego presione CONTINUAR</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇÃO&lt;br&gt;&lt;br&gt;Remova a borra do café e pressione CONTINUAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DESINSTALACIÓN &lt;br&gt; &lt;br&gt; Presione INICIAR DESINSTALACIÓN para continuar, INTERRUMPIR para cancelar la operación</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇÃO&lt;br&gt;&lt;br&gt;Pressione INICIAR DESINSTALACAO para continuar, ABORTAR para cancelar a operação</t>
+  </si>
+  <si>
+    <t>LA DESINSTALACIÓN está en curso, por favor espere</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇÂO está rodando, espere...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+LA DESINSTALACIÓN está completa. REINICIE la máquina</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇÃO encerrada, favor DESLIGAR a máquina</t>
+  </si>
+  <si>
+    <t>Hecho. Espere mientras se procesan los datos.</t>
+  </si>
+  <si>
+    <t>Terminado. Processando informações, favor esperar</t>
+  </si>
+  <si>
+    <t>Error al descargar. Por favor intente nuevamente más tarde</t>
+  </si>
+  <si>
+    <t>Erro baixando arquivo EVA-DTS. Tente novamente mais tarde</t>
+  </si>
+  <si>
+    <t>ATENCIÓN: No es posible usar esta selección porque su tamaño de grano es FINO o GRANDE. &lt;br&gt; &lt;br&gt; &lt;br&gt; Seleccione una selección con tamaño de grano DESACTIVADO o REFERENCIA (o edite la selección actual cambiando su tamaño de grano)</t>
+  </si>
+  <si>
+    <t>ATENÇÃO: Não é possivel usar esta seleção porque sua granulometria é FINA ou GROSSA.&lt;br&gt;&lt;br&gt;&lt;br&gt;Escolha uma seleção com a granulometria DESABILITADA ou REFERENCIADA (ou entre na seleção atual, e modifique a opção de granulometria)</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>MANUTENCAO</t>
+  </si>
+  <si>
+    <t>LIMPIEZA/&lt;br&gt;LAVADO</t>
+  </si>
+  <si>
+    <t>LAVAGEM</t>
+  </si>
+  <si>
+    <t>DADOS</t>
+  </si>
+  <si>
+    <t>SELECCIONES</t>
+  </si>
+  <si>
+    <t>SELECOES</t>
+  </si>
+  <si>
+    <t>CALIBRACION ESPRESSO</t>
+  </si>
+  <si>
+    <t>CALIBRAGEM ESPRESSO</t>
+  </si>
+  <si>
+    <t>CALIBRACION SOLUBLES</t>
+  </si>
+  <si>
+    <t>CALIBRAGEM SOLUVEL</t>
+  </si>
+  <si>
+    <t>DISPOSITIVOS</t>
+  </si>
+  <si>
+    <t>TEMPERATURA</t>
+  </si>
+  <si>
+    <t>TEMPERATURAS</t>
+  </si>
+  <si>
+    <t>CANTIDAD&lt;br&gt; PRODUCTOS</t>
+  </si>
+  <si>
+    <t>QUANTIDADE&lt;br&gt;PRODUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SISTEMAS DE&lt;br&gt;PAGO</t>
+  </si>
+  <si>
+    <t>PAYMENT&lt;BR&gt;SYSTEMS</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>DIVERSOS</t>
+  </si>
+  <si>
+    <t>FECHA/HORA</t>
+  </si>
+  <si>
+    <t>RELOGIO</t>
+  </si>
+  <si>
+    <t>CAPPUCCINADOR</t>
+  </si>
+  <si>
+    <t>VIEJO MENU&lt;br&gt; PROG</t>
+  </si>
+  <si>
+    <t>FACTORES DE CALIBRACION ACTUALES</t>
+  </si>
+  <si>
+    <t>fator de calibragem atual</t>
+  </si>
+  <si>
+    <t>POSICION ACTUAL</t>
+  </si>
+  <si>
+    <t>posicao atual</t>
+  </si>
+  <si>
+    <t>POSICION DESEADA</t>
+  </si>
+  <si>
+    <t>posicao desejada</t>
+  </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>atual</t>
+  </si>
+  <si>
+    <t>La información de flujo se actualiza cada vez que presiona "hacer selección"</t>
+  </si>
+  <si>
+    <t>as informacoes de fluxo são atualizadas cada vez que pressionar "executar seleção"</t>
+  </si>
+  <si>
+    <t>INICIA CALIBRACION</t>
+  </si>
+  <si>
+    <t>INICIAR CALIBRAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+RESTABLECER CALIBRACIÓN</t>
+  </si>
+  <si>
+    <t>REINICIALIZAR CALIBRAGEM</t>
+  </si>
+  <si>
+    <t>Si lo desea, puede volver a moler presionando</t>
+  </si>
+  <si>
+    <t>se desejar, voce pode moer novamente pressionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Si lo desea, puede cambiar la apertura del Varigrind utilizando los siguientes controles:</t>
+  </si>
+  <si>
+    <t>se desejar, voce pode ajustar a abertura do Varigrind usando os controles abaixo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+el ajuste automático está HABILITADO</t>
+  </si>
+  <si>
+    <t>regulagem automatica está HABILITADA</t>
+  </si>
+  <si>
+    <t>el ajuste automático está DESHABILITADO"</t>
+  </si>
+  <si>
+    <t>regulagem automatica está DESABILITADA</t>
+  </si>
+  <si>
+    <t>No es posible cambiar la posición actual de Varigrind porque la autorregulación Varigrind está habilitada. &lt;br&gt; Vaya a DISPOSITIVOS&gt; VARIGRIND y desactívela.</t>
+  </si>
+  <si>
+    <t>Não é possivel modificar a posição atual do Varigrind porque a regulagem automática está Habilitada.&lt;br&gt;Vá até DISPOSITIVOS &gt; VARIGRIND e Desabilite-a.</t>
+  </si>
+  <si>
+    <t>INSTALACION</t>
+  </si>
+  <si>
+    <t>INSTALACAO</t>
+  </si>
+  <si>
+    <t>LISTA DE OFFs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVAR RESTABLECER FILTRO H&lt;sub&gt;2&lt;/sub&gt;0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIVAR RESET FILTRO H&lt;sub&gt;2&lt;/sub&gt;0 </t>
+  </si>
+  <si>
+    <t>DECONTADOR FILTRO AGUA</t>
+  </si>
+  <si>
+    <t>DECONTADOR DO FILTRO DE AGUA</t>
+  </si>
+  <si>
+    <t>DECONTADOR GRUPO CAFE</t>
+  </si>
+  <si>
+    <t>DECONTADOR DO GRUPO ESPRESSO</t>
+  </si>
+  <si>
+    <t>DECONTADOR CAFE MOLIDO</t>
+  </si>
+  <si>
+    <t>DECONTADOR DE BORRAS</t>
+  </si>
+  <si>
+    <t>VISUALIZA TEMPERATURA</t>
+  </si>
+  <si>
+    <t>MOSTRAR TEMPERATURAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+como mensaje de CPU</t>
+  </si>
+  <si>
+    <t>como uma mensagem de CPU</t>
+  </si>
+  <si>
+    <t>DESINSTALACION</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+COMIENCE DESINSTALACION</t>
+  </si>
+  <si>
+    <t>INICIAR DESINSTALAÇÃO</t>
+  </si>
+  <si>
+    <t>PRIMERA INSTALACION</t>
+  </si>
+  <si>
+    <t>PRIMEIRA INSTALAÇÃO</t>
+  </si>
+  <si>
+    <t>TEMPERATURA VAPOR</t>
+  </si>
+  <si>
+    <t>TEMPERATURA DO VAPOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PERIODO DE ENJUAGUE</t>
+  </si>
+  <si>
+    <t>TEMPO DE ENXAGUE</t>
+  </si>
+  <si>
+    <t>HABILITAR ENJUAGUE</t>
+  </si>
+  <si>
+    <t>HABILITAR ENXAGUE</t>
+  </si>
+  <si>
+    <t>RETRASO DE ENJUAGUE</t>
+  </si>
+  <si>
+    <t>ATRASO DO ENXAGUE</t>
+  </si>
+  <si>
+    <t>HABILITAR SENSOR DE LECHE</t>
+  </si>
+  <si>
+    <t>HABILITAR SENSOR DO LEITE</t>
+  </si>
+  <si>
+    <t>MUESTRA EL BOTON "LAVADO CAPPUCCINATORE" &lt;br&gt; AL INICIO</t>
+  </si>
+  <si>
+    <t>MOSTRAR BOTÃO&lt;br&gt;"ENXAGUE DO CAPPUCCINADOR"&lt;br&gt;AO INICIAR</t>
+  </si>
+  <si>
+    <t>LAVADO AUTOMÁTICO&lt;BR&gt; A LA HORA</t>
+  </si>
+  <si>
+    <t>ENXAGUE  AUTOMATICO&lt;br&gt;NO HORARIO</t>
+  </si>
+  <si>
+    <t>00:00 para deshabilitarlo</t>
+  </si>
+  <si>
+    <t>00:00 para desabilitar</t>
+  </si>
+  <si>
+    <t>ACTUALIZACIÓN AUTOMÁTICA &lt;br&gt; HORARIO DE LAVADO</t>
+  </si>
+  <si>
+    <t>ATUALIZA AUTOMATICAMENTE&lt;br&gt;HORARIO DE ENXAGUE</t>
+  </si>
+  <si>
+    <t>MENSAJE NUMERO</t>
+  </si>
+  <si>
+    <t>NÚMERO DA MENSAGEM</t>
+  </si>
+  <si>
+    <t>RETRASO VENTILADOR</t>
+  </si>
+  <si>
+    <t>TEMPO DA VENTOINHA</t>
+  </si>
+  <si>
+    <t>DURACIÓN DEL BEEP</t>
+  </si>
+  <si>
+    <t>TEMPO DO BEEP</t>
+  </si>
+  <si>
+    <t>IDIOMA CPU</t>
+  </si>
+  <si>
+    <t>IDIOMA DA CPU</t>
+  </si>
+  <si>
+    <t>BOMBA DE AGUA LATERAL</t>
+  </si>
+  <si>
+    <t>RECIPIENTE AZUCAR</t>
+  </si>
+  <si>
+    <t>RECIPIENTE DO AÇÚCAR</t>
+  </si>
+  <si>
+    <t>LECHE F. TOPPING SWITCH</t>
+  </si>
+  <si>
+    <t>INTERRUPTOR DA ESPUMA DE LEITE</t>
+  </si>
+  <si>
+    <t>HABILITAR AUDITORÍA-DATOS PRIMERO</t>
+  </si>
+  <si>
+    <t>HABILITA LEITURA DE DADOS ANTES</t>
+  </si>
+  <si>
+    <t>CODIGO MAQUINA</t>
+  </si>
+  <si>
+    <t>CODIGO DA MAQUINA</t>
+  </si>
+  <si>
+    <t>PRODUCTO LATTE MACCHIATO</t>
+  </si>
+  <si>
+    <t>PRODUTO LATTE MACCHIATO</t>
+  </si>
+  <si>
+    <t>EV AGUA LATTE MACCIATO</t>
+  </si>
+  <si>
+    <t>MODALIDAD LLAVE&lt;br&gt; HARDWARE FREEVEND</t>
+  </si>
+  <si>
+    <t>MODO CHAVE&lt;br&gt;FREEVEND</t>
+  </si>
+  <si>
+    <t>ACTIVAR FREEVEND AHORA</t>
+  </si>
+  <si>
+    <t>ATIVAR FREEVEND AGORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Durará la cantidad de horas indicadas</t>
+  </si>
+  <si>
+    <t>Permanecerá pelo numero de horas indicado</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>INICIA AHORA</t>
+  </si>
+  <si>
+    <t>INICIAR AGORA</t>
+  </si>
+  <si>
+    <t>FREEVEND E' &lt;b style='color:#fff'&gt;ACTIVO&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>FREEVEND ESTÁ &lt;b style='color:#fff'&gt;ATIVADO&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>LEITE DO LATTE MACCIATO</t>
+  </si>
+  <si>
+    <t>FREEVEND terminará el</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREEVEND irá terminar às </t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>HORA VERANO</t>
+  </si>
+  <si>
+    <t>HORARIO DE VERAO</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>mês</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
+  <si>
+    <t>TERMINO</t>
+  </si>
+  <si>
+    <t>ENCIENDE</t>
+  </si>
+  <si>
+    <t>ATIVAR</t>
+  </si>
+  <si>
+    <t>APAGA</t>
+  </si>
+  <si>
+    <t>DESATIVAR</t>
+  </si>
+  <si>
+    <t>LAVADO</t>
+  </si>
+  <si>
+    <t>INICIAR&lt;br&gt;LAVAGEM</t>
+  </si>
+  <si>
+    <t>LAVADO SANITARIO</t>
+  </si>
+  <si>
+    <t>INICIAR&lt;br&gt;LAVAGEM QUENTE</t>
+  </si>
+  <si>
+    <t>LAVADO CAPPUCCINATORE</t>
+  </si>
+  <si>
+    <t>INICIAR LAVAGEM&lt;br&gt;CAPPUCCINADOR</t>
+  </si>
+  <si>
+    <t>LIMPIEZA 1</t>
+  </si>
+  <si>
+    <t>LAVAGEM 1</t>
+  </si>
+  <si>
+    <t>LIMPIEZA 2</t>
+  </si>
+  <si>
+    <t>LAVAGEM 2</t>
+  </si>
+  <si>
+    <t>LIMPIEZA 3</t>
+  </si>
+  <si>
+    <t>LAVAGEM 3</t>
+  </si>
+  <si>
+    <t>LIMPIEZA 4</t>
+  </si>
+  <si>
+    <t>LAVAGEM 4</t>
+  </si>
+  <si>
+    <t>LAVADO AUTOMATICO A LA HORA</t>
+  </si>
+  <si>
+    <t>HORARIO DE LAVAGEM AUTOMATICA</t>
+  </si>
+  <si>
+    <t>00:00 PARA DESHABILITAR</t>
+  </si>
+  <si>
+    <t>PROGRAMACION</t>
+  </si>
+  <si>
+    <t>PROGRAMAÇÃO</t>
+  </si>
+  <si>
+    <t>PARCIAL</t>
+  </si>
+  <si>
+    <t>FACTOR DE ESCALA</t>
+  </si>
+  <si>
+    <t>FATOR DE ESCALA</t>
+  </si>
+  <si>
+    <t>NUM REPETICIONES</t>
+  </si>
+  <si>
+    <t>número de repetições</t>
+  </si>
+  <si>
+    <t>PRECIO HAPPY</t>
+  </si>
+  <si>
+    <t>preço happy hour</t>
+  </si>
+  <si>
+    <t>SECUENCIA CAFE</t>
+  </si>
+  <si>
+    <t>SEQUENCIA DO CAFÉ</t>
+  </si>
+  <si>
+    <t>AGUA CAFE</t>
+  </si>
+  <si>
+    <t>AGUA DO CAFÉ</t>
+  </si>
+  <si>
+    <t>MOLINILLO CAFE</t>
+  </si>
+  <si>
+    <t>MOINHO CAFÉ</t>
+  </si>
+  <si>
+    <t>PRE-INFUSAO</t>
+  </si>
+  <si>
+    <t>PRESION GRUPO</t>
+  </si>
+  <si>
+    <t>PRESSAO DO GRUPO</t>
+  </si>
+  <si>
+    <t>DESHABIL.</t>
+  </si>
+  <si>
+    <t>FINO</t>
+  </si>
+  <si>
+    <t>REFEREN.</t>
+  </si>
+  <si>
+    <t>REFERENCIADO</t>
+  </si>
+  <si>
+    <t>APROXIMADA</t>
+  </si>
+  <si>
+    <t>GROSSO</t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
+  </si>
+  <si>
+    <t>DURAÇÃO</t>
+  </si>
+  <si>
+    <t>BOLSA TÈ</t>
+  </si>
+  <si>
+    <t>SAQUINHO DE CHÁ</t>
+  </si>
+  <si>
+    <t>LATTE MACCHIATO&lt;br&gt; RETRASO GRUPO</t>
+  </si>
+  <si>
+    <t>LATTE MACCHIATO&lt;br&gt;INICIO DO GRUPO</t>
+  </si>
+  <si>
+    <t>LECHE FRESCO&lt;br&gt; CANTIDAD</t>
+  </si>
+  <si>
+    <t>LEITE FRESCO&lt;br&gt;QNT</t>
+  </si>
+  <si>
+    <t>LECHE FRESCO&lt;br&gt; RETRASO</t>
+  </si>
+  <si>
+    <t>LEITE FRESCO&lt;br&gt;RETRASO</t>
+  </si>
+  <si>
+    <t>EV AIRE LECHE FRESCO</t>
+  </si>
+  <si>
+    <t>EV AR DO LEITE FRESCO</t>
+  </si>
+  <si>
+    <t>EV AIRE LECHE FRESCO&lt;br&gt; RETRASO</t>
+  </si>
+  <si>
+    <t>EV AR DO LEITE FRESCO&lt;br&gt;RETRASO</t>
+  </si>
+  <si>
+    <t>USA MOLINILLO 2</t>
+  </si>
+  <si>
+    <t>USAR MOINHO 2</t>
+  </si>
+  <si>
+    <t>REPETIR CAFÉ</t>
+  </si>
+  <si>
+    <t>FLUJO</t>
+  </si>
+  <si>
+    <t>FLUXO</t>
+  </si>
+  <si>
+    <t>LENTO</t>
+  </si>
+  <si>
+    <t>MEDIO</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>OTRO</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>DIAMETRO MOLINILLO</t>
+  </si>
+  <si>
+    <t>DIAMETRO DO GRUPO</t>
+  </si>
+  <si>
+    <t>POSICION DESCANSO</t>
+  </si>
+  <si>
+    <t>POSIÇÃO DE PARADA</t>
+  </si>
+  <si>
+    <t>HABILITA CALIB TIEMPO</t>
+  </si>
+  <si>
+    <t>AJUSTE&lt;br&gt;AUTOMATICO</t>
+  </si>
+  <si>
+    <t>DETECCION BANDEJA DE GOTEO</t>
+  </si>
+  <si>
+    <t>SENSOR BANDEJA RESPINGO</t>
+  </si>
+  <si>
+    <t>UMBRAL DEL SENSOR DE VASO</t>
+  </si>
+  <si>
+    <t>LIMIAR DO SENSOR DE COPO</t>
+  </si>
+  <si>
+    <t>SENSOR CAFE</t>
+  </si>
+  <si>
+    <t>SENSOR DE CAFÉ</t>
+  </si>
+  <si>
+    <t>POSICION</t>
+  </si>
+  <si>
+    <t>POSIÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR DESEADO</t>
+  </si>
+  <si>
+    <t>valor desejado</t>
+  </si>
+  <si>
+    <t>HABILITA REGULACION AUTOMATICA</t>
+  </si>
+  <si>
+    <t>HABILITAR REGUAGEM AUTOMATICA</t>
+  </si>
+  <si>
+    <t>NUMERO MUESTRAS</t>
+  </si>
+  <si>
+    <t>NUMERO&lt;br&gt;TESTES</t>
+  </si>
+  <si>
+    <t>SELECCIÓN DE &lt;br&gt; REFERENCIA</t>
+  </si>
+  <si>
+    <t>SELEÇAO DE&lt;br&gt;REFERENCIA</t>
+  </si>
+  <si>
+    <t>FLUJO DE REFERENCIA</t>
+  </si>
+  <si>
+    <t>FLUXO DE&lt;br&gt;REFERENCIA</t>
+  </si>
+  <si>
+    <t>POSICIÓN DE &lt;br&gt; REFERENCIA</t>
+  </si>
+  <si>
+    <t>POSICAO DE&lt;br&gt;REFERENCIA</t>
+  </si>
+  <si>
+    <t>Ultimo flujo /pos:&lt;br&gt;presiona  &lt;b&gt;HACER SELECION&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Ultimo fluxo/pos:&lt;br&gt;clica no &lt;b&gt;INICIAR SELECAO&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>GUARDA ESTOS VALORES</t>
+  </si>
+  <si>
+    <t>GRAVAR ESTES VALORES</t>
+  </si>
+  <si>
+    <t>VELOCIDAD DE EROGACION</t>
+  </si>
+  <si>
+    <t>VELOCIDADE DE DISTRIBUIÇÃO</t>
+  </si>
+  <si>
+    <t>TESTE DO MODEM</t>
+  </si>
+  <si>
+    <t>PRUEBA ABSORCION GRUPO</t>
+  </si>
+  <si>
+    <t>TESTE DO GRUPO</t>
+  </si>
+  <si>
+    <t>PRUEBA ABSORCION MOTORREDUCTOR</t>
+  </si>
+  <si>
+    <t>TESTE DO MOTOR</t>
+  </si>
+  <si>
+    <t>EL TEST ESTA INIZIANDO</t>
+  </si>
+  <si>
+    <t>Iniciando Teste</t>
+  </si>
+  <si>
+    <t>La prueba se está ejecutando, espere ... &lt;br&gt; Fase actual:</t>
+  </si>
+  <si>
+    <t>Teste em curso, espere...&lt;br&gt;etapa atual</t>
+  </si>
+  <si>
+    <t>EL TEST HA TERMINADO</t>
+  </si>
+  <si>
+    <t>Teste Encerrado</t>
+  </si>
+  <si>
+    <t>PRIMER CAFE</t>
+  </si>
+  <si>
+    <t>PRIMEIRO CAFÉ</t>
+  </si>
+  <si>
+    <t>TIEMPO CALENTAMIENTO</t>
+  </si>
+  <si>
+    <t>TEMPO DE AQUECIMENTO</t>
+  </si>
+  <si>
+    <t>CALENTADOR</t>
+  </si>
+  <si>
+    <t>AQUECEDOR</t>
+  </si>
+  <si>
+    <t>CALDERA</t>
+  </si>
+  <si>
+    <t>CALDEIRA</t>
+  </si>
+  <si>
+    <t>Temperatura actual</t>
+  </si>
+  <si>
+    <t>Temperatura atual</t>
+  </si>
+  <si>
+    <t>SELECCIONE UN DECONTADOR</t>
+  </si>
+  <si>
+    <t>SELEZIONE UM&lt;br&gt;DECONTADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACIDAD&lt;br&gt;CONTENEDOR </t>
+  </si>
+  <si>
+    <t>CAPACIDADE&lt;br&gt;RECIPIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVISO A </t>
+  </si>
+  <si>
+    <t>AVISO A</t>
+  </si>
+  <si>
+    <t>HABILITA STOP PRODUCTO</t>
+  </si>
+  <si>
+    <t>HABILITA BLOQUEIO DE PRODUTO</t>
+  </si>
+  <si>
+    <t>TARJETA RFID</t>
+  </si>
+  <si>
+    <t>CARTAO RFID</t>
+  </si>
+  <si>
+    <t>TIPO MONEDERO</t>
+  </si>
+  <si>
+    <t>TIPO DE MOEDEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARALELA VENTA INDIVIDUAL </t>
+  </si>
+  <si>
+    <t>PARALELO - VENDA ÚNICA</t>
+  </si>
+  <si>
+    <t>PARALELA VENTA MULTIPLE</t>
+  </si>
+  <si>
+    <t>PARALELO - MULTIVEND</t>
+  </si>
+  <si>
+    <t>SEGURA PREÇO</t>
+  </si>
+  <si>
+    <t>PRECIOS &lt;br&gt; NÚMERO DECIMALES</t>
+  </si>
+  <si>
+    <t>PRECO&lt;br&gt;DECIMAIS</t>
+  </si>
+  <si>
+    <t>HABILITA CAMBIO</t>
+  </si>
+  <si>
+    <t>HABILITA DEVOLUÇÃO</t>
+  </si>
+  <si>
+    <t>CREDITO MAXIMO</t>
+  </si>
+  <si>
+    <t>CAMBIO MAX</t>
+  </si>
+  <si>
+    <t>TROCO MAXIMO</t>
+  </si>
+  <si>
+    <t>TIPO DE VENTA</t>
+  </si>
+  <si>
+    <t>TIPO DE VENDA</t>
+  </si>
+  <si>
+    <t>VALOR TOKEN</t>
+  </si>
+  <si>
+    <t>VALOR DA FICHA</t>
+  </si>
+  <si>
+    <t>LECTOR DE BILLETES</t>
+  </si>
+  <si>
+    <t>ACEITADOR DE CEDULAS</t>
+  </si>
+  <si>
+    <t>CAMBIO MONEDA</t>
+  </si>
+  <si>
+    <t>TROCO EM MOEDAS</t>
+  </si>
+  <si>
+    <t>NO CAMBIO MONEDA</t>
+  </si>
+  <si>
+    <t>SEM TROCO EM MOEDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DIRECCION VIDTS</t>
+  </si>
+  <si>
+    <t>ENDERECO VIDTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CRÉDITO MÁXIMO CON TARJETA</t>
+  </si>
+  <si>
+    <t>CREDITO MAX CARTAO</t>
+  </si>
+  <si>
+    <t>LISTA PRECIO CASH</t>
+  </si>
+  <si>
+    <t>LISTA DE PRECOS DINHEIRO</t>
+  </si>
+  <si>
+    <t>LISTA PRECIO CASHLESS</t>
+  </si>
+  <si>
+    <t>LISTA DE PRECOS CARTAO</t>
+  </si>
+  <si>
+    <t>ACTUALIZA DATOS</t>
+  </si>
+  <si>
+    <t>REACTUALIZA DATOS</t>
+  </si>
+  <si>
+    <t>RESTABLECE DATOS PARCIALES</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>MENU PROG ANTIGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3048,14 +4377,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3325,29 +4678,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3360,8 +4715,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -3374,8 +4735,14 @@
       <c r="D2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>988</v>
+      </c>
+      <c r="F2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -3388,16 +4755,28 @@
       <c r="D3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>557</v>
       </c>
       <c r="B4" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>992</v>
+      </c>
+      <c r="F4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>384</v>
       </c>
@@ -3410,8 +4789,14 @@
       <c r="D5" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>994</v>
+      </c>
+      <c r="F5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -3424,8 +4809,14 @@
       <c r="D6" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -3438,8 +4829,14 @@
       <c r="D7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>542</v>
       </c>
@@ -3452,8 +4849,14 @@
       <c r="D8" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>925</v>
       </c>
@@ -3466,8 +4869,14 @@
       <c r="D9" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -3480,8 +4889,14 @@
       <c r="D10" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -3494,8 +4909,14 @@
       <c r="D11" s="3" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>533</v>
       </c>
@@ -3508,8 +4929,14 @@
       <c r="D12" s="3" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3522,8 +4949,14 @@
       <c r="D13" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -3533,8 +4966,14 @@
       <c r="C14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -3547,8 +4986,14 @@
       <c r="D15" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -3561,8 +5006,14 @@
       <c r="D16" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -3572,8 +5023,14 @@
       <c r="C17" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>728</v>
       </c>
@@ -3586,8 +5043,14 @@
       <c r="D18" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -3600,8 +5063,14 @@
       <c r="D19" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>614</v>
       </c>
@@ -3614,8 +5083,14 @@
       <c r="D20" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -3628,8 +5103,14 @@
       <c r="D21" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3642,8 +5123,14 @@
       <c r="D22" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -3656,8 +5143,14 @@
       <c r="D23" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -3670,8 +5163,14 @@
       <c r="D24" s="3" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>540</v>
       </c>
@@ -3684,8 +5183,14 @@
       <c r="D25" s="3" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>715</v>
       </c>
@@ -3696,8 +5201,14 @@
         <v>717</v>
       </c>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -3710,8 +5221,14 @@
       <c r="D27" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>345</v>
       </c>
@@ -3724,8 +5241,14 @@
       <c r="D28" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -3738,8 +5261,14 @@
       <c r="D29" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -3752,8 +5281,14 @@
       <c r="D30" s="3" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>611</v>
       </c>
@@ -3766,8 +5301,14 @@
       <c r="D31" s="3" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F31" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -3780,8 +5321,14 @@
       <c r="D32" s="3" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>138</v>
       </c>
@@ -3794,8 +5341,14 @@
       <c r="D33" s="3" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>530</v>
       </c>
@@ -3808,8 +5361,14 @@
       <c r="D34" s="3" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3819,8 +5378,14 @@
       <c r="C35" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -3833,8 +5398,14 @@
       <c r="D36" s="3" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>177</v>
       </c>
@@ -3847,8 +5418,14 @@
       <c r="D37" s="3" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -3861,8 +5438,14 @@
       <c r="D38" s="3" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -3875,8 +5458,14 @@
       <c r="D39" s="3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>390</v>
       </c>
@@ -3889,8 +5478,14 @@
       <c r="D40" s="3" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>570</v>
       </c>
@@ -3903,16 +5498,25 @@
       <c r="D41" s="3" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -3925,8 +5529,14 @@
       <c r="D43" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>603</v>
       </c>
@@ -3939,8 +5549,14 @@
       <c r="D44" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>503</v>
       </c>
@@ -3953,8 +5569,14 @@
       <c r="D45" s="3" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -3967,8 +5589,14 @@
       <c r="D46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>537</v>
       </c>
@@ -3981,8 +5609,14 @@
       <c r="D47" s="3" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -3995,8 +5629,14 @@
       <c r="D48" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>713</v>
       </c>
@@ -4009,8 +5649,14 @@
       <c r="D49" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -4023,8 +5669,14 @@
       <c r="D50" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -4037,8 +5689,14 @@
       <c r="D51" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>506</v>
       </c>
@@ -4051,8 +5709,14 @@
       <c r="D52" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -4065,8 +5729,14 @@
       <c r="D53" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
@@ -4079,8 +5749,14 @@
       <c r="D54" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>499</v>
       </c>
@@ -4093,8 +5769,14 @@
       <c r="D55" s="3" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
         <v>492</v>
       </c>
@@ -4107,8 +5789,14 @@
       <c r="D56" s="3" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4121,8 +5809,14 @@
       <c r="D57" s="3" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
         <v>189</v>
       </c>
@@ -4135,8 +5829,14 @@
       <c r="D58" s="3" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
@@ -4149,8 +5849,14 @@
       <c r="D59" s="3" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
         <v>495</v>
       </c>
@@ -4163,8 +5869,14 @@
       <c r="D60" s="3" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
@@ -4177,8 +5889,14 @@
       <c r="D61" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>957</v>
       </c>
@@ -4192,7 +5910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>980</v>
       </c>
@@ -4216,22 +5934,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4244,8 +5964,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4255,8 +5981,14 @@
       <c r="C2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4266,8 +5998,14 @@
       <c r="C3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -4277,8 +6015,14 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -4291,8 +6035,14 @@
       <c r="D5" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -4305,8 +6055,14 @@
       <c r="D6" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -4319,8 +6075,14 @@
       <c r="D7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4330,8 +6092,14 @@
       <c r="C8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -4344,8 +6112,14 @@
       <c r="D9" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -4358,8 +6132,14 @@
       <c r="D10" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -4369,8 +6149,14 @@
       <c r="C11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -4383,8 +6169,14 @@
       <c r="D12" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -4397,8 +6189,14 @@
       <c r="D13" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -4411,8 +6209,14 @@
       <c r="D14" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>741</v>
       </c>
@@ -4425,8 +6229,14 @@
       <c r="D15" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>740</v>
       </c>
@@ -4439,8 +6249,14 @@
       <c r="D16" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>747</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>737</v>
       </c>
@@ -4453,8 +6269,14 @@
       <c r="D17" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -4467,8 +6289,14 @@
       <c r="D18" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4481,8 +6309,14 @@
       <c r="D19" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -4495,8 +6329,14 @@
       <c r="D20" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -4509,8 +6349,14 @@
       <c r="D21" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -4523,8 +6369,14 @@
       <c r="D22" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -4537,8 +6389,14 @@
       <c r="D23" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -4551,8 +6409,14 @@
       <c r="D24" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -4565,8 +6429,14 @@
       <c r="D25" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -4579,16 +6449,25 @@
       <c r="D26" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>261</v>
       </c>
       <c r="B27" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -4601,8 +6480,14 @@
       <c r="D28" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -4615,8 +6500,14 @@
       <c r="D29" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>269</v>
       </c>
@@ -4629,8 +6520,14 @@
       <c r="D30" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>627</v>
       </c>
@@ -4643,8 +6540,14 @@
       <c r="D31" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>629</v>
       </c>
@@ -4657,8 +6560,14 @@
       <c r="D32" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>631</v>
       </c>
@@ -4670,6 +6579,12 @@
       </c>
       <c r="D33" t="s">
         <v>635</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
@@ -4679,22 +6594,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4707,8 +6624,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -4721,8 +6644,14 @@
       <c r="D2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -4735,8 +6664,14 @@
       <c r="D3" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -4749,8 +6684,14 @@
       <c r="D4" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -4760,8 +6701,14 @@
       <c r="C5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -4774,8 +6721,14 @@
       <c r="D6" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -4788,8 +6741,14 @@
       <c r="D7" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -4802,8 +6761,14 @@
       <c r="D8" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -4816,8 +6781,14 @@
       <c r="D9" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -4830,8 +6801,14 @@
       <c r="D10" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -4844,8 +6821,14 @@
       <c r="D11" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -4858,8 +6841,14 @@
       <c r="D12" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -4872,8 +6861,14 @@
       <c r="D13" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -4886,8 +6881,14 @@
       <c r="D14" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -4900,8 +6901,14 @@
       <c r="D15" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -4914,8 +6921,14 @@
       <c r="D16" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -4928,8 +6941,14 @@
       <c r="D17" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>608</v>
       </c>
@@ -4942,16 +6961,25 @@
       <c r="D18" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>711</v>
       </c>
       <c r="B19" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>915</v>
       </c>
@@ -4961,8 +6989,14 @@
       <c r="C20" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>916</v>
       </c>
@@ -4972,8 +7006,14 @@
       <c r="C21" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>919</v>
       </c>
@@ -4986,8 +7026,14 @@
       <c r="D22" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>921</v>
       </c>
@@ -5000,8 +7046,14 @@
       <c r="D23" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>929</v>
       </c>
@@ -5013,6 +7065,12 @@
       </c>
       <c r="D24" t="s">
         <v>931</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -5022,22 +7080,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5050,8 +7109,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -5064,8 +7129,14 @@
       <c r="D2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -5078,8 +7149,14 @@
       <c r="D3" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>322</v>
       </c>
@@ -5092,8 +7169,14 @@
       <c r="D4" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -5106,8 +7189,14 @@
       <c r="D5" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>606</v>
       </c>
@@ -5119,6 +7208,12 @@
       </c>
       <c r="D6" t="s">
         <v>854</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1379</v>
       </c>
     </row>
   </sheetData>
@@ -5127,22 +7222,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5155,8 +7252,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -5169,8 +7272,14 @@
       <c r="D2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -5183,8 +7292,14 @@
       <c r="D3" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -5197,8 +7312,14 @@
       <c r="D4" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -5210,6 +7331,12 @@
       </c>
       <c r="D5" t="s">
         <v>858</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -5218,264 +7345,385 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>868</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -5484,22 +7732,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5512,8 +7762,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -5526,8 +7782,14 @@
       <c r="D2" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -5540,8 +7802,14 @@
       <c r="D3" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -5554,8 +7822,14 @@
       <c r="D4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -5568,8 +7842,14 @@
       <c r="D5" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -5579,8 +7859,14 @@
       <c r="C6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -5592,6 +7878,12 @@
       </c>
       <c r="D7" t="s">
         <v>874</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1424</v>
       </c>
     </row>
   </sheetData>
@@ -5600,22 +7892,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5628,260 +7922,414 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E8" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E11" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E13" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75">
+      <c r="A18" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E20" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="105">
       <c r="A25" t="s">
         <v>744</v>
       </c>
@@ -5893,6 +8341,12 @@
       </c>
       <c r="D25" t="s">
         <v>750</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -5902,22 +8356,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5930,8 +8384,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>696</v>
       </c>
@@ -5944,8 +8404,14 @@
       <c r="D2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>697</v>
       </c>
@@ -5958,16 +8424,25 @@
       <c r="D3" s="3" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>698</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>699</v>
       </c>
@@ -5980,8 +8455,14 @@
       <c r="D5" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>720</v>
       </c>
@@ -5994,8 +8475,14 @@
       <c r="D6" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>723</v>
       </c>
@@ -6008,8 +8495,14 @@
       <c r="D7" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>700</v>
       </c>
@@ -6022,8 +8515,14 @@
       <c r="D8" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>701</v>
       </c>
@@ -6036,8 +8535,14 @@
       <c r="D9" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>702</v>
       </c>
@@ -6050,8 +8555,14 @@
       <c r="D10" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75">
       <c r="A11" t="s">
         <v>703</v>
       </c>
@@ -6064,8 +8575,14 @@
       <c r="D11" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>704</v>
       </c>
@@ -6078,8 +8595,14 @@
       <c r="D12" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>705</v>
       </c>
@@ -6092,8 +8615,14 @@
       <c r="D13" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>706</v>
       </c>
@@ -6106,8 +8635,14 @@
       <c r="D14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>707</v>
       </c>
@@ -6120,8 +8655,14 @@
       <c r="D15" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>708</v>
       </c>
@@ -6134,8 +8675,14 @@
       <c r="D16" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
@@ -6145,201 +8692,279 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="1" max="4" width="36.7109375" style="6"/>
+    <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="36.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E8" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>942</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -6348,187 +8973,261 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>686</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1192</v>
       </c>
     </row>
   </sheetData>
@@ -6537,160 +9236,223 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="25.140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="6" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="E10" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6699,380 +9461,520 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E20" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>945</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6" t="s">
         <v>949</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>955</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>966</v>
       </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="J27" t="s">
         <v>959</v>
       </c>
@@ -7083,21 +9985,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7110,8 +10014,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -7124,8 +10034,14 @@
       <c r="D2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -7138,8 +10054,14 @@
       <c r="D3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -7152,8 +10074,14 @@
       <c r="D4" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>468</v>
       </c>
@@ -7166,8 +10094,14 @@
       <c r="D5" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -7180,8 +10114,14 @@
       <c r="D6" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -7194,8 +10134,14 @@
       <c r="D7" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -7208,8 +10154,14 @@
       <c r="D8" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>479</v>
       </c>
@@ -7222,8 +10174,14 @@
       <c r="D9" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -7236,8 +10194,14 @@
       <c r="D10" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -7249,6 +10213,12 @@
       </c>
       <c r="D11" t="s">
         <v>807</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -7257,22 +10227,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7285,8 +10256,14 @@
       <c r="D1" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -7299,8 +10276,14 @@
       <c r="D2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -7313,8 +10296,14 @@
       <c r="D3" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -7327,8 +10316,14 @@
       <c r="D4" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -7341,8 +10336,14 @@
       <c r="D5" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -7355,8 +10356,14 @@
       <c r="D6" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -7369,8 +10376,14 @@
       <c r="D7" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -7383,8 +10396,14 @@
       <c r="D8" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -7397,8 +10416,14 @@
       <c r="D9" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -7411,8 +10436,14 @@
       <c r="D10" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>973</v>
       </c>
@@ -7426,7 +10457,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>975</v>
       </c>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -24,8 +29,8 @@
     <sheet name="Menu Data Audit" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1769,9 +1774,6 @@
     <t>Si prega di attendere mentre il varigrind sta regolando la posizione</t>
   </si>
   <si>
-    <t>DISINTALLATION&lt;br&gt;&lt;br&gt;Is driptray empty?</t>
-  </si>
-  <si>
     <t>$TASK_DISINSTALL_WAIT1</t>
   </si>
   <si>
@@ -1787,27 +1789,18 @@
     <t>DISINTALLAZIONE&lt;br&gt;&lt;br&gt;La Driptray è vuota?</t>
   </si>
   <si>
-    <t>DISINTALLATION&lt;br&gt;&lt;br&gt;Please remove coffee grounds, then press CONTINUE</t>
-  </si>
-  <si>
     <t>$TASK_DISINSTALL_WAIT2</t>
   </si>
   <si>
     <t>DISINTALLAZIONE&lt;br&gt;&lt;br&gt;Rimuovere i fondi caffè e poi premere CONTINUA</t>
   </si>
   <si>
-    <t>DISINTALLATION&lt;br&gt;&lt;br&gt;Press START DISINSTALLATION to continue, ABORT to cancel the operation</t>
-  </si>
-  <si>
     <t>$TASK_DISINSTALL_WAIT3</t>
   </si>
   <si>
     <t>DISINTALLAZIONE&lt;br&gt;&lt;br&gt;Premere INIZIO DISINTALLAZIONE per continuare, ABORT per cancellare l'operazione</t>
   </si>
   <si>
-    <t>DISINTALLATION is running, please wait</t>
-  </si>
-  <si>
     <t>$TASK_DISINSTALL_WAIT4</t>
   </si>
   <si>
@@ -1818,9 +1811,6 @@
   </si>
   <si>
     <t>La DISINSTALLAZIONE è terminata. Si prega di RIAVVIARE la macchina</t>
-  </si>
-  <si>
-    <t>DISINTALLATION finished, please SHUT DOWN the machine</t>
   </si>
   <si>
     <t>$TASK_DA_WAIT1</t>
@@ -4328,13 +4318,28 @@
   </si>
   <si>
     <t>MENU PROG ANTIGO</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION&lt;br&gt;&lt;br&gt;Please remove coffee grounds, then press CONTINUE</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION&lt;br&gt;&lt;br&gt;Press START DISINSTALLATION to continue, ABORT to cancel the operation</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION is running, please wait</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION finished, please SHUT DOWN the machine</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION&lt;br&gt;&lt;br&gt;Is driptray empty?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4408,7 +4413,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4678,21 +4683,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
@@ -4702,7 +4707,7 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4713,16 +4718,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -4733,16 +4738,16 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E2" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="F2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -4753,16 +4758,16 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E3" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="F3" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>557</v>
       </c>
@@ -4770,13 +4775,13 @@
         <v>558</v>
       </c>
       <c r="E4" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="F4" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>384</v>
       </c>
@@ -4787,16 +4792,16 @@
         <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E5" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="F5" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -4807,16 +4812,16 @@
         <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E6" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F6" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -4827,16 +4832,16 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E7" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F7" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>542</v>
       </c>
@@ -4847,36 +4852,36 @@
         <v>544</v>
       </c>
       <c r="D8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E8" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F8" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B9" t="s">
         <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D9" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E9" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F9" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -4887,16 +4892,16 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E10" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F10" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -4907,16 +4912,16 @@
         <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F11" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>533</v>
       </c>
@@ -4927,16 +4932,16 @@
         <v>535</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>535</v>
       </c>
       <c r="F12" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4947,16 +4952,16 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E13" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F13" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -4967,13 +4972,13 @@
         <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="F14" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -4984,16 +4989,16 @@
         <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E15" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F15" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -5004,16 +5009,16 @@
         <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E16" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F16" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -5024,33 +5029,33 @@
         <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F17" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C18" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D18" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E18" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F18" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5061,36 +5066,36 @@
         <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E19" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F19" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B20" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D20" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E20" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F20" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -5101,16 +5106,16 @@
         <v>501</v>
       </c>
       <c r="D21" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E21" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="F21" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5121,16 +5126,16 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E22" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F22" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -5141,16 +5146,16 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E23" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="F23" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -5161,16 +5166,16 @@
         <v>131</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F24" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>540</v>
       </c>
@@ -5181,34 +5186,34 @@
         <v>541</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="F25" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B26" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C26" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F26" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -5219,16 +5224,16 @@
         <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F27" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>345</v>
       </c>
@@ -5239,16 +5244,16 @@
         <v>346</v>
       </c>
       <c r="D28" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="F28" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -5259,16 +5264,16 @@
         <v>490</v>
       </c>
       <c r="D29" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F29" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>134</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>133</v>
@@ -5288,27 +5293,27 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B31" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C31" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F31" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -5319,16 +5324,16 @@
         <v>187</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="F32" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>138</v>
       </c>
@@ -5339,16 +5344,16 @@
         <v>140</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F33" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>530</v>
       </c>
@@ -5359,16 +5364,16 @@
         <v>532</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="F34" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -5379,13 +5384,13 @@
         <v>146</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="F35" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -5396,16 +5401,16 @@
         <v>111</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F36" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>177</v>
       </c>
@@ -5416,16 +5421,16 @@
         <v>179</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F37" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -5436,16 +5441,16 @@
         <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F38" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -5456,16 +5461,16 @@
         <v>222</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F39" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>390</v>
       </c>
@@ -5476,16 +5481,16 @@
         <v>392</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F40" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>570</v>
       </c>
@@ -5496,16 +5501,16 @@
         <v>572</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="F41" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5527,36 +5532,36 @@
         <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E43" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="F43" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B44" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F44" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>503</v>
       </c>
@@ -5567,16 +5572,16 @@
         <v>505</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="F45" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5590,13 +5595,13 @@
         <v>93</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="F46" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>537</v>
       </c>
@@ -5607,16 +5612,16 @@
         <v>538</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="F47" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -5627,36 +5632,36 @@
         <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F48" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B49" t="s">
         <v>477</v>
       </c>
       <c r="C49" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D49" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F49" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -5667,16 +5672,16 @@
         <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F50" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -5687,16 +5692,16 @@
         <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>506</v>
       </c>
@@ -5707,16 +5712,16 @@
         <v>508</v>
       </c>
       <c r="D52" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="F52" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -5733,10 +5738,10 @@
         <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
@@ -5750,13 +5755,13 @@
         <v>99</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F54" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>499</v>
       </c>
@@ -5767,16 +5772,16 @@
         <v>498</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="F55" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>492</v>
       </c>
@@ -5787,16 +5792,16 @@
         <v>493</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="F56" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5807,16 +5812,16 @@
         <v>58</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="F57" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>189</v>
       </c>
@@ -5827,16 +5832,16 @@
         <v>157</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="F58" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
@@ -5847,16 +5852,16 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="F59" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>495</v>
       </c>
@@ -5867,16 +5872,16 @@
         <v>496</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="F60" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
@@ -5887,18 +5892,18 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -5910,9 +5915,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B63" t="s">
         <v>326</v>
@@ -5921,7 +5926,7 @@
         <v>327</v>
       </c>
       <c r="D63" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -5934,14 +5939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
@@ -5951,7 +5956,7 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5962,16 +5967,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -5982,13 +5987,13 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F2" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5999,13 +6004,13 @@
         <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F3" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -6022,7 +6027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6033,16 +6038,16 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E5" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -6053,16 +6058,16 @@
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E6" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -6073,16 +6078,16 @@
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E7" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F7" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -6093,13 +6098,13 @@
         <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="F8" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -6110,16 +6115,16 @@
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E9" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F9" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6130,16 +6135,16 @@
         <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E10" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F10" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -6153,10 +6158,10 @@
         <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -6167,16 +6172,16 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E12" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="F12" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -6187,7 +6192,7 @@
         <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -6196,7 +6201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -6207,7 +6212,7 @@
         <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E14" t="s">
         <v>174</v>
@@ -6216,29 +6221,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B15" t="s">
         <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E15" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F15" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B16" t="s">
         <v>481</v>
@@ -6247,56 +6252,56 @@
         <v>481</v>
       </c>
       <c r="D16" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E16" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F16" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B17" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D17" t="s">
+        <v>744</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>733</v>
+      </c>
+      <c r="B18" t="s">
+        <v>731</v>
+      </c>
+      <c r="C18" t="s">
+        <v>734</v>
+      </c>
+      <c r="D18" t="s">
         <v>743</v>
       </c>
-      <c r="D17" t="s">
-        <v>749</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>738</v>
-      </c>
-      <c r="B18" t="s">
-        <v>736</v>
-      </c>
-      <c r="C18" t="s">
-        <v>739</v>
-      </c>
-      <c r="D18" t="s">
-        <v>748</v>
-      </c>
       <c r="E18" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="F18" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -6307,16 +6312,16 @@
         <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E19" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F19" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -6327,16 +6332,16 @@
         <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E20" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="F20" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -6347,16 +6352,16 @@
         <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E21" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="F21" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -6367,16 +6372,16 @@
         <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E22" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="F22" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -6384,19 +6389,19 @@
         <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D23" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E23" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F23" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -6407,16 +6412,16 @@
         <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E24" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="F24" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -6427,16 +6432,16 @@
         <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E25" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="F25" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -6447,16 +6452,16 @@
         <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E26" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>261</v>
       </c>
@@ -6464,10 +6469,10 @@
         <v>262</v>
       </c>
       <c r="F27" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -6478,7 +6483,7 @@
         <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E28" t="s">
         <v>264</v>
@@ -6487,7 +6492,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -6498,16 +6503,16 @@
         <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E29" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="F29" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>269</v>
       </c>
@@ -6518,73 +6523,73 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E30" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F30" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>622</v>
+      </c>
+      <c r="B31" t="s">
+        <v>623</v>
+      </c>
+      <c r="C31" t="s">
+        <v>631</v>
+      </c>
+      <c r="D31" t="s">
+        <v>628</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>624</v>
+      </c>
+      <c r="B32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C32" t="s">
+        <v>632</v>
+      </c>
+      <c r="D32" t="s">
+        <v>629</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>626</v>
+      </c>
+      <c r="B33" t="s">
         <v>627</v>
       </c>
-      <c r="B31" t="s">
-        <v>628</v>
-      </c>
-      <c r="C31" t="s">
-        <v>636</v>
-      </c>
-      <c r="D31" t="s">
-        <v>633</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>629</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
+        <v>611</v>
+      </c>
+      <c r="D33" t="s">
         <v>630</v>
       </c>
-      <c r="C32" t="s">
-        <v>637</v>
-      </c>
-      <c r="D32" t="s">
-        <v>634</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>631</v>
-      </c>
-      <c r="B33" t="s">
-        <v>632</v>
-      </c>
-      <c r="C33" t="s">
-        <v>616</v>
-      </c>
-      <c r="D33" t="s">
-        <v>635</v>
-      </c>
       <c r="E33" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F33" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
   </sheetData>
@@ -6594,14 +6599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -6611,7 +6616,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6622,16 +6627,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -6642,16 +6647,16 @@
         <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E2" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="F2" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -6662,16 +6667,16 @@
         <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E3" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="F3" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -6682,16 +6687,16 @@
         <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E4" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="F4" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6702,13 +6707,13 @@
         <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="F5" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -6719,16 +6724,16 @@
         <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E6" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="F6" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -6739,16 +6744,16 @@
         <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E7" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="F7" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -6759,16 +6764,16 @@
         <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E8" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -6782,13 +6787,13 @@
         <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="F9" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6799,16 +6804,16 @@
         <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E10" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -6819,16 +6824,16 @@
         <v>291</v>
       </c>
       <c r="D11" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E11" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="F11" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -6839,16 +6844,16 @@
         <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E12" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="F12" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -6859,16 +6864,16 @@
         <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E13" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="F13" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -6879,16 +6884,16 @@
         <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E14" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="F14" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6899,16 +6904,16 @@
         <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E15" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="F15" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -6919,158 +6924,158 @@
         <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E16" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="F16" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>311</v>
       </c>
       <c r="B17" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C17" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D17" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B18" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" t="s">
+        <v>844</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B19" t="s">
+        <v>707</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>910</v>
+      </c>
+      <c r="B20" t="s">
+        <v>908</v>
+      </c>
+      <c r="C20" t="s">
+        <v>906</v>
+      </c>
+      <c r="E20" t="s">
         <v>1355</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>608</v>
-      </c>
-      <c r="B18" t="s">
-        <v>609</v>
-      </c>
-      <c r="C18" t="s">
-        <v>610</v>
-      </c>
-      <c r="D18" t="s">
-        <v>849</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>911</v>
+      </c>
+      <c r="B21" t="s">
+        <v>909</v>
+      </c>
+      <c r="C21" t="s">
+        <v>907</v>
+      </c>
+      <c r="E21" t="s">
         <v>1357</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B19" t="s">
-        <v>712</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>914</v>
+      </c>
+      <c r="B22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C22" t="s">
+        <v>913</v>
+      </c>
+      <c r="D22" t="s">
+        <v>918</v>
+      </c>
+      <c r="E22" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="F22" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>916</v>
+      </c>
+      <c r="B23" t="s">
         <v>915</v>
       </c>
-      <c r="B20" t="s">
-        <v>913</v>
-      </c>
-      <c r="C20" t="s">
-        <v>911</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C23" t="s">
+        <v>917</v>
+      </c>
+      <c r="D23" t="s">
+        <v>919</v>
+      </c>
+      <c r="E23" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>916</v>
-      </c>
-      <c r="B21" t="s">
-        <v>914</v>
-      </c>
-      <c r="C21" t="s">
-        <v>912</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F23" t="s">
         <v>1362</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>924</v>
+      </c>
+      <c r="B24" t="s">
+        <v>923</v>
+      </c>
+      <c r="C24" t="s">
+        <v>925</v>
+      </c>
+      <c r="D24" t="s">
+        <v>926</v>
+      </c>
+      <c r="E24" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>919</v>
-      </c>
-      <c r="B22" t="s">
-        <v>917</v>
-      </c>
-      <c r="C22" t="s">
-        <v>918</v>
-      </c>
-      <c r="D22" t="s">
-        <v>923</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F24" t="s">
         <v>1364</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>921</v>
-      </c>
-      <c r="B23" t="s">
-        <v>920</v>
-      </c>
-      <c r="C23" t="s">
-        <v>922</v>
-      </c>
-      <c r="D23" t="s">
-        <v>924</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>929</v>
-      </c>
-      <c r="B24" t="s">
-        <v>928</v>
-      </c>
-      <c r="C24" t="s">
-        <v>930</v>
-      </c>
-      <c r="D24" t="s">
-        <v>931</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -7080,14 +7085,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -7096,7 +7101,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7107,16 +7112,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -7127,16 +7132,16 @@
         <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E2" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="F2" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -7147,16 +7152,16 @@
         <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E3" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="F3" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>322</v>
       </c>
@@ -7167,16 +7172,16 @@
         <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="F4" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -7187,33 +7192,33 @@
         <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E5" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="F5" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E6" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="F6" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -7222,14 +7227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -7239,7 +7244,7 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7250,16 +7255,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -7270,16 +7275,16 @@
         <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E2" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="F2" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -7290,16 +7295,16 @@
         <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E3" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="F3" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -7310,16 +7315,16 @@
         <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E4" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="F4" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -7330,13 +7335,13 @@
         <v>342</v>
       </c>
       <c r="D5" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E5" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F5" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
@@ -7345,14 +7350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -7362,7 +7367,7 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7373,16 +7378,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
@@ -7394,13 +7399,13 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>351</v>
       </c>
@@ -7412,13 +7417,13 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>355</v>
       </c>
@@ -7429,16 +7434,16 @@
         <v>358</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>356</v>
       </c>
@@ -7449,16 +7454,16 @@
         <v>359</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>357</v>
       </c>
@@ -7469,10 +7474,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>361</v>
       </c>
@@ -7483,16 +7488,16 @@
         <v>362</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
@@ -7504,13 +7509,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>367</v>
       </c>
@@ -7521,16 +7526,16 @@
         <v>370</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>370</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>368</v>
       </c>
@@ -7541,16 +7546,16 @@
         <v>371</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>373</v>
       </c>
@@ -7562,13 +7567,13 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>376</v>
       </c>
@@ -7579,16 +7584,16 @@
         <v>377</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>380</v>
       </c>
@@ -7600,13 +7605,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>382</v>
       </c>
@@ -7617,16 +7622,16 @@
         <v>383</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>389</v>
       </c>
@@ -7637,16 +7642,16 @@
         <v>388</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>394</v>
       </c>
@@ -7657,16 +7662,16 @@
         <v>395</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>397</v>
       </c>
@@ -7677,53 +7682,53 @@
         <v>398</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -7732,14 +7737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -7749,7 +7754,7 @@
     <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7760,16 +7765,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E2" t="s">
         <v>226</v>
@@ -7789,7 +7794,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -7800,16 +7805,16 @@
         <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E3" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F3" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -7829,7 +7834,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -7840,16 +7845,16 @@
         <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E5" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="F5" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -7860,13 +7865,13 @@
         <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="F6" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -7877,13 +7882,13 @@
         <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E7" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="F7" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>
@@ -7892,14 +7897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -7909,7 +7914,7 @@
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7920,16 +7925,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>546</v>
       </c>
@@ -7940,36 +7945,36 @@
         <v>560</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>547</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>549</v>
       </c>
@@ -7980,16 +7985,16 @@
         <v>550</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>552</v>
       </c>
@@ -8000,16 +8005,16 @@
         <v>553</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>555</v>
       </c>
@@ -8020,16 +8025,16 @@
         <v>556</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>559</v>
       </c>
@@ -8040,16 +8045,16 @@
         <v>562</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>564</v>
       </c>
@@ -8060,16 +8065,16 @@
         <v>565</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8077,7 +8082,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>567</v>
       </c>
@@ -8088,16 +8093,16 @@
         <v>568</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>569</v>
       </c>
@@ -8108,16 +8113,16 @@
         <v>573</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8125,7 +8130,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>576</v>
       </c>
@@ -8136,16 +8141,16 @@
         <v>577</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8153,127 +8158,127 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="75">
-      <c r="A18" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45">
-      <c r="A20" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -8281,47 +8286,47 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -8329,24 +8334,24 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="105">
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B25" t="s">
+        <v>740</v>
+      </c>
+      <c r="C25" t="s">
+        <v>741</v>
+      </c>
+      <c r="D25" t="s">
         <v>745</v>
       </c>
-      <c r="C25" t="s">
-        <v>746</v>
-      </c>
-      <c r="D25" t="s">
-        <v>750</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -8356,14 +8361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -8371,7 +8376,7 @@
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8382,18 +8387,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -8402,18 +8407,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E2" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="F2" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -8422,29 +8427,29 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="F3" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -8453,58 +8458,58 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F7" t="s">
         <v>1129</v>
       </c>
-      <c r="F5" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>720</v>
-      </c>
-      <c r="B6" t="s">
-        <v>721</v>
-      </c>
-      <c r="C6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D6" t="s">
-        <v>726</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>723</v>
-      </c>
-      <c r="B7" t="s">
-        <v>724</v>
-      </c>
-      <c r="C7" t="s">
-        <v>725</v>
-      </c>
-      <c r="D7" t="s">
-        <v>727</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -8513,18 +8518,18 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E8" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="F8" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -8533,18 +8538,18 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E9" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F9" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -8553,18 +8558,18 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E10" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F10" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -8573,18 +8578,18 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="F11" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -8593,18 +8598,18 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E12" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F12" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -8613,18 +8618,18 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E13" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="F13" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -8639,12 +8644,12 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -8653,7 +8658,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -8662,9 +8667,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -8673,16 +8678,16 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E16" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="F16" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
@@ -8692,14 +8697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="36.7109375" style="6"/>
     <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
@@ -8707,7 +8712,7 @@
     <col min="7" max="16384" width="36.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8718,253 +8723,253 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>895</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="F8" s="6" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>1166</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -8973,14 +8978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -8990,7 +8995,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9001,16 +9006,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -9021,16 +9026,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>201</v>
       </c>
@@ -9041,16 +9046,16 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
@@ -9061,16 +9066,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>203</v>
       </c>
@@ -9081,16 +9086,16 @@
         <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
@@ -9101,16 +9106,16 @@
         <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
@@ -9121,16 +9126,16 @@
         <v>46</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>206</v>
       </c>
@@ -9141,16 +9146,16 @@
         <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>207</v>
       </c>
@@ -9161,16 +9166,16 @@
         <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>208</v>
       </c>
@@ -9181,16 +9186,16 @@
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>210</v>
       </c>
@@ -9201,16 +9206,16 @@
         <v>62</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>209</v>
       </c>
@@ -9221,13 +9226,13 @@
         <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -9236,14 +9241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
@@ -9254,7 +9259,7 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9265,16 +9270,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>511</v>
       </c>
@@ -9285,16 +9290,16 @@
         <v>510</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>514</v>
       </c>
@@ -9305,16 +9310,16 @@
         <v>513</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>517</v>
       </c>
@@ -9325,16 +9330,16 @@
         <v>516</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>520</v>
       </c>
@@ -9345,16 +9350,16 @@
         <v>519</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>523</v>
       </c>
@@ -9365,16 +9370,16 @@
         <v>522</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>525</v>
       </c>
@@ -9385,13 +9390,13 @@
         <v>526</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>527</v>
       </c>
@@ -9402,16 +9407,16 @@
         <v>528</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>529</v>
       </c>
@@ -9422,36 +9427,36 @@
         <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
     </row>
   </sheetData>
@@ -9461,14 +9466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
@@ -9476,7 +9481,7 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9487,16 +9492,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>402</v>
       </c>
@@ -9507,16 +9512,16 @@
         <v>404</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>407</v>
       </c>
@@ -9527,16 +9532,16 @@
         <v>406</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>409</v>
       </c>
@@ -9547,16 +9552,16 @@
         <v>410</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>413</v>
       </c>
@@ -9567,16 +9572,16 @@
         <v>412</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>416</v>
       </c>
@@ -9587,16 +9592,16 @@
         <v>415</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>419</v>
       </c>
@@ -9607,16 +9612,16 @@
         <v>418</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>421</v>
       </c>
@@ -9628,13 +9633,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="11" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>424</v>
       </c>
@@ -9646,13 +9651,13 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>428</v>
       </c>
@@ -9664,13 +9669,13 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>430</v>
       </c>
@@ -9681,16 +9686,16 @@
         <v>450</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>433</v>
       </c>
@@ -9701,16 +9706,16 @@
         <v>431</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>431</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>435</v>
       </c>
@@ -9722,13 +9727,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>438</v>
       </c>
@@ -9739,16 +9744,16 @@
         <v>437</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>440</v>
       </c>
@@ -9759,16 +9764,16 @@
         <v>455</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>443</v>
       </c>
@@ -9779,16 +9784,16 @@
         <v>442</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>446</v>
       </c>
@@ -9799,16 +9804,16 @@
         <v>445</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>449</v>
       </c>
@@ -9819,16 +9824,16 @@
         <v>448</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>451</v>
       </c>
@@ -9839,16 +9844,16 @@
         <v>453</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>453</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>458</v>
       </c>
@@ -9859,124 +9864,124 @@
         <v>457</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>947</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>952</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="J27" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -9985,14 +9990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
@@ -10001,7 +10006,7 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10012,16 +10017,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -10032,16 +10037,16 @@
         <v>459</v>
       </c>
       <c r="D2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E2" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F2" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -10055,13 +10060,13 @@
         <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -10072,16 +10077,16 @@
         <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E4" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>468</v>
       </c>
@@ -10092,16 +10097,16 @@
         <v>469</v>
       </c>
       <c r="D5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E5" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="F5" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -10112,16 +10117,16 @@
         <v>473</v>
       </c>
       <c r="D6" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E6" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F6" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -10132,16 +10137,16 @@
         <v>475</v>
       </c>
       <c r="D7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E7" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="F7" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -10152,16 +10157,16 @@
         <v>478</v>
       </c>
       <c r="D8" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E8" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F8" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>479</v>
       </c>
@@ -10172,16 +10177,16 @@
         <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E9" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="F9" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -10192,16 +10197,16 @@
         <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E10" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="F10" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -10212,13 +10217,13 @@
         <v>487</v>
       </c>
       <c r="D11" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E11" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="F11" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -10227,14 +10232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
@@ -10243,7 +10248,7 @@
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10254,16 +10259,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -10274,136 +10279,136 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E2" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="F2" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E3" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F3" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E4" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="F4" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="F5" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E6" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="F6" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="F7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E8" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="F8" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -10414,16 +10419,16 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E9" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="F9" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -10434,41 +10439,41 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E10" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="F10" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>968</v>
+      </c>
+      <c r="B11" t="s">
+        <v>967</v>
+      </c>
+      <c r="C11" t="s">
         <v>973</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>970</v>
+      </c>
+      <c r="B12" t="s">
+        <v>969</v>
+      </c>
+      <c r="C12" t="s">
         <v>972</v>
       </c>
-      <c r="C11" t="s">
-        <v>978</v>
-      </c>
-      <c r="D11" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>975</v>
-      </c>
-      <c r="B12" t="s">
-        <v>974</v>
-      </c>
-      <c r="C12" t="s">
-        <v>977</v>
-      </c>
       <c r="D12" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="1"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -29,8 +24,8 @@
     <sheet name="Menu Data Audit" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1431">
   <si>
     <t>LABEL</t>
   </si>
@@ -1576,27 +1571,18 @@
     <t>$LAB_MILKER_STEAM_TEMPERATURE</t>
   </si>
   <si>
-    <t>RINSING PERIOD</t>
-  </si>
-  <si>
     <t>PERIODO RISCIACQUO</t>
   </si>
   <si>
     <t>$LAB_MILKER_RINSING_PERIOD</t>
   </si>
   <si>
-    <t>ENABLE RINSING</t>
-  </si>
-  <si>
     <t>ABILITA RISCIACQUO</t>
   </si>
   <si>
     <t>$LAB_MILKER_ENABLE_RINSING</t>
   </si>
   <si>
-    <t>RINSE DELAY</t>
-  </si>
-  <si>
     <t>RITARDO RISCIACQUO</t>
   </si>
   <si>
@@ -1612,9 +1598,6 @@
     <t>$LAB_MILKER_ENABLE_MILK_SENSOR</t>
   </si>
   <si>
-    <t>SHOW MILKER-RINSING&lt;br&gt;BUTTON AT STARTUP</t>
-  </si>
-  <si>
     <t>$LAB_MILKER_SHOW_MILKER_RINSING_BTN_AT_STARTUP</t>
   </si>
   <si>
@@ -2294,9 +2277,6 @@
   </si>
   <si>
     <t>LISTA PREZZO CASHLESS</t>
-  </si>
-  <si>
-    <t>AUTO UPDATE RINSING TIME</t>
   </si>
   <si>
     <t>DÉBUT</t>
@@ -4333,13 +4313,40 @@
   </si>
   <si>
     <t>DISINSTALLATION&lt;br&gt;&lt;br&gt;Is driptray empty?</t>
+  </si>
+  <si>
+    <t>CLEANING PERIOD</t>
+  </si>
+  <si>
+    <t>ENABLE CLEANING</t>
+  </si>
+  <si>
+    <t>CLEANING DELAY</t>
+  </si>
+  <si>
+    <t>SHOW CLEAN-MILKER&lt;br&gt;BUTTON AT STARTUP</t>
+  </si>
+  <si>
+    <t>AUTO CLEANING AT TIME</t>
+  </si>
+  <si>
+    <t>AUTO UPDATE CLEANING TIME</t>
+  </si>
+  <si>
+    <t>$LAB_COUNTER</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>CONTATORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4413,7 +4420,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4683,21 +4690,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
@@ -4707,7 +4714,7 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4718,16 +4725,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -4738,16 +4745,16 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E2" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -4758,30 +4765,30 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F3" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E4" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F4" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>384</v>
       </c>
@@ -4792,16 +4799,16 @@
         <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E5" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F5" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -4812,16 +4819,16 @@
         <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E6" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="F6" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -4832,56 +4839,56 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E7" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="F7" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E8" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="F8" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B9" t="s">
         <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D9" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="E9" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F9" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -4892,16 +4899,16 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E10" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F10" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -4912,36 +4919,36 @@
         <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F11" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F12" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4952,16 +4959,16 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E13" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F13" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -4972,13 +4979,13 @@
         <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F14" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -4989,16 +4996,16 @@
         <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E15" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F15" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -5009,16 +5016,16 @@
         <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E16" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F16" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -5029,33 +5036,33 @@
         <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="F17" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B18" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C18" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D18" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E18" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F18" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5066,36 +5073,36 @@
         <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E19" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="F19" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B20" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D20" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E20" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F20" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -5106,16 +5113,16 @@
         <v>501</v>
       </c>
       <c r="D21" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E21" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F21" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5126,16 +5133,16 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E22" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F22" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -5146,16 +5153,16 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E23" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F23" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -5166,54 +5173,54 @@
         <v>131</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F24" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B25" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C25" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F25" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B26" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C26" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F26" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -5224,16 +5231,16 @@
         <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F27" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>345</v>
       </c>
@@ -5244,16 +5251,16 @@
         <v>346</v>
       </c>
       <c r="D28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="F28" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -5264,16 +5271,16 @@
         <v>490</v>
       </c>
       <c r="D29" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F29" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -5284,7 +5291,7 @@
         <v>134</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>133</v>
@@ -5293,27 +5300,27 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B31" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C31" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F31" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -5324,16 +5331,16 @@
         <v>187</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="F32" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>138</v>
       </c>
@@ -5344,36 +5351,36 @@
         <v>140</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="F33" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B34" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F34" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -5384,13 +5391,13 @@
         <v>146</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F35" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -5401,16 +5408,16 @@
         <v>111</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F36" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>177</v>
       </c>
@@ -5421,16 +5428,16 @@
         <v>179</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="F37" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -5441,16 +5448,16 @@
         <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="F38" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -5461,16 +5468,16 @@
         <v>222</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F39" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>390</v>
       </c>
@@ -5481,36 +5488,36 @@
         <v>392</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="F40" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B41" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C41" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F41" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5532,36 +5539,36 @@
         <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E43" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="F43" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C44" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F44" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>503</v>
       </c>
@@ -5572,16 +5579,16 @@
         <v>505</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F45" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5595,33 +5602,33 @@
         <v>93</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="F46" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B47" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C47" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F47" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -5632,36 +5639,36 @@
         <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="F48" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B49" t="s">
         <v>477</v>
       </c>
       <c r="C49" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D49" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F49" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -5672,16 +5679,16 @@
         <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="F50" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -5692,16 +5699,16 @@
         <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="F51" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>506</v>
       </c>
@@ -5712,16 +5719,16 @@
         <v>508</v>
       </c>
       <c r="D52" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F52" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -5738,10 +5745,10 @@
         <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
@@ -5755,13 +5762,13 @@
         <v>99</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="F54" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>499</v>
       </c>
@@ -5772,16 +5779,16 @@
         <v>498</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F55" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
         <v>492</v>
       </c>
@@ -5792,16 +5799,16 @@
         <v>493</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F56" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5812,16 +5819,16 @@
         <v>58</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="F57" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
         <v>189</v>
       </c>
@@ -5832,16 +5839,16 @@
         <v>157</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="F58" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
@@ -5852,16 +5859,16 @@
         <v>107</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="F59" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
         <v>495</v>
       </c>
@@ -5872,16 +5879,16 @@
         <v>496</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F60" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
@@ -5892,18 +5899,18 @@
         <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -5915,9 +5922,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B63" t="s">
         <v>326</v>
@@ -5926,7 +5933,18 @@
         <v>327</v>
       </c>
       <c r="D63" t="s">
-        <v>848</v>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -5939,14 +5957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
@@ -5956,7 +5974,7 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5967,16 +5985,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -5987,13 +6005,13 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="F2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6004,13 +6022,13 @@
         <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="F3" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -6027,7 +6045,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6038,16 +6056,16 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E5" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="F5" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -6058,16 +6076,16 @@
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E6" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F6" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -6078,16 +6096,16 @@
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E7" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -6098,13 +6116,13 @@
         <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F8" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -6115,16 +6133,16 @@
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E9" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6135,16 +6153,16 @@
         <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E10" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F10" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -6158,10 +6176,10 @@
         <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -6172,16 +6190,16 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E12" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F12" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -6201,7 +6219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -6212,7 +6230,7 @@
         <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E14" t="s">
         <v>174</v>
@@ -6221,29 +6239,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B15" t="s">
         <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E15" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="F15" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B16" t="s">
         <v>481</v>
@@ -6252,56 +6270,56 @@
         <v>481</v>
       </c>
       <c r="D16" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E16" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F16" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D17" t="s">
+        <v>740</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>729</v>
+      </c>
+      <c r="B18" t="s">
+        <v>727</v>
+      </c>
+      <c r="C18" t="s">
         <v>730</v>
       </c>
-      <c r="C17" t="s">
-        <v>738</v>
-      </c>
-      <c r="D17" t="s">
-        <v>744</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>733</v>
-      </c>
-      <c r="B18" t="s">
-        <v>731</v>
-      </c>
-      <c r="C18" t="s">
-        <v>734</v>
-      </c>
       <c r="D18" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E18" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="F18" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -6312,16 +6330,16 @@
         <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E19" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="F19" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -6332,16 +6350,16 @@
         <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E20" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="F20" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -6352,16 +6370,16 @@
         <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E21" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="F21" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -6372,16 +6390,16 @@
         <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E22" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F22" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -6389,19 +6407,19 @@
         <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D23" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E23" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="F23" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -6412,16 +6430,16 @@
         <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E24" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="F24" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -6432,16 +6450,16 @@
         <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E25" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="F25" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -6452,16 +6470,16 @@
         <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E26" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="F26" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>261</v>
       </c>
@@ -6469,10 +6487,10 @@
         <v>262</v>
       </c>
       <c r="F27" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -6483,7 +6501,7 @@
         <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E28" t="s">
         <v>264</v>
@@ -6492,7 +6510,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -6503,16 +6521,16 @@
         <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E29" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="F29" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>269</v>
       </c>
@@ -6523,73 +6541,73 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E30" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F30" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>618</v>
+      </c>
+      <c r="B31" t="s">
+        <v>619</v>
+      </c>
+      <c r="C31" t="s">
+        <v>627</v>
+      </c>
+      <c r="D31" t="s">
+        <v>624</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>620</v>
+      </c>
+      <c r="B32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D32" t="s">
+        <v>625</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>622</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>623</v>
       </c>
-      <c r="C31" t="s">
-        <v>631</v>
-      </c>
-      <c r="D31" t="s">
-        <v>628</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>624</v>
-      </c>
-      <c r="B32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C32" t="s">
-        <v>632</v>
-      </c>
-      <c r="D32" t="s">
-        <v>629</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>607</v>
+      </c>
+      <c r="D33" t="s">
         <v>626</v>
       </c>
-      <c r="B33" t="s">
-        <v>627</v>
-      </c>
-      <c r="C33" t="s">
-        <v>611</v>
-      </c>
-      <c r="D33" t="s">
-        <v>630</v>
-      </c>
       <c r="E33" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F33" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
     </row>
   </sheetData>
@@ -6599,14 +6617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -6616,7 +6634,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6627,16 +6645,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -6647,16 +6665,16 @@
         <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E2" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="F2" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -6667,16 +6685,16 @@
         <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E3" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="F3" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -6687,16 +6705,16 @@
         <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E4" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="F4" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6707,13 +6725,13 @@
         <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="F5" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -6724,16 +6742,16 @@
         <v>315</v>
       </c>
       <c r="D6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E6" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="F6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -6744,16 +6762,16 @@
         <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E7" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="F7" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -6764,16 +6782,16 @@
         <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E8" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="F8" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -6787,13 +6805,13 @@
         <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="F9" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6804,16 +6822,16 @@
         <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E10" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="F10" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -6824,16 +6842,16 @@
         <v>291</v>
       </c>
       <c r="D11" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E11" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="F11" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -6844,16 +6862,16 @@
         <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E12" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="F12" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -6864,16 +6882,16 @@
         <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E13" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -6884,16 +6902,16 @@
         <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E14" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="F14" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6904,16 +6922,16 @@
         <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E15" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="F15" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -6924,158 +6942,158 @@
         <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E16" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="F16" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>311</v>
       </c>
       <c r="B17" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C17" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D17" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C18" t="s">
+        <v>601</v>
+      </c>
+      <c r="D18" t="s">
+        <v>839</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B19" t="s">
+        <v>703</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>905</v>
+      </c>
+      <c r="B20" t="s">
+        <v>903</v>
+      </c>
+      <c r="C20" t="s">
+        <v>901</v>
+      </c>
+      <c r="E20" t="s">
         <v>1350</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>603</v>
-      </c>
-      <c r="B18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D18" t="s">
-        <v>844</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>906</v>
+      </c>
+      <c r="B21" t="s">
+        <v>904</v>
+      </c>
+      <c r="C21" t="s">
+        <v>902</v>
+      </c>
+      <c r="E21" t="s">
         <v>1352</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="B19" t="s">
-        <v>707</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>909</v>
+      </c>
+      <c r="B22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C22" t="s">
+        <v>908</v>
+      </c>
+      <c r="D22" t="s">
+        <v>913</v>
+      </c>
+      <c r="E22" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F22" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>911</v>
+      </c>
+      <c r="B23" t="s">
         <v>910</v>
       </c>
-      <c r="B20" t="s">
-        <v>908</v>
-      </c>
-      <c r="C20" t="s">
-        <v>906</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D23" t="s">
+        <v>914</v>
+      </c>
+      <c r="E23" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>911</v>
-      </c>
-      <c r="B21" t="s">
-        <v>909</v>
-      </c>
-      <c r="C21" t="s">
-        <v>907</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F23" t="s">
         <v>1357</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>919</v>
+      </c>
+      <c r="B24" t="s">
+        <v>918</v>
+      </c>
+      <c r="C24" t="s">
+        <v>920</v>
+      </c>
+      <c r="D24" t="s">
+        <v>921</v>
+      </c>
+      <c r="E24" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>914</v>
-      </c>
-      <c r="B22" t="s">
-        <v>912</v>
-      </c>
-      <c r="C22" t="s">
-        <v>913</v>
-      </c>
-      <c r="D22" t="s">
-        <v>918</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F24" t="s">
         <v>1359</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>916</v>
-      </c>
-      <c r="B23" t="s">
-        <v>915</v>
-      </c>
-      <c r="C23" t="s">
-        <v>917</v>
-      </c>
-      <c r="D23" t="s">
-        <v>919</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>924</v>
-      </c>
-      <c r="B24" t="s">
-        <v>923</v>
-      </c>
-      <c r="C24" t="s">
-        <v>925</v>
-      </c>
-      <c r="D24" t="s">
-        <v>926</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1363</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1364</v>
       </c>
     </row>
   </sheetData>
@@ -7085,14 +7103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -7101,7 +7119,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7112,16 +7130,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -7132,16 +7150,16 @@
         <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E2" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="F2" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -7152,16 +7170,16 @@
         <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E3" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="F3" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>322</v>
       </c>
@@ -7172,16 +7190,16 @@
         <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="F4" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -7192,33 +7210,33 @@
         <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E5" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="F5" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D6" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E6" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="F6" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -7227,14 +7245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -7244,7 +7262,7 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7255,16 +7273,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -7275,16 +7293,16 @@
         <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E2" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="F2" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -7295,16 +7313,16 @@
         <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E3" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="F3" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -7315,16 +7333,16 @@
         <v>339</v>
       </c>
       <c r="D4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E4" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="F4" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -7335,13 +7353,13 @@
         <v>342</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E5" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="F5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
     </row>
   </sheetData>
@@ -7350,14 +7368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -7367,7 +7385,7 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7378,16 +7396,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
@@ -7399,13 +7417,13 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>351</v>
       </c>
@@ -7417,13 +7435,13 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>355</v>
       </c>
@@ -7434,16 +7452,16 @@
         <v>358</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>356</v>
       </c>
@@ -7454,16 +7472,16 @@
         <v>359</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>357</v>
       </c>
@@ -7474,10 +7492,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>361</v>
       </c>
@@ -7488,16 +7506,16 @@
         <v>362</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
@@ -7509,13 +7527,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>367</v>
       </c>
@@ -7526,16 +7544,16 @@
         <v>370</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>370</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>368</v>
       </c>
@@ -7546,16 +7564,16 @@
         <v>371</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>373</v>
       </c>
@@ -7567,13 +7585,13 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>376</v>
       </c>
@@ -7584,16 +7602,16 @@
         <v>377</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>380</v>
       </c>
@@ -7605,13 +7623,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>382</v>
       </c>
@@ -7622,16 +7640,16 @@
         <v>383</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>389</v>
       </c>
@@ -7642,16 +7660,16 @@
         <v>388</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>394</v>
       </c>
@@ -7662,16 +7680,16 @@
         <v>395</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>397</v>
       </c>
@@ -7682,53 +7700,53 @@
         <v>398</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>1411</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -7737,14 +7755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -7754,7 +7772,7 @@
     <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7765,16 +7783,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -7785,7 +7803,7 @@
         <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E2" t="s">
         <v>226</v>
@@ -7794,7 +7812,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -7805,16 +7823,16 @@
         <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="F3" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -7834,7 +7852,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -7845,16 +7863,16 @@
         <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E5" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="F5" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -7865,13 +7883,13 @@
         <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="F6" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -7882,13 +7900,13 @@
         <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E7" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="F7" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -7897,14 +7915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -7914,7 +7932,7 @@
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7925,156 +7943,156 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8082,47 +8100,47 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>573</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8130,27 +8148,27 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8158,127 +8176,127 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75">
+      <c r="A18" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -8286,47 +8304,47 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30">
+      <c r="A23" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>596</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -8334,24 +8352,24 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="105">
       <c r="A25" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C25" t="s">
+        <v>737</v>
+      </c>
+      <c r="D25" t="s">
         <v>741</v>
       </c>
-      <c r="D25" t="s">
-        <v>745</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -8361,14 +8379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -8376,7 +8394,7 @@
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8387,18 +8405,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -8407,18 +8425,18 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E2" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="F2" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -8427,29 +8445,29 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F3" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -8458,58 +8476,58 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" t="s">
+        <v>718</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F7" t="s">
         <v>1124</v>
       </c>
-      <c r="F5" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>715</v>
-      </c>
-      <c r="B6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C6" t="s">
-        <v>717</v>
-      </c>
-      <c r="D6" t="s">
-        <v>721</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>718</v>
-      </c>
-      <c r="B7" t="s">
-        <v>719</v>
-      </c>
-      <c r="C7" t="s">
-        <v>720</v>
-      </c>
-      <c r="D7" t="s">
-        <v>722</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -8518,18 +8536,18 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E8" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="F8" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -8538,18 +8556,18 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E9" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="F9" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -8558,18 +8576,18 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E10" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F10" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75">
       <c r="A11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -8578,18 +8596,18 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="F11" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -8598,18 +8616,18 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E12" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F12" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -8618,18 +8636,18 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E13" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="F13" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -8644,12 +8662,12 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -8658,7 +8676,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -8667,9 +8685,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -8678,16 +8696,16 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E16" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="F16" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
@@ -8697,14 +8715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="36.7109375" style="6"/>
     <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
@@ -8712,7 +8730,7 @@
     <col min="7" max="16384" width="36.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8723,253 +8741,253 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="F8" s="6" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>1161</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -8978,14 +8996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -8995,7 +9013,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9006,16 +9024,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -9026,16 +9044,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>201</v>
       </c>
@@ -9046,16 +9064,16 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
@@ -9066,16 +9084,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>203</v>
       </c>
@@ -9086,16 +9104,16 @@
         <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
@@ -9106,16 +9124,16 @@
         <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
@@ -9126,16 +9144,16 @@
         <v>46</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>206</v>
       </c>
@@ -9146,16 +9164,16 @@
         <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>207</v>
       </c>
@@ -9166,16 +9184,16 @@
         <v>55</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>208</v>
       </c>
@@ -9186,16 +9204,16 @@
         <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>210</v>
       </c>
@@ -9206,16 +9224,16 @@
         <v>62</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>209</v>
       </c>
@@ -9226,13 +9244,13 @@
         <v>64</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -9241,14 +9259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
@@ -9259,7 +9277,7 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9270,16 +9288,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>511</v>
       </c>
@@ -9290,135 +9308,135 @@
         <v>510</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>85</v>
@@ -9427,36 +9445,36 @@
         <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>752</v>
+        <v>1427</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="C11" s="10"/>
     </row>
   </sheetData>
@@ -9466,14 +9484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
@@ -9481,7 +9499,7 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9492,16 +9510,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>402</v>
       </c>
@@ -9512,16 +9530,16 @@
         <v>404</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>407</v>
       </c>
@@ -9532,16 +9550,16 @@
         <v>406</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>409</v>
       </c>
@@ -9552,16 +9570,16 @@
         <v>410</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>413</v>
       </c>
@@ -9572,16 +9590,16 @@
         <v>412</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>416</v>
       </c>
@@ -9592,16 +9610,16 @@
         <v>415</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>419</v>
       </c>
@@ -9612,16 +9630,16 @@
         <v>418</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>421</v>
       </c>
@@ -9633,13 +9651,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="11" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>424</v>
       </c>
@@ -9651,13 +9669,13 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>428</v>
       </c>
@@ -9669,13 +9687,13 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
         <v>430</v>
       </c>
@@ -9686,16 +9704,16 @@
         <v>450</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
         <v>433</v>
       </c>
@@ -9706,16 +9724,16 @@
         <v>431</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>431</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>435</v>
       </c>
@@ -9727,13 +9745,13 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>438</v>
       </c>
@@ -9744,16 +9762,16 @@
         <v>437</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>440</v>
       </c>
@@ -9764,16 +9782,16 @@
         <v>455</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>443</v>
       </c>
@@ -9784,16 +9802,16 @@
         <v>442</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>446</v>
       </c>
@@ -9804,16 +9822,16 @@
         <v>445</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>449</v>
       </c>
@@ -9824,16 +9842,16 @@
         <v>448</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>451</v>
       </c>
@@ -9844,16 +9862,16 @@
         <v>453</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>453</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>458</v>
       </c>
@@ -9864,124 +9882,124 @@
         <v>457</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>947</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="J27" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -9990,14 +10008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
@@ -10006,7 +10024,7 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10017,16 +10035,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -10037,16 +10055,16 @@
         <v>459</v>
       </c>
       <c r="D2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E2" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="F2" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -10060,13 +10078,13 @@
         <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="F3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -10077,16 +10095,16 @@
         <v>466</v>
       </c>
       <c r="D4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E4" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="F4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>468</v>
       </c>
@@ -10097,16 +10115,16 @@
         <v>469</v>
       </c>
       <c r="D5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E5" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="F5" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -10117,16 +10135,16 @@
         <v>473</v>
       </c>
       <c r="D6" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E6" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="F6" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -10137,16 +10155,16 @@
         <v>475</v>
       </c>
       <c r="D7" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E7" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="F7" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -10157,16 +10175,16 @@
         <v>478</v>
       </c>
       <c r="D8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E8" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="F8" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>479</v>
       </c>
@@ -10177,16 +10195,16 @@
         <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E9" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F9" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -10197,16 +10215,16 @@
         <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E10" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="F10" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -10217,13 +10235,13 @@
         <v>487</v>
       </c>
       <c r="D11" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E11" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F11" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -10232,14 +10250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
@@ -10248,7 +10266,7 @@
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10259,16 +10277,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -10279,136 +10297,136 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E2" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="F2" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E3" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F3" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E4" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="F4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E5" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F5" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E6" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="F6" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E7" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F7" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E8" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="F8" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -10419,16 +10437,16 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E9" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F9" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -10439,41 +10457,41 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E10" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="F10" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>963</v>
+      </c>
+      <c r="B11" t="s">
+        <v>962</v>
+      </c>
+      <c r="C11" t="s">
         <v>968</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>965</v>
+      </c>
+      <c r="B12" t="s">
+        <v>964</v>
+      </c>
+      <c r="C12" t="s">
         <v>967</v>
       </c>
-      <c r="C11" t="s">
-        <v>973</v>
-      </c>
-      <c r="D11" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>970</v>
-      </c>
-      <c r="B12" t="s">
-        <v>969</v>
-      </c>
-      <c r="C12" t="s">
-        <v>972</v>
-      </c>
       <c r="D12" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="6"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -24,8 +29,8 @@
     <sheet name="Menu Data Audit" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1435">
   <si>
     <t>LABEL</t>
   </si>
@@ -4340,13 +4345,25 @@
   </si>
   <si>
     <t>CONTATORE</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_VERSION</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>VERSIONE</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_STATUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4420,7 +4437,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4690,21 +4707,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
@@ -4714,7 +4731,7 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4751,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -4754,7 +4771,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -4774,7 +4791,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>553</v>
       </c>
@@ -4788,7 +4805,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>384</v>
       </c>
@@ -4808,7 +4825,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -4828,7 +4845,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -4848,7 +4865,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -4868,7 +4885,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>915</v>
       </c>
@@ -4888,7 +4905,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -4908,7 +4925,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -4928,7 +4945,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>529</v>
       </c>
@@ -4948,7 +4965,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4968,7 +4985,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -4985,7 +5002,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -5005,7 +5022,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -5025,7 +5042,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -5042,7 +5059,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>719</v>
       </c>
@@ -5062,7 +5079,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5082,7 +5099,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>605</v>
       </c>
@@ -5102,7 +5119,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -5122,7 +5139,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -5162,7 +5179,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -5182,7 +5199,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>536</v>
       </c>
@@ -5202,7 +5219,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>706</v>
       </c>
@@ -5220,7 +5237,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -5240,7 +5257,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>345</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -5280,7 +5297,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -5300,7 +5317,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>602</v>
       </c>
@@ -5320,7 +5337,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -5340,7 +5357,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>138</v>
       </c>
@@ -5360,7 +5377,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>526</v>
       </c>
@@ -5380,7 +5397,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -5417,7 +5434,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>177</v>
       </c>
@@ -5437,7 +5454,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>103</v>
       </c>
@@ -5457,7 +5474,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>221</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>390</v>
       </c>
@@ -5497,7 +5514,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>566</v>
       </c>
@@ -5517,7 +5534,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -5528,7 +5545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>594</v>
       </c>
@@ -5568,7 +5585,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>503</v>
       </c>
@@ -5588,7 +5605,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5608,7 +5625,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>533</v>
       </c>
@@ -5628,7 +5645,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -5648,7 +5665,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>704</v>
       </c>
@@ -5668,7 +5685,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -5688,7 +5705,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -5708,7 +5725,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>506</v>
       </c>
@@ -5728,7 +5745,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>211</v>
       </c>
@@ -5748,7 +5765,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
@@ -5768,7 +5785,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>499</v>
       </c>
@@ -5788,7 +5805,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>492</v>
       </c>
@@ -5808,7 +5825,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5828,7 +5845,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>189</v>
       </c>
@@ -5848,7 +5865,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
@@ -5868,7 +5885,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>495</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>36</v>
       </c>
@@ -5908,7 +5925,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>947</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>970</v>
       </c>
@@ -5936,7 +5953,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1428</v>
       </c>
@@ -5957,14 +5974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
@@ -5974,7 +5991,7 @@
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5994,7 +6011,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -6011,7 +6028,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6028,7 +6045,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -6045,7 +6062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6065,7 +6082,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -6085,7 +6102,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -6105,7 +6122,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -6122,7 +6139,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6162,7 +6179,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -6179,7 +6196,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -6199,7 +6216,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -6219,7 +6236,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -6239,7 +6256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>732</v>
       </c>
@@ -6259,7 +6276,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>731</v>
       </c>
@@ -6279,7 +6296,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>728</v>
       </c>
@@ -6299,7 +6316,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>729</v>
       </c>
@@ -6319,7 +6336,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -6339,7 +6356,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -6359,7 +6376,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -6379,7 +6396,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -6399,7 +6416,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -6419,7 +6436,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -6439,7 +6456,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -6459,7 +6476,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -6479,7 +6496,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>261</v>
       </c>
@@ -6490,7 +6507,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -6510,7 +6527,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -6530,7 +6547,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>269</v>
       </c>
@@ -6550,7 +6567,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>618</v>
       </c>
@@ -6570,7 +6587,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>620</v>
       </c>
@@ -6590,7 +6607,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>622</v>
       </c>
@@ -6617,14 +6634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -6634,7 +6651,7 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6654,7 +6671,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -6674,7 +6691,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -6694,7 +6711,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -6714,7 +6731,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6731,7 +6748,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -6751,7 +6768,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -6771,7 +6788,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -6791,7 +6808,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -6811,7 +6828,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6831,7 +6848,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -6851,7 +6868,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -6871,7 +6888,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -6891,7 +6908,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -6911,7 +6928,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6931,7 +6948,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -6951,7 +6968,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -6971,7 +6988,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>599</v>
       </c>
@@ -6991,7 +7008,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>702</v>
       </c>
@@ -7002,7 +7019,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>905</v>
       </c>
@@ -7019,7 +7036,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>906</v>
       </c>
@@ -7036,7 +7053,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>909</v>
       </c>
@@ -7056,7 +7073,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>911</v>
       </c>
@@ -7076,7 +7093,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>919</v>
       </c>
@@ -7103,14 +7120,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
@@ -7119,7 +7136,7 @@
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7139,7 +7156,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -7159,7 +7176,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -7179,7 +7196,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>322</v>
       </c>
@@ -7199,7 +7216,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -7219,7 +7236,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>597</v>
       </c>
@@ -7245,14 +7262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -7262,7 +7279,7 @@
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7282,7 +7299,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -7302,7 +7319,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -7322,7 +7339,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -7342,7 +7359,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -7368,14 +7385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -7385,7 +7402,7 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7405,7 +7422,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>347</v>
       </c>
@@ -7423,7 +7440,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>351</v>
       </c>
@@ -7441,7 +7458,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>355</v>
       </c>
@@ -7461,7 +7478,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>356</v>
       </c>
@@ -7481,7 +7498,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>357</v>
       </c>
@@ -7495,7 +7512,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>361</v>
       </c>
@@ -7515,7 +7532,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>365</v>
       </c>
@@ -7533,7 +7550,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>367</v>
       </c>
@@ -7553,7 +7570,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>368</v>
       </c>
@@ -7573,7 +7590,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>373</v>
       </c>
@@ -7591,7 +7608,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>376</v>
       </c>
@@ -7611,7 +7628,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>380</v>
       </c>
@@ -7629,7 +7646,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>382</v>
       </c>
@@ -7649,7 +7666,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>389</v>
       </c>
@@ -7669,7 +7686,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>394</v>
       </c>
@@ -7689,7 +7706,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>397</v>
       </c>
@@ -7709,7 +7726,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>742</v>
       </c>
@@ -7729,7 +7746,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>745</v>
       </c>
@@ -7755,14 +7772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
@@ -7772,7 +7789,7 @@
     <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7792,7 +7809,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -7812,7 +7829,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -7832,7 +7849,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -7852,7 +7869,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -7872,7 +7889,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -7889,7 +7906,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -7915,14 +7932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
@@ -7932,7 +7949,7 @@
     <col min="6" max="6" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7952,7 +7969,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>542</v>
       </c>
@@ -7972,7 +7989,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>543</v>
       </c>
@@ -7992,7 +8009,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>545</v>
       </c>
@@ -8012,7 +8029,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>548</v>
       </c>
@@ -8032,7 +8049,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>551</v>
       </c>
@@ -8052,7 +8069,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>555</v>
       </c>
@@ -8072,7 +8089,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>560</v>
       </c>
@@ -8092,7 +8109,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8100,7 +8117,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>563</v>
       </c>
@@ -8120,7 +8137,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>565</v>
       </c>
@@ -8140,7 +8157,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8148,7 +8165,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>572</v>
       </c>
@@ -8168,7 +8185,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8176,7 +8193,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>574</v>
       </c>
@@ -8196,7 +8213,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>576</v>
       </c>
@@ -8216,7 +8233,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>579</v>
       </c>
@@ -8236,7 +8253,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="75">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>581</v>
       </c>
@@ -8256,7 +8273,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>583</v>
       </c>
@@ -8276,7 +8293,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>585</v>
       </c>
@@ -8296,7 +8313,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -8304,7 +8321,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>587</v>
       </c>
@@ -8324,7 +8341,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>591</v>
       </c>
@@ -8344,7 +8361,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -8352,7 +8369,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="105">
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>735</v>
       </c>
@@ -8379,14 +8396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -8394,7 +8411,7 @@
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8414,7 +8431,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>687</v>
       </c>
@@ -8434,7 +8451,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>688</v>
       </c>
@@ -8454,7 +8471,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>689</v>
       </c>
@@ -8465,7 +8482,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>690</v>
       </c>
@@ -8485,7 +8502,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>711</v>
       </c>
@@ -8505,7 +8522,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>714</v>
       </c>
@@ -8525,7 +8542,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>691</v>
       </c>
@@ -8545,7 +8562,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>692</v>
       </c>
@@ -8565,7 +8582,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>693</v>
       </c>
@@ -8585,7 +8602,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>694</v>
       </c>
@@ -8605,7 +8622,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>695</v>
       </c>
@@ -8625,7 +8642,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>696</v>
       </c>
@@ -8645,7 +8662,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>697</v>
       </c>
@@ -8665,7 +8682,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>698</v>
       </c>
@@ -8685,7 +8702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>699</v>
       </c>
@@ -8705,7 +8722,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
@@ -8715,14 +8732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="36.7109375" style="6"/>
     <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
@@ -8730,7 +8747,7 @@
     <col min="7" max="16384" width="36.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8750,7 +8767,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>866</v>
       </c>
@@ -8770,7 +8787,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>869</v>
       </c>
@@ -8790,7 +8807,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>873</v>
       </c>
@@ -8810,7 +8827,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>874</v>
       </c>
@@ -8830,7 +8847,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1">
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>879</v>
       </c>
@@ -8850,7 +8867,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>881</v>
       </c>
@@ -8870,7 +8887,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>883</v>
       </c>
@@ -8890,7 +8907,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>894</v>
       </c>
@@ -8910,7 +8927,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>898</v>
       </c>
@@ -8930,7 +8947,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>924</v>
       </c>
@@ -8950,7 +8967,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>925</v>
       </c>
@@ -8970,7 +8987,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>926</v>
       </c>
@@ -8996,14 +9013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -9013,7 +9030,7 @@
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9033,7 +9050,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -9053,7 +9070,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>201</v>
       </c>
@@ -9073,7 +9090,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
@@ -9093,7 +9110,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>203</v>
       </c>
@@ -9113,7 +9130,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>204</v>
       </c>
@@ -9133,7 +9150,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>205</v>
       </c>
@@ -9153,7 +9170,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>206</v>
       </c>
@@ -9173,7 +9190,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>207</v>
       </c>
@@ -9193,7 +9210,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>208</v>
       </c>
@@ -9213,7 +9230,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>210</v>
       </c>
@@ -9233,7 +9250,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>209</v>
       </c>
@@ -9259,14 +9276,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
@@ -9277,7 +9292,7 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9297,7 +9312,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>511</v>
       </c>
@@ -9317,7 +9332,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>513</v>
       </c>
@@ -9337,7 +9352,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>515</v>
       </c>
@@ -9357,7 +9372,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>517</v>
       </c>
@@ -9377,7 +9392,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>520</v>
       </c>
@@ -9397,7 +9412,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>521</v>
       </c>
@@ -9414,7 +9429,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>523</v>
       </c>
@@ -9434,7 +9449,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>525</v>
       </c>
@@ -9454,7 +9469,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>709</v>
       </c>
@@ -9474,8 +9489,30 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="10"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9484,14 +9521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
@@ -9499,7 +9536,7 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9519,7 +9556,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>402</v>
       </c>
@@ -9539,7 +9576,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>407</v>
       </c>
@@ -9559,7 +9596,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>409</v>
       </c>
@@ -9579,7 +9616,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>413</v>
       </c>
@@ -9599,7 +9636,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>416</v>
       </c>
@@ -9619,7 +9656,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>419</v>
       </c>
@@ -9639,7 +9676,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>421</v>
       </c>
@@ -9657,7 +9694,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>424</v>
       </c>
@@ -9675,7 +9712,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>428</v>
       </c>
@@ -9693,7 +9730,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>430</v>
       </c>
@@ -9713,7 +9750,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>433</v>
       </c>
@@ -9733,7 +9770,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>435</v>
       </c>
@@ -9751,7 +9788,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>438</v>
       </c>
@@ -9771,7 +9808,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>440</v>
       </c>
@@ -9791,7 +9828,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>443</v>
       </c>
@@ -9811,7 +9848,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>446</v>
       </c>
@@ -9831,7 +9868,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>449</v>
       </c>
@@ -9851,7 +9888,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>451</v>
       </c>
@@ -9871,7 +9908,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>458</v>
       </c>
@@ -9891,7 +9928,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>934</v>
       </c>
@@ -9907,7 +9944,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>937</v>
       </c>
@@ -9923,7 +9960,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>939</v>
       </c>
@@ -9935,7 +9972,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>941</v>
       </c>
@@ -9951,7 +9988,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>944</v>
       </c>
@@ -9967,7 +10004,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>948</v>
       </c>
@@ -9983,7 +10020,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>954</v>
       </c>
@@ -10008,14 +10045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
@@ -10024,7 +10061,7 @@
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10044,7 +10081,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -10064,7 +10101,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -10084,7 +10121,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -10104,7 +10141,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>468</v>
       </c>
@@ -10124,7 +10161,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -10144,7 +10181,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -10164,7 +10201,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -10184,7 +10221,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>479</v>
       </c>
@@ -10204,7 +10241,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -10224,7 +10261,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -10250,14 +10287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
@@ -10266,7 +10303,7 @@
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10286,7 +10323,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -10306,7 +10343,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -10326,7 +10363,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -10346,7 +10383,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -10366,7 +10403,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -10386,7 +10423,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10406,7 +10443,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -10426,7 +10463,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -10446,7 +10483,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -10466,7 +10503,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>963</v>
       </c>
@@ -10480,7 +10517,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>965</v>
       </c>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1439">
   <si>
     <t>LABEL</t>
   </si>
@@ -4357,6 +4357,18 @@
   </si>
   <si>
     <t>$LAB_MILKER_STATUS</t>
+  </si>
+  <si>
+    <t>NOT CONNECTED or DISABLED</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_NOT_CONNECTEDorDISABLED</t>
+  </si>
+  <si>
+    <t>CONNECTED</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_CONNECTED</t>
   </si>
 </sst>
 </file>
@@ -4495,7 +4507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4530,7 +4542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4717,7 +4729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -9277,9 +9289,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9512,7 +9526,20 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1437</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="5"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1694">
   <si>
     <t>LABEL</t>
   </si>
@@ -4369,13 +4369,778 @@
   </si>
   <si>
     <t>$LAB_MILKER_CONNECTED</t>
+  </si>
+  <si>
+    <t>$LAB_CONFIRM</t>
+  </si>
+  <si>
+    <t>CONFIRM</t>
+  </si>
+  <si>
+    <t>CONFERMA</t>
+  </si>
+  <si>
+    <t>$TASK_DISINSTALL_WAIT6</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION&lt;br&gt;&lt;br&gt;Open boiler tap then press CONTINUE</t>
+  </si>
+  <si>
+    <t>$TASK_DISINSTALL_WAIT7</t>
+  </si>
+  <si>
+    <t>DISINSTALLATION finished, please CLOSE the boiler tap and SHUT DOWN the machine</t>
+  </si>
+  <si>
+    <t>La DISINSTALLAZIONE è terminata. Si prega CHIUDERE il tappo del bollitore e di RIAVVIARE la macchina</t>
+  </si>
+  <si>
+    <t>DISINTALLAZIONE&lt;br&gt;&lt;br&gt;Aprire il tappo del bollitore e poi premere CONTINUA</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>保存</t>
+  </si>
+  <si>
+    <t>中断</t>
+  </si>
+  <si>
+    <t>接受</t>
+  </si>
+  <si>
+    <t>之后</t>
+  </si>
+  <si>
+    <t>之前</t>
+  </si>
+  <si>
+    <t>按键</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>校准</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>当前值</t>
+  </si>
+  <si>
+    <t>已禁用</t>
+  </si>
+  <si>
+    <t>折扣</t>
+  </si>
+  <si>
+    <t>剂量</t>
+  </si>
+  <si>
+    <t>编辑选择</t>
+  </si>
+  <si>
+    <t>已启用</t>
+  </si>
+  <si>
+    <t>快速</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>常规选项</t>
+  </si>
+  <si>
+    <t>常规设置</t>
+  </si>
+  <si>
+    <t>研磨机</t>
+  </si>
+  <si>
+    <t>请喝杯咖啡</t>
+  </si>
+  <si>
+    <t>讯息</t>
+  </si>
+  <si>
+    <t>被禁用</t>
+  </si>
+  <si>
+    <t>机器识别码</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>马达</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>数字中断</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
+  <si>
+    <t>请稍候</t>
+  </si>
+  <si>
+    <t>预选</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>饮品</t>
+  </si>
+  <si>
+    <t>编程菜单</t>
+  </si>
+  <si>
+    <t>通讯协议</t>
+  </si>
+  <si>
+    <t>重复</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>运行选项</t>
+  </si>
+  <si>
+    <t>正在保存数据文件，请稍候</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>跳过咖啡</t>
+  </si>
+  <si>
+    <t>速率</t>
+  </si>
+  <si>
+    <t>启动</t>
+  </si>
+  <si>
+    <t>延迟启动</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>测试选项</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>电压</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>马达正在运行，请稍候</t>
+  </si>
+  <si>
+    <t>完成后，请输入“最后”研磨的克数，然后按“继续”</t>
+  </si>
+  <si>
+    <t>无效值</t>
+  </si>
+  <si>
+    <t>存储值</t>
+  </si>
+  <si>
+    <t>请取出冲泡器，然后按“继续”</t>
+  </si>
+  <si>
+    <t>将冲泡器安装到位，然后按“继续”</t>
+  </si>
+  <si>
+    <t>讯息正在校准中，请稍候</t>
+  </si>
+  <si>
+    <t>研磨器正在运行中</t>
+  </si>
+  <si>
+    <t>将冲泡器放置到位，然后按“继续”，或按“重复”以再次研磨</t>
+  </si>
+  <si>
+    <t>研磨器正在调整位置，请等待</t>
+  </si>
+  <si>
+    <t>卸载&lt;br&gt;&lt;br&gt;滴水盘是否为空?</t>
+  </si>
+  <si>
+    <t>确认 - 继续</t>
+  </si>
+  <si>
+    <t>卸载&lt;br&gt;&lt;br&gt;请先清除咖啡渣，然后按"继续"</t>
+  </si>
+  <si>
+    <t>卸载&lt;br&gt;&lt;br&gt;按"开始卸载"继续，按"中止"取消操作</t>
+  </si>
+  <si>
+    <t>“卸载”进行中，请稍候</t>
+  </si>
+  <si>
+    <t>“卸载”已完成，请“关闭”机器设备</t>
+  </si>
+  <si>
+    <t>完成。数据正在处理中，请稍候</t>
+  </si>
+  <si>
+    <t>下载 EVA-DTS 时错误，请稍后再试</t>
+  </si>
+  <si>
+    <t>警告：您不能使用此选项，因为其研磨度为"偏细"或"标准"。&lt;br&gt;&lt;br&gt;&lt;br&gt;请选择研磨度为"禁用"或"参考"的选项（或编辑当前选择并更改研磨度参数）。</t>
+  </si>
+  <si>
+    <t>保养维护</t>
+  </si>
+  <si>
+    <t>清洗/&lt;br&gt;冲洗</t>
+  </si>
+  <si>
+    <t>数据审核</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>浓缩咖啡校准</t>
+  </si>
+  <si>
+    <t>速溶饮品&lt;br&gt;校准</t>
+  </si>
+  <si>
+    <t>设备</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>饮品&lt;br&gt;数量</t>
+  </si>
+  <si>
+    <t>支付&lt;br&gt;系统</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>时钟</t>
+  </si>
+  <si>
+    <t>鲜奶参数</t>
+  </si>
+  <si>
+    <t>手册</t>
+  </si>
+  <si>
+    <t>旧程序菜单</t>
+  </si>
+  <si>
+    <t>当前校准系数</t>
+  </si>
+  <si>
+    <t>当前位置</t>
+  </si>
+  <si>
+    <t>所需位置</t>
+  </si>
+  <si>
+    <t>当前</t>
+  </si>
+  <si>
+    <t>每次"运行选择"时，饮品用量信息均会更新</t>
+  </si>
+  <si>
+    <t>开始校准</t>
+  </si>
+  <si>
+    <t>重置校准</t>
+  </si>
+  <si>
+    <t>如果需要，可选按再次研磨</t>
+  </si>
+  <si>
+    <t>如果需要，可选择使用以下控件来调整打开研磨器</t>
+  </si>
+  <si>
+    <t>自动调节已"启用"</t>
+  </si>
+  <si>
+    <t>自动调节已"禁用"</t>
+  </si>
+  <si>
+    <t>您无法更改当前研磨器位置，因为已启用研磨器自动调节功能。&lt;br&gt;请转到“设备"&gt;"研磨器"并将其禁用</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>关闭列表</t>
+  </si>
+  <si>
+    <t>激活 H&lt;sub&gt;2&lt;/sub&gt;0 过滤器重置</t>
+  </si>
+  <si>
+    <t>水过滤器计数器</t>
+  </si>
+  <si>
+    <t>咖啡冲泡器计数器</t>
+  </si>
+  <si>
+    <t>咖啡渣计数器</t>
+  </si>
+  <si>
+    <t>显示温度</t>
+  </si>
+  <si>
+    <t>作为CPU 信息</t>
+  </si>
+  <si>
+    <t>卸载</t>
+  </si>
+  <si>
+    <t>开始卸载</t>
+  </si>
+  <si>
+    <t>首次安装</t>
+  </si>
+  <si>
+    <t>蒸汽温度</t>
+  </si>
+  <si>
+    <t>冲洗期间</t>
+  </si>
+  <si>
+    <t>启用冲洗</t>
+  </si>
+  <si>
+    <t>冲洗延迟</t>
+  </si>
+  <si>
+    <t>启用鲜奶传感器</t>
+  </si>
+  <si>
+    <t>在启动时显示&lt;br&gt;鲜奶套件冲洗按钮</t>
+  </si>
+  <si>
+    <t>定时自动冲洗</t>
+  </si>
+  <si>
+    <t>00:00 表示已禁用</t>
+  </si>
+  <si>
+    <t>自动更新冲洗时间</t>
+  </si>
+  <si>
+    <t>信息编号</t>
+  </si>
+  <si>
+    <t>风扇时间</t>
+  </si>
+  <si>
+    <t>蜂鸣时间</t>
+  </si>
+  <si>
+    <t>CPU 语言</t>
+  </si>
+  <si>
+    <t>侧面水泵</t>
+  </si>
+  <si>
+    <t>糖罐</t>
+  </si>
+  <si>
+    <t>鲜奶/奶粉切换</t>
+  </si>
+  <si>
+    <t>数据启用-审核之前</t>
+  </si>
+  <si>
+    <t>机器编码</t>
+  </si>
+  <si>
+    <t>产品 牛奶拿铁玛奇朵</t>
+  </si>
+  <si>
+    <t>拿铁玛奇朵 水编号</t>
+  </si>
+  <si>
+    <t>免费售货硬件按键&lt;br&gt;模式</t>
+  </si>
+  <si>
+    <t>开始免费售货</t>
+  </si>
+  <si>
+    <t>持续显示的小时数</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>现在开始</t>
+  </si>
+  <si>
+    <t>免费售货开始&lt;b style='color:#fff'&gt;运行&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>拿铁玛奇朵</t>
+  </si>
+  <si>
+    <t>免费销售将结束</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>夏令时</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>开机</t>
+  </si>
+  <si>
+    <t>关机</t>
+  </si>
+  <si>
+    <t>开始&lt;br&gt;冲洗</t>
+  </si>
+  <si>
+    <t>开始&lt;br&gt;冲洗 HC</t>
+  </si>
+  <si>
+    <t>开始冲洗&lt;br&gt;鲜奶套件</t>
+  </si>
+  <si>
+    <t>清洗 1</t>
+  </si>
+  <si>
+    <t>清洗 2</t>
+  </si>
+  <si>
+    <t>清洗 3</t>
+  </si>
+  <si>
+    <t>清洗 4</t>
+  </si>
+  <si>
+    <t>定时自动清洗</t>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>比例因子 ？</t>
+  </si>
+  <si>
+    <t>重复次数</t>
+  </si>
+  <si>
+    <t>特价优惠</t>
+  </si>
+  <si>
+    <t>咖啡顺序</t>
+  </si>
+  <si>
+    <t>咖啡水量</t>
+  </si>
+  <si>
+    <t>咖啡研磨机</t>
+  </si>
+  <si>
+    <t>预浸泡</t>
+  </si>
+  <si>
+    <t>冲泡压力</t>
+  </si>
+  <si>
+    <t>浓缩咖啡温度</t>
+  </si>
+  <si>
+    <t>研磨度</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>较细</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>茶包</t>
+  </si>
+  <si>
+    <t>拿铁玛奇朵&lt;br&gt;开始冲泡</t>
+  </si>
+  <si>
+    <t>EV 鲜奶&lt;br&gt;数量</t>
+  </si>
+  <si>
+    <t>EV 鲜奶&lt;br&gt;延迟</t>
+  </si>
+  <si>
+    <t>EV 鲜奶泡</t>
+  </si>
+  <si>
+    <t>EV 鲜奶泡&lt;br&gt;延迟</t>
+  </si>
+  <si>
+    <t>选择研磨机 2</t>
+  </si>
+  <si>
+    <t>咖啡重复</t>
+  </si>
+  <si>
+    <t>EV 温度</t>
+  </si>
+  <si>
+    <t>流量</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>冲泡器直径</t>
+  </si>
+  <si>
+    <t>待机位置</t>
+  </si>
+  <si>
+    <t>自动&lt;br&gt;调整</t>
+  </si>
+  <si>
+    <t>滴水检测</t>
+  </si>
+  <si>
+    <t>杯型传感器阈值</t>
+  </si>
+  <si>
+    <t>咖啡传感器</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>期望值</t>
+  </si>
+  <si>
+    <t>启用自动&lt;br&gt;调节</t>
+  </si>
+  <si>
+    <t>样本&lt;br&gt;数量</t>
+  </si>
+  <si>
+    <t>参考&lt;br&gt;选项</t>
+  </si>
+  <si>
+    <t>参考&lt;br&gt;流量</t>
+  </si>
+  <si>
+    <t>参考&lt;br&gt;位置</t>
+  </si>
+  <si>
+    <t>最后的流量/位置：&lt;br&gt;请点击&lt;b&gt;运行选择&lt;/ b&gt;</t>
+  </si>
+  <si>
+    <t>保存数值</t>
+  </si>
+  <si>
+    <t>交付阶段</t>
+  </si>
+  <si>
+    <t>调制解调器测试</t>
+  </si>
+  <si>
+    <t>组测试</t>
+  </si>
+  <si>
+    <t>电机马达测试</t>
+  </si>
+  <si>
+    <t>测试开始</t>
+  </si>
+  <si>
+    <t>测试进行中, 请稍候...&lt;br&gt;当前阶段:</t>
+  </si>
+  <si>
+    <t>测试完成</t>
+  </si>
+  <si>
+    <t>首选咖啡</t>
+  </si>
+  <si>
+    <t>加热时间</t>
+  </si>
+  <si>
+    <t>加热器</t>
+  </si>
+  <si>
+    <t>锅炉</t>
+  </si>
+  <si>
+    <t>当前温度</t>
+  </si>
+  <si>
+    <t>选择 A&lt;br&gt;计数器</t>
+  </si>
+  <si>
+    <t>罐&lt;br&gt;容量</t>
+  </si>
+  <si>
+    <t>警告于</t>
+  </si>
+  <si>
+    <t>启用产品停止</t>
+  </si>
+  <si>
+    <t>RFID 卡</t>
+  </si>
+  <si>
+    <t>币种类型</t>
+  </si>
+  <si>
+    <t>单次购买</t>
+  </si>
+  <si>
+    <t>多次购买</t>
+  </si>
+  <si>
+    <t>价格持有</t>
+  </si>
+  <si>
+    <t>货币 (价格)&lt;br&gt;小数位数</t>
+  </si>
+  <si>
+    <t>托管已启用</t>
+  </si>
+  <si>
+    <t>最大信用额度</t>
+  </si>
+  <si>
+    <t>剩余最大值</t>
+  </si>
+  <si>
+    <t>销售类型</t>
+  </si>
+  <si>
+    <t>代币值</t>
+  </si>
+  <si>
+    <t>账单验证人</t>
+  </si>
+  <si>
+    <t>硬币余量</t>
+  </si>
+  <si>
+    <t>无硬币</t>
+  </si>
+  <si>
+    <t>地址 VIDTS</t>
+  </si>
+  <si>
+    <t>最高级别信用卡</t>
+  </si>
+  <si>
+    <t>现金价目表</t>
+  </si>
+  <si>
+    <t>非现金价目表</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>刷新数据</t>
+  </si>
+  <si>
+    <t>再次刷新数据</t>
+  </si>
+  <si>
+    <t>重置部分数据</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>$LAB_NO</t>
+  </si>
+  <si>
+    <t>没有</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4387,6 +5152,39 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4418,14 +5216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4446,6 +5241,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4727,23 +5558,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4762,8 +5594,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -4782,8 +5617,11 @@
       <c r="F2" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -4802,8 +5640,11 @@
       <c r="F3" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="11" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>553</v>
       </c>
@@ -4816,8 +5657,11 @@
       <c r="F4" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="11" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>384</v>
       </c>
@@ -4836,8 +5680,11 @@
       <c r="F5" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -4856,8 +5703,11 @@
       <c r="F6" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="11" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -4876,8 +5726,11 @@
       <c r="F7" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="11" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" t="s">
         <v>538</v>
       </c>
@@ -4896,8 +5749,11 @@
       <c r="F8" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" t="s">
         <v>915</v>
       </c>
@@ -4916,8 +5772,11 @@
       <c r="F9" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -4936,8 +5795,11 @@
       <c r="F10" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="11" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>135</v>
       </c>
@@ -4956,8 +5818,11 @@
       <c r="F11" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>529</v>
       </c>
@@ -4976,8 +5841,11 @@
       <c r="F12" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="11" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -4996,8 +5864,11 @@
       <c r="F13" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="11" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>331</v>
       </c>
@@ -5014,7 +5885,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -5033,8 +5904,11 @@
       <c r="F15" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="11" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" t="s">
         <v>400</v>
       </c>
@@ -5053,8 +5927,11 @@
       <c r="F16" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="11" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -5070,8 +5947,11 @@
       <c r="F17" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="11" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" t="s">
         <v>719</v>
       </c>
@@ -5090,8 +5970,11 @@
       <c r="F18" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="11" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -5110,8 +5993,11 @@
       <c r="F19" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="11" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" t="s">
         <v>605</v>
       </c>
@@ -5130,8 +6016,11 @@
       <c r="F20" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="11" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" t="s">
         <v>502</v>
       </c>
@@ -5150,8 +6039,11 @@
       <c r="F21" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="11" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5170,8 +6062,11 @@
       <c r="F22" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="11" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -5190,8 +6085,11 @@
       <c r="F23" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="11" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -5210,8 +6108,11 @@
       <c r="F24" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="11" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>536</v>
       </c>
@@ -5230,8 +6131,11 @@
       <c r="F25" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="11" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="3" t="s">
         <v>706</v>
       </c>
@@ -5248,8 +6152,11 @@
       <c r="F26" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="12" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -5268,8 +6175,11 @@
       <c r="F27" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="11" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" t="s">
         <v>345</v>
       </c>
@@ -5288,8 +6198,11 @@
       <c r="F28" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="11" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -5308,8 +6221,11 @@
       <c r="F29" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="11" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -5328,652 +6244,772 @@
       <c r="F30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="11" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="G31" s="11" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>603</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>604</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G32" s="11" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" t="s">
         <v>188</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>186</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="G33" s="11" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="G34" s="11" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>527</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>528</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="G35" s="11" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" t="s">
         <v>144</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="G36" s="11" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="G37" s="11" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>178</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>179</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>648</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="G39" s="11" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>220</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="G40" s="11" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>391</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>392</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="G41" s="11" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>567</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>568</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="G42" s="11" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="G43" s="11" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>97</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>723</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>1046</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="G44" s="11" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
+      <c r="A45" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>593</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>595</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="G45" s="11" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>504</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>505</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="G46" s="11" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>94</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="G47" s="11" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>532</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>534</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="G48" s="11" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" t="s">
         <v>198</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>197</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>199</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>655</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="G49" s="11" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" t="s">
         <v>704</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>477</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>705</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>748</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="G50" s="11" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" t="s">
         <v>185</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>183</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>656</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="G51" s="11" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" t="s">
         <v>148</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>147</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>149</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>749</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="G52" s="11" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" t="s">
         <v>506</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>507</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>508</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>657</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="G53" s="11" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
+      <c r="A54" t="s">
         <v>211</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>212</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>213</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="G54" s="11" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75">
+      <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>99</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="G55" s="11" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
+      <c r="A56" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>497</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>498</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="G56" s="11" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
+      <c r="A57" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>491</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>493</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G57" s="11" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="G58" s="11" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75">
+      <c r="A59" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>190</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="G59" s="11" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
+      <c r="A60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>106</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="G60" s="11" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75">
+      <c r="A61" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>494</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>496</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="G61" s="11" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>37</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>38</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>609</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="G62" s="11" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
         <v>947</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>17</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
         <v>970</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>326</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>327</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>1428</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>1429</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>1430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -5987,23 +7023,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6022,8 +7059,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -6039,8 +7079,11 @@
       <c r="F2" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="19" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6056,8 +7099,11 @@
       <c r="F3" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -6073,8 +7119,11 @@
       <c r="F4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6093,8 +7142,11 @@
       <c r="F5" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="22" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -6113,8 +7165,11 @@
       <c r="F6" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="19" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -6133,8 +7188,11 @@
       <c r="F7" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="19" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -6150,8 +7208,11 @@
       <c r="F8" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="19" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -6170,8 +7231,11 @@
       <c r="F9" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="19" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6190,8 +7254,11 @@
       <c r="F10" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="19" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -6207,8 +7274,11 @@
       <c r="F11" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="19" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -6227,8 +7297,11 @@
       <c r="F12" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="19" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -6247,8 +7320,11 @@
       <c r="F13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="19" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -6267,8 +7343,11 @@
       <c r="F14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="19" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>732</v>
       </c>
@@ -6287,8 +7366,11 @@
       <c r="F15" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="19" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>731</v>
       </c>
@@ -6307,8 +7389,11 @@
       <c r="F16" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="19" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>728</v>
       </c>
@@ -6327,8 +7412,11 @@
       <c r="F17" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>729</v>
       </c>
@@ -6347,8 +7435,11 @@
       <c r="F18" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="19" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -6367,8 +7458,11 @@
       <c r="F19" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="19" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -6387,8 +7481,11 @@
       <c r="F20" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="19" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -6407,8 +7504,11 @@
       <c r="F21" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="19" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -6427,8 +7527,11 @@
       <c r="F22" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="19" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -6447,8 +7550,11 @@
       <c r="F23" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="19" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -6467,8 +7573,11 @@
       <c r="F24" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="19" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -6487,8 +7596,11 @@
       <c r="F25" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="19" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>260</v>
       </c>
@@ -6507,8 +7619,11 @@
       <c r="F26" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="19" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>261</v>
       </c>
@@ -6518,8 +7633,11 @@
       <c r="F27" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="19" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -6538,8 +7656,11 @@
       <c r="F28" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="19" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>265</v>
       </c>
@@ -6558,8 +7679,11 @@
       <c r="F29" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="19" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>269</v>
       </c>
@@ -6578,8 +7702,11 @@
       <c r="F30" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="19" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>618</v>
       </c>
@@ -6598,8 +7725,11 @@
       <c r="F31" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="19" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>620</v>
       </c>
@@ -6618,8 +7748,11 @@
       <c r="F32" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="19" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>622</v>
       </c>
@@ -6637,6 +7770,9 @@
       </c>
       <c r="F33" t="s">
         <v>1314</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
@@ -6647,13 +7783,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -6661,9 +7797,10 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6682,8 +7819,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -6702,8 +7842,11 @@
       <c r="F2" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="19" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -6722,8 +7865,11 @@
       <c r="F3" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -6742,8 +7888,11 @@
       <c r="F4" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -6759,8 +7908,11 @@
       <c r="F5" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="19" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -6779,8 +7931,11 @@
       <c r="F6" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="19" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>280</v>
       </c>
@@ -6799,8 +7954,11 @@
       <c r="F7" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="19" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>284</v>
       </c>
@@ -6819,8 +7977,11 @@
       <c r="F8" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="19" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -6839,8 +8000,11 @@
       <c r="F9" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="19" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -6859,8 +8023,11 @@
       <c r="F10" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="19" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>292</v>
       </c>
@@ -6879,8 +8046,11 @@
       <c r="F11" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="19" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>297</v>
       </c>
@@ -6899,8 +8069,11 @@
       <c r="F12" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="19" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -6919,8 +8092,11 @@
       <c r="F13" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="19" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -6939,8 +8115,11 @@
       <c r="F14" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="19" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>307</v>
       </c>
@@ -6959,8 +8138,11 @@
       <c r="F15" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="19" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -6979,8 +8161,11 @@
       <c r="F16" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="19" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -6999,8 +8184,11 @@
       <c r="F17" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>599</v>
       </c>
@@ -7019,8 +8207,11 @@
       <c r="F18" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="19" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>702</v>
       </c>
@@ -7030,8 +8221,11 @@
       <c r="F19" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="19" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>905</v>
       </c>
@@ -7047,8 +8241,11 @@
       <c r="F20" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="19" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>906</v>
       </c>
@@ -7064,8 +8261,11 @@
       <c r="F21" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="19" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>909</v>
       </c>
@@ -7084,8 +8284,11 @@
       <c r="F22" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="19" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>911</v>
       </c>
@@ -7104,8 +8307,11 @@
       <c r="F23" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="19" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>919</v>
       </c>
@@ -7123,6 +8329,9 @@
       </c>
       <c r="F24" t="s">
         <v>1359</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>1659</v>
       </c>
     </row>
   </sheetData>
@@ -7133,22 +8342,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7167,8 +8377,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>316</v>
       </c>
@@ -7187,8 +8400,11 @@
       <c r="F2" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="19" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>323</v>
       </c>
@@ -7207,8 +8423,11 @@
       <c r="F3" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>322</v>
       </c>
@@ -7227,8 +8446,11 @@
       <c r="F4" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>325</v>
       </c>
@@ -7247,8 +8469,11 @@
       <c r="F5" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="19" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>597</v>
       </c>
@@ -7266,6 +8491,9 @@
       </c>
       <c r="F6" t="s">
         <v>1369</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
@@ -7275,13 +8503,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
@@ -7289,9 +8517,10 @@
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7310,8 +8539,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>330</v>
       </c>
@@ -7330,8 +8562,11 @@
       <c r="F2" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="21" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -7350,8 +8585,11 @@
       <c r="F3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>338</v>
       </c>
@@ -7370,8 +8608,11 @@
       <c r="F4" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -7389,6 +8630,9 @@
       </c>
       <c r="F5" t="s">
         <v>1377</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -7398,384 +8642,442 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="19" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="19" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="19" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>1384</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="19" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="21" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="19" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="19" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="19" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="19" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>1394</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="19" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="19" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>1398</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="19" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>1400</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="20" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="20" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="19" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>1406</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="19" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="19" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>1411</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>1686</v>
       </c>
     </row>
   </sheetData>
@@ -7785,23 +9087,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7820,8 +9123,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -7840,8 +9146,11 @@
       <c r="F2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="19" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -7860,8 +9169,11 @@
       <c r="F3" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -7880,8 +9192,11 @@
       <c r="F4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -7900,8 +9215,11 @@
       <c r="F5" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="19" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -7917,8 +9235,11 @@
       <c r="F6" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="19" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -7936,6 +9257,9 @@
       </c>
       <c r="F7" t="s">
         <v>1414</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
@@ -7945,460 +9269,525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7" style="5" customWidth="1"/>
+    <col min="7" max="7" width="90" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="14" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="14" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="14" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="14" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="14" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="14" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G8" s="15" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="14" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G11" s="16" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="F12" s="6"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G13" s="16" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>1421</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="16" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="16" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>1417</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="16" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>1418</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="16" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="16" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>1420</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="G20" s="16" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1447</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="G24" s="16" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G25" s="16" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>1113</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>1523</v>
       </c>
     </row>
   </sheetData>
@@ -8409,21 +9798,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="4" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8442,8 +9832,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>687</v>
       </c>
@@ -8462,8 +9855,11 @@
       <c r="F2" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>688</v>
       </c>
@@ -8482,8 +9878,11 @@
       <c r="F3" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>689</v>
       </c>
@@ -8493,8 +9892,11 @@
       <c r="F4" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>690</v>
       </c>
@@ -8513,8 +9915,11 @@
       <c r="F5" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>711</v>
       </c>
@@ -8533,8 +9938,11 @@
       <c r="F6" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>714</v>
       </c>
@@ -8553,8 +9961,11 @@
       <c r="F7" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>691</v>
       </c>
@@ -8573,8 +9984,11 @@
       <c r="F8" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>692</v>
       </c>
@@ -8593,8 +10007,11 @@
       <c r="F9" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>693</v>
       </c>
@@ -8613,8 +10030,11 @@
       <c r="F10" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" t="s">
         <v>694</v>
       </c>
@@ -8627,14 +10047,17 @@
       <c r="D11" t="s">
         <v>668</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>1130</v>
       </c>
       <c r="F11" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="17" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>695</v>
       </c>
@@ -8653,8 +10076,11 @@
       <c r="F12" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>696</v>
       </c>
@@ -8673,8 +10099,11 @@
       <c r="F13" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>697</v>
       </c>
@@ -8693,8 +10122,11 @@
       <c r="F14" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>698</v>
       </c>
@@ -8713,8 +10145,11 @@
       <c r="F15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>699</v>
       </c>
@@ -8733,8 +10168,11 @@
       <c r="F16" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="2"/>
     </row>
   </sheetData>
@@ -8745,278 +10183,322 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="36.7109375" style="6"/>
-    <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="36.7109375" style="6"/>
+    <col min="1" max="2" width="36.7109375" style="5"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="36.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="18" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="18" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="18" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="18" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="18" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="18" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G8" s="18" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="18" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5">
+      <c r="A11" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="18" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="18" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="18" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="47.25">
+      <c r="A14" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>1161</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>1550</v>
       </c>
     </row>
   </sheetData>
@@ -9026,518 +10508,586 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="21" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="21" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="21" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="21" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="21" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="21" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="21" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="21" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="21" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="21" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>1182</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>1561</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="25.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="53.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="6.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="19" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="19" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1423</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="19" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="19" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="19" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>1425</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="19" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1426</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="19" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="19" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="19" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>1434</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
         <v>1436</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>1438</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -9552,516 +11102,577 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="G2" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="19" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="19" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="19" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G5" s="19" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="19" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="19" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="19" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="19" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="19" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="19" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="G12" s="19" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="G13" s="19" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="19" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="G15" s="19" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="19" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="19" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="19" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="19" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="G20" s="19" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="J27" t="s">
         <v>949</v>
       </c>
@@ -10073,22 +11684,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10107,8 +11719,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>460</v>
       </c>
@@ -10127,8 +11742,11 @@
       <c r="F2" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>461</v>
       </c>
@@ -10147,8 +11765,11 @@
       <c r="F3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>465</v>
       </c>
@@ -10167,8 +11788,11 @@
       <c r="F4" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>468</v>
       </c>
@@ -10187,8 +11811,11 @@
       <c r="F5" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>470</v>
       </c>
@@ -10207,8 +11834,11 @@
       <c r="F6" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>471</v>
       </c>
@@ -10227,8 +11857,11 @@
       <c r="F7" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -10247,8 +11880,11 @@
       <c r="F8" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>479</v>
       </c>
@@ -10267,8 +11903,11 @@
       <c r="F9" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>482</v>
       </c>
@@ -10287,8 +11926,11 @@
       <c r="F10" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>484</v>
       </c>
@@ -10306,6 +11948,9 @@
       </c>
       <c r="F11" t="s">
         <v>1251</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1599</v>
       </c>
     </row>
   </sheetData>
@@ -10315,22 +11960,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10349,8 +11995,11 @@
       <c r="F1" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -10369,8 +12018,11 @@
       <c r="F2" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="19" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -10389,8 +12041,11 @@
       <c r="F3" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="19" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -10409,8 +12064,11 @@
       <c r="F4" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -10429,8 +12087,11 @@
       <c r="F5" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="19" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -10449,8 +12110,11 @@
       <c r="F6" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="19" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10469,8 +12133,11 @@
       <c r="F7" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="19" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -10489,8 +12156,11 @@
       <c r="F8" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="19" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -10509,8 +12179,11 @@
       <c r="F9" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="19" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -10529,8 +12202,11 @@
       <c r="F10" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="19" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>963</v>
       </c>
@@ -10544,7 +12220,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>965</v>
       </c>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1696">
   <si>
     <t>LABEL</t>
   </si>
@@ -5134,6 +5134,12 @@
   </si>
   <si>
     <t>没有</t>
+  </si>
+  <si>
+    <t>$LAB_DEV_GRINDER_SPEED_FOR_OFF09</t>
+  </si>
+  <si>
+    <t>GRINDER SPEED FOR OFF09</t>
   </si>
 </sst>
 </file>
@@ -5560,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5730,1286 +5736,1286 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>970</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
-        <v>540</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>615</v>
-      </c>
-      <c r="E8" t="s">
-        <v>989</v>
-      </c>
-      <c r="F8" t="s">
-        <v>990</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>1455</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E9" t="s">
+        <v>989</v>
+      </c>
+      <c r="F9" t="s">
+        <v>990</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" t="s">
         <v>915</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>136</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>916</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>917</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>991</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>992</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>1456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>616</v>
-      </c>
-      <c r="E10" t="s">
-        <v>993</v>
-      </c>
-      <c r="F10" t="s">
-        <v>993</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>994</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E11" t="s">
+        <v>993</v>
       </c>
       <c r="F11" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="F12" t="s">
+        <v>992</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>530</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>531</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>995</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>1458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>632</v>
-      </c>
-      <c r="E13" t="s">
-        <v>996</v>
-      </c>
-      <c r="F13" t="s">
-        <v>997</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>1439</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>1440</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14" t="s">
-        <v>998</v>
-      </c>
-      <c r="F14" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>1428</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>1429</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" t="s">
-        <v>633</v>
-      </c>
-      <c r="E15" t="s">
-        <v>999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>1460</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E16" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F16" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="F17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>1462</v>
+        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>721</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>722</v>
+        <v>633</v>
       </c>
       <c r="E18" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F18" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E19" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F19" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>606</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>607</v>
-      </c>
-      <c r="D20" t="s">
-        <v>636</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F20" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>719</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="C21" t="s">
-        <v>501</v>
+        <v>721</v>
       </c>
       <c r="D21" t="s">
-        <v>630</v>
+        <v>722</v>
       </c>
       <c r="E21" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F21" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E22" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="F22" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B23" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" t="s">
+        <v>636</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B24" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" t="s">
+        <v>630</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" t="s">
         <v>101</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>102</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>637</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E26" t="s">
         <v>1014</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>1015</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
-      <c r="A24" s="3" t="s">
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F27" t="s">
         <v>1017</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="3" t="s">
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>535</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F28" t="s">
         <v>1019</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>707</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>708</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>1020</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
-      <c r="A27" t="s">
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>640</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F30" t="s">
         <v>1022</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
-      <c r="A28" t="s">
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" t="s">
         <v>345</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>343</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>346</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D31" t="s">
         <v>641</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F31" t="s">
         <v>1024</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" t="s">
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" t="s">
         <v>488</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>489</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>490</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>629</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F32" t="s">
         <v>1026</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>133</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>1475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75">
-      <c r="A31" s="3" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="11" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75">
-      <c r="A32" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="B32" t="s">
-        <v>603</v>
-      </c>
-      <c r="C32" t="s">
-        <v>604</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F32" t="s">
-        <v>603</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75">
-      <c r="A33" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>1692</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1030</v>
-      </c>
+        <v>1691</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="G34" s="11" t="s">
-        <v>1478</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="B35" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="C35" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1031</v>
+        <v>603</v>
       </c>
       <c r="F35" t="s">
-        <v>1032</v>
+        <v>603</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>187</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F36" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F37" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>177</v>
+        <v>526</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>527</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>528</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F38" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75">
-      <c r="A39" s="3" t="s">
-        <v>103</v>
+      <c r="A39" t="s">
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>648</v>
+        <v>146</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F39" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="3" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F40" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="3" t="s">
-        <v>390</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>392</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F41" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="3" t="s">
-        <v>566</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>567</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>568</v>
+        <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="F42" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1041</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>1042</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" t="s">
-        <v>723</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1046</v>
+        <v>392</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1043</v>
       </c>
       <c r="F44" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="3" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="B45" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="C45" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="F45" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="3" t="s">
-        <v>503</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>504</v>
-      </c>
-      <c r="C46" t="s">
-        <v>505</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>1050</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>1050</v>
+        <v>50</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75">
-      <c r="A47" t="s">
-        <v>92</v>
+      <c r="A47" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>1051</v>
+        <v>723</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1046</v>
       </c>
       <c r="F47" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="3" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="B48" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="C48" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F48" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75">
-      <c r="A49" t="s">
-        <v>198</v>
+      <c r="A49" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>504</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" t="s">
-        <v>655</v>
+        <v>505</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="F49" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" t="s">
-        <v>704</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>477</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>705</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>748</v>
+        <v>93</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F50" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>947</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>656</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>1494</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75">
-      <c r="A52" t="s">
-        <v>148</v>
+      <c r="A52" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>532</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" t="s">
-        <v>749</v>
+        <v>534</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>1054</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75">
       <c r="A53" t="s">
-        <v>506</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>507</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>508</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="F53" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>704</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>477</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>705</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>748</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>213</v>
+        <v>1057</v>
       </c>
       <c r="F54" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75">
-      <c r="A55" s="3" t="s">
-        <v>98</v>
+      <c r="A55" t="s">
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>99</v>
+        <v>184</v>
+      </c>
+      <c r="D55" t="s">
+        <v>656</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="F55" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75">
-      <c r="A56" s="3" t="s">
-        <v>499</v>
+      <c r="A56" t="s">
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>498</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>658</v>
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>749</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="F56" t="s">
-        <v>1067</v>
+        <v>147</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75">
-      <c r="A57" s="3" t="s">
-        <v>492</v>
+      <c r="A57" t="s">
+        <v>506</v>
       </c>
       <c r="B57" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="C57" t="s">
-        <v>493</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>659</v>
+        <v>508</v>
+      </c>
+      <c r="D57" t="s">
+        <v>657</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F57" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>660</v>
+        <v>213</v>
+      </c>
+      <c r="D58" t="s">
+        <v>213</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1070</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75">
       <c r="A59" s="3" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>661</v>
+        <v>99</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="F59" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="3" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>497</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>498</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="F60" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B61" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61" t="s">
+        <v>493</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75">
+      <c r="A63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75">
+      <c r="A64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75">
+      <c r="A65" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>494</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>496</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F65" t="s">
         <v>1075</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G65" s="11" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
-      <c r="A62" s="3" t="s">
+    <row r="66" spans="1:7" ht="15.75">
+      <c r="A66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C66" t="s">
         <v>38</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D66" t="s">
         <v>609</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F66" t="s">
         <v>1076</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G66" s="11" t="s">
         <v>1504</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
-        <v>947</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>970</v>
-      </c>
-      <c r="B64" t="s">
-        <v>326</v>
-      </c>
-      <c r="C64" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -7783,17 +7789,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -8332,6 +8338,14 @@
       </c>
       <c r="G24" s="19" t="s">
         <v>1659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1695</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1711">
   <si>
     <t>LABEL</t>
   </si>
@@ -5140,6 +5140,51 @@
   </si>
   <si>
     <t>GRINDER SPEED FOR OFF09</t>
+  </si>
+  <si>
+    <t>STEP 1&lt;br&gt;Please, &lt;b&gt;close the coffee bell&lt;/b&gt; (orange lever) and press CONTINUE. The grinder will run for about 10 seconds in order to empty the grinder itself.</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDER_TEST_OFF09_STEP1</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDER_TEST_OFF09_STEP2</t>
+  </si>
+  <si>
+    <t>STEP 2&lt;br&gt;Now that the grinder is empty, we can test to detect the average sensor value reported when the grinder is empty. Press CONTINUE to proceed. The grinder will run for about 10 seconds.</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDER_TEST_OFF09_STEP3</t>
+  </si>
+  <si>
+    <t>STEP 3&lt;br&gt;Now &lt;b&gt;open the coffee bell&lt;/b&gt; (orange lever) and  then press CONTINUE to proceed. The grinder will run for about 10 seconds.</t>
+  </si>
+  <si>
+    <t>RISULTATO</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>$LAB_RESULT</t>
+  </si>
+  <si>
+    <t>Average speed when grinder is empty</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDER_TEST_OFF09_AVG_EMPTY</t>
+  </si>
+  <si>
+    <t>Average speed when grinder is not empty</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDER_TEST_OFF09_AVG_NOT_EMPTY</t>
+  </si>
+  <si>
+    <t>Vel. Media con macina non vuota</t>
+  </si>
+  <si>
+    <t>Vel. media con macina vuota</t>
   </si>
 </sst>
 </file>
@@ -5564,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6569,404 +6614,393 @@
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="3" t="s">
-        <v>95</v>
+        <v>1704</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>1703</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s">
-        <v>723</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>1487</v>
-      </c>
+        <v>1702</v>
+      </c>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="3" t="s">
-        <v>594</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>593</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>595</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>1048</v>
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>723</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1046</v>
       </c>
       <c r="F48" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B49" t="s">
+        <v>593</v>
+      </c>
+      <c r="C49" t="s">
+        <v>595</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>504</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>505</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>1050</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G50" s="11" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
-      <c r="A50" t="s">
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" t="s">
         <v>92</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>93</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>94</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>1052</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>947</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>17</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>532</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>534</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F53" t="s">
         <v>1054</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>1491</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75">
-      <c r="A53" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" t="s">
-        <v>655</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" t="s">
-        <v>704</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>705</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>748</v>
+        <v>655</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F54" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>704</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>477</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>705</v>
       </c>
       <c r="D55" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F55" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>749</v>
+        <v>656</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>1060</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75">
       <c r="A57" t="s">
-        <v>506</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>507</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>508</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F57" t="s">
-        <v>1062</v>
+        <v>147</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" t="s">
+        <v>506</v>
+      </c>
+      <c r="B58" t="s">
+        <v>507</v>
+      </c>
+      <c r="C58" t="s">
+        <v>508</v>
+      </c>
+      <c r="D58" t="s">
+        <v>657</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75">
+      <c r="A59" t="s">
         <v>211</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>212</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>213</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>1063</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G59" s="11" t="s">
         <v>1497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75">
-      <c r="A59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="3" t="s">
-        <v>499</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>498</v>
+        <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>658</v>
+        <v>99</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F60" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B61" t="s">
+        <v>497</v>
+      </c>
+      <c r="C61" t="s">
+        <v>498</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>491</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>493</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>1069</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G62" s="11" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
-      <c r="A62" t="s">
+    <row r="63" spans="1:7" ht="15.75">
+      <c r="A63" t="s">
         <v>56</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>57</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>1071</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G63" s="11" t="s">
         <v>1501</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75">
-      <c r="A63" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="3" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F64" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>1502</v>
@@ -6974,47 +7008,70 @@
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="3" t="s">
-        <v>495</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>494</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>496</v>
+        <v>107</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F65" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66" t="s">
+        <v>496</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75">
+      <c r="A67" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>37</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>38</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>609</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>1076</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G67" s="11" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -7789,16 +7846,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
@@ -8346,6 +8403,52 @@
       </c>
       <c r="B25" t="s">
         <v>1695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="10"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="1761">
   <si>
     <t>LABEL</t>
   </si>
@@ -5185,6 +5185,156 @@
   </si>
   <si>
     <t>Vel. media con macina vuota</t>
+  </si>
+  <si>
+    <t>Brewer Cleaning is not started (or ended)</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_1</t>
+  </si>
+  <si>
+    <t>Brewer Cleaning is started</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_2</t>
+  </si>
+  <si>
+    <t>Brewer placed</t>
+  </si>
+  <si>
+    <t>Put pastille and push START</t>
+  </si>
+  <si>
+    <t>Infusion</t>
+  </si>
+  <si>
+    <t>Brewer cleaning cycles</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_3</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_4</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_5</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_6</t>
+  </si>
+  <si>
+    <t>Repeat cleaning ?</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_7</t>
+  </si>
+  <si>
+    <t>Brewer placed in brush position, press CONTINUE when finished</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_8</t>
+  </si>
+  <si>
+    <t>Skip final coffee or make a coffee</t>
+  </si>
+  <si>
+    <t>Coffee delivery</t>
+  </si>
+  <si>
+    <t>Rinsing</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_9</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_10</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_11</t>
+  </si>
+  <si>
+    <t>Milker Cleaning is started</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANMILK_1</t>
+  </si>
+  <si>
+    <t>Wait for confirm</t>
+  </si>
+  <si>
+    <t>Wait for second confirm</t>
+  </si>
+  <si>
+    <t>Warming for water</t>
+  </si>
+  <si>
+    <t>Warming for cleaner</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANMILK_2</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANMILK_3</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANMILK_4</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANMILK_5</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANMILK_6</t>
+  </si>
+  <si>
+    <t>Doing cleaner cycles (12)</t>
+  </si>
+  <si>
+    <t>Lavaggio non iniziato (o terminato)</t>
+  </si>
+  <si>
+    <t>Lavaggio del gruppo in corso</t>
+  </si>
+  <si>
+    <t>Gruppo posizionato</t>
+  </si>
+  <si>
+    <t>Inserire la pastiglia e premere INIZIA</t>
+  </si>
+  <si>
+    <t>Infusione</t>
+  </si>
+  <si>
+    <t>Ciclo di pulizia del gruppo</t>
+  </si>
+  <si>
+    <t>Ripetere la pulizia?</t>
+  </si>
+  <si>
+    <t>Gruppo posizionato, premere CONTINUA quando terminato</t>
+  </si>
+  <si>
+    <t>Si desidera erogare un caffè?</t>
+  </si>
+  <si>
+    <t>Erogazione in corso</t>
+  </si>
+  <si>
+    <t>Risciacquo</t>
+  </si>
+  <si>
+    <t>Lavaggio del cappuccinatore in corso</t>
+  </si>
+  <si>
+    <t>Attesa temperatura</t>
+  </si>
+  <si>
+    <t>Attesa conferma</t>
+  </si>
+  <si>
+    <t>Cicli di lavaggio in corso (12)</t>
+  </si>
+  <si>
+    <t>Attesa seconda conferma</t>
   </si>
 </sst>
 </file>
@@ -7848,7 +7998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -12077,17 +12227,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="7" max="7" width="43.140625" customWidth="1"/>
@@ -12351,6 +12501,193 @@
         <v>966</v>
       </c>
     </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Payment" sheetId="10" r:id="rId14"/>
     <sheet name="Menu Data Audit" sheetId="6" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1817">
   <si>
     <t>LABEL</t>
   </si>
@@ -5190,15 +5190,9 @@
     <t>Brewer Cleaning is not started (or ended)</t>
   </si>
   <si>
-    <t>$LAB_CLEANSAN_1</t>
-  </si>
-  <si>
     <t>Brewer Cleaning is started</t>
   </si>
   <si>
-    <t>$LAB_CLEANSAN_2</t>
-  </si>
-  <si>
     <t>Brewer placed</t>
   </si>
   <si>
@@ -5211,30 +5205,12 @@
     <t>Brewer cleaning cycles</t>
   </si>
   <si>
-    <t>$LAB_CLEANSAN_3</t>
-  </si>
-  <si>
-    <t>$LAB_CLEANSAN_4</t>
-  </si>
-  <si>
-    <t>$LAB_CLEANSAN_5</t>
-  </si>
-  <si>
-    <t>$LAB_CLEANSAN_6</t>
-  </si>
-  <si>
     <t>Repeat cleaning ?</t>
   </si>
   <si>
-    <t>$LAB_CLEANSAN_7</t>
-  </si>
-  <si>
     <t>Brewer placed in brush position, press CONTINUE when finished</t>
   </si>
   <si>
-    <t>$LAB_CLEANSAN_8</t>
-  </si>
-  <si>
     <t>Skip final coffee or make a coffee</t>
   </si>
   <si>
@@ -5244,15 +5220,6 @@
     <t>Rinsing</t>
   </si>
   <si>
-    <t>$LAB_CLEANSAN_9</t>
-  </si>
-  <si>
-    <t>$LAB_CLEANSAN_10</t>
-  </si>
-  <si>
-    <t>$LAB_CLEANSAN_11</t>
-  </si>
-  <si>
     <t>Milker Cleaning is started</t>
   </si>
   <si>
@@ -5335,6 +5302,207 @@
   </si>
   <si>
     <t>Attesa seconda conferma</t>
+  </si>
+  <si>
+    <t>Cleaning is active</t>
+  </si>
+  <si>
+    <t>Put the pastille in the brewer and press CONTINUE</t>
+  </si>
+  <si>
+    <t>Brewer is closing</t>
+  </si>
+  <si>
+    <t>Tablet dissolution 1/2, please wait</t>
+  </si>
+  <si>
+    <t>2nd dissolution cycle is about to starting</t>
+  </si>
+  <si>
+    <t>Tablet dissolution 2/2, please wait</t>
+  </si>
+  <si>
+    <t>1st Cleaning, please wait</t>
+  </si>
+  <si>
+    <t>1st Cleaning, active 1/3</t>
+  </si>
+  <si>
+    <t>1st Cleaning, active 2/3</t>
+  </si>
+  <si>
+    <t>1st Cleaning, active 3/3</t>
+  </si>
+  <si>
+    <t>Do you want to repeat clean cycle 1/2 ?</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_1</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_2</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_3</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_4</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_5</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_6</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_7</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_8</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_9</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_10</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_MICRO_11</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_0</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_10</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_1</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_2</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_3</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_4</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_5</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_7</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_8</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_9</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_11</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_12</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_13</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_1st_CLEAN_WAIT</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_2nd_CLEAN_WAIT</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, please wait</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, active 1/6</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, active 2/6</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, active 3/6</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, active 4/6</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, active 5/6</t>
+  </si>
+  <si>
+    <t>2nd Cleaning, active 6/6</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_14</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_15</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_16</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_17</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_18</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_19</t>
+  </si>
+  <si>
+    <t>Do you want to repeat clean cycle 2/2 ?</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_SKIP_COFFEE</t>
+  </si>
+  <si>
+    <t>LAB_CLEANSAN_VFLEX_20</t>
+  </si>
+  <si>
+    <t>LAB_CLEANSAN_VFLEX_21</t>
+  </si>
+  <si>
+    <t>LAB_CLEANSAN_VFLEX_22</t>
+  </si>
+  <si>
+    <t>LAB_CLEANSAN_VFLEX_23</t>
+  </si>
+  <si>
+    <t>LAB_CLEANSAN_VFLEX_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brewer Rinsing </t>
+  </si>
+  <si>
+    <t>Mixer 1 Rinsing</t>
+  </si>
+  <si>
+    <t>Mixer 2 Rinsing</t>
+  </si>
+  <si>
+    <t>Mixer 3 Rinsing</t>
+  </si>
+  <si>
+    <t>Brewer is going into open position</t>
+  </si>
+  <si>
+    <t>Please, perform a manual brush and then press CONTINUE when finished</t>
+  </si>
+  <si>
+    <t>Do you want to skip the final coffee ?</t>
+  </si>
+  <si>
+    <t>Brewer Cleaning Done. Press CLOSE to finish</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_COFFEE_DELIVER</t>
+  </si>
+  <si>
+    <t>Coffee delivery, please wait</t>
   </si>
 </sst>
 </file>
@@ -5761,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12227,10 +12395,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12503,189 +12671,413 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>1712</v>
+        <v>1761</v>
       </c>
       <c r="B14" t="s">
         <v>1711</v>
       </c>
       <c r="C14" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1714</v>
+        <v>1762</v>
       </c>
       <c r="B15" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C15" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>1719</v>
+        <v>1763</v>
       </c>
       <c r="B16" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C16" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1720</v>
+        <v>1764</v>
       </c>
       <c r="B17" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C17" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1721</v>
+        <v>1765</v>
       </c>
       <c r="B18" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C18" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1722</v>
+        <v>1766</v>
       </c>
       <c r="B19" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C19" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1724</v>
+        <v>1767</v>
       </c>
       <c r="B20" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="C20" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1726</v>
+        <v>1768</v>
       </c>
       <c r="B21" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="C21" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1730</v>
+        <v>1769</v>
       </c>
       <c r="B22" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="C22" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1731</v>
+        <v>1770</v>
       </c>
       <c r="B23" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="C23" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1732</v>
+        <v>1771</v>
       </c>
       <c r="B24" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="C24" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="B26" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="C26" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="B27" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="C27" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="B28" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="C28" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="B29" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="C29" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="B30" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="C30" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="B31" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="C31" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B43" t="s">
         <v>1760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1814</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -5460,21 +5460,6 @@
     <t>$LAB_CLEANSAN_VFLEX_SKIP_COFFEE</t>
   </si>
   <si>
-    <t>LAB_CLEANSAN_VFLEX_20</t>
-  </si>
-  <si>
-    <t>LAB_CLEANSAN_VFLEX_21</t>
-  </si>
-  <si>
-    <t>LAB_CLEANSAN_VFLEX_22</t>
-  </si>
-  <si>
-    <t>LAB_CLEANSAN_VFLEX_23</t>
-  </si>
-  <si>
-    <t>LAB_CLEANSAN_VFLEX_24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brewer Rinsing </t>
   </si>
   <si>
@@ -5503,6 +5488,21 @@
   </si>
   <si>
     <t>Coffee delivery, please wait</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_20</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_21</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_22</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_23</t>
+  </si>
+  <si>
+    <t>$LAB_CLEANSAN_VFLEX_24</t>
   </si>
 </sst>
 </file>
@@ -12395,10 +12395,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12949,7 +12949,7 @@
         <v>1782</v>
       </c>
       <c r="B44" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -12957,7 +12957,7 @@
         <v>1783</v>
       </c>
       <c r="B45" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -13029,58 +13029,62 @@
         <v>1801</v>
       </c>
       <c r="B54" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="B55" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B56" t="s">
         <v>1802</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B57" t="s">
         <v>1803</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B58" t="s">
         <v>1804</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B59" t="s">
         <v>1805</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="B60" t="s">
-        <v>1814</v>
-      </c>
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1859">
   <si>
     <t>LABEL</t>
   </si>
@@ -781,33 +781,12 @@
     <t>LATTE MACCHIATO&lt;br&gt;RITARDO GRUPPO</t>
   </si>
   <si>
-    <t>EV FRESH MILK&lt;br&gt;QTY</t>
-  </si>
-  <si>
-    <t>EV FRESH MILK&lt;br&gt;DELAY</t>
-  </si>
-  <si>
     <t>$LAB_SEL_EV_FRESHMILK_DELAY</t>
   </si>
   <si>
     <t>$LAB_SEL_EV_FRESHMILK_QTY</t>
   </si>
   <si>
-    <t>LATTE FRESCO&lt;br&gt;QTA'</t>
-  </si>
-  <si>
-    <t>EV AIR FRESH MILK</t>
-  </si>
-  <si>
-    <t>EV AIR FRESH MILK&lt;br&gt;DELAY</t>
-  </si>
-  <si>
-    <t>EV ARIA LATTE FRESCO</t>
-  </si>
-  <si>
-    <t>EV ARIA LATTE FRESCO&lt;br&gt;RITARDO</t>
-  </si>
-  <si>
     <t>$LAB_SEL_EV_AIR_FRESHMILK</t>
   </si>
   <si>
@@ -2489,9 +2468,6 @@
   </si>
   <si>
     <t>LAIT FRAIS&lt;br&gt;QTÉ</t>
-  </si>
-  <si>
-    <t>LATTE FRESCO&lt;br&gt;RITARDO</t>
   </si>
   <si>
     <t>LAIT FRAIS&lt;br&gt;RETARD</t>
@@ -5503,6 +5479,156 @@
   </si>
   <si>
     <t>$LAB_CLEANSAN_VFLEX_24</t>
+  </si>
+  <si>
+    <t>ENABLE WASTE TANKE SENSOR</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_ENABLE_WASTE_TANKL_SENSOR</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_AIR</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_PUMP_SPEED</t>
+  </si>
+  <si>
+    <t>PUMP SPEED</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_MILK_PRESSURE</t>
+  </si>
+  <si>
+    <t>MILK PRESSURE</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_HOT_FOAM</t>
+  </si>
+  <si>
+    <t>HOT FOAM</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_COLD_FOAM</t>
+  </si>
+  <si>
+    <t>COLD FOAM</t>
+  </si>
+  <si>
+    <t>SCHIUMA CALDA</t>
+  </si>
+  <si>
+    <t>SCHIUMA FREDDA</t>
+  </si>
+  <si>
+    <t>PRESSIONE LATTE</t>
+  </si>
+  <si>
+    <t>VELOCITA' POMPA</t>
+  </si>
+  <si>
+    <t>ARIA</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_FOAM</t>
+  </si>
+  <si>
+    <t>FOAM</t>
+  </si>
+  <si>
+    <t>SCHIUMA</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPO_PASTIGLIA</t>
+  </si>
+  <si>
+    <t>PASTILLE DISSOLVE TIME</t>
+  </si>
+  <si>
+    <t>ABILITA SENSORE WASTE TANKE</t>
+  </si>
+  <si>
+    <t>FRESH MILK&lt;br&gt;VALVE QTY</t>
+  </si>
+  <si>
+    <t>FRESH MILK&lt;br&gt;VALVE DELAY</t>
+  </si>
+  <si>
+    <t>FRESH MILK&lt;br&gt;AIR DURATION</t>
+  </si>
+  <si>
+    <t>FRESH MILK&lt;br&gt;AIR DELAY</t>
+  </si>
+  <si>
+    <t>LATTE FRESCO&lt;br&gt;MIXER DURATA</t>
+  </si>
+  <si>
+    <t>LATTE FRESCO&lt;br&gt;MIXER RITARDO</t>
+  </si>
+  <si>
+    <t>LATTE FRESCO&lt;br&gt;EV QTA'</t>
+  </si>
+  <si>
+    <t>LATTE FRESCO&lt;br&gt;EV RITARDO</t>
+  </si>
+  <si>
+    <t>$LAB_SEL_FRESHMILK_FOAM_TYPE</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_HOT_NO_FOAM</t>
+  </si>
+  <si>
+    <t>HOT, NO FOAM</t>
+  </si>
+  <si>
+    <t>CALDO, SENZA SCHIUMA</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_COLD_NO_FOAM</t>
+  </si>
+  <si>
+    <t>COLD, NO FOAM</t>
+  </si>
+  <si>
+    <t>FREDDO, SENZA SCHIUMA</t>
+  </si>
+  <si>
+    <t>FRESH MILK&lt;br&gt;FOAM TYPE</t>
+  </si>
+  <si>
+    <t>LATTE FRESCO&lt;br&gt;TIPO SCHIUMA</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_MODEL_TYPE</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>MODELLO</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_MODEL_NONE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>NESSUNO</t>
+  </si>
+  <si>
+    <t>VENTURI</t>
+  </si>
+  <si>
+    <t>INDUX</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_MODEL_VENTURI</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER_MODEL_INDUX</t>
   </si>
 </sst>
 </file>
@@ -5929,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5955,16 +6081,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
@@ -5978,16 +6104,16 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E2" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
@@ -6001,56 +6127,56 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F3" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="F4" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>1451</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E5" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="F5" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
@@ -6064,16 +6190,16 @@
         <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E6" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="F6" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
@@ -6087,76 +6213,76 @@
         <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E7" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F7" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D8" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C9" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D9" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E9" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F9" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="B10" t="s">
         <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D10" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="E10" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="F10" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
@@ -6170,16 +6296,16 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E11" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F11" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
@@ -6193,61 +6319,61 @@
         <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F12" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C13" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F13" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="B14" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="C14" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="B15" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="C15" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
@@ -6261,33 +6387,33 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E16" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F16" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E17" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F17" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75">
@@ -6301,39 +6427,39 @@
         <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E18" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F18" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E19" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F19" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75">
@@ -6347,36 +6473,36 @@
         <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F20" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
       <c r="A21" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B21" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C21" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D21" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E21" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F21" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75">
@@ -6390,62 +6516,62 @@
         <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E22" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F22" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B23" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C23" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D23" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E23" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F23" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B24" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C24" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D24" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E24" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F24" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75">
@@ -6459,16 +6585,16 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E25" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="F25" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75">
@@ -6482,16 +6608,16 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E26" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F26" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75">
@@ -6505,60 +6631,60 @@
         <v>131</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="F27" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B28" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C28" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="F28" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B29" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F29" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75">
@@ -6572,62 +6698,62 @@
         <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F30" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D31" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F31" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B32" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D32" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F32" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75">
@@ -6641,7 +6767,7 @@
         <v>134</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>133</v>
@@ -6650,43 +6776,43 @@
         <v>133</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="3" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="B34" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="G34" s="11" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B35" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C35" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F35" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75">
@@ -6700,16 +6826,16 @@
         <v>187</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="F36" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75">
@@ -6723,39 +6849,39 @@
         <v>140</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="F37" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B38" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C38" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="F38" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75">
@@ -6769,13 +6895,13 @@
         <v>146</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="F39" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75">
@@ -6789,16 +6915,16 @@
         <v>111</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="F40" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75">
@@ -6812,16 +6938,16 @@
         <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="F41" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75">
@@ -6835,16 +6961,16 @@
         <v>105</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="F42" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75">
@@ -6858,62 +6984,62 @@
         <v>222</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="F43" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C44" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F44" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B45" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C45" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F45" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75">
@@ -6927,18 +7053,18 @@
         <v>50</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="3" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="B47" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="C47" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="G47" s="11"/>
     </row>
@@ -6953,62 +7079,62 @@
         <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E48" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="F48" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B49" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C49" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="F49" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B50" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C50" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="F50" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75">
@@ -7025,18 +7151,18 @@
         <v>93</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="F51" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -7050,25 +7176,25 @@
     </row>
     <row r="53" spans="1:7" ht="15.75">
       <c r="A53" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B53" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C53" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="F53" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75">
@@ -7082,39 +7208,39 @@
         <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="F54" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B55" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C55" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D55" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="F55" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75">
@@ -7128,16 +7254,16 @@
         <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="F56" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75">
@@ -7151,39 +7277,39 @@
         <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="F57" t="s">
         <v>147</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B58" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C58" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D58" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="F58" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75">
@@ -7203,10 +7329,10 @@
         <v>213</v>
       </c>
       <c r="F59" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75">
@@ -7223,59 +7349,59 @@
         <v>99</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
       <c r="F60" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C61" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F61" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C62" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="F62" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75">
@@ -7289,16 +7415,16 @@
         <v>58</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="F63" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75">
@@ -7312,16 +7438,16 @@
         <v>157</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="F64" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75">
@@ -7335,39 +7461,39 @@
         <v>107</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="F65" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="3" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C66" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="F66" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75">
@@ -7381,16 +7507,16 @@
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -7404,17 +7530,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -7432,16 +7558,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7455,13 +7581,13 @@
         <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="F2" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7475,13 +7601,13 @@
         <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="F3" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7501,7 +7627,7 @@
         <v>124</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7515,16 +7641,16 @@
         <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="E5" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="F5" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7538,16 +7664,16 @@
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="E6" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="F6" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7561,16 +7687,16 @@
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="E7" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="F7" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7584,13 +7710,13 @@
         <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="F8" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7604,16 +7730,16 @@
         <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="E9" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="F9" t="s">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7627,16 +7753,16 @@
         <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="E10" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
       <c r="F10" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7653,10 +7779,10 @@
         <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7670,16 +7796,16 @@
         <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E12" t="s">
-        <v>1285</v>
+        <v>1277</v>
       </c>
       <c r="F12" t="s">
-        <v>1286</v>
+        <v>1278</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7693,7 +7819,7 @@
         <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E13" t="s">
         <v>171</v>
@@ -7702,7 +7828,7 @@
         <v>171</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7716,7 +7842,7 @@
         <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="E14" t="s">
         <v>174</v>
@@ -7725,99 +7851,99 @@
         <v>174</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B15" t="s">
         <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E15" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
       <c r="F15" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
+        <v>724</v>
+      </c>
+      <c r="B16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" t="s">
         <v>731</v>
       </c>
-      <c r="B16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D16" t="s">
-        <v>738</v>
-      </c>
       <c r="E16" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F16" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B17" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C17" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D17" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E17" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="F17" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B18" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C18" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D18" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="E18" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="F18" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -7831,16 +7957,16 @@
         <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E19" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="F19" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -7854,16 +7980,16 @@
         <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E20" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="F20" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7877,283 +8003,295 @@
         <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E21" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="F21" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>1832</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>1838</v>
       </c>
       <c r="D22" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E22" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="F22" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>1833</v>
       </c>
       <c r="C23" t="s">
-        <v>817</v>
+        <v>1839</v>
       </c>
       <c r="D23" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E23" t="s">
-        <v>1301</v>
+        <v>1293</v>
       </c>
       <c r="F23" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>1840</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>1847</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" t="s">
-        <v>819</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>1629</v>
-      </c>
+        <v>1848</v>
+      </c>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>1834</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>1836</v>
       </c>
       <c r="D25" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="E25" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="F25" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>1835</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>1837</v>
       </c>
       <c r="D26" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="E26" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="F26" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>251</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" t="s">
+        <v>813</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1299</v>
       </c>
       <c r="F27" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" t="s">
-        <v>822</v>
-      </c>
-      <c r="E28" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>1301</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="E29" t="s">
-        <v>1310</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>1311</v>
+        <v>257</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E30" t="s">
-        <v>1012</v>
+        <v>1302</v>
       </c>
       <c r="F30" t="s">
-        <v>1013</v>
+        <v>1303</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>1467</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>618</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>624</v>
+        <v>816</v>
       </c>
       <c r="E31" t="s">
-        <v>1312</v>
+        <v>1004</v>
       </c>
       <c r="F31" t="s">
-        <v>1312</v>
+        <v>1005</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>1635</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>611</v>
+      </c>
+      <c r="B32" t="s">
+        <v>612</v>
+      </c>
+      <c r="C32" t="s">
         <v>620</v>
       </c>
-      <c r="B32" t="s">
-        <v>621</v>
-      </c>
-      <c r="C32" t="s">
-        <v>628</v>
-      </c>
       <c r="D32" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E32" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="F32" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B33" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C33" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="D33" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E33" t="s">
-        <v>1009</v>
+        <v>1305</v>
       </c>
       <c r="F33" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>1637</v>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>615</v>
+      </c>
+      <c r="B34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C34" t="s">
+        <v>600</v>
+      </c>
+      <c r="D34" t="s">
+        <v>619</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>1629</v>
       </c>
     </row>
   </sheetData>
@@ -8192,581 +8330,581 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E2" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="F2" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E3" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="F3" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E4" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="F4" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="F5" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E6" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="F6" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E7" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="F7" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E8" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="F8" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="F9" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" t="s">
         <v>289</v>
       </c>
-      <c r="B10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" t="s">
-        <v>296</v>
-      </c>
       <c r="D10" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E10" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="F10" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E11" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="F11" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E12" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="F12" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D13" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E13" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="F13" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="E14" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="F14" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E15" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="F15" t="s">
-        <v>1342</v>
+        <v>1334</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E16" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="F16" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C17" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D17" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="E17" t="s">
-        <v>1345</v>
+        <v>1337</v>
       </c>
       <c r="F17" t="s">
-        <v>1346</v>
+        <v>1338</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C18" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D18" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E18" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="F18" t="s">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B19" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F19" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B20" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="C20" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="E20" t="s">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="F20" t="s">
-        <v>1351</v>
+        <v>1343</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B21" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C21" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="E21" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="F21" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B22" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C22" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D22" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="E22" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="F22" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B23" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C23" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D23" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E23" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="F23" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B24" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C24" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D24" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="E24" t="s">
-        <v>1358</v>
+        <v>1350</v>
       </c>
       <c r="F24" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="B25" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="B26" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="B27" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="B28" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="B29" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="C29" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="B30" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="C30" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
     </row>
   </sheetData>
@@ -8804,131 +8942,131 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="F2" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="F3" t="s">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="E4" t="s">
-        <v>1364</v>
+        <v>1356</v>
       </c>
       <c r="F4" t="s">
-        <v>1365</v>
+        <v>1357</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E5" t="s">
-        <v>1366</v>
+        <v>1358</v>
       </c>
       <c r="F5" t="s">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C6" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D6" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E6" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="F6" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
     </row>
   </sheetData>
@@ -8966,108 +9104,108 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E2" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="F2" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E3" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F3" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E4" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="F4" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E5" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="F5" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
     </row>
   </sheetData>
@@ -9105,414 +9243,414 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -9550,16 +9688,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9573,7 +9711,7 @@
         <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E2" t="s">
         <v>226</v>
@@ -9582,7 +9720,7 @@
         <v>226</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9596,16 +9734,16 @@
         <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E3" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="F3" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9628,7 +9766,7 @@
         <v>124</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9642,16 +9780,16 @@
         <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="E5" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="F5" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9665,13 +9803,13 @@
         <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="F6" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9685,16 +9823,16 @@
         <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E7" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="F7" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
     </row>
   </sheetData>
@@ -9733,177 +9871,177 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>1508</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>1509</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>1511</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
@@ -9912,48 +10050,48 @@
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>1512</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>1513</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
@@ -9962,25 +10100,25 @@
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
@@ -9989,164 +10127,164 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>1517</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>1518</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>1519</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>1520</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -10155,48 +10293,48 @@
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>1521</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>1522</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10204,25 +10342,25 @@
     </row>
     <row r="27" spans="1:7" ht="23.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -10259,21 +10397,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -10282,21 +10420,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E2" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="F2" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="G2" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -10305,35 +10443,35 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="G3" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="G4" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -10342,67 +10480,67 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E5" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="F5" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="G5" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B6" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C6" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D6" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E6" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="F6" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="G6" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E7" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="F7" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="G7" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -10411,21 +10549,21 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E8" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="F8" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="G8" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -10434,21 +10572,21 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="E9" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F9" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="G9" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -10457,21 +10595,21 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E10" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="F10" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="G10" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -10480,21 +10618,21 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="F11" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -10503,21 +10641,21 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E12" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="F12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="G12" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -10526,21 +10664,21 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F13" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="G13" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -10555,15 +10693,15 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="G14" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -10572,7 +10710,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -10581,12 +10719,12 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -10595,16 +10733,16 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="F16" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="G16" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -10645,177 +10783,177 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="5" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="5" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="5" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
@@ -10823,117 +10961,117 @@
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5">
       <c r="A11" s="5" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="5" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="5" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="47.25">
       <c r="A14" s="5" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
     </row>
   </sheetData>
@@ -10970,16 +11108,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10993,16 +11131,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11016,16 +11154,16 @@
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11039,16 +11177,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11062,16 +11200,16 @@
         <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11085,16 +11223,16 @@
         <v>223</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11108,16 +11246,16 @@
         <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11131,16 +11269,16 @@
         <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11154,16 +11292,16 @@
         <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11177,16 +11315,16 @@
         <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -11200,16 +11338,16 @@
         <v>62</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11223,16 +11361,16 @@
         <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
     </row>
   </sheetData>
@@ -11243,10 +11381,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11272,179 +11410,179 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>85</v>
@@ -11453,55 +11591,55 @@
         <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>147</v>
@@ -11512,18 +11650,166 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1437</v>
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1856</v>
       </c>
     </row>
   </sheetData>
@@ -11560,485 +11846,485 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="10" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -12047,69 +12333,69 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="5" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="J27" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -12146,246 +12432,246 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E2" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="F2" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="G2" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="F3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G3" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="E4" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="F4" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="G4" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="E5" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="F5" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="G5" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D6" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E6" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="F6" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="G6" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D7" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="E7" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="F7" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="G7" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D8" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="E8" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="F8" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="G8" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D9" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="E9" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="F9" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="G9" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D10" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E10" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="F10" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="G10" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E11" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="F11" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="G11" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
   </sheetData>
@@ -12397,7 +12683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -12422,16 +12708,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -12445,16 +12731,16 @@
         <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E2" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="F2" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -12462,22 +12748,22 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="E3" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F3" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -12485,22 +12771,22 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="E4" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="F4" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -12508,22 +12794,22 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="E5" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="F5" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -12531,22 +12817,22 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E6" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="F6" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -12554,22 +12840,22 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E7" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="F7" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12577,22 +12863,22 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="E8" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="F8" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -12606,16 +12892,16 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E9" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="F9" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -12629,455 +12915,455 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E10" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="F10" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B11" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C11" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="D11" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B12" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="C12" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="D12" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="B14" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="C14" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="B15" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="C15" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="B16" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="C16" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="B17" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="C17" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="B18" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C18" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="B19" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="C19" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="B20" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="C20" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="B21" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="C21" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="B22" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="C22" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="B23" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="C23" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="B24" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="C24" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="B26" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="C26" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="B27" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="C27" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="B28" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="C28" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="B29" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="C29" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="B30" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="C30" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="B31" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="C31" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="B33" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="B34" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="B35" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="B36" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="B37" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="B38" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="B39" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="B40" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="B41" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="B42" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="B43" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="B44" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="B45" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="B46" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="B47" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="B48" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="B49" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="B50" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="B51" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="B52" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="B53" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="B54" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="B55" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="B56" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="B57" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="B58" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="B59" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="B60" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="61" spans="1:2">

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1864">
   <si>
     <t>LABEL</t>
   </si>
@@ -5629,6 +5629,21 @@
   </si>
   <si>
     <t>$LAB_MILKER_MODEL_INDUX</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_TITLE</t>
+  </si>
+  <si>
+    <t>Milker oneTouch Cleaning</t>
+  </si>
+  <si>
+    <t>Before starting the cleaning, please check:&lt;ol&gt;&lt;li&gt;Water supply is available&lt;/li&gt;&lt;li&gt;Waste tank is empy&lt;/li&gt;&lt;li&gt;The milk tube is in the cleaning jug&lt;/li&gt;&lt;li&gt;The detergent is filled into the jug&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_INSTRUCTION</t>
+  </si>
+  <si>
+    <t>Prima di iniziare il lavaggio, si prega di verificare che:&lt;ol&gt;&lt;li&gt;la macchina sia collegata alla rete idrica&lt;/li&gt;&lt;li&gt;la vaschetta dell'acqua sia vuota&lt;/li&gt;&lt;li&gt;il tubo del latte sia nella vaschetta di pulizia&lt;/li&gt;&lt;li&gt;la vaschetta di pulizia contenga il detergente&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -11381,10 +11396,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11810,6 +11825,25 @@
       </c>
       <c r="B28" s="5" t="s">
         <v>1856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1863</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -5637,13 +5637,13 @@
     <t>Milker oneTouch Cleaning</t>
   </si>
   <si>
-    <t>Before starting the cleaning, please check:&lt;ol&gt;&lt;li&gt;Water supply is available&lt;/li&gt;&lt;li&gt;Waste tank is empy&lt;/li&gt;&lt;li&gt;The milk tube is in the cleaning jug&lt;/li&gt;&lt;li&gt;The detergent is filled into the jug&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>$LAB_MILKER2_CLEAN_INSTRUCTION</t>
   </si>
   <si>
     <t>Prima di iniziare il lavaggio, si prega di verificare che:&lt;ol&gt;&lt;li&gt;la macchina sia collegata alla rete idrica&lt;/li&gt;&lt;li&gt;la vaschetta dell'acqua sia vuota&lt;/li&gt;&lt;li&gt;il tubo del latte sia nella vaschetta di pulizia&lt;/li&gt;&lt;li&gt;la vaschetta di pulizia contenga il detergente&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Before starting the cleaning, please check that:&lt;ol&gt;&lt;li&gt;water supply is available&lt;/li&gt;&lt;li&gt;waste tank is empty&lt;/li&gt;&lt;li&gt;the milk tube is in the cleaning jug&lt;/li&gt;&lt;li&gt;the detergent is filled into the jug&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
 </sst>
 </file>
@@ -6071,7 +6071,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11398,8 +11398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11837,13 +11837,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>1862</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1863</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1891">
   <si>
     <t>LABEL</t>
   </si>
@@ -5644,6 +5644,87 @@
   </si>
   <si>
     <t>Before starting the cleaning, please check that:&lt;ol&gt;&lt;li&gt;water supply is available&lt;/li&gt;&lt;li&gt;waste tank is empty&lt;/li&gt;&lt;li&gt;the milk tube is in the cleaning jug&lt;/li&gt;&lt;li&gt;the detergent is filled into the jug&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_1</t>
+  </si>
+  <si>
+    <t>Water refilling in progress, please wait.&lt;br&gt;Water conducibility: {0} uS</t>
+  </si>
+  <si>
+    <t>Wait for tablet dissolving</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_2</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_3</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_4</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_5</t>
+  </si>
+  <si>
+    <t>The cleaning procedure is finished.&lt;br&gt;&lt;br&gt;Please, remember to:&lt;ul&gt;&lt;li&gt;empty Waste tank&lt;/li&gt;&lt;li&gt;put the milk pipe back into position&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;Press CLOSE to close this window</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_6</t>
+  </si>
+  <si>
+    <t>WARNING: too much detergent!</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_7</t>
+  </si>
+  <si>
+    <t>WARNING: too few detergent has been detected!&lt;br&gt;A new cleaning is recomended</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_8</t>
+  </si>
+  <si>
+    <t>WARNING: detergent too aggressive</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_CLEAN_9</t>
+  </si>
+  <si>
+    <t>Riempimento della vaschetta dell'acqua in corso, attendere prego.&lt;br&gt;Conducibilità dell'acqua: {0} uS</t>
+  </si>
+  <si>
+    <t>Scioglimento della pastiglia in corso, attendere prego</t>
+  </si>
+  <si>
+    <t>Risciacquo in corso:  -{0}</t>
+  </si>
+  <si>
+    <t>Rinsing in progress: -{0}</t>
+  </si>
+  <si>
+    <t>Rinsing {0} of {1} in progress, please wait.&lt;br&gt;Water conducibility: {2} uS</t>
+  </si>
+  <si>
+    <t>Cleaning {0} of {1} in progress, please wait.&lt;br&gt;Water conducibility: {2} uS</t>
+  </si>
+  <si>
+    <t>La procedura di pulizia è terminata.&lt;br&gt;&lt;br&gt;Si prega di:&lt;ul&gt;&lt;li&gt;svuotare la vaschetta dell'acqua&lt;/li&gt;&lt;li&gt;riportare il tubo del latte nella posizione iniziale&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;Premere CHIUDI per chiudere questa finestra</t>
+  </si>
+  <si>
+    <t>ATTENZIONE: troppo detergente</t>
+  </si>
+  <si>
+    <t>ATTENZIONE: il detergente era troppo poco, si raccomanda di riperete il lavaggio</t>
+  </si>
+  <si>
+    <t>ATTENZIONE: detergente troppo aggressivo</t>
+  </si>
+  <si>
+    <t>Risciacquo {0} of {1} in corso, attendere prego.&lt;br&gt;Conducibilità dell'acqua: {2} uS</t>
+  </si>
+  <si>
+    <t>Lavaggio {0} of {1} in corso, attendere prego.&lt;br&gt;Conducibilità dell'acqua: {2} uS</t>
   </si>
 </sst>
 </file>
@@ -5726,7 +5807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5744,9 +5825,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -6071,7 +6149,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6127,7 +6205,7 @@
       <c r="F2" t="s">
         <v>971</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -6150,7 +6228,7 @@
       <c r="F3" t="s">
         <v>973</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -6167,7 +6245,7 @@
       <c r="F4" t="s">
         <v>975</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>1443</v>
       </c>
     </row>
@@ -6190,7 +6268,7 @@
       <c r="F5" t="s">
         <v>977</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -6213,7 +6291,7 @@
       <c r="F6" t="s">
         <v>979</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -6236,7 +6314,7 @@
       <c r="F7" t="s">
         <v>980</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -6273,7 +6351,7 @@
       <c r="F9" t="s">
         <v>982</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -6296,7 +6374,7 @@
       <c r="F10" t="s">
         <v>984</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -6319,7 +6397,7 @@
       <c r="F11" t="s">
         <v>985</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -6342,7 +6420,7 @@
       <c r="F12" t="s">
         <v>984</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -6365,7 +6443,7 @@
       <c r="F13" t="s">
         <v>987</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>1450</v>
       </c>
     </row>
@@ -6410,7 +6488,7 @@
       <c r="F16" t="s">
         <v>989</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -6450,7 +6528,7 @@
       <c r="F18" t="s">
         <v>992</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -6473,7 +6551,7 @@
       <c r="F19" t="s">
         <v>994</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>1453</v>
       </c>
     </row>
@@ -6493,7 +6571,7 @@
       <c r="F20" t="s">
         <v>996</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>1454</v>
       </c>
     </row>
@@ -6516,7 +6594,7 @@
       <c r="F21" t="s">
         <v>998</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -6539,7 +6617,7 @@
       <c r="F22" t="s">
         <v>1000</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -6562,7 +6640,7 @@
       <c r="F23" t="s">
         <v>1001</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -6585,7 +6663,7 @@
       <c r="F24" t="s">
         <v>1003</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -6608,7 +6686,7 @@
       <c r="F25" t="s">
         <v>1005</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -6631,7 +6709,7 @@
       <c r="F26" t="s">
         <v>1007</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -6654,7 +6732,7 @@
       <c r="F27" t="s">
         <v>1009</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -6677,7 +6755,7 @@
       <c r="F28" t="s">
         <v>1011</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -6698,7 +6776,7 @@
       <c r="F29" t="s">
         <v>1012</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -6721,7 +6799,7 @@
       <c r="F30" t="s">
         <v>1014</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>1464</v>
       </c>
     </row>
@@ -6744,7 +6822,7 @@
       <c r="F31" t="s">
         <v>1016</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -6767,7 +6845,7 @@
       <c r="F32" t="s">
         <v>1018</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -6790,7 +6868,7 @@
       <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>1467</v>
       </c>
     </row>
@@ -6803,7 +6881,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>1685</v>
       </c>
     </row>
@@ -6826,7 +6904,7 @@
       <c r="F35" t="s">
         <v>596</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -6849,7 +6927,7 @@
       <c r="F36" t="s">
         <v>1020</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -6872,7 +6950,7 @@
       <c r="F37" t="s">
         <v>1022</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -6895,7 +6973,7 @@
       <c r="F38" t="s">
         <v>1024</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -6915,7 +6993,7 @@
       <c r="F39" t="s">
         <v>1026</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>1472</v>
       </c>
     </row>
@@ -6938,7 +7016,7 @@
       <c r="F40" t="s">
         <v>1028</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>1473</v>
       </c>
     </row>
@@ -6961,7 +7039,7 @@
       <c r="F41" t="s">
         <v>1030</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -6984,7 +7062,7 @@
       <c r="F42" t="s">
         <v>1032</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -7007,7 +7085,7 @@
       <c r="F43" t="s">
         <v>1034</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -7030,7 +7108,7 @@
       <c r="F44" t="s">
         <v>1035</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>1476</v>
       </c>
     </row>
@@ -7053,7 +7131,7 @@
       <c r="F45" t="s">
         <v>1037</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -7067,7 +7145,7 @@
       <c r="F46" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -7081,7 +7159,7 @@
       <c r="C47" t="s">
         <v>1694</v>
       </c>
-      <c r="G47" s="11"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="3" t="s">
@@ -7102,7 +7180,7 @@
       <c r="F48" t="s">
         <v>1039</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>1479</v>
       </c>
     </row>
@@ -7125,7 +7203,7 @@
       <c r="F49" t="s">
         <v>1041</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -7148,7 +7226,7 @@
       <c r="F50" t="s">
         <v>1042</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -7171,7 +7249,7 @@
       <c r="F51" t="s">
         <v>1044</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -7208,7 +7286,7 @@
       <c r="F53" t="s">
         <v>1046</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>1483</v>
       </c>
     </row>
@@ -7231,7 +7309,7 @@
       <c r="F54" t="s">
         <v>1048</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -7254,7 +7332,7 @@
       <c r="F55" t="s">
         <v>1050</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -7277,7 +7355,7 @@
       <c r="F56" t="s">
         <v>1052</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>1486</v>
       </c>
     </row>
@@ -7300,7 +7378,7 @@
       <c r="F57" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>1487</v>
       </c>
     </row>
@@ -7323,7 +7401,7 @@
       <c r="F58" t="s">
         <v>1054</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -7346,7 +7424,7 @@
       <c r="F59" t="s">
         <v>1055</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -7369,7 +7447,7 @@
       <c r="F60" t="s">
         <v>1057</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>1490</v>
       </c>
     </row>
@@ -7392,7 +7470,7 @@
       <c r="F61" t="s">
         <v>1059</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>1491</v>
       </c>
     </row>
@@ -7415,7 +7493,7 @@
       <c r="F62" t="s">
         <v>1061</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>1492</v>
       </c>
     </row>
@@ -7438,7 +7516,7 @@
       <c r="F63" t="s">
         <v>1063</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>1493</v>
       </c>
     </row>
@@ -7461,7 +7539,7 @@
       <c r="F64" t="s">
         <v>1064</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>1494</v>
       </c>
     </row>
@@ -7484,7 +7562,7 @@
       <c r="F65" t="s">
         <v>1065</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="10" t="s">
         <v>1494</v>
       </c>
     </row>
@@ -7507,7 +7585,7 @@
       <c r="F66" t="s">
         <v>1067</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -7530,7 +7608,7 @@
       <c r="F67" t="s">
         <v>1068</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="10" t="s">
         <v>1496</v>
       </c>
     </row>
@@ -7601,7 +7679,7 @@
       <c r="F2" t="s">
         <v>1262</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -7621,7 +7699,7 @@
       <c r="F3" t="s">
         <v>1263</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -7641,7 +7719,7 @@
       <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -7664,7 +7742,7 @@
       <c r="F5" t="s">
         <v>1265</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>1603</v>
       </c>
     </row>
@@ -7687,7 +7765,7 @@
       <c r="F6" t="s">
         <v>1267</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1604</v>
       </c>
     </row>
@@ -7710,7 +7788,7 @@
       <c r="F7" t="s">
         <v>1269</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -7730,7 +7808,7 @@
       <c r="F8" t="s">
         <v>1271</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>1606</v>
       </c>
     </row>
@@ -7753,7 +7831,7 @@
       <c r="F9" t="s">
         <v>1273</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>1607</v>
       </c>
     </row>
@@ -7776,7 +7854,7 @@
       <c r="F10" t="s">
         <v>1275</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>1608</v>
       </c>
     </row>
@@ -7796,7 +7874,7 @@
       <c r="F11" t="s">
         <v>1276</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>1609</v>
       </c>
     </row>
@@ -7819,7 +7897,7 @@
       <c r="F12" t="s">
         <v>1278</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -7842,7 +7920,7 @@
       <c r="F13" t="s">
         <v>171</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -7865,7 +7943,7 @@
       <c r="F14" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>1612</v>
       </c>
     </row>
@@ -7888,7 +7966,7 @@
       <c r="F15" t="s">
         <v>992</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -7911,7 +7989,7 @@
       <c r="F16" t="s">
         <v>1280</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>1614</v>
       </c>
     </row>
@@ -7934,7 +8012,7 @@
       <c r="F17" t="s">
         <v>1282</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -7957,7 +8035,7 @@
       <c r="F18" t="s">
         <v>1284</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>1616</v>
       </c>
     </row>
@@ -7980,7 +8058,7 @@
       <c r="F19" t="s">
         <v>1286</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -8003,7 +8081,7 @@
       <c r="F20" t="s">
         <v>1288</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -8026,7 +8104,7 @@
       <c r="F21" t="s">
         <v>1290</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -8049,7 +8127,7 @@
       <c r="F22" t="s">
         <v>1292</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -8072,7 +8150,7 @@
       <c r="F23" t="s">
         <v>1294</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -8086,7 +8164,7 @@
       <c r="C24" t="s">
         <v>1848</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -8107,7 +8185,7 @@
       <c r="F25" t="s">
         <v>1296</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -8130,7 +8208,7 @@
       <c r="F26" t="s">
         <v>1298</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>1622</v>
       </c>
     </row>
@@ -8153,7 +8231,7 @@
       <c r="F27" t="s">
         <v>1300</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -8167,7 +8245,7 @@
       <c r="F28" t="s">
         <v>1301</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>1624</v>
       </c>
     </row>
@@ -8190,7 +8268,7 @@
       <c r="F29" t="s">
         <v>257</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -8213,7 +8291,7 @@
       <c r="F30" t="s">
         <v>1303</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>1626</v>
       </c>
     </row>
@@ -8236,7 +8314,7 @@
       <c r="F31" t="s">
         <v>1005</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -8259,7 +8337,7 @@
       <c r="F32" t="s">
         <v>1304</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>1627</v>
       </c>
     </row>
@@ -8282,7 +8360,7 @@
       <c r="F33" t="s">
         <v>1305</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="18" t="s">
         <v>1628</v>
       </c>
     </row>
@@ -8305,7 +8383,7 @@
       <c r="F34" t="s">
         <v>1306</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>1629</v>
       </c>
     </row>
@@ -8376,7 +8454,7 @@
       <c r="F2" t="s">
         <v>1308</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -8399,7 +8477,7 @@
       <c r="F3" t="s">
         <v>1310</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1630</v>
       </c>
     </row>
@@ -8422,7 +8500,7 @@
       <c r="F4" t="s">
         <v>1312</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1631</v>
       </c>
     </row>
@@ -8442,7 +8520,7 @@
       <c r="F5" t="s">
         <v>1314</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1632</v>
       </c>
     </row>
@@ -8465,7 +8543,7 @@
       <c r="F6" t="s">
         <v>1316</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -8488,7 +8566,7 @@
       <c r="F7" t="s">
         <v>1318</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1634</v>
       </c>
     </row>
@@ -8511,7 +8589,7 @@
       <c r="F8" t="s">
         <v>1320</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>1635</v>
       </c>
     </row>
@@ -8534,7 +8612,7 @@
       <c r="F9" t="s">
         <v>1322</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>1636</v>
       </c>
     </row>
@@ -8557,7 +8635,7 @@
       <c r="F10" t="s">
         <v>1324</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -8580,7 +8658,7 @@
       <c r="F11" t="s">
         <v>1326</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>1638</v>
       </c>
     </row>
@@ -8603,7 +8681,7 @@
       <c r="F12" t="s">
         <v>1328</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>1639</v>
       </c>
     </row>
@@ -8626,7 +8704,7 @@
       <c r="F13" t="s">
         <v>1330</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>1640</v>
       </c>
     </row>
@@ -8649,7 +8727,7 @@
       <c r="F14" t="s">
         <v>1332</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -8672,7 +8750,7 @@
       <c r="F15" t="s">
         <v>1334</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -8695,7 +8773,7 @@
       <c r="F16" t="s">
         <v>1336</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -8718,7 +8796,7 @@
       <c r="F17" t="s">
         <v>1338</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -8741,7 +8819,7 @@
       <c r="F18" t="s">
         <v>1340</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>1645</v>
       </c>
     </row>
@@ -8755,7 +8833,7 @@
       <c r="F19" t="s">
         <v>1341</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -8775,7 +8853,7 @@
       <c r="F20" t="s">
         <v>1343</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -8795,7 +8873,7 @@
       <c r="F21" t="s">
         <v>1345</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>1648</v>
       </c>
     </row>
@@ -8818,7 +8896,7 @@
       <c r="F22" t="s">
         <v>1347</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>1649</v>
       </c>
     </row>
@@ -8841,7 +8919,7 @@
       <c r="F23" t="s">
         <v>1349</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -8864,7 +8942,7 @@
       <c r="F24" t="s">
         <v>1351</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>1651</v>
       </c>
     </row>
@@ -8988,7 +9066,7 @@
       <c r="F2" t="s">
         <v>1353</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -9011,7 +9089,7 @@
       <c r="F3" t="s">
         <v>1355</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -9034,7 +9112,7 @@
       <c r="F4" t="s">
         <v>1357</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1654</v>
       </c>
     </row>
@@ -9057,7 +9135,7 @@
       <c r="F5" t="s">
         <v>1359</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1655</v>
       </c>
     </row>
@@ -9080,7 +9158,7 @@
       <c r="F6" t="s">
         <v>1361</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -9150,7 +9228,7 @@
       <c r="F2" t="s">
         <v>1363</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -9173,7 +9251,7 @@
       <c r="F3" t="s">
         <v>1365</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -9196,7 +9274,7 @@
       <c r="F4" t="s">
         <v>1367</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -9219,7 +9297,7 @@
       <c r="F5" t="s">
         <v>1369</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1660</v>
       </c>
     </row>
@@ -9287,7 +9365,7 @@
       <c r="F2" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -9308,7 +9386,7 @@
       <c r="F3" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -9331,7 +9409,7 @@
       <c r="F4" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -9354,7 +9432,7 @@
       <c r="F5" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -9371,7 +9449,7 @@
       <c r="F6" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -9394,7 +9472,7 @@
       <c r="F7" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -9415,7 +9493,7 @@
       <c r="F8" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -9438,7 +9516,7 @@
       <c r="F9" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -9461,7 +9539,7 @@
       <c r="F10" s="5" t="s">
         <v>1385</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -9482,7 +9560,7 @@
       <c r="F11" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -9505,7 +9583,7 @@
       <c r="F12" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -9526,7 +9604,7 @@
       <c r="F13" s="5" t="s">
         <v>1391</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>1672</v>
       </c>
     </row>
@@ -9549,7 +9627,7 @@
       <c r="F14" s="5" t="s">
         <v>1393</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>1673</v>
       </c>
     </row>
@@ -9572,7 +9650,7 @@
       <c r="F15" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>1674</v>
       </c>
     </row>
@@ -9595,7 +9673,7 @@
       <c r="F16" s="5" t="s">
         <v>1397</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>1675</v>
       </c>
     </row>
@@ -9618,7 +9696,7 @@
       <c r="F17" s="5" t="s">
         <v>1399</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -9641,7 +9719,7 @@
       <c r="F18" s="5" t="s">
         <v>1401</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -9664,7 +9742,7 @@
       <c r="F19" s="5" t="s">
         <v>1403</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -9734,7 +9812,7 @@
       <c r="F2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -9757,7 +9835,7 @@
       <c r="F3" t="s">
         <v>1263</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -9780,7 +9858,7 @@
       <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1679</v>
       </c>
     </row>
@@ -9803,7 +9881,7 @@
       <c r="F5" t="s">
         <v>1404</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -9823,7 +9901,7 @@
       <c r="F6" t="s">
         <v>1405</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1681</v>
       </c>
     </row>
@@ -9846,7 +9924,7 @@
       <c r="F7" t="s">
         <v>1406</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -9891,7 +9969,7 @@
       <c r="E1" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>1407</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -9917,7 +9995,7 @@
       <c r="F2" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -9940,7 +10018,7 @@
       <c r="F3" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>1498</v>
       </c>
     </row>
@@ -9963,7 +10041,7 @@
       <c r="F4" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>1499</v>
       </c>
     </row>
@@ -9986,7 +10064,7 @@
       <c r="F5" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>1500</v>
       </c>
     </row>
@@ -10009,7 +10087,7 @@
       <c r="F6" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -10032,7 +10110,7 @@
       <c r="F7" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -10055,13 +10133,13 @@
       <c r="F8" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -10082,7 +10160,7 @@
       <c r="F10" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -10105,13 +10183,13 @@
       <c r="F11" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="F12" s="6"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -10132,13 +10210,13 @@
       <c r="F13" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="F14" s="6"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -10159,7 +10237,7 @@
       <c r="F15" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -10182,7 +10260,7 @@
       <c r="F16" s="6" t="s">
         <v>1091</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>1508</v>
       </c>
     </row>
@@ -10205,7 +10283,7 @@
       <c r="F17" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>1509</v>
       </c>
     </row>
@@ -10228,7 +10306,7 @@
       <c r="F18" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>1510</v>
       </c>
     </row>
@@ -10251,7 +10329,7 @@
       <c r="F19" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -10274,7 +10352,7 @@
       <c r="F20" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -10325,7 +10403,7 @@
       <c r="F24" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>1513</v>
       </c>
     </row>
@@ -10348,7 +10426,7 @@
       <c r="F25" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>1514</v>
       </c>
     </row>
@@ -10374,7 +10452,7 @@
       <c r="F27" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>1515</v>
       </c>
     </row>
@@ -10641,7 +10719,7 @@
       <c r="F11" t="s">
         <v>1123</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -10829,7 +10907,7 @@
       <c r="F2" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -10852,7 +10930,7 @@
       <c r="F3" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -10875,7 +10953,7 @@
       <c r="F4" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -10898,7 +10976,7 @@
       <c r="F5" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>1534</v>
       </c>
     </row>
@@ -10921,7 +10999,7 @@
       <c r="F6" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -10944,7 +11022,7 @@
       <c r="F7" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>1536</v>
       </c>
     </row>
@@ -10967,12 +11045,12 @@
       <c r="F8" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
-      <c r="G9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="5" t="s">
@@ -10993,7 +11071,7 @@
       <c r="F10" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>1538</v>
       </c>
     </row>
@@ -11016,7 +11094,7 @@
       <c r="F11" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -11039,7 +11117,7 @@
       <c r="F12" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -11062,7 +11140,7 @@
       <c r="F13" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>1541</v>
       </c>
     </row>
@@ -11085,7 +11163,7 @@
       <c r="F14" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>1542</v>
       </c>
     </row>
@@ -11154,7 +11232,7 @@
       <c r="F2" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -11177,7 +11255,7 @@
       <c r="F3" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>1544</v>
       </c>
     </row>
@@ -11200,7 +11278,7 @@
       <c r="F4" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -11223,7 +11301,7 @@
       <c r="F5" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>1546</v>
       </c>
     </row>
@@ -11246,7 +11324,7 @@
       <c r="F6" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -11269,7 +11347,7 @@
       <c r="F7" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>1548</v>
       </c>
     </row>
@@ -11292,7 +11370,7 @@
       <c r="F8" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -11315,7 +11393,7 @@
       <c r="F9" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -11338,7 +11416,7 @@
       <c r="F10" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -11361,7 +11439,7 @@
       <c r="F11" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -11384,7 +11462,7 @@
       <c r="F12" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>1553</v>
       </c>
     </row>
@@ -11396,17 +11474,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="6" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="6.140625" style="5" customWidth="1"/>
@@ -11456,7 +11534,7 @@
       <c r="F2" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1554</v>
       </c>
     </row>
@@ -11479,7 +11557,7 @@
       <c r="F3" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1555</v>
       </c>
     </row>
@@ -11502,7 +11580,7 @@
       <c r="F4" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1556</v>
       </c>
     </row>
@@ -11525,7 +11603,7 @@
       <c r="F5" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1557</v>
       </c>
     </row>
@@ -11548,7 +11626,7 @@
       <c r="F6" s="5" t="s">
         <v>1184</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1558</v>
       </c>
     </row>
@@ -11568,7 +11646,7 @@
       <c r="F7" s="5" t="s">
         <v>1186</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1559</v>
       </c>
     </row>
@@ -11591,7 +11669,7 @@
       <c r="F8" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>1560</v>
       </c>
     </row>
@@ -11614,7 +11692,7 @@
       <c r="F9" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>1561</v>
       </c>
     </row>
@@ -11637,7 +11715,7 @@
       <c r="F10" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>1562</v>
       </c>
     </row>
@@ -11648,7 +11726,7 @@
       <c r="B11" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -11844,6 +11922,105 @@
       </c>
       <c r="C30" s="5" t="s">
         <v>1862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1888</v>
       </c>
     </row>
   </sheetData>
@@ -11911,7 +12088,7 @@
       <c r="F2" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1563</v>
       </c>
     </row>
@@ -11934,7 +12111,7 @@
       <c r="F3" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1564</v>
       </c>
     </row>
@@ -11957,7 +12134,7 @@
       <c r="F4" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1565</v>
       </c>
     </row>
@@ -11980,7 +12157,7 @@
       <c r="F5" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1566</v>
       </c>
     </row>
@@ -12003,7 +12180,7 @@
       <c r="F6" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1567</v>
       </c>
     </row>
@@ -12026,7 +12203,7 @@
       <c r="F7" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -12041,13 +12218,13 @@
         <v>415</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>1204</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -12068,7 +12245,7 @@
       <c r="F9" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>1570</v>
       </c>
     </row>
@@ -12089,7 +12266,7 @@
       <c r="F10" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>1571</v>
       </c>
     </row>
@@ -12112,7 +12289,7 @@
       <c r="F11" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -12135,7 +12312,7 @@
       <c r="F12" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>1573</v>
       </c>
     </row>
@@ -12156,7 +12333,7 @@
       <c r="F13" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -12179,7 +12356,7 @@
       <c r="F14" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>1575</v>
       </c>
     </row>
@@ -12202,7 +12379,7 @@
       <c r="F15" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -12225,7 +12402,7 @@
       <c r="F16" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>1577</v>
       </c>
     </row>
@@ -12248,7 +12425,7 @@
       <c r="F17" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>1578</v>
       </c>
     </row>
@@ -12271,7 +12448,7 @@
       <c r="F18" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -12294,7 +12471,7 @@
       <c r="F19" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>1580</v>
       </c>
     </row>
@@ -12317,7 +12494,7 @@
       <c r="F20" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -12717,7 +12894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -12773,7 +12950,7 @@
       <c r="F2" t="s">
         <v>1245</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>1592</v>
       </c>
     </row>
@@ -12796,7 +12973,7 @@
       <c r="F3" t="s">
         <v>1247</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -12819,7 +12996,7 @@
       <c r="F4" t="s">
         <v>1249</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -12842,7 +13019,7 @@
       <c r="F5" t="s">
         <v>1251</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -12865,7 +13042,7 @@
       <c r="F6" t="s">
         <v>1253</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>1596</v>
       </c>
     </row>
@@ -12888,7 +13065,7 @@
       <c r="F7" t="s">
         <v>1255</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -12911,7 +13088,7 @@
       <c r="F8" t="s">
         <v>1257</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -12934,7 +13111,7 @@
       <c r="F9" t="s">
         <v>1259</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>1599</v>
       </c>
     </row>
@@ -12957,7 +13134,7 @@
       <c r="F10" t="s">
         <v>1190</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>1561</v>
       </c>
     </row>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -5667,9 +5667,6 @@
     <t>$LAB_MILKER2_CLEAN_5</t>
   </si>
   <si>
-    <t>The cleaning procedure is finished.&lt;br&gt;&lt;br&gt;Please, remember to:&lt;ul&gt;&lt;li&gt;empty Waste tank&lt;/li&gt;&lt;li&gt;put the milk pipe back into position&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;Press CLOSE to close this window</t>
-  </si>
-  <si>
     <t>$LAB_MILKER2_CLEAN_6</t>
   </si>
   <si>
@@ -5709,9 +5706,6 @@
     <t>Cleaning {0} of {1} in progress, please wait.&lt;br&gt;Water conducibility: {2} uS</t>
   </si>
   <si>
-    <t>La procedura di pulizia è terminata.&lt;br&gt;&lt;br&gt;Si prega di:&lt;ul&gt;&lt;li&gt;svuotare la vaschetta dell'acqua&lt;/li&gt;&lt;li&gt;riportare il tubo del latte nella posizione iniziale&lt;/li&gt;&lt;/ol&gt;&lt;br&gt;Premere CHIUDI per chiudere questa finestra</t>
-  </si>
-  <si>
     <t>ATTENZIONE: troppo detergente</t>
   </si>
   <si>
@@ -5725,6 +5719,12 @@
   </si>
   <si>
     <t>Lavaggio {0} of {1} in corso, attendere prego.&lt;br&gt;Conducibilità dell'acqua: {2} uS</t>
+  </si>
+  <si>
+    <t>The cleaning procedure is finished.&lt;br&gt;&lt;br&gt;Please, remember to:&lt;ul&gt;&lt;li&gt;empty waste tank&lt;/li&gt;&lt;li&gt;put the milk pipe back into position&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Press CLOSE to close this window</t>
+  </si>
+  <si>
+    <t>La procedura di pulizia è terminata.&lt;br&gt;&lt;br&gt;Si prega di:&lt;ul&gt;&lt;li&gt;svuotare la vaschetta dell'acqua&lt;/li&gt;&lt;li&gt;riportare il tubo del latte nella posizione iniziale&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Premere CHIUDI per chiudere questa finestra</t>
   </si>
 </sst>
 </file>
@@ -11477,7 +11477,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11932,7 +11932,7 @@
         <v>1865</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11943,7 +11943,7 @@
         <v>1866</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -11951,10 +11951,10 @@
         <v>1868</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -11962,10 +11962,10 @@
         <v>1869</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11973,54 +11973,54 @@
         <v>1870</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1871</v>
+        <v>1889</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1895">
   <si>
     <t>LABEL</t>
   </si>
@@ -5725,6 +5725,18 @@
   </si>
   <si>
     <t>La procedura di pulizia è terminata.&lt;br&gt;&lt;br&gt;Si prega di:&lt;ul&gt;&lt;li&gt;svuotare la vaschetta dell'acqua&lt;/li&gt;&lt;li&gt;riportare il tubo del latte nella posizione iniziale&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Premere CHIUDI per chiudere questa finestra</t>
+  </si>
+  <si>
+    <t>ENABLE CONDUCIBILITY SENSOR</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_ENABLE_CONDUCIBILITY_SENSOR</t>
+  </si>
+  <si>
+    <t>HIDRODYNAMIC EMPTYING PERIOD</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_HIDR_EMPTYING_PERIOD</t>
   </si>
 </sst>
 </file>
@@ -11474,10 +11486,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12021,6 +12033,22 @@
       </c>
       <c r="C39" s="5" t="s">
         <v>1886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1891</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="5"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1899">
   <si>
     <t>LABEL</t>
   </si>
@@ -5737,6 +5737,18 @@
   </si>
   <si>
     <t>$LAB_MILKER2_HIDR_EMPTYING_PERIOD</t>
+  </si>
+  <si>
+    <t>$LAB_CLEAN_START_GRINDER_CLEANING</t>
+  </si>
+  <si>
+    <t>START CLEANING GRINDER</t>
+  </si>
+  <si>
+    <t>$LAB_PAGE_GRINDER_CLEANING_TITLE</t>
+  </si>
+  <si>
+    <t>GRINDER CLEANING</t>
   </si>
 </sst>
 </file>
@@ -11488,7 +11500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -12920,10 +12932,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13608,6 +13620,22 @@
     <row r="61" spans="1:2">
       <c r="A61" s="2"/>
     </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1956">
   <si>
     <t>LABEL</t>
   </si>
@@ -5739,23 +5739,194 @@
     <t>$LAB_MILKER2_HIDR_EMPTYING_PERIOD</t>
   </si>
   <si>
-    <t>$LAB_CLEAN_START_GRINDER_CLEANING</t>
-  </si>
-  <si>
-    <t>START CLEANING GRINDER</t>
-  </si>
-  <si>
-    <t>$LAB_PAGE_GRINDER_CLEANING_TITLE</t>
-  </si>
-  <si>
     <t>GRINDER CLEANING</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>НАЗАД</t>
+  </si>
+  <si>
+    <t>СПАСТИ</t>
+  </si>
+  <si>
+    <t>КНОПКА</t>
+  </si>
+  <si>
+    <t>ЗАКРЫТЬ</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ZURÜCK</t>
+  </si>
+  <si>
+    <t>SPEICHERN</t>
+  </si>
+  <si>
+    <t>TASTE</t>
+  </si>
+  <si>
+    <t>SCHLIESSEN</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_RUNNING1</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_START</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_TITLE</t>
+  </si>
+  <si>
+    <t>PULIZIA MACINA</t>
+  </si>
+  <si>
+    <t>Running grinder cycle {0} of {1}</t>
+  </si>
+  <si>
+    <t>Macinata {0} di  {1}</t>
+  </si>
+  <si>
+    <t>Catch the product</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_CATCH</t>
+  </si>
+  <si>
+    <t>Waiting {0} sec.</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_WAIT_SECONDS</t>
+  </si>
+  <si>
+    <t>Attendere {0} sec.</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_REMOVE_BREWER_AND_BEAN</t>
+  </si>
+  <si>
+    <t>Press CONTINUE when done</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_PRESS_CONTINUE_WHEN_DONE</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_CLOSE_BEAN</t>
+  </si>
+  <si>
+    <t>Close bean hopper shutter to avoid loss of beans</t>
+  </si>
+  <si>
+    <t>Remove brewer and bean hopper</t>
+  </si>
+  <si>
+    <t>Install grinder cleaning device</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_INSTALL_GRINDER_CLEANING_DEVICE</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;WARNING:&lt;/b&gt; as soon as you press CONTINUE, the grinder will start running</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_WARN_GRINDER_RUNNING</t>
+  </si>
+  <si>
+    <t>Refill cleaning device</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_REFILL_CLEANING_DEVICE</t>
+  </si>
+  <si>
+    <t>Do you want to repeat the grinding cycles?</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_WANT_TO_REPEAT_GRINDER_CYCLE</t>
+  </si>
+  <si>
+    <t>Put back  bean hopper</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_PUT_BACK_BEAN_HOPPER</t>
+  </si>
+  <si>
+    <t>Open hopper shutter</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_OPEN_HOPPER_SHUTTER</t>
+  </si>
+  <si>
+    <t>Put brewer back into position</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_PUT_BREWER_INTO_POSITION</t>
+  </si>
+  <si>
+    <t>Do you want do dispense a coffe?</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_WANT_COFFEE</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;ATTENZIONE&lt;/b&gt;. Non appena premuto CONTINUA, la macina inizierà a macinare</t>
+  </si>
+  <si>
+    <t>Riempire il dispositivo di pulizia</t>
+  </si>
+  <si>
+    <t>Rimuovere il gruppo infusione ed il contenitore caffè in grani</t>
+  </si>
+  <si>
+    <t>Usare un bicchiere per recuperare il prodotto macinato</t>
+  </si>
+  <si>
+    <t>Installare il dispositivo di pulizia della macina</t>
+  </si>
+  <si>
+    <t>Premere CONTINUA quando fatto</t>
+  </si>
+  <si>
+    <t>Si vuole ripetere l'operazione di macinatura?</t>
+  </si>
+  <si>
+    <t>Rimettere il contenitore caffè in posizione</t>
+  </si>
+  <si>
+    <t>Aprire la saracinesca del contenitore caffè in grani</t>
+  </si>
+  <si>
+    <t>Chiudere la saracinesca del contenitore caffè per evitare di perdere grani</t>
+  </si>
+  <si>
+    <t>Please select which grinder you'd like to clean, then press CONTINUE to continue or ABORT to terminate</t>
+  </si>
+  <si>
+    <t>$LAB_GRINDERCLEANING_PLEASE_SELECT_GRINDER</t>
+  </si>
+  <si>
+    <t>Prego selezionare la macina che si desidera pulire. Premere CONTINUA per proseguire, ABORT per terminare</t>
+  </si>
+  <si>
+    <t>START CLEANING&lt;br&gt;GRINDER</t>
+  </si>
+  <si>
+    <t>PULIZIA&lt;br&gt;MACINA</t>
+  </si>
+  <si>
+    <t>Rimettere il gruppo infusione in posizione</t>
+  </si>
+  <si>
+    <t>Si vuole erogare un caffè?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5804,6 +5975,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5831,7 +6009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5890,6 +6068,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6170,10 +6349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6184,10 +6363,11 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6209,8 +6389,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -6232,8 +6418,14 @@
       <c r="G2" s="10" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+      <c r="H2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -6255,8 +6447,14 @@
       <c r="G3" s="10" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+      <c r="H3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>546</v>
       </c>
@@ -6273,7 +6471,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>377</v>
       </c>
@@ -6296,7 +6494,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -6319,7 +6517,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -6342,7 +6540,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>962</v>
       </c>
@@ -6356,7 +6554,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" t="s">
         <v>531</v>
       </c>
@@ -6378,8 +6576,14 @@
       <c r="G9" s="10" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+      <c r="H9" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" t="s">
         <v>907</v>
       </c>
@@ -6401,8 +6605,14 @@
       <c r="G10" s="10" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+      <c r="H10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -6425,7 +6635,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>135</v>
       </c>
@@ -6448,7 +6658,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>522</v>
       </c>
@@ -6471,7 +6681,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>1431</v>
       </c>
@@ -6482,7 +6692,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>1420</v>
       </c>
@@ -6493,7 +6703,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -7208,7 +7418,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="31.5">
       <c r="A49" s="3" t="s">
         <v>587</v>
       </c>
@@ -7647,11 +7857,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7661,10 +7869,11 @@
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7686,8 +7895,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -7707,7 +7922,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -7727,7 +7942,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -7747,7 +7962,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -7770,7 +7985,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -7793,7 +8008,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -7816,7 +8031,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -7836,7 +8051,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -7859,7 +8074,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -7882,7 +8097,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -7902,7 +8117,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -7925,7 +8140,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -7948,7 +8163,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -7971,7 +8186,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>725</v>
       </c>
@@ -7994,7 +8209,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>724</v>
       </c>
@@ -8109,7 +8324,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="45">
       <c r="A21" t="s">
         <v>245</v>
       </c>
@@ -8132,7 +8347,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" t="s">
         <v>248</v>
       </c>
@@ -8155,7 +8370,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="45">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -8213,7 +8428,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="45">
       <c r="A26" t="s">
         <v>250</v>
       </c>
@@ -8236,7 +8451,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -8419,11 +8634,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8433,10 +8646,11 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8458,8 +8672,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -8482,7 +8702,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" t="s">
         <v>270</v>
       </c>
@@ -8505,7 +8725,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>268</v>
       </c>
@@ -8528,7 +8748,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" t="s">
         <v>287</v>
       </c>
@@ -8548,7 +8768,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -8571,7 +8791,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" t="s">
         <v>273</v>
       </c>
@@ -8594,7 +8814,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>277</v>
       </c>
@@ -8617,7 +8837,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -8640,7 +8860,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>282</v>
       </c>
@@ -8663,7 +8883,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -8686,7 +8906,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -8709,7 +8929,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" t="s">
         <v>294</v>
       </c>
@@ -8732,7 +8952,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -8755,7 +8975,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" t="s">
         <v>300</v>
       </c>
@@ -8778,7 +8998,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30">
+    <row r="16" spans="1:9" ht="75">
       <c r="A16" t="s">
         <v>303</v>
       </c>
@@ -8847,7 +9067,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="3" t="s">
         <v>695</v>
       </c>
@@ -8881,7 +9101,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21" t="s">
         <v>898</v>
       </c>
@@ -8924,7 +9144,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="60">
       <c r="A23" t="s">
         <v>903</v>
       </c>
@@ -9032,11 +9252,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9046,9 +9264,10 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9070,8 +9289,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -9094,7 +9319,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>316</v>
       </c>
@@ -9117,7 +9342,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -9140,7 +9365,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>318</v>
       </c>
@@ -9163,7 +9388,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>590</v>
       </c>
@@ -9193,11 +9418,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9208,9 +9431,10 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9232,8 +9456,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>323</v>
       </c>
@@ -9256,7 +9486,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>328</v>
       </c>
@@ -9279,7 +9509,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -9302,7 +9532,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>334</v>
       </c>
@@ -9332,11 +9562,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9346,10 +9574,11 @@
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9371,8 +9600,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>340</v>
       </c>
@@ -9393,7 +9628,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>344</v>
       </c>
@@ -9414,7 +9649,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>348</v>
       </c>
@@ -9437,7 +9672,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>349</v>
       </c>
@@ -9460,7 +9695,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>350</v>
       </c>
@@ -9477,7 +9712,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="5" t="s">
         <v>354</v>
       </c>
@@ -9500,7 +9735,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>358</v>
       </c>
@@ -9521,7 +9756,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>360</v>
       </c>
@@ -9544,7 +9779,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>361</v>
       </c>
@@ -9567,7 +9802,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>366</v>
       </c>
@@ -9588,7 +9823,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>369</v>
       </c>
@@ -9611,7 +9846,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>373</v>
       </c>
@@ -9632,7 +9867,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>375</v>
       </c>
@@ -9655,7 +9890,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>382</v>
       </c>
@@ -9678,7 +9913,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>387</v>
       </c>
@@ -9777,11 +10012,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9789,12 +10022,12 @@
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9816,8 +10049,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -9840,7 +10079,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -9863,7 +10102,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -9886,7 +10125,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>237</v>
       </c>
@@ -9909,7 +10148,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -9929,7 +10168,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -9959,11 +10198,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9973,11 +10210,12 @@
     <col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="7" style="5" customWidth="1"/>
-    <col min="7" max="7" width="90" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="25.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="62.42578125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1">
+    <row r="1" spans="1:9" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9999,8 +10237,14 @@
       <c r="G1" s="7" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>535</v>
       </c>
@@ -10023,7 +10267,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1">
+    <row r="3" spans="1:9" ht="33" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>536</v>
       </c>
@@ -10046,7 +10290,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1">
+    <row r="4" spans="1:9" ht="24" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>538</v>
       </c>
@@ -10069,7 +10313,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>541</v>
       </c>
@@ -10092,7 +10336,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1">
+    <row r="6" spans="1:9" ht="23.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>544</v>
       </c>
@@ -10115,7 +10359,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1">
+    <row r="7" spans="1:9" ht="25.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>548</v>
       </c>
@@ -10138,7 +10382,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1">
+    <row r="8" spans="1:9" ht="26.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>553</v>
       </c>
@@ -10161,11 +10405,11 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="F9" s="6"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="27.75" customHeight="1">
+    <row r="10" spans="1:9" ht="27.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>556</v>
       </c>
@@ -10188,7 +10432,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1">
+    <row r="11" spans="1:9" ht="23.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>558</v>
       </c>
@@ -10211,11 +10455,11 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="F12" s="6"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="21.75" customHeight="1">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>565</v>
       </c>
@@ -10238,11 +10482,11 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="F14" s="6"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="29.25" customHeight="1">
+    <row r="15" spans="1:9" ht="29.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>567</v>
       </c>
@@ -10265,7 +10509,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1">
+    <row r="16" spans="1:9" ht="26.25" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>569</v>
       </c>
@@ -10488,11 +10732,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10500,10 +10742,11 @@
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="4" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10525,8 +10768,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>680</v>
       </c>
@@ -10549,7 +10798,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>681</v>
       </c>
@@ -10572,7 +10821,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>682</v>
       </c>
@@ -10586,7 +10835,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>683</v>
       </c>
@@ -10609,7 +10858,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>704</v>
       </c>
@@ -10632,7 +10881,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>707</v>
       </c>
@@ -10655,7 +10904,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>684</v>
       </c>
@@ -10678,7 +10927,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>685</v>
       </c>
@@ -10701,7 +10950,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>686</v>
       </c>
@@ -10724,7 +10973,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1">
+    <row r="11" spans="1:9" ht="21" customHeight="1">
       <c r="A11" t="s">
         <v>687</v>
       </c>
@@ -10747,7 +10996,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>688</v>
       </c>
@@ -10770,7 +11019,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>689</v>
       </c>
@@ -10793,7 +11042,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>690</v>
       </c>
@@ -10816,7 +11065,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>691</v>
       </c>
@@ -10839,7 +11088,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>692</v>
       </c>
@@ -10873,11 +11122,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
   <cols>
@@ -10886,10 +11133,11 @@
     <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="36.7109375" style="5"/>
+    <col min="7" max="7" width="16" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="36.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10911,8 +11159,14 @@
       <c r="G1" s="7" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="5" t="s">
         <v>858</v>
       </c>
@@ -10935,7 +11189,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="5" t="s">
         <v>861</v>
       </c>
@@ -10958,7 +11212,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="5" t="s">
         <v>865</v>
       </c>
@@ -10981,7 +11235,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="5" t="s">
         <v>866</v>
       </c>
@@ -11004,7 +11258,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.75" customHeight="1">
+    <row r="6" spans="1:9" ht="30.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>871</v>
       </c>
@@ -11027,7 +11281,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="5" t="s">
         <v>873</v>
       </c>
@@ -11050,7 +11304,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>875</v>
       </c>
@@ -11073,10 +11327,10 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:9" ht="31.5">
       <c r="A10" s="5" t="s">
         <v>886</v>
       </c>
@@ -11099,7 +11353,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5">
+    <row r="11" spans="1:9" ht="63">
       <c r="A11" s="5" t="s">
         <v>890</v>
       </c>
@@ -11122,7 +11376,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="A12" s="5" t="s">
         <v>916</v>
       </c>
@@ -11145,7 +11399,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="A13" s="5" t="s">
         <v>917</v>
       </c>
@@ -11168,7 +11422,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="47.25">
+    <row r="14" spans="1:9" ht="126">
       <c r="A14" s="5" t="s">
         <v>918</v>
       </c>
@@ -11198,11 +11452,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11211,10 +11463,11 @@
     <col min="3" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11236,8 +11489,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>200</v>
       </c>
@@ -11260,7 +11519,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>201</v>
       </c>
@@ -11283,7 +11542,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" ht="75">
       <c r="A4" s="5" t="s">
         <v>202</v>
       </c>
@@ -11306,7 +11565,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="5" t="s">
         <v>203</v>
       </c>
@@ -11329,7 +11588,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="5" t="s">
         <v>204</v>
       </c>
@@ -11352,7 +11611,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="5" t="s">
         <v>205</v>
       </c>
@@ -11375,7 +11634,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>206</v>
       </c>
@@ -11398,7 +11657,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="5" t="s">
         <v>207</v>
       </c>
@@ -11421,7 +11680,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>208</v>
       </c>
@@ -11444,7 +11703,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>210</v>
       </c>
@@ -11467,7 +11726,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>209</v>
       </c>
@@ -11498,25 +11757,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
     <col min="4" max="4" width="6" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="6.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="49.5703125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1">
+    <row r="1" spans="1:9" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -11538,8 +11796,14 @@
       <c r="G1" s="7" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>504</v>
       </c>
@@ -11562,7 +11826,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>506</v>
       </c>
@@ -11585,7 +11849,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>508</v>
       </c>
@@ -11608,7 +11872,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>510</v>
       </c>
@@ -11631,7 +11895,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="5" t="s">
         <v>513</v>
       </c>
@@ -11654,7 +11918,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" ht="60">
       <c r="A7" s="5" t="s">
         <v>514</v>
       </c>
@@ -11674,7 +11938,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="5" t="s">
         <v>516</v>
       </c>
@@ -11697,7 +11961,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="5" t="s">
         <v>518</v>
       </c>
@@ -11720,7 +11984,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="5" t="s">
         <v>702</v>
       </c>
@@ -11743,7 +12007,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>1423</v>
       </c>
@@ -11754,7 +12018,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>1426</v>
       </c>
@@ -11765,7 +12029,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
         <v>1428</v>
       </c>
@@ -11773,7 +12037,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>1430</v>
       </c>
@@ -11781,7 +12045,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>1810</v>
       </c>
@@ -11792,7 +12056,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>1826</v>
       </c>
@@ -12073,9 +12337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12083,10 +12345,11 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -12108,8 +12371,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>395</v>
       </c>
@@ -12132,7 +12401,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>400</v>
       </c>
@@ -12155,7 +12424,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>402</v>
       </c>
@@ -12178,7 +12447,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>406</v>
       </c>
@@ -12201,7 +12470,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>409</v>
       </c>
@@ -12224,7 +12493,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>412</v>
       </c>
@@ -12247,7 +12516,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="5" t="s">
         <v>414</v>
       </c>
@@ -12268,7 +12537,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="5" t="s">
         <v>417</v>
       </c>
@@ -12289,7 +12558,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>421</v>
       </c>
@@ -12310,7 +12579,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="5" t="s">
         <v>423</v>
       </c>
@@ -12333,7 +12602,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="5" t="s">
         <v>426</v>
       </c>
@@ -12356,7 +12625,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="5" t="s">
         <v>428</v>
       </c>
@@ -12377,7 +12646,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>431</v>
       </c>
@@ -12400,7 +12669,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="5" t="s">
         <v>433</v>
       </c>
@@ -12423,7 +12692,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>436</v>
       </c>
@@ -12469,7 +12738,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="60">
       <c r="A18" s="5" t="s">
         <v>442</v>
       </c>
@@ -12515,7 +12784,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="30">
       <c r="A20" s="5" t="s">
         <v>451</v>
       </c>
@@ -12656,11 +12925,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12669,10 +12936,11 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12694,8 +12962,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>453</v>
       </c>
@@ -12718,7 +12992,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>454</v>
       </c>
@@ -12741,7 +13015,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>458</v>
       </c>
@@ -12764,7 +13038,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>461</v>
       </c>
@@ -12787,7 +13061,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -12810,7 +13084,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>464</v>
       </c>
@@ -12833,7 +13107,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>469</v>
       </c>
@@ -12856,7 +13130,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>472</v>
       </c>
@@ -12879,7 +13153,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>475</v>
       </c>
@@ -12902,7 +13176,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>477</v>
       </c>
@@ -12932,23 +13206,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12970,8 +13243,14 @@
       <c r="G1" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -12994,7 +13273,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -13017,7 +13296,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -13040,7 +13319,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -13063,7 +13342,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -13086,7 +13365,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -13109,7 +13388,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -13132,7 +13411,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -13155,7 +13434,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -13178,7 +13457,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>955</v>
       </c>
@@ -13192,7 +13471,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>957</v>
       </c>
@@ -13206,7 +13485,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>1753</v>
       </c>
@@ -13217,7 +13496,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>1754</v>
       </c>
@@ -13228,7 +13507,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>1755</v>
       </c>
@@ -13521,7 +13800,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>1787</v>
       </c>
@@ -13529,7 +13808,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>1788</v>
       </c>
@@ -13537,7 +13816,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>1789</v>
       </c>
@@ -13545,7 +13824,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>1790</v>
       </c>
@@ -13553,7 +13832,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>1791</v>
       </c>
@@ -13561,7 +13840,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>1793</v>
       </c>
@@ -13569,7 +13848,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>1802</v>
       </c>
@@ -13577,7 +13856,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>1804</v>
       </c>
@@ -13585,7 +13864,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>1805</v>
       </c>
@@ -13593,7 +13872,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>1806</v>
       </c>
@@ -13601,7 +13880,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>1807</v>
       </c>
@@ -13609,7 +13888,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>1808</v>
       </c>
@@ -13617,23 +13896,194 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B62" t="s">
         <v>1895</v>
       </c>
-      <c r="B62" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="B63" t="s">
-        <v>1898</v>
+        <v>1952</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1955</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -5865,9 +5865,6 @@
     <t>$LAB_GRINDERCLEANING_PUT_BREWER_INTO_POSITION</t>
   </si>
   <si>
-    <t>Do you want do dispense a coffe?</t>
-  </si>
-  <si>
     <t>$LAB_GRINDERCLEANING_WANT_COFFEE</t>
   </si>
   <si>
@@ -5920,6 +5917,9 @@
   </si>
   <si>
     <t>Si vuole erogare un caffè?</t>
+  </si>
+  <si>
+    <t>Do you want do dispense a coffee?</t>
   </si>
 </sst>
 </file>
@@ -6351,7 +6351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -13208,7 +13208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13915,21 +13917,21 @@
         <v>1907</v>
       </c>
       <c r="B63" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C63" t="s">
         <v>1952</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1953</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C64" t="s">
         <v>1950</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1951</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -13951,7 +13953,7 @@
         <v>1912</v>
       </c>
       <c r="C66" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -13973,7 +13975,7 @@
         <v>1921</v>
       </c>
       <c r="C68" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -13984,7 +13986,7 @@
         <v>1922</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -13995,7 +13997,7 @@
         <v>1923</v>
       </c>
       <c r="C70" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -14006,7 +14008,7 @@
         <v>1918</v>
       </c>
       <c r="C71" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -14017,7 +14019,7 @@
         <v>1925</v>
       </c>
       <c r="C72" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -14028,7 +14030,7 @@
         <v>1927</v>
       </c>
       <c r="C73" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -14039,7 +14041,7 @@
         <v>1929</v>
       </c>
       <c r="C74" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -14050,7 +14052,7 @@
         <v>1931</v>
       </c>
       <c r="C75" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -14061,7 +14063,7 @@
         <v>1933</v>
       </c>
       <c r="C76" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -14072,18 +14074,18 @@
         <v>1935</v>
       </c>
       <c r="C77" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B78" t="s">
-        <v>1937</v>
+        <v>1955</v>
       </c>
       <c r="C78" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1958">
   <si>
     <t>LABEL</t>
   </si>
@@ -5920,6 +5920,12 @@
   </si>
   <si>
     <t>Do you want do dispense a coffee?</t>
+  </si>
+  <si>
+    <t>$LAB_MAINT_MAINTENANCE_DECOUNTER</t>
+  </si>
+  <si>
+    <t>MAINTENANCE DECOUNTER</t>
   </si>
 </sst>
 </file>
@@ -11452,9 +11458,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11747,6 +11755,14 @@
       </c>
       <c r="G12" s="20" t="s">
         <v>1553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1957</v>
       </c>
     </row>
   </sheetData>
@@ -13208,7 +13224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1960">
   <si>
     <t>LABEL</t>
   </si>
@@ -5926,6 +5926,12 @@
   </si>
   <si>
     <t>MAINTENANCE DECOUNTER</t>
+  </si>
+  <si>
+    <t>$LAB_MAINT_MAINTENANCE_DECOUNTER_THSHOLD</t>
+  </si>
+  <si>
+    <t>MAINTENANCE DECOUNTER&lt;br&gt;THRESHOLD</t>
   </si>
 </sst>
 </file>
@@ -6015,7 +6021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6075,6 +6081,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -11458,10 +11467,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11761,8 +11770,16 @@
       <c r="A13" t="s">
         <v>1956</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="23" t="s">
         <v>1957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1959</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="4"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1970">
   <si>
     <t>LABEL</t>
   </si>
@@ -5932,6 +5932,36 @@
   </si>
   <si>
     <t>MAINTENANCE DECOUNTER&lt;br&gt;THRESHOLD</t>
+  </si>
+  <si>
+    <t>$LAB_DA_PRESELECTION</t>
+  </si>
+  <si>
+    <t>PRESELECTIONS</t>
+  </si>
+  <si>
+    <t>PRESELEZIONI</t>
+  </si>
+  <si>
+    <t>$LAB_DA_NOTHING_TO_SHOW</t>
+  </si>
+  <si>
+    <t>Nothing to show</t>
+  </si>
+  <si>
+    <t>Rien à montrer</t>
+  </si>
+  <si>
+    <t>Nada que mostrar</t>
+  </si>
+  <si>
+    <t>Nichts zu zeigen</t>
+  </si>
+  <si>
+    <t>Nessun dato da mostrare</t>
+  </si>
+  <si>
+    <t>Nada para mostrar</t>
   </si>
 </sst>
 </file>
@@ -6366,7 +6396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -10027,9 +10057,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10039,7 +10071,7 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -10204,6 +10236,40 @@
       </c>
       <c r="G7" s="18" t="s">
         <v>1682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1969</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
@@ -11469,7 +11535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1979">
   <si>
     <t>LABEL</t>
   </si>
@@ -5962,6 +5962,33 @@
   </si>
   <si>
     <t>Nada para mostrar</t>
+  </si>
+  <si>
+    <t>PROG MENU PIN CODE</t>
+  </si>
+  <si>
+    <t>QUICK MENU PIN CODE</t>
+  </si>
+  <si>
+    <t>$LAB_PROG_MENU_PIN_CODE</t>
+  </si>
+  <si>
+    <t>$LAB_QUICK_MENU_PIN_CODE</t>
+  </si>
+  <si>
+    <t>ARE YOU SURE YOU WISH TO LAUNCH THE CHOSEN OPERATION?</t>
+  </si>
+  <si>
+    <t>$LAB_ARE_YOU_SURE_YOU_WISH_TO_LAUNCH</t>
+  </si>
+  <si>
+    <t>SEI SICURO DI VOLERE AVVIARE L'OPERAZIONE SCELTA?</t>
+  </si>
+  <si>
+    <t>ÊTES-VOUS SR DE SOUHAITER LANCER L'OPÉRATION CHOISIE ?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que deseas lanzar la operación elegida?</t>
   </si>
 </sst>
 </file>
@@ -6394,10 +6421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7889,6 +7916,23 @@
       </c>
       <c r="G67" s="10" t="s">
         <v>1496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>1978</v>
       </c>
     </row>
   </sheetData>
@@ -12434,9 +12478,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13015,6 +13061,22 @@
       <c r="F27" s="5"/>
       <c r="J27" t="s">
         <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1971</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="2023">
   <si>
     <t>LABEL</t>
   </si>
@@ -5989,6 +5989,138 @@
   </si>
   <si>
     <t>¿Estás seguro de que deseas lanzar la operación elegida?</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_START</t>
+  </si>
+  <si>
+    <t>START DESCALING</t>
+  </si>
+  <si>
+    <t>DECALCIFICAZIONE</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_PRESS_CONTINUE</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_OPEN_BOILER_TAP</t>
+  </si>
+  <si>
+    <t>Open boiler tap</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_CLOSE_BOILER_TAP</t>
+  </si>
+  <si>
+    <t>Close boiler tap</t>
+  </si>
+  <si>
+    <t>please wait...</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_PLS_WAIT</t>
+  </si>
+  <si>
+    <t>Emptying hydraulic circuit</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_2</t>
+  </si>
+  <si>
+    <t>Attach submersible pump to the tank containing descaling detergent</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_4</t>
+  </si>
+  <si>
+    <t>Filling hydraulic circuit with descaling detergent</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_5</t>
+  </si>
+  <si>
+    <t>Check descaling detergent level in the air tank</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_6</t>
+  </si>
+  <si>
+    <t>Starting to fill hydraulic tubes with descaling detergent</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_7</t>
+  </si>
+  <si>
+    <t>Please wait for the descaling liquid action...</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_8</t>
+  </si>
+  <si>
+    <t>Descaling liquid starts draining through the nozzles</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_9</t>
+  </si>
+  <si>
+    <t>Check the liquid colour drained from the nozzles, it defines if descaling process successfully completed.&lt;br&gt;Press CONTINUE button to continue, or press REPEAT to repeat previous steps.</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_10</t>
+  </si>
+  <si>
+    <t>Emptying hydraulic circuit. All descaling liquid drain out through the nozzles</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_12</t>
+  </si>
+  <si>
+    <t>Change supply source to water tank. Attach submersible pump to the tank containing water</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_14</t>
+  </si>
+  <si>
+    <t>Hydraulic circuit will be filled with water</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_15</t>
+  </si>
+  <si>
+    <t>Check water level into the air tank</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_16</t>
+  </si>
+  <si>
+    <t>Water drained out through nozzles</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_17</t>
+  </si>
+  <si>
+    <t>Dispense water and test the sample. Place a cup to collect the sample</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_18</t>
+  </si>
+  <si>
+    <t>Start draining sample through each nozzle</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_19</t>
+  </si>
+  <si>
+    <t>Check the pH of collected sample. Press CONTINUE button to continue or REPEAT to repeat the previous steps to clean properly the hydraulic circuit.</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_20</t>
+  </si>
+  <si>
+    <t>Descaling procedure finished</t>
+  </si>
+  <si>
+    <t>$LAB_DESCALING_21</t>
   </si>
 </sst>
 </file>
@@ -6423,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13367,10 +13499,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14249,6 +14381,185 @@
         <v>1954</v>
       </c>
     </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="45" yWindow="60" windowWidth="24765" windowHeight="11775" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="2026">
   <si>
     <t>LABEL</t>
   </si>
@@ -6069,9 +6069,6 @@
     <t>$LAB_DESCALING_10</t>
   </si>
   <si>
-    <t>Emptying hydraulic circuit. All descaling liquid drain out through the nozzles</t>
-  </si>
-  <si>
     <t>$LAB_DESCALING_12</t>
   </si>
   <si>
@@ -6117,10 +6114,22 @@
     <t>$LAB_DESCALING_20</t>
   </si>
   <si>
-    <t>Descaling procedure finished</t>
-  </si>
-  <si>
     <t>$LAB_DESCALING_21</t>
+  </si>
+  <si>
+    <t>Descaling procedure finished,  press CLOSE to finish</t>
+  </si>
+  <si>
+    <t>$LAB_SET_PIN</t>
+  </si>
+  <si>
+    <t>SET PIN</t>
+  </si>
+  <si>
+    <t>$LAB_RESET_PIN</t>
+  </si>
+  <si>
+    <t>RESET PIN</t>
   </si>
 </sst>
 </file>
@@ -6553,10 +6562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8065,6 +8074,22 @@
       </c>
       <c r="E68" s="3" t="s">
         <v>1978</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -13501,8 +13526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14490,71 +14515,71 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B93" t="s">
-        <v>2005</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B94" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B95" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B96" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B97" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B98" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B99" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B100" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B101" t="s">
         <v>2021</v>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="3946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="3947">
   <si>
     <t>LABEL</t>
   </si>
@@ -11887,6 +11887,9 @@
   </si>
   <si>
     <t>Check the collected sample. Press CONTINUE button to continue or REPEAT to repeat the previous steps to clean properly the hydraulic circuit.</t>
+  </si>
+  <si>
+    <t>JP</t>
   </si>
 </sst>
 </file>
@@ -12393,10 +12396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12411,7 +12414,7 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12448,8 +12451,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -12525,7 +12531,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>544</v>
       </c>
@@ -12560,7 +12566,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>375</v>
       </c>
@@ -12598,7 +12604,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -12636,7 +12642,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -12674,7 +12680,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>903</v>
       </c>
@@ -12707,7 +12713,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -12745,7 +12751,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" t="s">
         <v>852</v>
       </c>
@@ -12783,7 +12789,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:13" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -12821,7 +12827,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>133</v>
       </c>
@@ -12859,7 +12865,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>520</v>
       </c>
@@ -12897,7 +12903,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>1323</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>1312</v>
       </c>
@@ -12963,7 +12969,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:13" ht="15.75">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -14960,25 +14966,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15015,8 +15021,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -15054,7 +15063,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -15092,7 +15101,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -15130,7 +15139,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -15168,7 +15177,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -15206,7 +15215,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -15244,7 +15253,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -15282,7 +15291,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>153</v>
       </c>
@@ -15320,7 +15329,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -15358,7 +15367,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -15396,7 +15405,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -15434,7 +15443,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -15472,7 +15481,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -15510,7 +15519,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>714</v>
       </c>
@@ -15548,7 +15557,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>713</v>
       </c>
@@ -16268,28 +16277,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
     <col min="12" max="12" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16326,8 +16335,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -16363,7 +16375,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -16401,7 +16413,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -16439,7 +16451,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" t="s">
         <v>285</v>
       </c>
@@ -16477,7 +16489,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
+    <row r="6" spans="1:13" ht="45">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -16513,7 +16525,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -16551,7 +16563,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -16589,7 +16601,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -16627,7 +16639,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -16665,7 +16677,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:13" ht="30">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -16703,7 +16715,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:13" ht="30">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -16741,7 +16753,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -16779,7 +16791,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -16817,7 +16829,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:13" ht="30">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -16855,7 +16867,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="75">
+    <row r="16" spans="1:13" ht="75">
       <c r="A16" t="s">
         <v>301</v>
       </c>
@@ -17386,26 +17398,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="56.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17442,8 +17455,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>307</v>
       </c>
@@ -17481,7 +17497,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -17519,7 +17535,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -17557,7 +17573,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -17595,7 +17611,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>588</v>
       </c>
@@ -17640,10 +17656,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17651,17 +17667,18 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17698,8 +17715,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -17737,7 +17757,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -17775,7 +17795,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>329</v>
       </c>
@@ -17813,7 +17833,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -17858,28 +17878,29 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -17916,8 +17937,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>338</v>
       </c>
@@ -17955,7 +17979,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>342</v>
       </c>
@@ -17993,7 +18017,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>346</v>
       </c>
@@ -18031,7 +18055,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>347</v>
       </c>
@@ -18069,7 +18093,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>348</v>
       </c>
@@ -18103,7 +18127,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45">
+    <row r="7" spans="1:13" ht="45">
       <c r="A7" s="4" t="s">
         <v>352</v>
       </c>
@@ -18141,7 +18165,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>356</v>
       </c>
@@ -18179,7 +18203,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>358</v>
       </c>
@@ -18217,7 +18241,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>359</v>
       </c>
@@ -18255,7 +18279,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>364</v>
       </c>
@@ -18293,7 +18317,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>367</v>
       </c>
@@ -18331,7 +18355,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="4" t="s">
         <v>371</v>
       </c>
@@ -18369,7 +18393,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>373</v>
       </c>
@@ -18407,7 +18431,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>380</v>
       </c>
@@ -18445,7 +18469,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>385</v>
       </c>
@@ -18604,10 +18628,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18615,17 +18639,19 @@
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18662,8 +18688,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -18701,7 +18730,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -18739,7 +18768,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>228</v>
       </c>
@@ -18777,7 +18806,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -18815,7 +18844,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" t="s">
         <v>234</v>
       </c>
@@ -18853,7 +18882,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -18891,7 +18920,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>1840</v>
       </c>
@@ -18902,7 +18931,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>1843</v>
       </c>
@@ -18932,10 +18961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -18952,7 +18981,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18989,8 +19018,11 @@
       <c r="L1" s="34" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1">
+      <c r="M1" s="6" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>533</v>
       </c>
@@ -19028,7 +19060,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" customHeight="1">
+    <row r="3" spans="1:13" ht="33" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>534</v>
       </c>
@@ -19066,7 +19098,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1">
+    <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>536</v>
       </c>
@@ -19104,7 +19136,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1">
+    <row r="5" spans="1:13" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>539</v>
       </c>
@@ -19142,7 +19174,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="23.25" customHeight="1">
+    <row r="6" spans="1:13" ht="23.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>542</v>
       </c>
@@ -19180,7 +19212,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.5" customHeight="1">
+    <row r="7" spans="1:13" ht="25.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>546</v>
       </c>
@@ -19218,7 +19250,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1">
+    <row r="8" spans="1:13" ht="26.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>551</v>
       </c>
@@ -19256,7 +19288,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="B9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -19268,7 +19300,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1">
+    <row r="10" spans="1:13" ht="27.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>554</v>
       </c>
@@ -19304,7 +19336,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1">
+    <row r="11" spans="1:13" ht="23.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>556</v>
       </c>
@@ -19340,7 +19372,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="B12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -19352,7 +19384,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="21.75" customHeight="1">
+    <row r="13" spans="1:13" ht="21.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>563</v>
       </c>
@@ -19388,7 +19420,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:13" ht="15.75">
       <c r="B14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -19400,7 +19432,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1">
+    <row r="15" spans="1:13" ht="29.25" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>565</v>
       </c>
@@ -19436,7 +19468,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="26.25" customHeight="1">
+    <row r="16" spans="1:13" ht="26.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>567</v>
       </c>
@@ -20037,10 +20069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20053,7 +20085,7 @@
     <col min="8" max="8" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20090,8 +20122,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>670</v>
       </c>
@@ -20129,7 +20164,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>671</v>
       </c>
@@ -20167,7 +20202,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>672</v>
       </c>
@@ -20200,7 +20235,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>673</v>
       </c>
@@ -20238,7 +20273,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -20276,7 +20311,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>697</v>
       </c>
@@ -20314,7 +20349,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>674</v>
       </c>
@@ -20352,7 +20387,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>675</v>
       </c>
@@ -20390,7 +20425,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>676</v>
       </c>
@@ -20428,7 +20463,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21" customHeight="1">
       <c r="A11" t="s">
         <v>677</v>
       </c>
@@ -20466,7 +20501,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>678</v>
       </c>
@@ -20504,7 +20539,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>679</v>
       </c>
@@ -20542,7 +20577,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>680</v>
       </c>
@@ -20580,7 +20615,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>681</v>
       </c>
@@ -20618,7 +20653,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>682</v>
       </c>
@@ -20667,26 +20702,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36.7109375" style="4"/>
-    <col min="3" max="3" width="9.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="16" style="4" customWidth="1"/>
-    <col min="8" max="9" width="36.7109375" style="4"/>
-    <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="36.7109375" style="4"/>
+    <col min="8" max="8" width="4.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="36.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -20723,8 +20761,11 @@
       <c r="L1" s="34" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75">
+      <c r="M1" s="20" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>803</v>
       </c>
@@ -20762,7 +20803,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>806</v>
       </c>
@@ -20800,7 +20841,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>810</v>
       </c>
@@ -20838,7 +20879,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>811</v>
       </c>
@@ -20876,7 +20917,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30.75" customHeight="1">
+    <row r="6" spans="1:13" ht="30.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>816</v>
       </c>
@@ -20914,7 +20955,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>818</v>
       </c>
@@ -20952,7 +20993,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>820</v>
       </c>
@@ -20990,7 +21031,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="B9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -21001,7 +21042,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5">
+    <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="4" t="s">
         <v>831</v>
       </c>
@@ -21039,7 +21080,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="63">
+    <row r="11" spans="1:13" ht="63">
       <c r="A11" s="4" t="s">
         <v>835</v>
       </c>
@@ -21077,7 +21118,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31.5">
+    <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="4" t="s">
         <v>860</v>
       </c>
@@ -21115,7 +21156,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="4" t="s">
         <v>861</v>
       </c>
@@ -21153,7 +21194,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="126">
+    <row r="14" spans="1:13" ht="126">
       <c r="A14" s="4" t="s">
         <v>862</v>
       </c>
@@ -21191,10 +21232,10 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="K16" s="22"/>
     </row>
     <row r="17" spans="11:11">
@@ -21326,10 +21367,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21337,15 +21378,15 @@
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -21382,8 +21423,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>198</v>
       </c>
@@ -21421,7 +21465,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>199</v>
       </c>
@@ -21459,7 +21503,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75">
+    <row r="4" spans="1:13" ht="75">
       <c r="A4" s="4" t="s">
         <v>200</v>
       </c>
@@ -21497,7 +21541,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" s="4" t="s">
         <v>201</v>
       </c>
@@ -21535,7 +21579,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="4" t="s">
         <v>202</v>
       </c>
@@ -21573,7 +21617,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" s="4" t="s">
         <v>203</v>
       </c>
@@ -21611,7 +21655,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>204</v>
       </c>
@@ -21649,7 +21693,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="4" t="s">
         <v>205</v>
       </c>
@@ -21687,7 +21731,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>206</v>
       </c>
@@ -21725,7 +21769,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>208</v>
       </c>
@@ -21763,7 +21807,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>207</v>
       </c>
@@ -21801,7 +21845,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>1836</v>
       </c>
@@ -21824,7 +21868,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>1838</v>
       </c>
@@ -21855,29 +21899,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7" style="4" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="4" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="214.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="11" width="16.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7" style="4" customWidth="1"/>
+    <col min="13" max="13" width="64" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -21914,8 +21959,11 @@
       <c r="L1" s="34" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="6" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>502</v>
       </c>
@@ -21953,7 +22001,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>504</v>
       </c>
@@ -21991,7 +22039,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>506</v>
       </c>
@@ -22029,7 +22077,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>508</v>
       </c>
@@ -22067,7 +22115,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="4" t="s">
         <v>511</v>
       </c>
@@ -22105,7 +22153,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60">
+    <row r="7" spans="1:13" ht="60">
       <c r="A7" s="4" t="s">
         <v>512</v>
       </c>
@@ -22143,7 +22191,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" s="4" t="s">
         <v>514</v>
       </c>
@@ -22181,7 +22229,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45">
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" s="4" t="s">
         <v>516</v>
       </c>
@@ -22219,7 +22267,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" s="4" t="s">
         <v>692</v>
       </c>
@@ -22257,7 +22305,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
         <v>1315</v>
       </c>
@@ -22292,7 +22340,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
         <v>1318</v>
       </c>
@@ -22327,7 +22375,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
         <v>1320</v>
       </c>
@@ -22357,7 +22405,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="4" t="s">
         <v>1322</v>
       </c>
@@ -22387,7 +22435,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="4" t="s">
         <v>1694</v>
       </c>
@@ -22422,7 +22470,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>1710</v>
       </c>
@@ -23307,27 +23355,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -23364,8 +23412,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>393</v>
       </c>
@@ -23403,7 +23454,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>398</v>
       </c>
@@ -23441,7 +23492,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>400</v>
       </c>
@@ -23479,7 +23530,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>404</v>
       </c>
@@ -23517,7 +23568,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>407</v>
       </c>
@@ -23555,7 +23606,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>410</v>
       </c>
@@ -23593,7 +23644,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" s="4" t="s">
         <v>412</v>
       </c>
@@ -23631,7 +23682,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="4" t="s">
         <v>415</v>
       </c>
@@ -23669,7 +23720,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
         <v>419</v>
       </c>
@@ -23705,7 +23756,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45">
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" s="4" t="s">
         <v>421</v>
       </c>
@@ -23743,7 +23794,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:13" ht="30">
       <c r="A12" s="4" t="s">
         <v>424</v>
       </c>
@@ -23781,7 +23832,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" s="4" t="s">
         <v>426</v>
       </c>
@@ -23819,7 +23870,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="4" t="s">
         <v>429</v>
       </c>
@@ -23857,7 +23908,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:13" ht="30">
       <c r="A15" s="4" t="s">
         <v>431</v>
       </c>
@@ -23895,7 +23946,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
         <v>434</v>
       </c>
@@ -24506,24 +24557,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="53.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24560,8 +24611,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>451</v>
       </c>
@@ -24599,7 +24653,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>452</v>
       </c>
@@ -24637,7 +24691,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>456</v>
       </c>
@@ -24675,7 +24729,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>459</v>
       </c>
@@ -24713,7 +24767,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>461</v>
       </c>
@@ -24751,7 +24805,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>462</v>
       </c>
@@ -24789,7 +24843,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -24827,7 +24881,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -24865,7 +24919,7 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>473</v>
       </c>
@@ -24903,7 +24957,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>475</v>
       </c>
@@ -24948,28 +25002,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.28515625" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="150.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="54.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="123.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25006,8 +25060,11 @@
       <c r="L1" s="31" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -25045,7 +25102,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -25083,7 +25140,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45">
+    <row r="4" spans="1:13" ht="45">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -25121,7 +25178,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -25159,7 +25216,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -25197,7 +25254,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -25235,7 +25292,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -25273,7 +25330,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -25311,7 +25368,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -25349,7 +25406,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:13" ht="30">
       <c r="A11" t="s">
         <v>898</v>
       </c>
@@ -25384,7 +25441,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="105">
+    <row r="12" spans="1:13" ht="105">
       <c r="A12" t="s">
         <v>900</v>
       </c>
@@ -25419,7 +25476,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="B13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -25429,7 +25486,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="1:12" ht="60">
+    <row r="14" spans="1:13" ht="60">
       <c r="A14" t="s">
         <v>1638</v>
       </c>
@@ -25464,7 +25521,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:13" ht="30">
       <c r="A15" t="s">
         <v>1639</v>
       </c>
@@ -25499,7 +25556,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30">
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" t="s">
         <v>1640</v>
       </c>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB94156-CD3F-457C-8751-60F462A04203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="801" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="3947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="3953">
   <si>
     <t>LABEL</t>
   </si>
@@ -11891,11 +11892,29 @@
   <si>
     <t>JP</t>
   </si>
+  <si>
+    <t>$LAB_4GRINDER_SETTINGS</t>
+  </si>
+  <si>
+    <t>$LAB_4GRINDER_VIBRATION_SPEED</t>
+  </si>
+  <si>
+    <t>$LAB_4GRINDER_VIBRATION_TIME</t>
+  </si>
+  <si>
+    <t>VIBRATION TIME</t>
+  </si>
+  <si>
+    <t>VIBRATION SPEED</t>
+  </si>
+  <si>
+    <t>VIBRATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -12395,11 +12414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14956,7 +14975,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D47">
     <sortCondition ref="B2:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14965,7 +14984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16276,7 +16295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16375,7 +16394,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="60">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -16413,7 +16432,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="75">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -16451,7 +16470,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30">
+    <row r="5" spans="1:13" ht="75">
       <c r="A5" t="s">
         <v>285</v>
       </c>
@@ -16489,7 +16508,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45">
+    <row r="6" spans="1:13" ht="90">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -16525,7 +16544,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30">
+    <row r="7" spans="1:13" ht="45">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -16563,7 +16582,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -16601,7 +16620,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -16639,7 +16658,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -16677,7 +16696,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30">
+    <row r="11" spans="1:13" ht="75">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -16715,7 +16734,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30">
+    <row r="12" spans="1:13" ht="60">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -16753,7 +16772,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30">
+    <row r="13" spans="1:13" ht="75">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -16791,7 +16810,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30">
+    <row r="14" spans="1:13" ht="60">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -16829,7 +16848,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30">
+    <row r="15" spans="1:13" ht="75">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -16867,7 +16886,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="75">
+    <row r="16" spans="1:13" ht="120">
       <c r="A16" t="s">
         <v>301</v>
       </c>
@@ -16905,7 +16924,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="60">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -16943,7 +16962,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" t="s">
         <v>590</v>
       </c>
@@ -17014,7 +17033,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" t="s">
         <v>842</v>
       </c>
@@ -17090,7 +17109,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="30">
       <c r="A22" t="s">
         <v>846</v>
       </c>
@@ -17128,7 +17147,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="60">
+    <row r="23" spans="1:12" ht="105">
       <c r="A23" t="s">
         <v>848</v>
       </c>
@@ -17166,7 +17185,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" t="s">
         <v>855</v>
       </c>
@@ -17204,7 +17223,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="75">
       <c r="A25" t="s">
         <v>1572</v>
       </c>
@@ -17234,7 +17253,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="165">
+    <row r="26" spans="1:12" ht="345">
       <c r="A26" t="s">
         <v>1575</v>
       </c>
@@ -17264,7 +17283,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="195">
+    <row r="27" spans="1:12" ht="409.5">
       <c r="A27" t="s">
         <v>1576</v>
       </c>
@@ -17294,7 +17313,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="135">
+    <row r="28" spans="1:12" ht="300">
       <c r="A28" t="s">
         <v>1578</v>
       </c>
@@ -17324,7 +17343,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="45">
+    <row r="29" spans="1:12" ht="90">
       <c r="A29" t="s">
         <v>1584</v>
       </c>
@@ -17357,7 +17376,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45">
+    <row r="30" spans="1:12" ht="90">
       <c r="A30" t="s">
         <v>1586</v>
       </c>
@@ -17397,7 +17416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17655,7 +17674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17719,7 +17738,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -17757,7 +17776,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -17833,7 +17852,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -17877,7 +17896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18127,7 +18146,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45">
+    <row r="7" spans="1:13" ht="105">
       <c r="A7" s="4" t="s">
         <v>352</v>
       </c>
@@ -18165,7 +18184,7 @@
         <v>3594</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="60">
       <c r="A8" s="4" t="s">
         <v>356</v>
       </c>
@@ -18203,7 +18222,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" s="4" t="s">
         <v>358</v>
       </c>
@@ -18241,7 +18260,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" s="4" t="s">
         <v>359</v>
       </c>
@@ -18279,7 +18298,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" s="4" t="s">
         <v>364</v>
       </c>
@@ -18317,7 +18336,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="45">
       <c r="A12" s="4" t="s">
         <v>367</v>
       </c>
@@ -18355,7 +18374,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="45">
       <c r="A13" s="4" t="s">
         <v>371</v>
       </c>
@@ -18393,7 +18412,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="4" t="s">
         <v>373</v>
       </c>
@@ -18431,7 +18450,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="45">
       <c r="A15" s="4" t="s">
         <v>380</v>
       </c>
@@ -18469,7 +18488,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="4" t="s">
         <v>385</v>
       </c>
@@ -18507,7 +18526,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="45">
       <c r="A17" s="4" t="s">
         <v>388</v>
       </c>
@@ -18545,7 +18564,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="4" t="s">
         <v>722</v>
       </c>
@@ -18583,7 +18602,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="60">
       <c r="A19" s="4" t="s">
         <v>725</v>
       </c>
@@ -18627,7 +18646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18960,7 +18979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -20068,7 +20087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20701,7 +20720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20955,7 +20974,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:13" ht="120">
       <c r="A7" s="4" t="s">
         <v>818</v>
       </c>
@@ -20993,7 +21012,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="105">
       <c r="A8" s="4" t="s">
         <v>820</v>
       </c>
@@ -21042,7 +21061,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5">
+    <row r="10" spans="1:13" ht="240">
       <c r="A10" s="4" t="s">
         <v>831</v>
       </c>
@@ -21080,7 +21099,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="63">
+    <row r="11" spans="1:13" ht="409.5">
       <c r="A11" s="4" t="s">
         <v>835</v>
       </c>
@@ -21118,7 +21137,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="31.5">
+    <row r="12" spans="1:13" ht="195">
       <c r="A12" s="4" t="s">
         <v>860</v>
       </c>
@@ -21156,7 +21175,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13" ht="210">
       <c r="A13" s="4" t="s">
         <v>861</v>
       </c>
@@ -21194,7 +21213,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="126">
+    <row r="14" spans="1:13" ht="409.5">
       <c r="A14" s="4" t="s">
         <v>862</v>
       </c>
@@ -21366,7 +21385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -21769,7 +21788,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="120">
       <c r="A11" s="4" t="s">
         <v>208</v>
       </c>
@@ -21898,7 +21917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22153,7 +22172,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60">
+    <row r="7" spans="1:13" ht="210">
       <c r="A7" s="4" t="s">
         <v>512</v>
       </c>
@@ -22405,7 +22424,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="4" t="s">
         <v>1322</v>
       </c>
@@ -22435,7 +22454,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="150">
       <c r="A15" s="4" t="s">
         <v>1694</v>
       </c>
@@ -22470,7 +22489,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="4" t="s">
         <v>1710</v>
       </c>
@@ -22505,7 +22524,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="30">
       <c r="A17" s="4" t="s">
         <v>1695</v>
       </c>
@@ -22540,7 +22559,7 @@
         <v>3394</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="75">
       <c r="A18" s="4" t="s">
         <v>1697</v>
       </c>
@@ -22575,7 +22594,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="90">
       <c r="A19" s="4" t="s">
         <v>1699</v>
       </c>
@@ -22610,7 +22629,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="75">
       <c r="A20" s="4" t="s">
         <v>1701</v>
       </c>
@@ -22645,7 +22664,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="75">
       <c r="A21" s="4" t="s">
         <v>1703</v>
       </c>
@@ -22680,7 +22699,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="135">
       <c r="A22" s="4" t="s">
         <v>1713</v>
       </c>
@@ -22715,7 +22734,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="75">
       <c r="A23" s="4" t="s">
         <v>1724</v>
       </c>
@@ -22750,7 +22769,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="90">
       <c r="A24" s="4" t="s">
         <v>1727</v>
       </c>
@@ -22785,7 +22804,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="45">
       <c r="A25" s="4" t="s">
         <v>1732</v>
       </c>
@@ -22820,7 +22839,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" ht="45">
       <c r="A26" s="4" t="s">
         <v>1735</v>
       </c>
@@ -22855,7 +22874,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="45">
       <c r="A27" s="4" t="s">
         <v>1740</v>
       </c>
@@ -22883,7 +22902,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" ht="45">
       <c r="A28" s="4" t="s">
         <v>1741</v>
       </c>
@@ -22911,7 +22930,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="150">
       <c r="A29" s="4" t="s">
         <v>1742</v>
       </c>
@@ -22941,7 +22960,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="75">
+    <row r="30" spans="1:12" ht="409.5">
       <c r="A30" s="4" t="s">
         <v>1744</v>
       </c>
@@ -22976,7 +22995,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30">
+    <row r="31" spans="1:12" ht="300">
       <c r="A31" s="4" t="s">
         <v>1747</v>
       </c>
@@ -23011,7 +23030,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="135">
       <c r="A32" s="4" t="s">
         <v>1750</v>
       </c>
@@ -23046,7 +23065,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="90">
       <c r="A33" s="4" t="s">
         <v>1751</v>
       </c>
@@ -23081,7 +23100,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30">
+    <row r="34" spans="1:12" ht="285">
       <c r="A34" s="4" t="s">
         <v>1752</v>
       </c>
@@ -23116,7 +23135,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30">
+    <row r="35" spans="1:12" ht="270">
       <c r="A35" s="4" t="s">
         <v>1753</v>
       </c>
@@ -23149,7 +23168,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="75">
+    <row r="36" spans="1:12" ht="409.5">
       <c r="A36" s="4" t="s">
         <v>1754</v>
       </c>
@@ -23184,7 +23203,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="210">
       <c r="A37" s="4" t="s">
         <v>1756</v>
       </c>
@@ -23219,7 +23238,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30">
+    <row r="38" spans="1:12" ht="405">
       <c r="A38" s="4" t="s">
         <v>1757</v>
       </c>
@@ -23254,7 +23273,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30">
+    <row r="39" spans="1:12" ht="195">
       <c r="A39" s="4" t="s">
         <v>1759</v>
       </c>
@@ -23289,7 +23308,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="165">
       <c r="A40" s="4" t="s">
         <v>1776</v>
       </c>
@@ -23318,7 +23337,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="150">
       <c r="A41" s="4" t="s">
         <v>1774</v>
       </c>
@@ -23354,11 +23373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23756,7 +23775,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
+    <row r="11" spans="1:13" ht="105">
       <c r="A11" s="4" t="s">
         <v>421</v>
       </c>
@@ -23794,7 +23813,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30">
+    <row r="12" spans="1:13" ht="120">
       <c r="A12" s="4" t="s">
         <v>424</v>
       </c>
@@ -23832,7 +23851,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30">
+    <row r="13" spans="1:13" ht="150">
       <c r="A13" s="4" t="s">
         <v>426</v>
       </c>
@@ -23870,7 +23889,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30">
+    <row r="14" spans="1:13" ht="135">
       <c r="A14" s="4" t="s">
         <v>429</v>
       </c>
@@ -23908,7 +23927,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30">
+    <row r="15" spans="1:13" ht="195">
       <c r="A15" s="4" t="s">
         <v>431</v>
       </c>
@@ -23984,7 +24003,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="60">
       <c r="A17" s="4" t="s">
         <v>437</v>
       </c>
@@ -24022,7 +24041,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60">
+    <row r="18" spans="1:12" ht="270">
       <c r="A18" s="4" t="s">
         <v>440</v>
       </c>
@@ -24060,7 +24079,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="60">
       <c r="A19" s="4" t="s">
         <v>442</v>
       </c>
@@ -24098,7 +24117,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="150">
       <c r="A20" s="4" t="s">
         <v>449</v>
       </c>
@@ -24136,7 +24155,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="105">
       <c r="A21" s="4" t="s">
         <v>870</v>
       </c>
@@ -24172,7 +24191,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="75">
       <c r="A22" s="4" t="s">
         <v>873</v>
       </c>
@@ -24208,7 +24227,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="30">
       <c r="A23" s="4" t="s">
         <v>875</v>
       </c>
@@ -24242,7 +24261,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="135">
       <c r="A24" s="4" t="s">
         <v>877</v>
       </c>
@@ -24278,7 +24297,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="105">
       <c r="A25" s="4" t="s">
         <v>880</v>
       </c>
@@ -24314,7 +24333,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="90">
+    <row r="26" spans="1:12" ht="409.5">
       <c r="A26" s="4" t="s">
         <v>884</v>
       </c>
@@ -24350,7 +24369,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="165">
       <c r="A27" s="4" t="s">
         <v>889</v>
       </c>
@@ -24403,12 +24422,30 @@
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>3950</v>
+      </c>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:12">
+      <c r="A31" s="4" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>3951</v>
+      </c>
       <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>3952</v>
+      </c>
       <c r="K32" s="22"/>
     </row>
     <row r="33" spans="11:11">
@@ -24556,7 +24593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25001,7 +25038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25064,7 +25101,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -25102,7 +25139,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="60">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -25140,7 +25177,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45">
+    <row r="4" spans="1:13" ht="75">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -25178,7 +25215,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -25216,7 +25253,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -25254,7 +25291,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -25292,7 +25329,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -25330,7 +25367,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30">
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -25368,7 +25405,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="60">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -25406,7 +25443,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30">
+    <row r="11" spans="1:13" ht="60">
       <c r="A11" t="s">
         <v>898</v>
       </c>
@@ -25441,7 +25478,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="105">
+    <row r="12" spans="1:13" ht="285">
       <c r="A12" t="s">
         <v>900</v>
       </c>
@@ -25486,7 +25523,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="1:13" ht="60">
+    <row r="14" spans="1:13" ht="90">
       <c r="A14" t="s">
         <v>1638</v>
       </c>
@@ -25521,7 +25558,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30">
+    <row r="15" spans="1:13" ht="60">
       <c r="A15" t="s">
         <v>1639</v>
       </c>
@@ -25556,7 +25593,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30">
+    <row r="16" spans="1:13" ht="60">
       <c r="A16" t="s">
         <v>1640</v>
       </c>
@@ -25591,7 +25628,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="60">
       <c r="A17" t="s">
         <v>1641</v>
       </c>
@@ -25661,7 +25698,7 @@
         <v>3465</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="60">
       <c r="A19" t="s">
         <v>1643</v>
       </c>
@@ -25731,7 +25768,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="60">
+    <row r="21" spans="1:12" ht="75">
       <c r="A21" t="s">
         <v>1645</v>
       </c>
@@ -25766,7 +25803,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30">
+    <row r="22" spans="1:12" ht="75">
       <c r="A22" t="s">
         <v>1646</v>
       </c>
@@ -25801,7 +25838,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="30">
       <c r="A23" t="s">
         <v>1647</v>
       </c>
@@ -25951,7 +25988,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="45">
       <c r="A28" t="s">
         <v>1606</v>
       </c>
@@ -25986,7 +26023,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="45">
       <c r="A29" t="s">
         <v>1607</v>
       </c>
@@ -26056,7 +26093,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30">
+    <row r="31" spans="1:12" ht="60">
       <c r="A31" t="s">
         <v>1609</v>
       </c>
@@ -26133,7 +26170,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="45">
+    <row r="34" spans="1:12" ht="105">
       <c r="A34" t="s">
         <v>1651</v>
       </c>
@@ -26165,7 +26202,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="30">
       <c r="A35" t="s">
         <v>1652</v>
       </c>
@@ -26197,7 +26234,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30">
+    <row r="36" spans="1:12" ht="60">
       <c r="A36" t="s">
         <v>1653</v>
       </c>
@@ -26229,7 +26266,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="45">
+    <row r="37" spans="1:12" ht="60">
       <c r="A37" t="s">
         <v>1654</v>
       </c>
@@ -26261,7 +26298,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30">
+    <row r="38" spans="1:12" ht="60">
       <c r="A38" t="s">
         <v>1655</v>
       </c>
@@ -26293,7 +26330,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30">
+    <row r="39" spans="1:12" ht="45">
       <c r="A39" t="s">
         <v>1662</v>
       </c>
@@ -26421,7 +26458,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30">
+    <row r="43" spans="1:12" ht="60">
       <c r="A43" t="s">
         <v>1650</v>
       </c>
@@ -26453,7 +26490,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30">
+    <row r="44" spans="1:12" ht="75">
       <c r="A44" t="s">
         <v>1659</v>
       </c>
@@ -26485,7 +26522,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="60">
+    <row r="45" spans="1:12" ht="120">
       <c r="A45" t="s">
         <v>1660</v>
       </c>
@@ -26517,7 +26554,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30">
+    <row r="46" spans="1:12" ht="45">
       <c r="A46" t="s">
         <v>1663</v>
       </c>
@@ -26733,7 +26770,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30">
+    <row r="53" spans="1:12" ht="60">
       <c r="A53" t="s">
         <v>1676</v>
       </c>
@@ -26765,7 +26802,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="30">
+    <row r="54" spans="1:12" ht="60">
       <c r="A54" t="s">
         <v>1678</v>
       </c>
@@ -26797,7 +26834,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30">
+    <row r="55" spans="1:12" ht="60">
       <c r="A55" t="s">
         <v>1687</v>
       </c>
@@ -26829,7 +26866,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="45">
       <c r="A56" t="s">
         <v>1689</v>
       </c>
@@ -26861,7 +26898,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" t="s">
         <v>1690</v>
       </c>
@@ -26893,7 +26930,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" t="s">
         <v>1691</v>
       </c>
@@ -26925,7 +26962,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" t="s">
         <v>1692</v>
       </c>
@@ -26957,7 +26994,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="75">
+    <row r="60" spans="1:12" ht="120">
       <c r="A60" t="s">
         <v>1693</v>
       </c>
@@ -27000,7 +27037,7 @@
       <c r="K61" s="19"/>
       <c r="L61" s="23"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" ht="45">
       <c r="A62" t="s">
         <v>1788</v>
       </c>
@@ -27035,7 +27072,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="45">
+    <row r="63" spans="1:12" ht="60">
       <c r="A63" t="s">
         <v>1787</v>
       </c>
@@ -27070,7 +27107,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="105">
+    <row r="64" spans="1:12" ht="210">
       <c r="A64" t="s">
         <v>1829</v>
       </c>
@@ -27105,7 +27142,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30">
+    <row r="65" spans="1:12" ht="60">
       <c r="A65" t="s">
         <v>1786</v>
       </c>
@@ -27140,7 +27177,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="30">
+    <row r="66" spans="1:12" ht="90">
       <c r="A66" t="s">
         <v>1793</v>
       </c>
@@ -27175,7 +27212,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" ht="30">
       <c r="A67" t="s">
         <v>1795</v>
       </c>
@@ -27210,7 +27247,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="60">
+    <row r="68" spans="1:12" ht="105">
       <c r="A68" t="s">
         <v>1800</v>
       </c>
@@ -27245,7 +27282,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="45">
+    <row r="69" spans="1:12" ht="90">
       <c r="A69" t="s">
         <v>1797</v>
       </c>
@@ -27280,7 +27317,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="30">
+    <row r="70" spans="1:12" ht="60">
       <c r="A70" t="s">
         <v>1804</v>
       </c>
@@ -27315,7 +27352,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="30">
+    <row r="71" spans="1:12" ht="75">
       <c r="A71" t="s">
         <v>1799</v>
       </c>
@@ -27350,7 +27387,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="75">
+    <row r="72" spans="1:12" ht="150">
       <c r="A72" t="s">
         <v>1806</v>
       </c>
@@ -27385,7 +27422,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="30">
+    <row r="73" spans="1:12" ht="45">
       <c r="A73" t="s">
         <v>1808</v>
       </c>
@@ -27420,7 +27457,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="30">
+    <row r="74" spans="1:12" ht="60">
       <c r="A74" t="s">
         <v>1810</v>
       </c>
@@ -27455,7 +27492,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="30">
+    <row r="75" spans="1:12" ht="60">
       <c r="A75" t="s">
         <v>1812</v>
       </c>
@@ -27490,7 +27527,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="30">
+    <row r="76" spans="1:12" ht="45">
       <c r="A76" t="s">
         <v>1814</v>
       </c>
@@ -27525,7 +27562,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" ht="45">
       <c r="A77" t="s">
         <v>1816</v>
       </c>
@@ -27560,7 +27597,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="30">
+    <row r="78" spans="1:12" ht="45">
       <c r="A78" t="s">
         <v>1817</v>
       </c>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="3947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="4327">
   <si>
     <t>LABEL</t>
   </si>
@@ -11891,12 +11891,1625 @@
   <si>
     <t>JP</t>
   </si>
+  <si>
+    <t>失敗しました</t>
+  </si>
+  <si>
+    <t>承認されました</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>ボイラー</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>閉じる</t>
+  </si>
+  <si>
+    <t>校正</t>
+  </si>
+  <si>
+    <t>継続する</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>カウンター</t>
+  </si>
+  <si>
+    <t>現在の価値</t>
+  </si>
+  <si>
+    <t>デカウンター</t>
+  </si>
+  <si>
+    <t>無効</t>
+  </si>
+  <si>
+    <t>割引</t>
+  </si>
+  <si>
+    <t>投与量</t>
+  </si>
+  <si>
+    <t>選択を編集します</t>
+  </si>
+  <si>
+    <t>有効</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>ゼネラルオプション</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ゼネラルセッティング</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グラインダー</t>
+  </si>
+  <si>
+    <t>コーヒーを飲む</t>
+  </si>
+  <si>
+    <t>インパルス</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>機能しない</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マシン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>モーター</t>
+  </si>
+  <si>
+    <t>ナンバー</t>
+  </si>
+  <si>
+    <t>ノーマル</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>区切り</t>
+  </si>
+  <si>
+    <t>オープン</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>お待ちください</t>
+  </si>
+  <si>
+    <t>プレセレクション</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>プロダクト</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>プロダクツ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>プログラミングメニュー</t>
+  </si>
+  <si>
+    <t>プロトコル</t>
+  </si>
+  <si>
+    <t>リピート</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>リセット</t>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>選択を実行します</t>
+  </si>
+  <si>
+    <t>データファイルの保存中、お待ち下さい。</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>セレクション</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>セレクションズ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>スキップ　コーヒー</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>スタートディレイ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>テスト　セレクション</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>電圧</t>
+  </si>
+  <si>
+    <t>ウオーター</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>選択した操作を起動してよろしいですか？</t>
+  </si>
+  <si>
+    <t>ピンコード　セット</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ピンコード　リセット</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>モーター動作中、しばらくお待ち下さい。</t>
+  </si>
+  <si>
+    <t>完了したら、グラムの数量を入力して続行してください</t>
+    <rPh sb="17" eb="19">
+      <t>ゾッコウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>無効な値</t>
+  </si>
+  <si>
+    <t>格納値</t>
+  </si>
+  <si>
+    <t>抽出ユニットと外し、続行</t>
+    <rPh sb="7" eb="8">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゾッコウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>抽出ユニットをセットし、続行</t>
+    <rPh sb="12" eb="14">
+      <t>ゾッコウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>動作確認中、しばらくお待ち下さい</t>
+  </si>
+  <si>
+    <t>グラインダー作動中</t>
+    <rPh sb="6" eb="8">
+      <t>サドウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>抽出ユニットをセットし、続行するかもう一度粉を確認して下さい</t>
+    <rPh sb="12" eb="14">
+      <t>ゾッコウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>varigrind調整中、しばらくお待ち下さい</t>
+  </si>
+  <si>
+    <t>アンインストール&lt;br&gt;&lt;br&gt;ドリップトレイは空ですか？</t>
+  </si>
+  <si>
+    <t>はい - 続行します</t>
+  </si>
+  <si>
+    <t>アンインストール&lt;br&gt;&lt;br&gt;コーヒーの粉を取り除き、続きます</t>
+  </si>
+  <si>
+    <t>アンインストール&lt;br&gt; &lt;br&gt; [アンインストールの開始]を押して続行、[中止]を押して操作をキャンセルします</t>
+  </si>
+  <si>
+    <t>アンインストール中、しばらくお待ち下さい。</t>
+  </si>
+  <si>
+    <t>削除完了、マシンをシャットダウンして下さい。</t>
+  </si>
+  <si>
+    <t>アンインストール&lt;br&gt;&lt;br&gt;ボイラーコックを開けます、開けたら続行を押します</t>
+  </si>
+  <si>
+    <t>ドレイン完了、ボイラーコックを閉じてマシンをシャットダウンします</t>
+  </si>
+  <si>
+    <t>データ処理中、しばらくお待ち下さい</t>
+  </si>
+  <si>
+    <t>EVA-DTSのダウンロードエラー。もう一度やり直して下さい</t>
+  </si>
+  <si>
+    <t>警告：その選択は豆が細かすぎるか粗すぎる為、使用出来ない可能性があります。</t>
+  </si>
+  <si>
+    <t>メンテナンス</t>
+  </si>
+  <si>
+    <t>クリーニング/ &lt;br&gt;リンス</t>
+  </si>
+  <si>
+    <t>データー　オーデット</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>メニューボタン設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>コーヒーキャリブレーション</t>
+  </si>
+  <si>
+    <t>パウダー&lt;br&gt;キャリブレーション</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>製品数量設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ペイメントシステム</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>時計</t>
+  </si>
+  <si>
+    <t>ミルカー</t>
+  </si>
+  <si>
+    <t>マニュアル</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メニュー</t>
+    </r>
+  </si>
+  <si>
+    <t>現在の校正係数</t>
+  </si>
+  <si>
+    <t>現在位置</t>
+  </si>
+  <si>
+    <t>推奨位置</t>
+  </si>
+  <si>
+    <t>現在</t>
+  </si>
+  <si>
+    <t>フラックス情報は「選択を実行」するたびに更新します</t>
+  </si>
+  <si>
+    <t>キャリブレーション開始</t>
+  </si>
+  <si>
+    <t>キャリブレーションリセット</t>
+  </si>
+  <si>
+    <t>もう一度押すと挽けます</t>
+  </si>
+  <si>
+    <t>Varigrindの挽き目調整</t>
+  </si>
+  <si>
+    <t>オートレギュレーション：有効</t>
+  </si>
+  <si>
+    <t>オートレギュレーション：無効</t>
+  </si>
+  <si>
+    <t>Varigrind Auto-Regulationが有効になっているため、現在のVARIGRIND位置を変更することはできません。&lt;br&gt;デバイス&gt; Varigrindと無効にしてください</t>
+  </si>
+  <si>
+    <t>インストール</t>
+  </si>
+  <si>
+    <t>エラーリスト</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>アクティベートH &lt;sub&gt; 2 &lt;/ sub&gt; 0フィルターリセット</t>
+  </si>
+  <si>
+    <t>ウォーターフィルターカウンター</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抽出ユニット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カウンター</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>グラインダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カウンター</t>
+    </r>
+  </si>
+  <si>
+    <t>表示温度</t>
+  </si>
+  <si>
+    <r>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メッセージ</t>
+    </r>
+  </si>
+  <si>
+    <t>アンインストール</t>
+  </si>
+  <si>
+    <t>アンインストール開始</t>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>初期インストール</t>
+  </si>
+  <si>
+    <t>メンテナンスリセット</t>
+  </si>
+  <si>
+    <t>メンテナンスリセット&lt;br&gt;閾値</t>
+  </si>
+  <si>
+    <t>スチーム温度</t>
+  </si>
+  <si>
+    <t>クリーニング期間</t>
+  </si>
+  <si>
+    <t>清掃の有効</t>
+  </si>
+  <si>
+    <t>クリーニングディレイ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ミルクセンサー</t>
+  </si>
+  <si>
+    <t>スタートアップで&lt;br&gt; &lt;br&gt;ボタンを表示します</t>
+  </si>
+  <si>
+    <t>オートクリーニング時間</t>
+  </si>
+  <si>
+    <t>00:00は表示しない</t>
+  </si>
+  <si>
+    <t>自動更新時間</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>接続されいるか無効になっています</t>
+  </si>
+  <si>
+    <t>有効</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>カス箱センサー有効</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>フォーム</t>
+  </si>
+  <si>
+    <t>エア</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ポンプスピード</t>
+  </si>
+  <si>
+    <t>ミルクプレッシャー</t>
+  </si>
+  <si>
+    <t>ホットフォーム</t>
+  </si>
+  <si>
+    <t>コールドフォーム</t>
+  </si>
+  <si>
+    <t>タブレット溶解時間</t>
+  </si>
+  <si>
+    <t>ホット(フォーム無)</t>
+  </si>
+  <si>
+    <t>コールド(フォーム無)</t>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>負圧</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>ミルカーワンタッチクリーニング</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>清掃を開始する前に確認してください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;OL&gt; &lt;LI&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>給水が利用可能です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/ LI&gt; &lt;LI&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>廃棄物タンクは空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/ LI&gt; &lt;Li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ミルクチューブがクリーニングジャグ内にあります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/ li&gt; &lt; Li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>洗剤は容器に充填されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/ li&gt; &lt;/ OL&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>給水中、しばらくお待ち下さい。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水の伝達：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}us</t>
+    </r>
+  </si>
+  <si>
+    <t>タブレット溶解中……</t>
+  </si>
+  <si>
+    <t>すすぎ中： -  {0}</t>
+  </si>
+  <si>
+    <t>すすぎ中{0}or{1}、しばらくお待ち下さい。&lt;br&gt;水の伝達：{2}us</t>
+  </si>
+  <si>
+    <t>{0}と{1}の清掃中、しばらくお待ち下さい。&lt;br&gt;水の伝達：{2}us</t>
+  </si>
+  <si>
+    <t>清掃を終了しています。&lt;br&gt; &lt;br&gt;記憶しております &gt;ボタンを押してこのウィンドウを閉じます</t>
+  </si>
+  <si>
+    <t>警告：洗剤が多いです</t>
+  </si>
+  <si>
+    <t>警告：洗剤が少ないです</t>
+  </si>
+  <si>
+    <t>警告：洗剤濃度が濃いです</t>
+  </si>
+  <si>
+    <t>排水タンクがセットされてません</t>
+  </si>
+  <si>
+    <t>伝導センサーが有効</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>メッセージナンバー</t>
+  </si>
+  <si>
+    <t>ファン時間</t>
+  </si>
+  <si>
+    <t>ビープ時間</t>
+  </si>
+  <si>
+    <t>CPU言語</t>
+  </si>
+  <si>
+    <t>サイドウォーターポンプ</t>
+  </si>
+  <si>
+    <t>シュガーキャニスター</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>フォームミルクトッピングスイッチ</t>
+  </si>
+  <si>
+    <t>前にデータ監査を有効にします</t>
+  </si>
+  <si>
+    <t>マシンコード</t>
+  </si>
+  <si>
+    <t>製品ミルクLM</t>
+  </si>
+  <si>
+    <t>ミルクLMの水番号</t>
+  </si>
+  <si>
+    <t>FVハードウェアキー&lt;br&gt;モード</t>
+  </si>
+  <si>
+    <t>FREEVENDを起動します</t>
+  </si>
+  <si>
+    <t>指定された&lt;br&gt; numを持続します。時間の数</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>Freevendは&lt;b style = 'color：#fff'&gt;実行&lt;/ b&gt;</t>
+  </si>
+  <si>
+    <t>ミルクLM</t>
+  </si>
+  <si>
+    <t>Freevendはオンになります</t>
+  </si>
+  <si>
+    <t>ブロッキングカウンター</t>
+  </si>
+  <si>
+    <t>ピンコードを挿入します</t>
+  </si>
+  <si>
+    <t>ピンコード</t>
+  </si>
+  <si>
+    <t>ブロックマシン後</t>
+  </si>
+  <si>
+    <t>後に警告する</t>
+  </si>
+  <si>
+    <t>（前の行に挿入された数に対して）指定された選択に達すると、マシンは警告を表示して、ブロックされます。</t>
+  </si>
+  <si>
+    <t>PINコードの変更が可能です</t>
+  </si>
+  <si>
+    <t>PROGメニューPINコード</t>
+  </si>
+  <si>
+    <t>クイックメニューPINコード</t>
+  </si>
+  <si>
+    <t>サマータイム</t>
+  </si>
+  <si>
+    <t>電源オン</t>
+  </si>
+  <si>
+    <t>電源オフ</t>
+  </si>
+  <si>
+    <t>リンス開始</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>抽出ユニットの洗浄開始</t>
+  </si>
+  <si>
+    <t>ミルクモジュールのクリーニングを開始します</t>
+  </si>
+  <si>
+    <t>リンス1</t>
+  </si>
+  <si>
+    <t>リンス2</t>
+  </si>
+  <si>
+    <t>リンス3</t>
+  </si>
+  <si>
+    <t>リンス4</t>
+  </si>
+  <si>
+    <t>自動リンス時間</t>
+  </si>
+  <si>
+    <t>00:00は無効</t>
+  </si>
+  <si>
+    <t>タブレット熔解設定</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>オートリンス（HC）中に「タブレット溶解」する時間を設定します。&lt;br&gt;デフォルト時間：000</t>
+  </si>
+  <si>
+    <t>抽出ユニットの清掃は始まっていません(又は終了しました)</t>
+  </si>
+  <si>
+    <t>抽出ユニットの清掃が始まりました</t>
+  </si>
+  <si>
+    <t>抽出ユニットの清掃中</t>
+  </si>
+  <si>
+    <t>タブレットを入れてスタートします</t>
+  </si>
+  <si>
+    <t>蒸らし</t>
+  </si>
+  <si>
+    <t>抽出ユニットクリーニングサイクル</t>
+  </si>
+  <si>
+    <t>クリーニングを繰り返しますか？</t>
+  </si>
+  <si>
+    <t>ブラシ位置に配置された抽出ユニットは、終了したら続ける</t>
+  </si>
+  <si>
+    <t>スキップするかコーヒー抽出</t>
+  </si>
+  <si>
+    <t>コーヒーデリバリー</t>
+  </si>
+  <si>
+    <t>リンス</t>
+  </si>
+  <si>
+    <t>ミルカークリーニングをスタートしました</t>
+  </si>
+  <si>
+    <t>クリーナーを溶かしています。</t>
+  </si>
+  <si>
+    <t>確認中</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>クリーナーサイクル</t>
+  </si>
+  <si>
+    <t>ボイラー加熱中…</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回目　確認中</t>
+    </r>
+  </si>
+  <si>
+    <t>クリーニングアクティブ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>タブレットを抽出ユニットに入れ、続行します</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>抽出ユニットを閉じます</t>
+  </si>
+  <si>
+    <t>タブレットを溶かしています 1/2、お待ちください</t>
+  </si>
+  <si>
+    <t>2番目のクリーニング実行中…</t>
+  </si>
+  <si>
+    <t>タブレットを溶かしています 2/2、お待ちください</t>
+  </si>
+  <si>
+    <t>1回目のクリーニング、お待ちください</t>
+  </si>
+  <si>
+    <t>1回目のクリーニング、実行中　1/3</t>
+  </si>
+  <si>
+    <t>1回目のクリーニング、実行中　2/3</t>
+  </si>
+  <si>
+    <t>1回目のクリーニング、実行中　3/3</t>
+  </si>
+  <si>
+    <t>クリーンサイクルを繰り返しますか？(1/2)</t>
+  </si>
+  <si>
+    <t>抽出ユニットは開いている位置に入っています</t>
+  </si>
+  <si>
+    <t>ブラシで清掃します、終了したら続行します</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>2回目の清掃、お待ちください</t>
+  </si>
+  <si>
+    <t>2回目のクリーニング、実行中…　1/6</t>
+  </si>
+  <si>
+    <t>2回目のクリーニング、実行中…　2/6</t>
+  </si>
+  <si>
+    <t>2回目のクリーニング、実行中…　3/6</t>
+  </si>
+  <si>
+    <t>2回目のクリーニング、実行中…　4/6</t>
+  </si>
+  <si>
+    <t>2回目のクリーニング、実行中…　5/6</t>
+  </si>
+  <si>
+    <t>2回目のクリーニング、実行中…　6/6</t>
+  </si>
+  <si>
+    <t>クリーンサイクル2/2を繰り返しますか？</t>
+  </si>
+  <si>
+    <t>この工程をスキップしますか？</t>
+  </si>
+  <si>
+    <t>コーヒーデリバリー、お待ちください</t>
+  </si>
+  <si>
+    <t>抽出ユニットのリンス中…</t>
+  </si>
+  <si>
+    <t>ミキサー1のリンス中…</t>
+  </si>
+  <si>
+    <t>ミキサー2のリンス中…</t>
+  </si>
+  <si>
+    <t>ミキサー3のリンス中…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抽出ユニットの清掃が完了しました。終了するには</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLOSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を押します</t>
+    </r>
+  </si>
+  <si>
+    <t>グラインダークリーニング</t>
+  </si>
+  <si>
+    <t>クリーニングを開始する&lt;br&gt;グラインダー</t>
+  </si>
+  <si>
+    <t>クリーニングするグラインダーを選択し、[続行]or[キャンセル]を押してください</t>
+  </si>
+  <si>
+    <t>{0}or{1}のグラインダーサイクル</t>
+  </si>
+  <si>
+    <t>プロダクト</t>
+  </si>
+  <si>
+    <t>残り{0}秒……</t>
+  </si>
+  <si>
+    <t>豆ホッパーのシューターを閉じます</t>
+  </si>
+  <si>
+    <t>抽出ユニットと豆ホッパーを取り除きます</t>
+  </si>
+  <si>
+    <t>グラインダークリーニングデバイスをインストールします</t>
+  </si>
+  <si>
+    <t>完了したら続けます</t>
+  </si>
+  <si>
+    <t>&lt;B&gt;警告：&lt;/ B&gt;続行を押すとすぐに、グラインダーがすぐに動きます</t>
+  </si>
+  <si>
+    <t>洗浄液を補充する</t>
+  </si>
+  <si>
+    <t>グラインドサイクルを繰りますか？</t>
+  </si>
+  <si>
+    <t>ホッパーを戻します</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ホッパーシャッターを開けます</t>
+  </si>
+  <si>
+    <t>抽出ユニットを元の位置に戻します</t>
+  </si>
+  <si>
+    <t>コーヒーを補充しますか？</t>
+    <rPh sb="5" eb="7">
+      <t>ホジュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>スケール除去開始</t>
+  </si>
+  <si>
+    <t>ボイラーバルブを開きます</t>
+  </si>
+  <si>
+    <t>ボイラーバルブを閉じます</t>
+  </si>
+  <si>
+    <t>お待ちください...</t>
+  </si>
+  <si>
+    <t>経路を空にします</t>
+  </si>
+  <si>
+    <t>スケール洗剤を含む水中ポンプをタンクに取り付けます</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>スケール洗剤を用いて回路を充填します</t>
+  </si>
+  <si>
+    <t>エアブレイクタンクの洗剤レベルを確認してください</t>
+  </si>
+  <si>
+    <t>スケール洗剤でチューブを充填します</t>
+  </si>
+  <si>
+    <t>スケーリングアクション中、お待ちください...</t>
+  </si>
+  <si>
+    <t>スケール剤の排水を開始します</t>
+  </si>
+  <si>
+    <t>ノズルから排出された液体を確認して、デスケルングプロセスが完了したら定義します。</t>
+  </si>
+  <si>
+    <t>回路を空にする</t>
+  </si>
+  <si>
+    <t>供給源を水タンクに変更します。水タンクにポンプを取り付けて下さい</t>
+  </si>
+  <si>
+    <t>水経路は水で満たされます</t>
+  </si>
+  <si>
+    <t>エアブレイクタンクの水量を確認してください</t>
+  </si>
+  <si>
+    <t>水が排出されました</t>
+  </si>
+  <si>
+    <t>水を分配し、サンプルをテストします。サンプルを集めるためにカップを置きます</t>
+  </si>
+  <si>
+    <t>各ノズルを通してサンプルを排出し始める</t>
+  </si>
+  <si>
+    <t>収集したサンプルを確認します。続行ボタンを押して続行、又は繰り返します。前の手順を繰り返して、水経路を正しく清掃します。</t>
+  </si>
+  <si>
+    <t>スケーリング終了、終了を押します</t>
+  </si>
+  <si>
+    <t>プログラミング</t>
+  </si>
+  <si>
+    <t>パーシャル</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>トータル</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>スケーリング工数</t>
+  </si>
+  <si>
+    <t>レシピNo.</t>
+  </si>
+  <si>
+    <t>ハッピープライス</t>
+  </si>
+  <si>
+    <t>コーヒー順番</t>
+  </si>
+  <si>
+    <t>コーヒー湯量</t>
+  </si>
+  <si>
+    <t>グラインド時間</t>
+  </si>
+  <si>
+    <t>蒸らし</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>タンピング圧</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>コーヒー抽出温度</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>粒度設定</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>細かい</t>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>粗い</t>
+  </si>
+  <si>
+    <t>ティーバッグ</t>
+  </si>
+  <si>
+    <t>ラテ・マキアート&lt;br&gt;抽出を始めます</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ミルク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抽出時間</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ミルク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>抽出遅延</t>
+    </r>
+  </si>
+  <si>
+    <t>ミルク&lt;br&gt;フォームタイプ</t>
+  </si>
+  <si>
+    <t>ミルク&lt;br&gt;エアー時間</t>
+  </si>
+  <si>
+    <t>ミルク&lt;br&gt;エアー遅延</t>
+  </si>
+  <si>
+    <t>グラインダー選択</t>
+  </si>
+  <si>
+    <t>繰り返し抽出</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>EV温度</t>
+  </si>
+  <si>
+    <t>フロー</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>シリンダー径</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>スタート位置</t>
+  </si>
+  <si>
+    <t>自動補正機能</t>
+  </si>
+  <si>
+    <t>排水トレイの検出</t>
+  </si>
+  <si>
+    <t>カップセンサー閾値</t>
+  </si>
+  <si>
+    <t>コーヒーセンサー</t>
+  </si>
+  <si>
+    <t>ポジション</t>
+  </si>
+  <si>
+    <t>希望する値</t>
+  </si>
+  <si>
+    <t>自動構成の有効</t>
+  </si>
+  <si>
+    <t>サンプルの個数</t>
+  </si>
+  <si>
+    <t>選択</t>
+  </si>
+  <si>
+    <t>フラックス参照</t>
+  </si>
+  <si>
+    <t>ポジション参照</t>
+  </si>
+  <si>
+    <t>最後のフラックス/位置：&lt;br&gt; &lt;b&gt; RUN選択&lt;/ b&gt;をクリックしてください</t>
+  </si>
+  <si>
+    <t>データ保存</t>
+  </si>
+  <si>
+    <t>抽出速度</t>
+  </si>
+  <si>
+    <t>モデムテスト</t>
+  </si>
+  <si>
+    <t>グループテスト</t>
+  </si>
+  <si>
+    <t>モーターテスト</t>
+  </si>
+  <si>
+    <t>テストが始まります</t>
+  </si>
+  <si>
+    <t>テスト実行中、しばらくお待ちください</t>
+  </si>
+  <si>
+    <t>テスト完了しました</t>
+  </si>
+  <si>
+    <t>OFF09になる際のグラインダースピード対策</t>
+  </si>
+  <si>
+    <t>ステップ1 &lt;br&gt; &lt;B&gt; &lt;B&gt;ホッパーレバー引きます。グラインダーの中の豆を空にするために、グラインダーは約10秒間稼働します。</t>
+  </si>
+  <si>
+    <t>ステップ2グラインダーが空の場合、グラインダーが空のときに報告された平均センサー値を検出するためにテストできます。続行を押し続けます。グラインダーは約10秒間実行されます。</t>
+  </si>
+  <si>
+    <t>ステップ3 &lt;bbr&gt;今&lt;B&gt;コーヒーベル（オレンジレバー）を開き、続行し続ける。グラインダーは約10秒間実行されます。</t>
+  </si>
+  <si>
+    <t>グラインダーが空の平均速度</t>
+  </si>
+  <si>
+    <t>グラインダーが空でない場合の平均速度</t>
+  </si>
+  <si>
+    <t>最初のコーヒー</t>
+  </si>
+  <si>
+    <t>今の温度</t>
+  </si>
+  <si>
+    <t>カウンター設定メニューを選択</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>キャニスター容量</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>プロダクト停止の有効</t>
+  </si>
+  <si>
+    <t>RFIDカード</t>
+  </si>
+  <si>
+    <t>コインメックタイプ</t>
+  </si>
+  <si>
+    <t>シングルベンド</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>マルチベンド</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>価格保持</t>
+  </si>
+  <si>
+    <t>通貨（価格）&lt;br&gt; Decimals Num.</t>
+  </si>
+  <si>
+    <t>エスクローの有効</t>
+  </si>
+  <si>
+    <t>クレジットMAX</t>
+  </si>
+  <si>
+    <t>休憩</t>
+  </si>
+  <si>
+    <t>販売タイプ</t>
+  </si>
+  <si>
+    <t>トークン値</t>
+  </si>
+  <si>
+    <t>valiデーター</t>
+  </si>
+  <si>
+    <t>コインレッション</t>
+  </si>
+  <si>
+    <t>コインなし</t>
+  </si>
+  <si>
+    <t>アドレスvidts</t>
+  </si>
+  <si>
+    <t>最大クレジットカード</t>
+  </si>
+  <si>
+    <t>現金の価格表</t>
+  </si>
+  <si>
+    <t>キャッシュレスの価格表</t>
+  </si>
+  <si>
+    <t>区分</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>データの更新</t>
+  </si>
+  <si>
+    <t>データの再更新</t>
+  </si>
+  <si>
+    <t>部分的なデータリセット</t>
+  </si>
+  <si>
+    <t>プレセレクション</t>
+  </si>
+  <si>
+    <t>表示するものはありません</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;&amp;nbsp;&amp;nbsp;戻る&amp;nbsp;&amp;nbsp;&amp;nbsp;</t>
+  </si>
+  <si>
+    <t>&amp;nbsp;&amp;nbsp;&amp;nbsp;保存する&amp;nbsp;&amp;nbsp;&amp;nbsp;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11990,8 +13603,70 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12010,6 +13685,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -12023,7 +13710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12116,6 +13803,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -12399,19 +14126,20 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -12492,6 +14220,9 @@
       <c r="L2" s="19" t="s">
         <v>3258</v>
       </c>
+      <c r="M2" s="38" t="s">
+        <v>4325</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="3" t="s">
@@ -12530,6 +14261,9 @@
       <c r="L3" s="19" t="s">
         <v>3259</v>
       </c>
+      <c r="M3" s="38" t="s">
+        <v>4326</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -12565,6 +14299,9 @@
       <c r="L4" s="19" t="s">
         <v>3260</v>
       </c>
+      <c r="M4" s="39" t="s">
+        <v>3947</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="3" t="s">
@@ -12603,6 +14340,9 @@
       <c r="L5" s="19" t="s">
         <v>3261</v>
       </c>
+      <c r="M5" s="38" t="s">
+        <v>3948</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
       <c r="A6" t="s">
@@ -12641,6 +14381,9 @@
       <c r="L6" s="19" t="s">
         <v>3262</v>
       </c>
+      <c r="M6" s="38" t="s">
+        <v>3949</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
       <c r="A7" t="s">
@@ -12679,6 +14422,9 @@
       <c r="L7" s="19" t="s">
         <v>3263</v>
       </c>
+      <c r="M7" s="38" t="s">
+        <v>3950</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -12712,6 +14458,9 @@
       <c r="L8" s="19" t="s">
         <v>3264</v>
       </c>
+      <c r="M8" s="38" t="s">
+        <v>3951</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
       <c r="A9" t="s">
@@ -12750,6 +14499,9 @@
       <c r="L9" s="19" t="s">
         <v>3265</v>
       </c>
+      <c r="M9" s="38" t="s">
+        <v>3952</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
       <c r="A10" t="s">
@@ -12788,8 +14540,11 @@
       <c r="L10" s="19" t="s">
         <v>3266</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75">
+      <c r="M10" s="39" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -12825,6 +14580,9 @@
       </c>
       <c r="L11" s="19" t="s">
         <v>3267</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>3954</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
@@ -12864,8 +14622,11 @@
       <c r="L12" s="19" t="s">
         <v>3266</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75">
+      <c r="M12" s="39" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30">
       <c r="A13" s="3" t="s">
         <v>520</v>
       </c>
@@ -12902,8 +14663,11 @@
       <c r="L13" s="19" t="s">
         <v>3268</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="38" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" t="s">
         <v>1323</v>
       </c>
@@ -12935,6 +14699,9 @@
       <c r="L14" s="19" t="s">
         <v>3269</v>
       </c>
+      <c r="M14" s="38" t="s">
+        <v>3956</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -12968,8 +14735,11 @@
       <c r="L15" s="19" t="s">
         <v>3270</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75">
+      <c r="M15" s="38" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -13006,8 +14776,11 @@
       <c r="L16" s="19" t="s">
         <v>3271</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="38" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30">
       <c r="A17" t="s">
         <v>322</v>
       </c>
@@ -13044,8 +14817,11 @@
       <c r="L17" s="19" t="s">
         <v>3272</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75">
+      <c r="M17" s="39" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -13082,8 +14858,11 @@
       <c r="L18" s="19" t="s">
         <v>3273</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75">
+      <c r="M18" s="38" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" t="s">
         <v>391</v>
       </c>
@@ -13120,8 +14899,11 @@
       <c r="L19" s="19" t="s">
         <v>3274</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75">
+      <c r="M19" s="38" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -13158,8 +14940,11 @@
       <c r="L20" s="19" t="s">
         <v>3275</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75">
+      <c r="M20" s="38" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" t="s">
         <v>702</v>
       </c>
@@ -13196,8 +14981,11 @@
       <c r="L21" s="19" t="s">
         <v>3276</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75">
+      <c r="M21" s="38" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -13234,8 +15022,11 @@
       <c r="L22" s="19" t="s">
         <v>3277</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75">
+      <c r="M22" s="38" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75">
       <c r="A23" t="s">
         <v>596</v>
       </c>
@@ -13272,8 +15063,11 @@
       <c r="L23" s="19" t="s">
         <v>3278</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75">
+      <c r="M23" s="38" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
       <c r="A24" t="s">
         <v>493</v>
       </c>
@@ -13310,8 +15104,11 @@
       <c r="L24" s="19" t="s">
         <v>3279</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75">
+      <c r="M24" s="38" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -13348,8 +15145,11 @@
       <c r="L25" s="19" t="s">
         <v>3280</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75">
+      <c r="M25" s="40" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -13386,8 +15186,11 @@
       <c r="L26" s="19" t="s">
         <v>3281</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75">
+      <c r="M26" s="40" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="3" t="s">
         <v>127</v>
       </c>
@@ -13424,8 +15227,11 @@
       <c r="L27" s="19" t="s">
         <v>3282</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75">
+      <c r="M27" s="38" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="31.5">
       <c r="A28" s="3" t="s">
         <v>527</v>
       </c>
@@ -13462,8 +15268,11 @@
       <c r="L28" s="19" t="s">
         <v>3283</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75">
+      <c r="M28" s="38" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>689</v>
       </c>
@@ -13500,8 +15309,11 @@
       <c r="L29" s="19" t="s">
         <v>3284</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75">
+      <c r="M29" s="41" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -13538,8 +15350,11 @@
       <c r="L30" s="19" t="s">
         <v>3285</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75">
+      <c r="M30" s="41" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="31.5">
       <c r="A31" t="s">
         <v>336</v>
       </c>
@@ -13576,8 +15391,11 @@
       <c r="L31" s="19" t="s">
         <v>3286</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75">
+      <c r="M31" s="42" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" t="s">
         <v>479</v>
       </c>
@@ -13614,8 +15432,11 @@
       <c r="L32" s="19" t="s">
         <v>3287</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75">
+      <c r="M32" s="38" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>130</v>
       </c>
@@ -13652,8 +15473,11 @@
       <c r="L33" s="19" t="s">
         <v>3288</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75">
+      <c r="M33" s="38" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="3" t="s">
         <v>1570</v>
       </c>
@@ -13682,8 +15506,11 @@
       <c r="L34" s="19" t="s">
         <v>3289</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75">
+      <c r="M34" s="39" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30">
       <c r="A35" s="3" t="s">
         <v>593</v>
       </c>
@@ -13720,8 +15547,11 @@
       <c r="L35" s="19" t="s">
         <v>3290</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="30">
+      <c r="M35" s="41" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60">
       <c r="A36" t="s">
         <v>186</v>
       </c>
@@ -13758,8 +15588,11 @@
       <c r="L36" s="19" t="s">
         <v>3291</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75">
+      <c r="M36" s="38" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>136</v>
       </c>
@@ -13796,8 +15629,11 @@
       <c r="L37" s="19" t="s">
         <v>3292</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75">
+      <c r="M37" s="40" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30">
       <c r="A38" s="3" t="s">
         <v>517</v>
       </c>
@@ -13834,8 +15670,11 @@
       <c r="L38" s="19" t="s">
         <v>3293</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30">
+      <c r="M38" s="38" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -13872,8 +15711,11 @@
       <c r="L39" s="19" t="s">
         <v>3294</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75">
+      <c r="M39" s="41" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -13910,8 +15752,11 @@
       <c r="L40" s="19" t="s">
         <v>3295</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75">
+      <c r="M40" s="38" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="3" t="s">
         <v>175</v>
       </c>
@@ -13948,8 +15793,11 @@
       <c r="L41" s="19" t="s">
         <v>3296</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75">
+      <c r="M41" s="40" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -13986,8 +15834,11 @@
       <c r="L42" s="19" t="s">
         <v>3297</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75">
+      <c r="M42" s="40" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="45">
       <c r="A43" s="3" t="s">
         <v>219</v>
       </c>
@@ -14024,8 +15875,11 @@
       <c r="L43" s="19" t="s">
         <v>3298</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75">
+      <c r="M43" s="38" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="3" t="s">
         <v>381</v>
       </c>
@@ -14062,8 +15916,11 @@
       <c r="L44" s="19" t="s">
         <v>3299</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75">
+      <c r="M44" s="38" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="3" t="s">
         <v>557</v>
       </c>
@@ -14100,8 +15957,11 @@
       <c r="L45" s="19" t="s">
         <v>3300</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75">
+      <c r="M45" s="41" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -14133,8 +15993,11 @@
       <c r="L46" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15.75">
+      <c r="M46" s="39" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="3" t="s">
         <v>1582</v>
       </c>
@@ -14166,8 +16029,11 @@
       <c r="L47" s="19" t="s">
         <v>3301</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75">
+      <c r="M47" s="41" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -14204,8 +16070,11 @@
       <c r="L48" s="19" t="s">
         <v>3302</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="31.5">
+      <c r="M48" s="38" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="75">
       <c r="A49" s="3" t="s">
         <v>585</v>
       </c>
@@ -14242,8 +16111,11 @@
       <c r="L49" s="19" t="s">
         <v>3303</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75">
+      <c r="M49" s="39" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="3" t="s">
         <v>494</v>
       </c>
@@ -14280,8 +16152,11 @@
       <c r="L50" s="19" t="s">
         <v>3304</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75">
+      <c r="M50" s="38" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -14318,8 +16193,11 @@
       <c r="L51" s="19" t="s">
         <v>3305</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="41" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>883</v>
       </c>
@@ -14351,8 +16229,11 @@
       <c r="L52" s="19" t="s">
         <v>3306</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75">
+      <c r="M52" s="41" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="30">
       <c r="A53" s="3" t="s">
         <v>524</v>
       </c>
@@ -14389,8 +16270,11 @@
       <c r="L53" s="19" t="s">
         <v>3307</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15.75">
+      <c r="M53" s="40" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" t="s">
         <v>196</v>
       </c>
@@ -14427,8 +16311,11 @@
       <c r="L54" s="19" t="s">
         <v>3308</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15.75">
+      <c r="M54" s="38" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" t="s">
         <v>687</v>
       </c>
@@ -14465,8 +16352,11 @@
       <c r="L55" s="19" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75">
+      <c r="M55" s="41" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="30">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -14503,8 +16393,11 @@
       <c r="L56" s="19" t="s">
         <v>3309</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15.75">
+      <c r="M56" s="40" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -14541,8 +16434,11 @@
       <c r="L57" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75">
+      <c r="M57" s="41" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30">
       <c r="A58" t="s">
         <v>497</v>
       </c>
@@ -14579,8 +16475,11 @@
       <c r="L58" s="19" t="s">
         <v>3310</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75">
+      <c r="M58" s="38" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -14617,8 +16516,11 @@
       <c r="L59" s="19" t="s">
         <v>3311</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75">
+      <c r="M59" s="39" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="30">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -14655,8 +16557,11 @@
       <c r="L60" s="19" t="s">
         <v>3312</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75">
+      <c r="M60" s="41" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="3" t="s">
         <v>490</v>
       </c>
@@ -14693,8 +16598,11 @@
       <c r="L61" s="19" t="s">
         <v>3313</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75">
+      <c r="M61" s="38" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="3" t="s">
         <v>483</v>
       </c>
@@ -14731,8 +16639,11 @@
       <c r="L62" s="19" t="s">
         <v>3314</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75">
+      <c r="M62" s="38" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="30">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -14769,8 +16680,11 @@
       <c r="L63" s="19" t="s">
         <v>3315</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75">
+      <c r="M63" s="38" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="3" t="s">
         <v>187</v>
       </c>
@@ -14807,8 +16721,11 @@
       <c r="L64" s="19" t="s">
         <v>3316</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75">
+      <c r="M64" s="41" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="3" t="s">
         <v>106</v>
       </c>
@@ -14845,8 +16762,11 @@
       <c r="L65" s="19" t="s">
         <v>3317</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75">
+      <c r="M65" s="41" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="3" t="s">
         <v>486</v>
       </c>
@@ -14883,8 +16803,11 @@
       <c r="L66" s="19" t="s">
         <v>3318</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75">
+      <c r="M66" s="38" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="3" t="s">
         <v>36</v>
       </c>
@@ -14921,8 +16844,11 @@
       <c r="L67" s="19" t="s">
         <v>3319</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="38" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
         <v>1855</v>
       </c>
@@ -14938,21 +16864,30 @@
       <c r="E68" s="3" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="38" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
         <v>1900</v>
       </c>
       <c r="B69" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="40" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="3" t="s">
         <v>1902</v>
       </c>
       <c r="B70" t="s">
         <v>1903</v>
+      </c>
+      <c r="M70" s="40" t="s">
+        <v>4011</v>
       </c>
     </row>
   </sheetData>
@@ -14969,19 +16904,20 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M2" sqref="M2:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -15062,6 +16998,9 @@
       <c r="L2" s="19" t="s">
         <v>3523</v>
       </c>
+      <c r="M2" s="38" t="s">
+        <v>4235</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -15100,6 +17039,9 @@
       <c r="L3" s="19" t="s">
         <v>3524</v>
       </c>
+      <c r="M3" s="41" t="s">
+        <v>4236</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -15138,6 +17080,9 @@
       <c r="L4" s="19" t="s">
         <v>3525</v>
       </c>
+      <c r="M4" s="41" t="s">
+        <v>4237</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -15176,6 +17121,9 @@
       <c r="L5" s="19" t="s">
         <v>3526</v>
       </c>
+      <c r="M5" s="39" t="s">
+        <v>4238</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -15214,6 +17162,9 @@
       <c r="L6" s="19" t="s">
         <v>3527</v>
       </c>
+      <c r="M6" s="39" t="s">
+        <v>4239</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -15252,6 +17203,9 @@
       <c r="L7" s="19" t="s">
         <v>3528</v>
       </c>
+      <c r="M7" s="39" t="s">
+        <v>4240</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -15290,6 +17244,9 @@
       <c r="L8" s="19" t="s">
         <v>3529</v>
       </c>
+      <c r="M8" s="39" t="s">
+        <v>4241</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -15328,6 +17285,9 @@
       <c r="L9" s="19" t="s">
         <v>3530</v>
       </c>
+      <c r="M9" s="39" t="s">
+        <v>4242</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
@@ -15366,6 +17326,9 @@
       <c r="L10" s="19" t="s">
         <v>3531</v>
       </c>
+      <c r="M10" s="39" t="s">
+        <v>4243</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -15404,6 +17367,9 @@
       <c r="L11" s="19" t="s">
         <v>3532</v>
       </c>
+      <c r="M11" s="41" t="s">
+        <v>4244</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -15442,6 +17408,9 @@
       <c r="L12" s="19" t="s">
         <v>3533</v>
       </c>
+      <c r="M12" s="40" t="s">
+        <v>4245</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="30">
       <c r="A13" t="s">
@@ -15480,6 +17449,9 @@
       <c r="L13" s="19" t="s">
         <v>3534</v>
       </c>
+      <c r="M13" s="40" t="s">
+        <v>4246</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -15518,6 +17490,9 @@
       <c r="L14" s="19" t="s">
         <v>3535</v>
       </c>
+      <c r="M14" s="41" t="s">
+        <v>4247</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -15556,6 +17531,9 @@
       <c r="L15" s="19" t="s">
         <v>3536</v>
       </c>
+      <c r="M15" s="38" t="s">
+        <v>3960</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -15594,8 +17572,11 @@
       <c r="L16" s="19" t="s">
         <v>3537</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="39" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>710</v>
       </c>
@@ -15632,8 +17613,11 @@
       <c r="L17" s="19" t="s">
         <v>3538</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="41" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>711</v>
       </c>
@@ -15670,8 +17654,11 @@
       <c r="L18" s="19" t="s">
         <v>3539</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="38" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -15708,8 +17695,11 @@
       <c r="L19" s="19" t="s">
         <v>3443</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="38" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -15746,8 +17736,11 @@
       <c r="L20" s="19" t="s">
         <v>3540</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="45">
+      <c r="M20" s="38" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" t="s">
         <v>243</v>
       </c>
@@ -15784,8 +17777,11 @@
       <c r="L21" s="19" t="s">
         <v>3541</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="45">
+      <c r="M21" s="39" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45">
       <c r="A22" t="s">
         <v>246</v>
       </c>
@@ -15822,8 +17818,11 @@
       <c r="L22" s="19" t="s">
         <v>3542</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="45">
+      <c r="M22" s="61" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -15860,8 +17859,11 @@
       <c r="L23" s="19" t="s">
         <v>3543</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="30">
+      <c r="M23" s="61" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30">
       <c r="A24" t="s">
         <v>1723</v>
       </c>
@@ -15895,8 +17897,11 @@
       <c r="L24" s="19" t="s">
         <v>3544</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="39" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>247</v>
       </c>
@@ -15931,8 +17936,11 @@
       <c r="L25" s="19" t="s">
         <v>3545</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="45">
+      <c r="M25" s="39" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="45">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -15969,8 +17977,11 @@
       <c r="L26" s="19" t="s">
         <v>3546</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+      <c r="M26" s="39" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" t="s">
         <v>251</v>
       </c>
@@ -16007,8 +18018,11 @@
       <c r="L27" s="19" t="s">
         <v>3547</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="39" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>252</v>
       </c>
@@ -16040,8 +18054,11 @@
       <c r="L28" s="19" t="s">
         <v>3548</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="40" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>254</v>
       </c>
@@ -16078,8 +18095,11 @@
       <c r="L29" s="19" t="s">
         <v>3549</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="38" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>256</v>
       </c>
@@ -16116,8 +18136,11 @@
       <c r="L30" s="19" t="s">
         <v>3550</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="38" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -16154,8 +18177,11 @@
       <c r="L31" s="19" t="s">
         <v>3551</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="38" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>609</v>
       </c>
@@ -16192,8 +18218,11 @@
       <c r="L32" s="19" t="s">
         <v>3552</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="38" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>611</v>
       </c>
@@ -16230,8 +18259,11 @@
       <c r="L33" s="19" t="s">
         <v>3553</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="39" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>613</v>
       </c>
@@ -16267,6 +18299,9 @@
       </c>
       <c r="L34" s="19" t="s">
         <v>3554</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>4265</v>
       </c>
     </row>
   </sheetData>
@@ -16280,22 +18315,23 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -16374,8 +18410,11 @@
       <c r="L2" s="23" t="s">
         <v>3555</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+      <c r="M2" s="39" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -16412,8 +18451,11 @@
       <c r="L3" s="23" t="s">
         <v>3556</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="30">
+      <c r="M3" s="40" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -16450,8 +18492,11 @@
       <c r="L4" s="23" t="s">
         <v>3557</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="30">
+      <c r="M4" s="39" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75">
       <c r="A5" t="s">
         <v>285</v>
       </c>
@@ -16488,8 +18533,11 @@
       <c r="L5" s="23" t="s">
         <v>3558</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="45">
+      <c r="M5" s="39" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -16524,8 +18572,11 @@
       <c r="L6" s="23" t="s">
         <v>3559</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="30">
+      <c r="M6" s="39" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -16562,8 +18613,11 @@
       <c r="L7" s="23" t="s">
         <v>3560</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="39" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" t="s">
         <v>275</v>
       </c>
@@ -16600,8 +18654,11 @@
       <c r="L8" s="23" t="s">
         <v>3561</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="38" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -16638,8 +18695,11 @@
       <c r="L9" s="23" t="s">
         <v>3562</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="38" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -16676,8 +18736,11 @@
       <c r="L10" s="23" t="s">
         <v>3563</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="30">
+      <c r="M10" s="39" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="75">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -16714,8 +18777,11 @@
       <c r="L11" s="23" t="s">
         <v>3564</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="30">
+      <c r="M11" s="39" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="60">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -16752,8 +18818,11 @@
       <c r="L12" s="23" t="s">
         <v>3565</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30">
+      <c r="M12" s="39" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="75">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -16790,8 +18859,11 @@
       <c r="L13" s="23" t="s">
         <v>3566</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="30">
+      <c r="M13" s="39" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="60">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -16828,8 +18900,11 @@
       <c r="L14" s="23" t="s">
         <v>3567</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30">
+      <c r="M14" s="39" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -16866,8 +18941,11 @@
       <c r="L15" s="23" t="s">
         <v>3568</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="75">
+      <c r="M15" s="39" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="135">
       <c r="A16" t="s">
         <v>301</v>
       </c>
@@ -16904,8 +18982,11 @@
       <c r="L16" s="23" t="s">
         <v>3569</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="30">
+      <c r="M16" s="38" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -16942,8 +19023,11 @@
       <c r="L17" s="23" t="s">
         <v>3570</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="39" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45">
       <c r="A18" t="s">
         <v>590</v>
       </c>
@@ -16980,8 +19064,11 @@
       <c r="L18" s="23" t="s">
         <v>3571</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="30">
+      <c r="M18" s="39" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" s="3" t="s">
         <v>685</v>
       </c>
@@ -17013,8 +19100,11 @@
       <c r="L19" s="23" t="s">
         <v>3572</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="38" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="45">
       <c r="A20" t="s">
         <v>842</v>
       </c>
@@ -17051,8 +19141,11 @@
       <c r="L20" s="23" t="s">
         <v>3573</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="30">
+      <c r="M20" s="38" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30">
       <c r="A21" t="s">
         <v>843</v>
       </c>
@@ -17089,8 +19182,11 @@
       <c r="L21" s="23" t="s">
         <v>3574</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="38" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" t="s">
         <v>846</v>
       </c>
@@ -17127,8 +19223,11 @@
       <c r="L22" s="23" t="s">
         <v>3575</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="60">
+      <c r="M22" s="38" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="105">
       <c r="A23" t="s">
         <v>848</v>
       </c>
@@ -17165,8 +19264,11 @@
       <c r="L23" s="23" t="s">
         <v>3576</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="39" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45">
       <c r="A24" t="s">
         <v>855</v>
       </c>
@@ -17203,8 +19305,11 @@
       <c r="L24" s="23" t="s">
         <v>3577</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="45">
+      <c r="M24" s="39" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="75">
       <c r="A25" t="s">
         <v>1572</v>
       </c>
@@ -17233,8 +19338,11 @@
       <c r="L25" s="23" t="s">
         <v>3578</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="165">
+      <c r="M25" s="39" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="345">
       <c r="A26" t="s">
         <v>1575</v>
       </c>
@@ -17263,8 +19371,11 @@
       <c r="L26" s="23" t="s">
         <v>3579</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="195">
+      <c r="M26" s="39" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="409.5">
       <c r="A27" t="s">
         <v>1576</v>
       </c>
@@ -17293,8 +19404,11 @@
       <c r="L27" s="37" t="s">
         <v>3580</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="135">
+      <c r="M27" s="38" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="330">
       <c r="A28" t="s">
         <v>1578</v>
       </c>
@@ -17323,8 +19437,11 @@
       <c r="L28" s="23" t="s">
         <v>3581</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="45">
+      <c r="M28" s="38" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="90">
       <c r="A29" t="s">
         <v>1584</v>
       </c>
@@ -17356,8 +19473,11 @@
       <c r="L29" s="23" t="s">
         <v>3582</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="45">
+      <c r="M29" s="38" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="90">
       <c r="A30" t="s">
         <v>1586</v>
       </c>
@@ -17388,6 +19508,9 @@
       </c>
       <c r="L30" s="23" t="s">
         <v>3583</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
@@ -17401,7 +19524,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M2" sqref="M2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17496,6 +19619,9 @@
       <c r="L2" s="19" t="s">
         <v>3584</v>
       </c>
+      <c r="M2" s="39" t="s">
+        <v>4294</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -17534,6 +19660,10 @@
       <c r="L3" s="19" t="s">
         <v>3585</v>
       </c>
+      <c r="M3" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B3,""en"",""ja"")"),"加熱時間")</f>
+        <v>加熱時間</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -17572,6 +19702,10 @@
       <c r="L4" s="19" t="s">
         <v>3586</v>
       </c>
+      <c r="M4" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B4,""en"",""ja"")"),"ヒータ")</f>
+        <v>ヒータ</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -17610,6 +19744,10 @@
       <c r="L5" s="19" t="s">
         <v>3264</v>
       </c>
+      <c r="M5" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B5,""en"",""ja"")"),"ボイラー")</f>
+        <v>ボイラー</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -17647,6 +19785,9 @@
       </c>
       <c r="L6" s="19" t="s">
         <v>3587</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>4295</v>
       </c>
     </row>
   </sheetData>
@@ -17659,7 +19800,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M2" sqref="M2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17719,7 +19860,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" t="s">
         <v>321</v>
       </c>
@@ -17756,8 +19897,11 @@
       <c r="L2" s="19" t="s">
         <v>3588</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" s="51" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -17793,6 +19937,9 @@
       </c>
       <c r="L3" s="19" t="s">
         <v>3589</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>4297</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -17832,8 +19979,11 @@
       <c r="L4" s="19" t="s">
         <v>3590</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="57" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" t="s">
         <v>332</v>
       </c>
@@ -17869,6 +20019,9 @@
       </c>
       <c r="L5" s="19" t="s">
         <v>3591</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>4299</v>
       </c>
     </row>
   </sheetData>
@@ -17881,7 +20034,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M2" sqref="M2:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17978,6 +20131,9 @@
       <c r="L2" s="21" t="s">
         <v>3592</v>
       </c>
+      <c r="M2" s="57" t="s">
+        <v>4300</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -18016,6 +20172,9 @@
       <c r="L3" s="21" t="s">
         <v>3593</v>
       </c>
+      <c r="M3" s="57" t="s">
+        <v>4301</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -18054,6 +20213,9 @@
       <c r="L4" s="21" t="s">
         <v>343</v>
       </c>
+      <c r="M4" s="40" t="s">
+        <v>4302</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
@@ -18092,6 +20254,9 @@
       <c r="L5" s="21" t="s">
         <v>344</v>
       </c>
+      <c r="M5" s="51" t="s">
+        <v>4303</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
@@ -18126,8 +20291,11 @@
       <c r="L6" s="21" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="45">
+      <c r="M6" s="57" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="105">
       <c r="A7" s="4" t="s">
         <v>352</v>
       </c>
@@ -18164,8 +20332,11 @@
       <c r="L7" s="21" t="s">
         <v>3594</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="57" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60">
       <c r="A8" s="4" t="s">
         <v>356</v>
       </c>
@@ -18202,8 +20373,11 @@
       <c r="L8" s="21" t="s">
         <v>3595</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="48" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" s="4" t="s">
         <v>358</v>
       </c>
@@ -18240,8 +20414,11 @@
       <c r="L9" s="21" t="s">
         <v>3596</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="48" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" s="4" t="s">
         <v>359</v>
       </c>
@@ -18278,8 +20455,11 @@
       <c r="L10" s="21" t="s">
         <v>3597</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="57" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" s="4" t="s">
         <v>364</v>
       </c>
@@ -18316,8 +20496,11 @@
       <c r="L11" s="21" t="s">
         <v>3598</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="57" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45">
       <c r="A12" s="4" t="s">
         <v>367</v>
       </c>
@@ -18354,8 +20537,11 @@
       <c r="L12" s="21" t="s">
         <v>3599</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="57" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45">
       <c r="A13" s="4" t="s">
         <v>371</v>
       </c>
@@ -18392,8 +20578,11 @@
       <c r="L13" s="21" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="48" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="4" t="s">
         <v>373</v>
       </c>
@@ -18430,8 +20619,11 @@
       <c r="L14" s="21" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="57" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45">
       <c r="A15" s="4" t="s">
         <v>380</v>
       </c>
@@ -18468,8 +20660,11 @@
       <c r="L15" s="21" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="38" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="4" t="s">
         <v>385</v>
       </c>
@@ -18506,8 +20701,11 @@
       <c r="L16" s="21" t="s">
         <v>3601</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="57" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45">
       <c r="A17" s="4" t="s">
         <v>388</v>
       </c>
@@ -18544,8 +20742,11 @@
       <c r="L17" s="21" t="s">
         <v>3602</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="57" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30">
       <c r="A18" s="4" t="s">
         <v>722</v>
       </c>
@@ -18582,8 +20783,11 @@
       <c r="L18" s="21" t="s">
         <v>3603</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="57" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60">
       <c r="A19" s="4" t="s">
         <v>725</v>
       </c>
@@ -18619,6 +20823,9 @@
       </c>
       <c r="L19" s="21" t="s">
         <v>3604</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>4317</v>
       </c>
     </row>
   </sheetData>
@@ -18631,7 +20838,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18729,6 +20936,9 @@
       <c r="L2" s="19" t="s">
         <v>3551</v>
       </c>
+      <c r="M2" s="57" t="s">
+        <v>4262</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -18767,6 +20977,9 @@
       <c r="L3" s="19" t="s">
         <v>3605</v>
       </c>
+      <c r="M3" s="57" t="s">
+        <v>4318</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -18805,6 +21018,9 @@
       <c r="L4" s="19" t="s">
         <v>3525</v>
       </c>
+      <c r="M4" s="57" t="s">
+        <v>4319</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -18843,6 +21059,9 @@
       <c r="L5" s="19" t="s">
         <v>3606</v>
       </c>
+      <c r="M5" s="48" t="s">
+        <v>4320</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="30">
       <c r="A6" t="s">
@@ -18881,6 +21100,9 @@
       <c r="L6" s="19" t="s">
         <v>3607</v>
       </c>
+      <c r="M6" s="48" t="s">
+        <v>4321</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="30">
       <c r="A7" t="s">
@@ -18919,6 +21141,9 @@
       <c r="L7" s="19" t="s">
         <v>3608</v>
       </c>
+      <c r="M7" s="48" t="s">
+        <v>4322</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -18930,6 +21155,9 @@
       <c r="C8" t="s">
         <v>1842</v>
       </c>
+      <c r="M8" s="48" t="s">
+        <v>4323</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -18952,6 +21180,9 @@
       </c>
       <c r="I9" t="s">
         <v>1847</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>4324</v>
       </c>
     </row>
   </sheetData>
@@ -18963,22 +21194,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="62.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="17.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="4" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="4"/>
+    <col min="13" max="13" width="59.7109375" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1">
@@ -19059,6 +21292,9 @@
       <c r="L2" s="22" t="s">
         <v>3320</v>
       </c>
+      <c r="M2" s="43" t="s">
+        <v>4012</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -19097,6 +21333,9 @@
       <c r="L3" s="22" t="s">
         <v>3321</v>
       </c>
+      <c r="M3" s="44" t="s">
+        <v>4013</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -19135,6 +21374,9 @@
       <c r="L4" s="22" t="s">
         <v>3322</v>
       </c>
+      <c r="M4" s="43" t="s">
+        <v>4014</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -19173,6 +21415,9 @@
       <c r="L5" s="22" t="s">
         <v>3323</v>
       </c>
+      <c r="M5" s="43" t="s">
+        <v>4015</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="23.25" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -19211,6 +21456,9 @@
       <c r="L6" s="22" t="s">
         <v>3324</v>
       </c>
+      <c r="M6" s="45" t="s">
+        <v>4016</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -19249,6 +21497,9 @@
       <c r="L7" s="22" t="s">
         <v>3325</v>
       </c>
+      <c r="M7" s="45" t="s">
+        <v>4017</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="26.25" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -19286,6 +21537,9 @@
       </c>
       <c r="L8" s="22" t="s">
         <v>3326</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>4018</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
@@ -19299,6 +21553,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="27.75" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -19335,6 +21590,9 @@
       <c r="L10" s="22" t="s">
         <v>3327</v>
       </c>
+      <c r="M10" s="45" t="s">
+        <v>4019</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="23.25" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -19370,6 +21628,9 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22" t="s">
         <v>3328</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>4020</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
@@ -19383,6 +21644,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:13" ht="21.75" customHeight="1">
       <c r="A13" s="4" t="s">
@@ -19418,6 +21680,9 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22" t="s">
         <v>3329</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>4021</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
@@ -19431,6 +21696,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" ht="29.25" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -19467,6 +21733,9 @@
       <c r="L15" s="22" t="s">
         <v>3330</v>
       </c>
+      <c r="M15" s="43" t="s">
+        <v>4022</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -19503,8 +21772,11 @@
       <c r="L16" s="22" t="s">
         <v>3331</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="29.25" customHeight="1">
+      <c r="M16" s="43" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="29.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>570</v>
       </c>
@@ -19539,8 +21811,11 @@
       <c r="L17" s="22" t="s">
         <v>3332</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="32.25" customHeight="1">
+      <c r="M17" s="43" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="32.25" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>572</v>
       </c>
@@ -19575,8 +21850,11 @@
       <c r="L18" s="22" t="s">
         <v>3333</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="25.5" customHeight="1">
+      <c r="M18" s="43" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>574</v>
       </c>
@@ -19611,8 +21889,11 @@
       <c r="L19" s="22" t="s">
         <v>3334</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="29.25" customHeight="1">
+      <c r="M19" s="43" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="29.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>576</v>
       </c>
@@ -19647,8 +21928,11 @@
       <c r="L20" s="22" t="s">
         <v>3335</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="195">
+      <c r="M20" s="43" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="195">
       <c r="A21" s="4" t="s">
         <v>1326</v>
       </c>
@@ -19677,8 +21961,11 @@
       <c r="L21" s="22" t="s">
         <v>3336</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="195">
+      <c r="M21" s="43" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="195">
       <c r="A22" s="4" t="s">
         <v>1327</v>
       </c>
@@ -19709,8 +21996,11 @@
       <c r="L22" s="22" t="s">
         <v>3337</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="43" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="B23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -19720,8 +22010,9 @@
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
-    </row>
-    <row r="24" spans="1:12" ht="22.5" customHeight="1">
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>578</v>
       </c>
@@ -19756,8 +22047,11 @@
       <c r="L24" s="35" t="s">
         <v>3338</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1">
+      <c r="M24" s="43" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>582</v>
       </c>
@@ -19792,8 +22086,11 @@
       <c r="L25" s="22" t="s">
         <v>3339</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="43" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="B26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -19803,8 +22100,9 @@
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
-    </row>
-    <row r="27" spans="1:12" ht="23.25" customHeight="1">
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="1:13" ht="23.25" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>717</v>
       </c>
@@ -19839,20 +22137,23 @@
       <c r="L27" s="22" t="s">
         <v>3340</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="43" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="K32" s="22"/>
     </row>
     <row r="33" spans="11:11">
@@ -20072,17 +22373,19 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -20163,6 +22466,9 @@
       <c r="L2" s="19" t="s">
         <v>3341</v>
       </c>
+      <c r="M2" s="38" t="s">
+        <v>4033</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -20201,6 +22507,9 @@
       <c r="L3" s="19" t="s">
         <v>3342</v>
       </c>
+      <c r="M3" s="38" t="s">
+        <v>4034</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -20234,6 +22543,9 @@
       <c r="L4" s="19" t="s">
         <v>3343</v>
       </c>
+      <c r="M4" s="41" t="s">
+        <v>4035</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -20272,6 +22584,9 @@
       <c r="L5" s="19" t="s">
         <v>3306</v>
       </c>
+      <c r="M5" s="41" t="s">
+        <v>4036</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -20310,6 +22625,9 @@
       <c r="L6" s="19" t="s">
         <v>3344</v>
       </c>
+      <c r="M6" s="39" t="s">
+        <v>4037</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -20348,6 +22666,9 @@
       <c r="L7" s="19" t="s">
         <v>3345</v>
       </c>
+      <c r="M7" s="39" t="s">
+        <v>4038</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -20386,6 +22707,9 @@
       <c r="L8" s="19" t="s">
         <v>3346</v>
       </c>
+      <c r="M8" s="38" t="s">
+        <v>4039</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -20424,6 +22748,9 @@
       <c r="L9" s="19" t="s">
         <v>3347</v>
       </c>
+      <c r="M9" s="38" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -20462,6 +22789,9 @@
       <c r="L10" s="19" t="s">
         <v>3348</v>
       </c>
+      <c r="M10" s="41" t="s">
+        <v>4040</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1">
       <c r="A11" t="s">
@@ -20500,6 +22830,9 @@
       <c r="L11" s="19" t="s">
         <v>3349</v>
       </c>
+      <c r="M11" s="41" t="s">
+        <v>4041</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -20538,6 +22871,9 @@
       <c r="L12" s="19" t="s">
         <v>3350</v>
       </c>
+      <c r="M12" s="38" t="s">
+        <v>4042</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -20576,6 +22912,9 @@
       <c r="L13" s="19" t="s">
         <v>3351</v>
       </c>
+      <c r="M13" s="38" t="s">
+        <v>4043</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -20614,6 +22953,9 @@
       <c r="L14" s="19" t="s">
         <v>3352</v>
       </c>
+      <c r="M14" s="39" t="s">
+        <v>4044</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -20652,6 +22994,9 @@
       <c r="L15" s="19" t="s">
         <v>3353</v>
       </c>
+      <c r="M15" s="38" t="s">
+        <v>4045</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -20689,6 +23034,9 @@
       </c>
       <c r="L16" s="19" t="s">
         <v>3354</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>4046</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -20705,12 +23053,13 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="36.7109375" style="4"/>
+    <col min="1" max="1" width="36.7109375" style="4"/>
+    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" style="4" customWidth="1"/>
@@ -20721,7 +23070,8 @@
     <col min="10" max="10" width="17.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="36.7109375" style="4"/>
+    <col min="13" max="13" width="47.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="36.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -20802,6 +23152,9 @@
       <c r="L2" s="21" t="s">
         <v>3355</v>
       </c>
+      <c r="M2" s="46" t="s">
+        <v>4047</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="4" t="s">
@@ -20840,6 +23193,9 @@
       <c r="L3" s="21" t="s">
         <v>3356</v>
       </c>
+      <c r="M3" s="46" t="s">
+        <v>4048</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="4" t="s">
@@ -20878,6 +23234,9 @@
       <c r="L4" s="21" t="s">
         <v>3357</v>
       </c>
+      <c r="M4" s="46" t="s">
+        <v>4049</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="4" t="s">
@@ -20916,6 +23275,9 @@
       <c r="L5" s="21" t="s">
         <v>3358</v>
       </c>
+      <c r="M5" s="46" t="s">
+        <v>4050</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -20954,8 +23316,11 @@
       <c r="L6" s="21" t="s">
         <v>3359</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75">
+      <c r="M6" s="46" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="120">
       <c r="A7" s="4" t="s">
         <v>818</v>
       </c>
@@ -20992,8 +23357,11 @@
       <c r="L7" s="21" t="s">
         <v>3360</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75">
+      <c r="M7" s="46" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="105">
       <c r="A8" s="4" t="s">
         <v>820</v>
       </c>
@@ -21029,6 +23397,9 @@
       </c>
       <c r="L8" s="21" t="s">
         <v>3361</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>4053</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
@@ -21041,8 +23412,9 @@
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
       <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" ht="31.5">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="240">
       <c r="A10" s="4" t="s">
         <v>831</v>
       </c>
@@ -21079,8 +23451,11 @@
       <c r="L10" s="21" t="s">
         <v>3362</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="63">
+      <c r="M10" s="46" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="409.5">
       <c r="A11" s="4" t="s">
         <v>835</v>
       </c>
@@ -21117,8 +23492,11 @@
       <c r="L11" s="21" t="s">
         <v>3363</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="31.5">
+      <c r="M11" s="46" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="195">
       <c r="A12" s="4" t="s">
         <v>860</v>
       </c>
@@ -21155,8 +23533,11 @@
       <c r="L12" s="21" t="s">
         <v>3364</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="31.5">
+      <c r="M12" s="46" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="210">
       <c r="A13" s="4" t="s">
         <v>861</v>
       </c>
@@ -21193,8 +23574,11 @@
       <c r="L13" s="21" t="s">
         <v>3365</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="126">
+      <c r="M13" s="47" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="409.5">
       <c r="A14" s="4" t="s">
         <v>862</v>
       </c>
@@ -21230,6 +23614,9 @@
       </c>
       <c r="L14" s="22" t="s">
         <v>3366</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>4058</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -21370,7 +23757,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M2" sqref="M2:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21382,8 +23769,9 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -21464,6 +23852,9 @@
       <c r="L2" s="19" t="s">
         <v>3367</v>
       </c>
+      <c r="M2" s="48" t="s">
+        <v>4059</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -21502,6 +23893,9 @@
       <c r="L3" s="19" t="s">
         <v>3368</v>
       </c>
+      <c r="M3" s="40" t="s">
+        <v>4060</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="75">
       <c r="A4" s="4" t="s">
@@ -21540,6 +23934,9 @@
       <c r="L4" s="19" t="s">
         <v>3369</v>
       </c>
+      <c r="M4" s="48" t="s">
+        <v>4061</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="30">
       <c r="A5" s="4" t="s">
@@ -21578,6 +23975,9 @@
       <c r="L5" s="19" t="s">
         <v>3370</v>
       </c>
+      <c r="M5" s="40" t="s">
+        <v>4062</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="30">
       <c r="A6" s="4" t="s">
@@ -21616,6 +24016,9 @@
       <c r="L6" s="19" t="s">
         <v>3371</v>
       </c>
+      <c r="M6" s="49" t="s">
+        <v>4063</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="30">
       <c r="A7" s="4" t="s">
@@ -21654,6 +24057,9 @@
       <c r="L7" s="19" t="s">
         <v>3372</v>
       </c>
+      <c r="M7" s="49" t="s">
+        <v>4064</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
@@ -21692,6 +24098,9 @@
       <c r="L8" s="19" t="s">
         <v>3373</v>
       </c>
+      <c r="M8" s="48" t="s">
+        <v>4065</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="30">
       <c r="A9" s="4" t="s">
@@ -21730,6 +24139,9 @@
       <c r="L9" s="19" t="s">
         <v>3374</v>
       </c>
+      <c r="M9" s="50" t="s">
+        <v>4066</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
@@ -21768,8 +24180,11 @@
       <c r="L10" s="19" t="s">
         <v>3375</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="48" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="120">
       <c r="A11" s="4" t="s">
         <v>208</v>
       </c>
@@ -21805,6 +24220,9 @@
       </c>
       <c r="L11" s="19" t="s">
         <v>3376</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>4068</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -21844,6 +24262,9 @@
       <c r="L12" s="19" t="s">
         <v>3377</v>
       </c>
+      <c r="M12" s="48" t="s">
+        <v>4069</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -21867,6 +24288,9 @@
       <c r="L13" s="36" t="s">
         <v>3378</v>
       </c>
+      <c r="M13" s="52" t="s">
+        <v>4070</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -21889,6 +24313,9 @@
       </c>
       <c r="L14" s="19" t="s">
         <v>3379</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>4071</v>
       </c>
     </row>
   </sheetData>
@@ -21902,13 +24329,13 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="M2" sqref="M2:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
@@ -22000,6 +24427,9 @@
       <c r="L2" s="21" t="s">
         <v>3380</v>
       </c>
+      <c r="M2" s="46" t="s">
+        <v>4072</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -22038,6 +24468,9 @@
       <c r="L3" s="21" t="s">
         <v>3381</v>
       </c>
+      <c r="M3" s="46" t="s">
+        <v>4073</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -22076,6 +24509,9 @@
       <c r="L4" s="21" t="s">
         <v>3382</v>
       </c>
+      <c r="M4" s="46" t="s">
+        <v>4074</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
@@ -22114,6 +24550,9 @@
       <c r="L5" s="21" t="s">
         <v>3383</v>
       </c>
+      <c r="M5" s="45" t="s">
+        <v>4075</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="30">
       <c r="A6" s="4" t="s">
@@ -22152,8 +24591,11 @@
       <c r="L6" s="21" t="s">
         <v>3384</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="60">
+      <c r="M6" s="46" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="210">
       <c r="A7" s="4" t="s">
         <v>512</v>
       </c>
@@ -22189,6 +24631,9 @@
       </c>
       <c r="L7" s="22" t="s">
         <v>3385</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>4077</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30">
@@ -22228,6 +24673,9 @@
       <c r="L8" s="21" t="s">
         <v>3386</v>
       </c>
+      <c r="M8" s="46" t="s">
+        <v>4078</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="45">
       <c r="A9" s="4" t="s">
@@ -22266,6 +24714,9 @@
       <c r="L9" s="21" t="s">
         <v>3387</v>
       </c>
+      <c r="M9" s="46" t="s">
+        <v>4079</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" s="4" t="s">
@@ -22304,6 +24755,9 @@
       <c r="L10" s="21" t="s">
         <v>3388</v>
       </c>
+      <c r="M10" s="46" t="s">
+        <v>4080</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="4" t="s">
@@ -22339,6 +24793,9 @@
       <c r="L11" s="21" t="s">
         <v>3389</v>
       </c>
+      <c r="M11" s="46" t="s">
+        <v>4081</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
@@ -22374,6 +24831,9 @@
       <c r="L12" s="21" t="s">
         <v>145</v>
       </c>
+      <c r="M12" s="45" t="s">
+        <v>3999</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
@@ -22404,8 +24864,11 @@
       <c r="L13" s="21" t="s">
         <v>3390</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="46" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="4" t="s">
         <v>1322</v>
       </c>
@@ -22434,8 +24897,11 @@
       <c r="L14" s="22" t="s">
         <v>3391</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="M14" s="45" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="150">
       <c r="A15" s="4" t="s">
         <v>1694</v>
       </c>
@@ -22469,8 +24935,11 @@
       <c r="L15" s="22" t="s">
         <v>3392</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="M15" s="45" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="4" t="s">
         <v>1710</v>
       </c>
@@ -22504,8 +24973,11 @@
       <c r="L16" s="22" t="s">
         <v>3393</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="46" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30">
       <c r="A17" s="4" t="s">
         <v>1695</v>
       </c>
@@ -22539,8 +25011,11 @@
       <c r="L17" s="22" t="s">
         <v>3394</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="45" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="75">
       <c r="A18" s="4" t="s">
         <v>1697</v>
       </c>
@@ -22574,8 +25049,11 @@
       <c r="L18" s="22" t="s">
         <v>3395</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="46" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="90">
       <c r="A19" s="4" t="s">
         <v>1699</v>
       </c>
@@ -22609,8 +25087,11 @@
       <c r="L19" s="22" t="s">
         <v>3396</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="46" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="75">
       <c r="A20" s="4" t="s">
         <v>1701</v>
       </c>
@@ -22644,8 +25125,11 @@
       <c r="L20" s="22" t="s">
         <v>3397</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="46" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="75">
       <c r="A21" s="4" t="s">
         <v>1703</v>
       </c>
@@ -22679,8 +25163,11 @@
       <c r="L21" s="22" t="s">
         <v>3398</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="46" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="135">
       <c r="A22" s="4" t="s">
         <v>1713</v>
       </c>
@@ -22714,8 +25201,11 @@
       <c r="L22" s="22" t="s">
         <v>3399</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="46" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="75">
       <c r="A23" s="4" t="s">
         <v>1724</v>
       </c>
@@ -22749,8 +25239,11 @@
       <c r="L23" s="22" t="s">
         <v>3400</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="46" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="90">
       <c r="A24" s="4" t="s">
         <v>1727</v>
       </c>
@@ -22784,8 +25277,11 @@
       <c r="L24" s="22" t="s">
         <v>3401</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="46" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45">
       <c r="A25" s="4" t="s">
         <v>1732</v>
       </c>
@@ -22819,8 +25315,11 @@
       <c r="L25" s="22" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="46" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="45">
       <c r="A26" s="4" t="s">
         <v>1735</v>
       </c>
@@ -22854,8 +25353,11 @@
       <c r="L26" s="22" t="s">
         <v>3402</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="46" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="45">
       <c r="A27" s="4" t="s">
         <v>1740</v>
       </c>
@@ -22882,8 +25384,11 @@
       <c r="L27" s="22" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="53" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" s="4" t="s">
         <v>1741</v>
       </c>
@@ -22910,8 +25415,11 @@
       <c r="L28" s="22" t="s">
         <v>3403</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="30">
+      <c r="M28" s="53" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="150">
       <c r="A29" s="4" t="s">
         <v>1742</v>
       </c>
@@ -22940,8 +25448,11 @@
       <c r="L29" s="22" t="s">
         <v>3404</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="75">
+      <c r="M29" s="53" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="409.5">
       <c r="A30" s="4" t="s">
         <v>1744</v>
       </c>
@@ -22975,8 +25486,11 @@
       <c r="L30" s="22" t="s">
         <v>3405</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30">
+      <c r="M30" s="54" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="300">
       <c r="A31" s="4" t="s">
         <v>1747</v>
       </c>
@@ -23010,8 +25524,11 @@
       <c r="L31" s="22" t="s">
         <v>3406</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="54" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="135">
       <c r="A32" s="4" t="s">
         <v>1750</v>
       </c>
@@ -23045,8 +25562,11 @@
       <c r="L32" s="22" t="s">
         <v>3407</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="46" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="90">
       <c r="A33" s="4" t="s">
         <v>1751</v>
       </c>
@@ -23080,8 +25600,11 @@
       <c r="L33" s="22" t="s">
         <v>3408</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="30">
+      <c r="M33" s="46" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="285">
       <c r="A34" s="4" t="s">
         <v>1752</v>
       </c>
@@ -23115,8 +25638,11 @@
       <c r="L34" s="22" t="s">
         <v>3409</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="30">
+      <c r="M34" s="46" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="270">
       <c r="A35" s="4" t="s">
         <v>1753</v>
       </c>
@@ -23148,8 +25674,11 @@
       <c r="L35" s="22" t="s">
         <v>3410</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="75">
+      <c r="M35" s="46" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="409.5">
       <c r="A36" s="4" t="s">
         <v>1754</v>
       </c>
@@ -23183,8 +25712,11 @@
       <c r="L36" s="22" t="s">
         <v>3411</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="46" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="210">
       <c r="A37" s="4" t="s">
         <v>1756</v>
       </c>
@@ -23218,8 +25750,11 @@
       <c r="L37" s="22" t="s">
         <v>3412</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="30">
+      <c r="M37" s="46" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="405">
       <c r="A38" s="4" t="s">
         <v>1757</v>
       </c>
@@ -23253,8 +25788,11 @@
       <c r="L38" s="22" t="s">
         <v>3413</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30">
+      <c r="M38" s="46" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="195">
       <c r="A39" s="4" t="s">
         <v>1759</v>
       </c>
@@ -23288,8 +25826,11 @@
       <c r="L39" s="22" t="s">
         <v>3414</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="46" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="165">
       <c r="A40" s="4" t="s">
         <v>1776</v>
       </c>
@@ -23317,8 +25858,11 @@
       <c r="L40" s="22" t="s">
         <v>3415</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="46" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="150">
       <c r="A41" s="4" t="s">
         <v>1774</v>
       </c>
@@ -23345,6 +25889,9 @@
       </c>
       <c r="L41" s="22" t="s">
         <v>3416</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>4110</v>
       </c>
     </row>
   </sheetData>
@@ -23358,7 +25905,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M2" sqref="M2:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23372,7 +25919,8 @@
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="52.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -23453,6 +26001,9 @@
       <c r="L2" s="19" t="s">
         <v>3417</v>
       </c>
+      <c r="M2" s="39" t="s">
+        <v>4111</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="4" t="s">
@@ -23491,6 +26042,9 @@
       <c r="L3" s="19" t="s">
         <v>3418</v>
       </c>
+      <c r="M3" s="39" t="s">
+        <v>4112</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -23529,6 +26083,9 @@
       <c r="L4" s="19" t="s">
         <v>3419</v>
       </c>
+      <c r="M4" s="39" t="s">
+        <v>4113</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
@@ -23567,6 +26124,9 @@
       <c r="L5" s="19" t="s">
         <v>3420</v>
       </c>
+      <c r="M5" s="38" t="s">
+        <v>4114</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
@@ -23605,6 +26165,9 @@
       <c r="L6" s="19" t="s">
         <v>3421</v>
       </c>
+      <c r="M6" s="38" t="s">
+        <v>4115</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
@@ -23643,6 +26206,9 @@
       <c r="L7" s="19" t="s">
         <v>3422</v>
       </c>
+      <c r="M7" s="40" t="s">
+        <v>4116</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="30">
       <c r="A8" s="4" t="s">
@@ -23681,6 +26247,9 @@
       <c r="L8" s="19" t="s">
         <v>3423</v>
       </c>
+      <c r="M8" s="39" t="s">
+        <v>4117</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="30">
       <c r="A9" s="4" t="s">
@@ -23719,8 +26288,11 @@
       <c r="L9" s="19" t="s">
         <v>3424</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9" s="38" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" s="4" t="s">
         <v>419</v>
       </c>
@@ -23755,8 +26327,11 @@
       <c r="L10" s="23" t="s">
         <v>3425</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="45">
+      <c r="M10" s="39" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="105">
       <c r="A11" s="4" t="s">
         <v>421</v>
       </c>
@@ -23793,8 +26368,11 @@
       <c r="L11" s="23" t="s">
         <v>3426</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="30">
+      <c r="M11" s="38" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120">
       <c r="A12" s="4" t="s">
         <v>424</v>
       </c>
@@ -23831,8 +26409,11 @@
       <c r="L12" s="23" t="s">
         <v>3427</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30">
+      <c r="M12" s="38" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="150">
       <c r="A13" s="4" t="s">
         <v>426</v>
       </c>
@@ -23869,8 +26450,11 @@
       <c r="L13" s="23" t="s">
         <v>3428</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="30">
+      <c r="M13" s="38" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="135">
       <c r="A14" s="4" t="s">
         <v>429</v>
       </c>
@@ -23907,8 +26491,11 @@
       <c r="L14" s="23" t="s">
         <v>3429</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30">
+      <c r="M14" s="39" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="195">
       <c r="A15" s="4" t="s">
         <v>431</v>
       </c>
@@ -23944,6 +26531,9 @@
       </c>
       <c r="L15" s="23" t="s">
         <v>3430</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>4124</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -23983,8 +26573,11 @@
       <c r="L16" s="23" t="s">
         <v>3431</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="38" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60">
       <c r="A17" s="4" t="s">
         <v>437</v>
       </c>
@@ -24021,8 +26614,11 @@
       <c r="L17" s="23" t="s">
         <v>3432</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="60">
+      <c r="M17" s="40" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="270">
       <c r="A18" s="4" t="s">
         <v>440</v>
       </c>
@@ -24059,8 +26655,11 @@
       <c r="L18" s="23" t="s">
         <v>3433</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="38" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60">
       <c r="A19" s="4" t="s">
         <v>442</v>
       </c>
@@ -24097,8 +26696,11 @@
       <c r="L19" s="23" t="s">
         <v>3434</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="30">
+      <c r="M19" s="38" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="150">
       <c r="A20" s="4" t="s">
         <v>449</v>
       </c>
@@ -24135,8 +26737,11 @@
       <c r="L20" s="23" t="s">
         <v>3435</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="38" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="105">
       <c r="A21" s="4" t="s">
         <v>870</v>
       </c>
@@ -24171,8 +26776,11 @@
       <c r="L21" s="23" t="s">
         <v>3436</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="38" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="75">
       <c r="A22" s="4" t="s">
         <v>873</v>
       </c>
@@ -24207,8 +26815,11 @@
       <c r="L22" s="23" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="38" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" s="4" t="s">
         <v>875</v>
       </c>
@@ -24241,8 +26852,11 @@
       <c r="L23" s="23" t="s">
         <v>3438</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="38" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="135">
       <c r="A24" s="4" t="s">
         <v>877</v>
       </c>
@@ -24277,8 +26891,11 @@
       <c r="L24" s="23" t="s">
         <v>3439</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="38" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="105">
       <c r="A25" s="4" t="s">
         <v>880</v>
       </c>
@@ -24313,8 +26930,11 @@
       <c r="L25" s="23" t="s">
         <v>3440</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="90">
+      <c r="M25" s="38" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="409.5">
       <c r="A26" s="4" t="s">
         <v>884</v>
       </c>
@@ -24349,8 +26969,11 @@
       <c r="L26" s="23" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+      <c r="M26" s="39" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="165">
       <c r="A27" s="4" t="s">
         <v>889</v>
       </c>
@@ -24383,8 +27006,11 @@
       <c r="L27" s="23" t="s">
         <v>3442</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="39" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
         <v>1852</v>
       </c>
@@ -24392,8 +27018,11 @@
         <v>1850</v>
       </c>
       <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="38" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
         <v>1853</v>
       </c>
@@ -24401,14 +27030,17 @@
         <v>1851</v>
       </c>
       <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="38" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="K32" s="22"/>
     </row>
     <row r="33" spans="11:11">
@@ -24560,18 +27192,19 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -24652,6 +27285,10 @@
       <c r="L2" s="19" t="s">
         <v>3443</v>
       </c>
+      <c r="M2" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B2,""en"",""ja"")"),"時間")</f>
+        <v>時間</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -24690,6 +27327,10 @@
       <c r="L3" s="19" t="s">
         <v>454</v>
       </c>
+      <c r="M3" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B3,""en"",""ja"")"),"日にち")</f>
+        <v>日にち</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -24728,6 +27369,9 @@
       <c r="L4" s="19" t="s">
         <v>3444</v>
       </c>
+      <c r="M4" s="39" t="s">
+        <v>4138</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -24766,6 +27410,10 @@
       <c r="L5" s="19" t="s">
         <v>3445</v>
       </c>
+      <c r="M5" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B5,""en"",""ja"")"),"日")</f>
+        <v>日</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -24804,6 +27452,10 @@
       <c r="L6" s="19" t="s">
         <v>3446</v>
       </c>
+      <c r="M6" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B6,""en"",""ja"")"),"月")</f>
+        <v>月</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -24842,6 +27494,10 @@
       <c r="L7" s="19" t="s">
         <v>3447</v>
       </c>
+      <c r="M7" s="38" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("googletranslate(B7,""en"",""ja"")"),"年")</f>
+        <v>年</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -24880,6 +27536,9 @@
       <c r="L8" s="19" t="s">
         <v>468</v>
       </c>
+      <c r="M8" s="55" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -24918,6 +27577,9 @@
       <c r="L9" s="19" t="s">
         <v>3448</v>
       </c>
+      <c r="M9" s="55" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -24956,6 +27618,9 @@
       <c r="L10" s="19" t="s">
         <v>3449</v>
       </c>
+      <c r="M10" s="39" t="s">
+        <v>4139</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -24993,6 +27658,9 @@
       </c>
       <c r="L11" s="19" t="s">
         <v>3450</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>4140</v>
       </c>
     </row>
   </sheetData>
@@ -25005,7 +27673,7 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M2" sqref="M2:M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25021,6 +27689,7 @@
     <col min="10" max="10" width="5.85546875" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -25064,7 +27733,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -25101,8 +27770,11 @@
       <c r="L2" s="23" t="s">
         <v>3451</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+      <c r="M2" s="40" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -25139,8 +27811,11 @@
       <c r="L3" s="23" t="s">
         <v>3452</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="45">
+      <c r="M3" s="39" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -25177,8 +27852,11 @@
       <c r="L4" s="23" t="s">
         <v>3453</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4" s="38" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -25215,8 +27893,11 @@
       <c r="L5" s="23" t="s">
         <v>3454</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="39" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -25253,8 +27934,11 @@
       <c r="L6" s="23" t="s">
         <v>3455</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="39" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -25291,8 +27975,11 @@
       <c r="L7" s="23" t="s">
         <v>3456</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7" s="39" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -25329,8 +28016,11 @@
       <c r="L8" s="23" t="s">
         <v>3457</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="30">
+      <c r="M8" s="39" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -25367,8 +28057,11 @@
       <c r="L9" s="23" t="s">
         <v>3458</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="30">
+      <c r="M9" s="39" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -25405,8 +28098,11 @@
       <c r="L10" s="23" t="s">
         <v>3387</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="30">
+      <c r="M10" s="39" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60">
       <c r="A11" t="s">
         <v>898</v>
       </c>
@@ -25440,8 +28136,11 @@
       <c r="L11" s="23" t="s">
         <v>3459</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="105">
+      <c r="M11" s="56" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="285">
       <c r="A12" t="s">
         <v>900</v>
       </c>
@@ -25474,6 +28173,9 @@
       </c>
       <c r="L12" s="23" t="s">
         <v>3460</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>4151</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -25485,8 +28187,9 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="60">
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" ht="90">
       <c r="A14" t="s">
         <v>1638</v>
       </c>
@@ -25520,8 +28223,11 @@
       <c r="L14" s="23" t="s">
         <v>3461</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="30">
+      <c r="M14" s="39" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60">
       <c r="A15" t="s">
         <v>1639</v>
       </c>
@@ -25555,8 +28261,11 @@
       <c r="L15" s="23" t="s">
         <v>3462</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="30">
+      <c r="M15" s="39" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60">
       <c r="A16" t="s">
         <v>1640</v>
       </c>
@@ -25590,8 +28299,11 @@
       <c r="L16" s="23" t="s">
         <v>3463</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="30">
+      <c r="M16" s="39" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60">
       <c r="A17" t="s">
         <v>1641</v>
       </c>
@@ -25625,8 +28337,11 @@
       <c r="L17" s="23" t="s">
         <v>3464</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="48" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>1642</v>
       </c>
@@ -25660,8 +28375,11 @@
       <c r="L18" s="23" t="s">
         <v>3465</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="30">
+      <c r="M18" s="39" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60">
       <c r="A19" t="s">
         <v>1643</v>
       </c>
@@ -25695,8 +28413,11 @@
       <c r="L19" s="23" t="s">
         <v>3466</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="30">
+      <c r="M19" s="39" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30">
       <c r="A20" t="s">
         <v>1644</v>
       </c>
@@ -25730,8 +28451,11 @@
       <c r="L20" s="23" t="s">
         <v>3467</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="60">
+      <c r="M20" s="39" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="75">
       <c r="A21" t="s">
         <v>1645</v>
       </c>
@@ -25765,8 +28489,11 @@
       <c r="L21" s="23" t="s">
         <v>3468</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="30">
+      <c r="M21" s="39" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="75">
       <c r="A22" t="s">
         <v>1646</v>
       </c>
@@ -25800,8 +28527,11 @@
       <c r="L22" s="23" t="s">
         <v>3469</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="39" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" t="s">
         <v>1647</v>
       </c>
@@ -25835,8 +28565,11 @@
       <c r="L23" s="23" t="s">
         <v>3470</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="57" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>1648</v>
       </c>
@@ -25870,8 +28603,11 @@
       <c r="L24" s="23" t="s">
         <v>3471</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="39" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="B25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -25880,8 +28616,9 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="1:12" ht="45">
+      <c r="M25" s="57"/>
+    </row>
+    <row r="26" spans="1:13" ht="45">
       <c r="A26" t="s">
         <v>1600</v>
       </c>
@@ -25915,8 +28652,11 @@
       <c r="L26" s="23" t="s">
         <v>3472</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
+      <c r="M26" s="39" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" t="s">
         <v>1605</v>
       </c>
@@ -25950,8 +28690,11 @@
       <c r="L27" s="23" t="s">
         <v>3473</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
+      <c r="M27" s="39" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" t="s">
         <v>1606</v>
       </c>
@@ -25985,8 +28728,11 @@
       <c r="L28" s="23" t="s">
         <v>3474</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="30">
+      <c r="M28" s="58" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45">
       <c r="A29" t="s">
         <v>1607</v>
       </c>
@@ -26020,8 +28766,11 @@
       <c r="L29" s="23" t="s">
         <v>3475</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="39" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>1608</v>
       </c>
@@ -26055,8 +28804,11 @@
       <c r="L30" s="23" t="s">
         <v>3476</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30">
+      <c r="M30" s="39" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="60">
       <c r="A31" t="s">
         <v>1609</v>
       </c>
@@ -26090,8 +28842,11 @@
       <c r="L31" s="23" t="s">
         <v>3477</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="59" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="B32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -26100,8 +28855,9 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="1:12" ht="30">
+      <c r="M32" s="57"/>
+    </row>
+    <row r="33" spans="1:13" ht="30">
       <c r="A33" t="s">
         <v>1649</v>
       </c>
@@ -26132,8 +28888,11 @@
       <c r="L33" s="23" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="45">
+      <c r="M33" s="41" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="105">
       <c r="A34" t="s">
         <v>1651</v>
       </c>
@@ -26164,8 +28923,11 @@
       <c r="L34" s="23" t="s">
         <v>3479</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="40" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30">
       <c r="A35" t="s">
         <v>1652</v>
       </c>
@@ -26196,8 +28958,11 @@
       <c r="L35" s="23" t="s">
         <v>3480</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="30">
+      <c r="M35" s="39" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60">
       <c r="A36" t="s">
         <v>1653</v>
       </c>
@@ -26228,8 +28993,11 @@
       <c r="L36" s="23" t="s">
         <v>3481</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="45">
+      <c r="M36" s="48" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="60">
       <c r="A37" t="s">
         <v>1654</v>
       </c>
@@ -26260,8 +29028,11 @@
       <c r="L37" s="23" t="s">
         <v>3482</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="30">
+      <c r="M37" s="39" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="60">
       <c r="A38" t="s">
         <v>1655</v>
       </c>
@@ -26292,8 +29063,11 @@
       <c r="L38" s="23" t="s">
         <v>3483</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30">
+      <c r="M38" s="48" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45">
       <c r="A39" t="s">
         <v>1662</v>
       </c>
@@ -26324,8 +29098,11 @@
       <c r="L39" s="23" t="s">
         <v>3484</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="30">
+      <c r="M39" s="38" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30">
       <c r="A40" t="s">
         <v>1656</v>
       </c>
@@ -26356,8 +29133,11 @@
       <c r="L40" s="23" t="s">
         <v>3485</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30">
+      <c r="M40" s="39" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="30">
       <c r="A41" t="s">
         <v>1657</v>
       </c>
@@ -26388,8 +29168,11 @@
       <c r="L41" s="23" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="30">
+      <c r="M41" s="39" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="30">
       <c r="A42" t="s">
         <v>1658</v>
       </c>
@@ -26420,8 +29203,11 @@
       <c r="L42" s="23" t="s">
         <v>3487</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="30">
+      <c r="M42" s="60" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="60">
       <c r="A43" t="s">
         <v>1650</v>
       </c>
@@ -26452,8 +29238,11 @@
       <c r="L43" s="23" t="s">
         <v>3488</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="30">
+      <c r="M43" s="39" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="75">
       <c r="A44" t="s">
         <v>1659</v>
       </c>
@@ -26484,8 +29273,11 @@
       <c r="L44" s="23" t="s">
         <v>3489</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="60">
+      <c r="M44" s="39" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="120">
       <c r="A45" t="s">
         <v>1660</v>
       </c>
@@ -26516,8 +29308,11 @@
       <c r="L45" s="23" t="s">
         <v>3490</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="30">
+      <c r="M45" s="51" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="45">
       <c r="A46" t="s">
         <v>1663</v>
       </c>
@@ -26548,8 +29343,11 @@
       <c r="L46" s="23" t="s">
         <v>3491</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="30">
+      <c r="M46" s="38" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="30">
       <c r="A47" t="s">
         <v>1661</v>
       </c>
@@ -26580,8 +29378,11 @@
       <c r="L47" s="23" t="s">
         <v>3492</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="30">
+      <c r="M47" s="48" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30">
       <c r="A48" t="s">
         <v>1671</v>
       </c>
@@ -26612,8 +29413,11 @@
       <c r="L48" s="23" t="s">
         <v>3493</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="30">
+      <c r="M48" s="48" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30">
       <c r="A49" t="s">
         <v>1672</v>
       </c>
@@ -26642,8 +29446,11 @@
       <c r="L49" s="23" t="s">
         <v>3494</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="30">
+      <c r="M49" s="48" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30">
       <c r="A50" t="s">
         <v>1673</v>
       </c>
@@ -26672,8 +29479,11 @@
       <c r="L50" s="23" t="s">
         <v>3495</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="30">
+      <c r="M50" s="48" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="30">
       <c r="A51" t="s">
         <v>1674</v>
       </c>
@@ -26702,8 +29512,11 @@
       <c r="L51" s="23" t="s">
         <v>3496</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="30">
+      <c r="M51" s="48" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30">
       <c r="A52" t="s">
         <v>1675</v>
       </c>
@@ -26732,8 +29545,11 @@
       <c r="L52" s="23" t="s">
         <v>3497</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="30">
+      <c r="M52" s="48" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="60">
       <c r="A53" t="s">
         <v>1676</v>
       </c>
@@ -26764,8 +29580,11 @@
       <c r="L53" s="23" t="s">
         <v>3498</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="30">
+      <c r="M53" s="48" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="60">
       <c r="A54" t="s">
         <v>1678</v>
       </c>
@@ -26796,8 +29615,11 @@
       <c r="L54" s="23" t="s">
         <v>3499</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="30">
+      <c r="M54" s="39" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="60">
       <c r="A55" t="s">
         <v>1687</v>
       </c>
@@ -26828,8 +29650,11 @@
       <c r="L55" s="23" t="s">
         <v>3500</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="39" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="45">
       <c r="A56" t="s">
         <v>1689</v>
       </c>
@@ -26860,8 +29685,11 @@
       <c r="L56" s="23" t="s">
         <v>3501</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="48" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="30">
       <c r="A57" t="s">
         <v>1690</v>
       </c>
@@ -26892,8 +29720,11 @@
       <c r="L57" s="23" t="s">
         <v>3502</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="48" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="30">
       <c r="A58" t="s">
         <v>1691</v>
       </c>
@@ -26924,8 +29755,11 @@
       <c r="L58" s="23" t="s">
         <v>3503</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="48" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30">
       <c r="A59" t="s">
         <v>1692</v>
       </c>
@@ -26956,8 +29790,11 @@
       <c r="L59" s="23" t="s">
         <v>3504</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="75">
+      <c r="M59" s="48" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="120">
       <c r="A60" t="s">
         <v>1693</v>
       </c>
@@ -26988,8 +29825,11 @@
       <c r="L60" s="23" t="s">
         <v>3505</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="61" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2"/>
       <c r="B61" s="19"/>
       <c r="D61" s="19"/>
@@ -26999,8 +29839,9 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
       <c r="L61" s="23"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="57"/>
+    </row>
+    <row r="62" spans="1:13" ht="45">
       <c r="A62" t="s">
         <v>1788</v>
       </c>
@@ -27034,8 +29875,11 @@
       <c r="L62" s="23" t="s">
         <v>3506</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="45">
+      <c r="M62" s="38" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="60">
       <c r="A63" t="s">
         <v>1787</v>
       </c>
@@ -27069,8 +29913,11 @@
       <c r="L63" s="23" t="s">
         <v>3507</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="105">
+      <c r="M63" s="39" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="210">
       <c r="A64" t="s">
         <v>1829</v>
       </c>
@@ -27104,8 +29951,11 @@
       <c r="L64" s="23" t="s">
         <v>3508</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="30">
+      <c r="M64" s="39" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="60">
       <c r="A65" t="s">
         <v>1786</v>
       </c>
@@ -27139,8 +29989,11 @@
       <c r="L65" s="23" t="s">
         <v>3509</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="30">
+      <c r="M65" s="48" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="90">
       <c r="A66" t="s">
         <v>1793</v>
       </c>
@@ -27174,8 +30027,11 @@
       <c r="L66" s="23" t="s">
         <v>3510</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="48" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="30">
       <c r="A67" t="s">
         <v>1795</v>
       </c>
@@ -27209,8 +30065,11 @@
       <c r="L67" s="23" t="s">
         <v>3511</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="60">
+      <c r="M67" s="39" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="105">
       <c r="A68" t="s">
         <v>1800</v>
       </c>
@@ -27244,8 +30103,11 @@
       <c r="L68" s="23" t="s">
         <v>3512</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="45">
+      <c r="M68" s="39" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="90">
       <c r="A69" t="s">
         <v>1797</v>
       </c>
@@ -27279,8 +30141,11 @@
       <c r="L69" s="23" t="s">
         <v>3513</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="30">
+      <c r="M69" s="39" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="60">
       <c r="A70" t="s">
         <v>1804</v>
       </c>
@@ -27314,8 +30179,11 @@
       <c r="L70" s="23" t="s">
         <v>3514</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="30">
+      <c r="M70" s="48" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="75">
       <c r="A71" t="s">
         <v>1799</v>
       </c>
@@ -27349,8 +30217,11 @@
       <c r="L71" s="23" t="s">
         <v>3515</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="75">
+      <c r="M71" s="38" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="150">
       <c r="A72" t="s">
         <v>1806</v>
       </c>
@@ -27384,8 +30255,11 @@
       <c r="L72" s="23" t="s">
         <v>3516</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="30">
+      <c r="M72" s="48" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="45">
       <c r="A73" t="s">
         <v>1808</v>
       </c>
@@ -27419,8 +30293,11 @@
       <c r="L73" s="23" t="s">
         <v>3517</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="30">
+      <c r="M73" s="48" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="60">
       <c r="A74" t="s">
         <v>1810</v>
       </c>
@@ -27454,8 +30331,11 @@
       <c r="L74" s="23" t="s">
         <v>3518</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="30">
+      <c r="M74" s="48" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="60">
       <c r="A75" t="s">
         <v>1812</v>
       </c>
@@ -27489,8 +30369,11 @@
       <c r="L75" s="23" t="s">
         <v>3519</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="30">
+      <c r="M75" s="41" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="45">
       <c r="A76" t="s">
         <v>1814</v>
       </c>
@@ -27524,8 +30407,11 @@
       <c r="L76" s="23" t="s">
         <v>3520</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="39" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="45">
       <c r="A77" t="s">
         <v>1816</v>
       </c>
@@ -27559,8 +30445,11 @@
       <c r="L77" s="23" t="s">
         <v>3521</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="30">
+      <c r="M77" s="39" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="45">
       <c r="A78" t="s">
         <v>1817</v>
       </c>
@@ -27594,8 +30483,11 @@
       <c r="L78" s="23" t="s">
         <v>3522</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="40" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>1859</v>
       </c>
@@ -27605,173 +30497,242 @@
       <c r="C79" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="M79" s="39" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="M80" s="57"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>1862</v>
       </c>
       <c r="B81" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="M81" s="38" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>1863</v>
       </c>
       <c r="B82" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="M82" s="39" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>1865</v>
       </c>
       <c r="B83" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="M83" s="39" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>1868</v>
       </c>
       <c r="B84" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="M84" s="38" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>1870</v>
       </c>
       <c r="B85" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="M85" s="39" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>1872</v>
       </c>
       <c r="B86" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="M86" s="41" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>1874</v>
       </c>
       <c r="B87" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="M87" s="39" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>1876</v>
       </c>
       <c r="B88" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="M88" s="39" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>1878</v>
       </c>
       <c r="B89" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="M89" s="39" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>1880</v>
       </c>
       <c r="B90" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="M90" s="39" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>1882</v>
       </c>
       <c r="B91" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="M91" s="39" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>1883</v>
       </c>
       <c r="B92" t="s">
         <v>2448</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="M92" s="38" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>1884</v>
       </c>
       <c r="B93" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="M93" s="39" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>1886</v>
       </c>
       <c r="B94" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="M94" s="48" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>1888</v>
       </c>
       <c r="B95" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="M95" s="48" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>1890</v>
       </c>
       <c r="B96" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="M96" s="39" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>1892</v>
       </c>
       <c r="B97" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="M97" s="48" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>1894</v>
       </c>
       <c r="B98" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="M98" s="38" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>1896</v>
       </c>
       <c r="B99" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="M99" s="38" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>1897</v>
       </c>
       <c r="B100" t="s">
         <v>3945</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="M100" s="48" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>1898</v>
       </c>
       <c r="B101" t="s">
         <v>1899</v>
+      </c>
+      <c r="M101" s="39" t="s">
+        <v>4234</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbrunelli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="14"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="4333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="4335">
   <si>
     <t>LABEL</t>
   </si>
@@ -13503,6 +13503,12 @@
   </si>
   <si>
     <t>Wilt u de maalhandelingen herhalen?</t>
+  </si>
+  <si>
+    <t>$LAB_SEL_CUP_SIZE</t>
+  </si>
+  <si>
+    <t>CUP SIZE</t>
   </si>
 </sst>
 </file>
@@ -14143,7 +14149,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16920,10 +16926,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -18323,6 +18329,14 @@
       </c>
       <c r="M34" s="33" t="s">
         <v>4261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A35" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>4334</v>
       </c>
     </row>
   </sheetData>
@@ -20858,7 +20872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -22394,9 +22408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -23779,7 +23791,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -24292,7 +24304,7 @@
       <c r="A13" t="s">
         <v>1836</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>1837</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -27753,7 +27765,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M108"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbrunelli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4905" uniqueCount="4333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="4335">
   <si>
     <t>LABEL</t>
   </si>
@@ -13503,6 +13503,12 @@
   </si>
   <si>
     <t>Wilt u de maalhandelingen herhalen?</t>
+  </si>
+  <si>
+    <t>$LAB_SEL_CUP_SIZE</t>
+  </si>
+  <si>
+    <t>CUP SIZE</t>
   </si>
 </sst>
 </file>
@@ -14142,8 +14148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16920,10 +16926,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -18323,6 +18329,14 @@
       </c>
       <c r="M34" s="33" t="s">
         <v>4261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A35" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>4334</v>
       </c>
     </row>
   </sheetData>
@@ -22394,9 +22408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -23779,7 +23791,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -24292,7 +24304,7 @@
       <c r="A13" t="s">
         <v>1836</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>1837</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -27753,7 +27765,7 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M108"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="9"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="4335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="4337">
   <si>
     <t>LABEL</t>
   </si>
@@ -13509,6 +13509,12 @@
   </si>
   <si>
     <t>CUP SIZE</t>
+  </si>
+  <si>
+    <t>$LAB_STOP</t>
+  </si>
+  <si>
+    <t>STOP</t>
   </si>
 </sst>
 </file>
@@ -14146,10 +14152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16463,327 +16469,303 @@
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A58" t="s">
-        <v>497</v>
+        <v>4335</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="C58" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="F58" t="s">
-        <v>995</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>1957</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>2298</v>
-      </c>
-      <c r="K58" s="18" t="s">
-        <v>2964</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>3309</v>
-      </c>
-      <c r="M58" s="33" t="s">
-        <v>3999</v>
-      </c>
+        <v>4336</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="18"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A59" t="s">
+        <v>497</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="F59" t="s">
+        <v>995</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>3653</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>2964</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>3309</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A60" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D60" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E60" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>996</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H60" s="21" t="s">
         <v>1958</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I60" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="J60" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="K59" s="18" t="s">
+      <c r="K60" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="L59" s="18" t="s">
+      <c r="L60" s="18" t="s">
         <v>3310</v>
       </c>
-      <c r="M59" s="34" t="s">
+      <c r="M60" s="34" t="s">
         <v>4000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="F60" t="s">
-        <v>998</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>1959</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>2299</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>2299</v>
-      </c>
-      <c r="L60" s="18" t="s">
-        <v>3311</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>4001</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>490</v>
+        <v>96</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>488</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>489</v>
+        <v>98</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>645</v>
+        <v>97</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F61" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>2965</v>
+        <v>2299</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>3312</v>
-      </c>
-      <c r="M61" s="33" t="s">
-        <v>4002</v>
+        <v>3311</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>4001</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C62" t="s">
+        <v>489</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>3312</v>
+      </c>
+      <c r="M62" s="33" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>484</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D63" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E63" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>1002</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>1961</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I63" s="18" t="s">
         <v>3656</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J63" s="18" t="s">
         <v>2301</v>
       </c>
-      <c r="K62" s="18" t="s">
+      <c r="K63" s="18" t="s">
         <v>2966</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="L63" s="18" t="s">
         <v>3313</v>
       </c>
-      <c r="M62" s="33" t="s">
+      <c r="M63" s="33" t="s">
         <v>4003</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D64" s="27" t="s">
         <v>647</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E64" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>1004</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>1383</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H64" s="21" t="s">
         <v>1962</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I64" s="18" t="s">
         <v>3657</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J64" s="18" t="s">
         <v>2302</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L64" s="18" t="s">
         <v>3314</v>
       </c>
-      <c r="M63" s="33" t="s">
+      <c r="M64" s="33" t="s">
         <v>4004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>1963</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>3658</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>2303</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>3315</v>
-      </c>
-      <c r="M64" s="36" t="s">
-        <v>4005</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F65" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>1384</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>3658</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="M65" s="36" t="s">
         <v>4005</v>
@@ -16791,127 +16773,168 @@
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>485</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F66" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>2967</v>
+        <v>104</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>3317</v>
-      </c>
-      <c r="M66" s="33" t="s">
-        <v>4006</v>
+        <v>3316</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>4005</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>36</v>
+        <v>486</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>37</v>
+        <v>485</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>487</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>38</v>
+        <v>1007</v>
       </c>
       <c r="F67" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>2968</v>
+        <v>3659</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1854</v>
+        <v>36</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>1856</v>
+        <v>38</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>1858</v>
+        <v>600</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>2968</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>2968</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>3318</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>1900</v>
+        <v>1855</v>
       </c>
       <c r="B69" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="M69" s="35" t="s">
-        <v>4009</v>
+        <v>1854</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="M69" s="33" t="s">
+        <v>4008</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B70" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D70" s="27"/>
       <c r="M70" s="35" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="M71" s="35" t="s">
         <v>4010</v>
       </c>
     </row>
@@ -16928,7 +16951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -25978,8 +26001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="4337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="4349">
   <si>
     <t>LABEL</t>
   </si>
@@ -13515,6 +13515,42 @@
   </si>
   <si>
     <t>STOP</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_H1</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_H2</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_H3</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_C1</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_C2</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_C3</t>
+  </si>
+  <si>
+    <t>HOT CLASSIC FOAM</t>
+  </si>
+  <si>
+    <t>HOT FLUFFY FOAM</t>
+  </si>
+  <si>
+    <t>HOT BARISTA FOAM</t>
+  </si>
+  <si>
+    <t>COLD CLASSIC FOAM</t>
+  </si>
+  <si>
+    <t>COLD FLUFFY FOAM</t>
+  </si>
+  <si>
+    <t>COLD BARISTA FOAM</t>
   </si>
 </sst>
 </file>
@@ -14154,7 +14190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -24383,16 +24419,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
@@ -25989,6 +26025,54 @@
       </c>
       <c r="M41" s="40" t="s">
         <v>4108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>4348</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="4349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="4353">
   <si>
     <t>LABEL</t>
   </si>
@@ -13551,6 +13551,18 @@
   </si>
   <si>
     <t>COLD BARISTA FOAM</t>
+  </si>
+  <si>
+    <t>$LAB_ENTER_PROG</t>
+  </si>
+  <si>
+    <t>ENTER PROGRAMMING</t>
+  </si>
+  <si>
+    <t>$LAB_EXIT_PROG</t>
+  </si>
+  <si>
+    <t>EXIT PROGRAMMING</t>
   </si>
 </sst>
 </file>
@@ -14188,10 +14200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16972,6 +16984,22 @@
       <c r="D71" s="27"/>
       <c r="M71" s="35" t="s">
         <v>4010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4352</v>
       </c>
     </row>
   </sheetData>
@@ -24421,7 +24449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -26085,7 +26113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="4353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="4357">
   <si>
     <t>LABEL</t>
   </si>
@@ -13563,6 +13563,18 @@
   </si>
   <si>
     <t>EXIT PROGRAMMING</t>
+  </si>
+  <si>
+    <t>$LAB_DEV_CUP_SIZE_DETECTED</t>
+  </si>
+  <si>
+    <t>DETECTED CUP SIZE</t>
+  </si>
+  <si>
+    <t>$LAB_DEV_NO_CUP_DETECTED</t>
+  </si>
+  <si>
+    <t>NO CUP DETECTED</t>
   </si>
 </sst>
 </file>
@@ -14202,7 +14214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -18434,15 +18446,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -19633,6 +19645,22 @@
       </c>
       <c r="M30" s="33" t="s">
         <v>4289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>4356</v>
       </c>
     </row>
   </sheetData>

--- a/MenuProgTranslator/translations.xlsx
+++ b/MenuProgTranslator/translations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbrunelli\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rhea\rheaSRC\gpu-fts-nestle-2019\MenuProgTranslator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="9"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="uso comune" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="4335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="4357">
   <si>
     <t>LABEL</t>
   </si>
@@ -13509,6 +13509,72 @@
   </si>
   <si>
     <t>CUP SIZE</t>
+  </si>
+  <si>
+    <t>$LAB_STOP</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_H1</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_H2</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_H3</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_C1</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_C2</t>
+  </si>
+  <si>
+    <t>$LAB_MILKER2_TEMPLATE_C3</t>
+  </si>
+  <si>
+    <t>HOT CLASSIC FOAM</t>
+  </si>
+  <si>
+    <t>HOT FLUFFY FOAM</t>
+  </si>
+  <si>
+    <t>HOT BARISTA FOAM</t>
+  </si>
+  <si>
+    <t>COLD CLASSIC FOAM</t>
+  </si>
+  <si>
+    <t>COLD FLUFFY FOAM</t>
+  </si>
+  <si>
+    <t>COLD BARISTA FOAM</t>
+  </si>
+  <si>
+    <t>$LAB_ENTER_PROG</t>
+  </si>
+  <si>
+    <t>ENTER PROGRAMMING</t>
+  </si>
+  <si>
+    <t>$LAB_EXIT_PROG</t>
+  </si>
+  <si>
+    <t>EXIT PROGRAMMING</t>
+  </si>
+  <si>
+    <t>$LAB_DEV_CUP_SIZE_DETECTED</t>
+  </si>
+  <si>
+    <t>DETECTED CUP SIZE</t>
+  </si>
+  <si>
+    <t>$LAB_DEV_NO_CUP_DETECTED</t>
+  </si>
+  <si>
+    <t>NO CUP DETECTED</t>
   </si>
 </sst>
 </file>
@@ -14146,10 +14212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -16463,327 +16529,303 @@
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A58" t="s">
-        <v>497</v>
+        <v>4335</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="C58" t="s">
-        <v>499</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>995</v>
-      </c>
-      <c r="F58" t="s">
-        <v>995</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>1378</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>1957</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>3653</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>2298</v>
-      </c>
-      <c r="K58" s="18" t="s">
-        <v>2964</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>3309</v>
-      </c>
-      <c r="M58" s="33" t="s">
-        <v>3999</v>
-      </c>
+        <v>4336</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="18"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A59" t="s">
+        <v>497</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="F59" t="s">
+        <v>995</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>3653</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>2298</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>2964</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>3309</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A60" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D60" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E60" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>996</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="H59" s="21" t="s">
+      <c r="H60" s="21" t="s">
         <v>1958</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I60" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="J60" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="K59" s="18" t="s">
+      <c r="K60" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="L59" s="18" t="s">
+      <c r="L60" s="18" t="s">
         <v>3310</v>
       </c>
-      <c r="M59" s="34" t="s">
+      <c r="M60" s="34" t="s">
         <v>4000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>997</v>
-      </c>
-      <c r="F60" t="s">
-        <v>998</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>1959</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>3654</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>2299</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>2299</v>
-      </c>
-      <c r="L60" s="18" t="s">
-        <v>3311</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>4001</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>490</v>
+        <v>96</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>488</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>489</v>
+        <v>98</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>645</v>
+        <v>97</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F61" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>2965</v>
+        <v>2299</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>3312</v>
-      </c>
-      <c r="M61" s="33" t="s">
-        <v>4002</v>
+        <v>3311</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>4001</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C62" t="s">
+        <v>489</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>3655</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>2965</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>3312</v>
+      </c>
+      <c r="M62" s="33" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>484</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D63" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E63" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>1002</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>1961</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I63" s="18" t="s">
         <v>3656</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J63" s="18" t="s">
         <v>2301</v>
       </c>
-      <c r="K62" s="18" t="s">
+      <c r="K63" s="18" t="s">
         <v>2966</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="L63" s="18" t="s">
         <v>3313</v>
       </c>
-      <c r="M62" s="33" t="s">
+      <c r="M63" s="33" t="s">
         <v>4003</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D64" s="27" t="s">
         <v>647</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E64" s="18" t="s">
         <v>1003</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>1004</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>1383</v>
       </c>
-      <c r="H63" s="21" t="s">
+      <c r="H64" s="21" t="s">
         <v>1962</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I64" s="18" t="s">
         <v>3657</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J64" s="18" t="s">
         <v>2302</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L64" s="18" t="s">
         <v>3314</v>
       </c>
-      <c r="M63" s="33" t="s">
+      <c r="M64" s="33" t="s">
         <v>4004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>1963</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>3658</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>2303</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L64" s="18" t="s">
-        <v>3315</v>
-      </c>
-      <c r="M64" s="36" t="s">
-        <v>4005</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F65" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>1384</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>3658</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="M65" s="36" t="s">
         <v>4005</v>
@@ -16791,128 +16833,185 @@
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>486</v>
+        <v>106</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>485</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F66" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>2967</v>
+        <v>104</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>3317</v>
-      </c>
-      <c r="M66" s="33" t="s">
-        <v>4006</v>
+        <v>3316</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>4005</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>36</v>
+        <v>486</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>37</v>
+        <v>485</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>487</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>38</v>
+        <v>1007</v>
       </c>
       <c r="F67" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>2968</v>
+        <v>3659</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1854</v>
+        <v>36</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="C68" t="s">
-        <v>1856</v>
+        <v>38</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>1858</v>
+        <v>600</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>1966</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>2968</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>2968</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>3318</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>1900</v>
+        <v>1855</v>
       </c>
       <c r="B69" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="M69" s="35" t="s">
-        <v>4009</v>
+        <v>1854</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="M69" s="33" t="s">
+        <v>4008</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B70" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D70" s="27"/>
       <c r="M70" s="35" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="M71" s="35" t="s">
         <v>4010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4352</v>
       </c>
     </row>
   </sheetData>
@@ -16928,8 +17027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -18347,15 +18446,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -19546,6 +19645,22 @@
       </c>
       <c r="M30" s="33" t="s">
         <v>4289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>4356</v>
       </c>
     </row>
   </sheetData>
@@ -24360,16 +24475,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
@@ -25968,6 +26083,54 @@
         <v>4108</v>
       </c>
     </row>
+    <row r="42" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="4" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="4" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>4348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -25978,8 +26141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
